--- a/aapl_sec_filings.xlsx
+++ b/aapl_sec_filings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komendra sahu\Dropbox\PC\Desktop\DVA-sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ECAAD2-6609-42B0-9E69-1D3A6BF16BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60534ED0-73B3-4FDE-81DE-7BA8254106E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="48">
   <si>
     <t>Form &amp; File</t>
   </si>
@@ -56,13 +56,121 @@
   </si>
   <si>
     <t>the company's discussion and analysis of its financial condition and operating results require the company's management to make judgments, assumptions and estimates that affect the amounts reported. note 1, “summary of significant accounting policies” of the notes to condensed consolidated financial statements in part i, item 1 of this form 10-q and in the notes to consolidated financial statements in part ii, item 8 of the 2024 form 10-k describe the significant accounting policies and methods used in the preparation of the company's condensed consolidated financial statements. there have been no material changes to the company's critical accounting estimates since the 2024 form 10-k. operating expenses operating expenses for the three- and nine-month periods ended june 28, 2025 and june 29, 2024, were as follows (dollars in millions): three months ended nine months ended june 28, 2025 june 29, 2024 june 28, 2025 june 29, 2024 research and development 8,866 8,006 25,684 23,605 percentage of total net sales 9 % 9 % 8 % 8 % selling, general and administrative 6,650 6,320 20,553 19,574 percentage of total net sales 7 % 7 % 7 % 7 % total operating expenses 15,516 14,326 46,237 43,179 percentage of total net sales 17 % 17 % 15 % 15 % research and development the growth in research and development (“r&amp;d”) expense during the third quarter and first nine months of 2025 compared to the same periods in 2024 was driven primarily by increases in headcount-related expenses and infrastructure-related costs. selling, general and administrative the growth in selling, general and administrative expense during the third quarter and first nine months of 2025 compared to the same periods in 2024 was driven primarily by increases in headcount-related expenses and variable selling expenses. provision for income taxes provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and nine-month periods ended june 28, 2025 and june 29, 2024, were as follows (dollars in millions): three months ended nine months ended june 28, 2025 june 29, 2024 june 28, 2025 june 29, 2024 provision for income taxes 4,597 4,046 15,381 14,875 effective tax rate 16.4 % 15.9 % 15.4 % 15.8 % statutory federal income tax rate 21 % 21 % 21 % 21 % the company's effective tax rate for the third quarter of 2025 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, the impact of the u.s. federal r&amp;d credit, and tax benefits...'</t>
+  </si>
+  <si>
+    <t>Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This Item and other sections of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of macroeconomic conditions and tariffs and other trade measures on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the 2024 Form 10-K and Part II, Item 1A of this Form 10-Q, in each case under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. The following discussion should be read in conjunction with the 2024 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on corporate governance, and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. During the second quarter of 2025, the Company announced the following new or updated products: •iPhone 16e •iPad Air® •iPad •MacBook Air® •Mac Studio® Macroeconomic Conditions Macroeconomic conditions, including inflation, interest rates and currency fluctuations, have directly and indirectly impacted, and could in the future materially impact, the Company’s results of operations and financial condition. Apple Inc. | Q2 2025 Form 10-Q | 12 Tariffs and Other Trade Measures Beginning in the second quarter of 2025, new tariffs were announced on imports to the U.S. (“U.S. Tariffs”), including additional tariffs on imports from China, India, Japan, South Korea, Taiwan, Vietnam and the European Union (“EU”), among others. In response, several countries have imposed, or threatened to impose, reciprocal tariffs on imports from the U.S. and other retaliatory measures. Various modifications and delays to the U.S. Tariffs have been announced and further changes are expected to be made in the future, which may include additional sector-based tariffs or other measures. For example, the U.S. Department of Commerce has initiated an investigation under Section 232 of the Trade Expansion Act of 1962, as amended, into, among other things, imports of semiconductors, semiconductor manufacturing equipment, and their derivative products, including downstream products that contain semiconductors. Tariffs and other measures that are applied to the Company’s products or their components can have a material adverse impact on the Company’s business, results of operations and financial condition, including impacting the Company’s supply chain, the availability of rare earths and other raw materials and components, pricing and gross margin. The ultimate impact remains uncertain and will depend on several factors, including whether additional or incremental U.S. Tariffs or other measures are announced or imposed, to what extent other countries implement tariffs or other retaliatory measures in response, and the overall magnitude and duration of these measures. Trade and other international disputes can have an adverse impact on the overall macroeconomic environment and result in shifts and reductions in consumer spending and negative consumer sentiment for the Company’s products and services, all of which can further adversely affect the Company’s business and results of operations. Segment Operating Performance The following table shows net sales by reportable segment for the three- and six-month periods ended March 29, 2025 and March 30, 2024 (dollars in millions): Three Months Ended Six Months Ended March 29, 2025 March 30, 2024 Change March 29, 2025 March 30, 2024 Change Americas $ 40,315 $ 37,273 8 % $ 92,963 $ 87,703 6 % Europe 24,454 24,123 1 % 58,315 54,520 7 % Greater China 16,002 16,372 (2) % 34,515 37,191 (7) % Japan 7,298 6,262 17 % 16,285 14,029 16 % Rest of Asia Pacific 7,290 6,723 8 % 17,581 16,885 4 % Total net sales $ 95,359 $ 90,753 5 % $ 219,659 $ 210,328 4 % Americas Americas net sales increased during the second quarter and first six months of 2025 compared to the same periods in 2024 due primarily to higher net sales of iPhone and Services. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable year-over-year impact on Americas net sales during the second quarter and first six months of 2025. Europe Europe net sales were relatively flat during the second quarter of 2025 compared to the second quarter of 2024. Year-over-year Europe net sales increased during the first six months of 2025 due primarily to higher net sales of Services, Mac and iPad. The weakness in foreign currencies relative to the U.S. dollar had a net unfavorable year-over-year impact on Europe net sales during the second quarter of 2025. Greater China Greater China net sales decreased during the first six months of 2025 compared to the same period in 2024 due to lower net sales of iPhone. The weakness in the renminbi relative to the U.S. dollar had an unfavorable year-over-year impact on Greater China net sales during the second quarter of 2025. Japan Japan net sales increased during the second quarter and first six months of 2025 compared to the same periods in 2024 due primarily to higher net sales of iPhone and Services. The weakness in the yen relative to the U.S. dollar had an unfavorable year-over-year impact on Japan net sales during the second quarter and first six months of 2025. Apple Inc. | Q2 2025 Form 10-Q | 13 Rest of Asia Pacific Rest of Asia Pacific net sales increased during the second quarter of 2025 compared to the second quarter of 2024 due primarily to higher net sales of Services and iPhone. Year-over-year Rest of Asia Pacific net sales increased during the first six months of 2025 due primarily to higher net sales of Services. Changes in foreign currencies relative to the U.S. dollar had a net unfavorable year-over-year impact on Rest of Asia Pacific net sales during the second quarter of 2025, while they had a net favorable impact during the first six months of 2025. Products and Services Performance The following table shows net sales by category for the three- and six-month periods ended March 29, 2025 and March 30, 2024 (dollars in millions): Three Months Ended Six Months Ended March 29, 2025 March 30, 2024 Change March 29, 2025 March 30, 2024 Change iPhone $ 46,841 $ 45,963 2 % $ 115,979 $ 115,665 — % Mac 7,949 7,451 7 % 16,936 15,231 11 % iPad 6,402 5,559 15 % 14,490 12,582 15 % Wearables, Home and Accessories 7,522 7,913 (5) % 19,269 19,866 (3) % Services 26,645 23,867 12 % 52,985 46,984 13 % Total net sales $ 95,359 $ 90,753 5 % $ 219,659 $ 210,328 4 % iPhone iPhone net sales increased during the second quarter of 2025 compared to the second quarter of 2024 due primarily to higher net sales of Pro models. Year-over-year iPhone net sales were relatively flat during the first six months of 2025. Mac Mac net sales increased during the second quarter and first six months of 2025 compared to the same periods in 2024 due primarily to higher net sales of both laptops and desktops. iPad iPad net sales increased during the second quarter and first six months of 2025 compared to the same periods in 2024 due primarily to higher net sales of iPad Air. Wearables, Home and Accessories Wearables, Home and Accessories net sales decreased during the second quarter and first six months of 2025 compared to the same periods in 2024 due primarily to lower net sales of Wearables. Services Services net sales increased during the second quarter and first six months of 2025 compared to the same periods in 2024 due primarily to higher net sales from advertising, the App Store® and cloud services. Apple Inc. | Q2 2025 Form 10-Q | 14 Gross Margin Products and Services gross margin and gross margin percentage for the three- and six-month periods ended March 29, 2025 and March 30, 2024 were as follows (dollars in millions): Three Months Ended Six Months Ended March 29, 2025 March 30, 2024 March 29, 2025 March 30, 2024 Gross margin: Products $ 24,684 $ 24,462 $ 63,197 $ 62,480 Services 20,183 17,809 39,945 34,646 Total gross margin $ 44,867 $ 42,271 $ 103,142 $ 97,126 Gross margin percentage: Products 35.9 % 36.6 % 37.9 % 38.3 % Services 75.7 % 74.6 % 75.4 % 73.7 % Total gross margin percentage 47.1 % 46.6 % 47.0 % 46.2 % Products Gross Margin Products gross margin was relatively flat during the second quarter of 2025 compared to the second quarter of 2024. Year-over-year Products gross margin increased during the first six months of 2025 due primarily to favorable costs, partially offset by a different mix of products and weakness in foreign currencies relative to the U.S. dollar. Products gross margin percentage decreased during the second quarter and first six months of 2025 compared to the same periods in 2024 due primarily to a different mix of products and weakness in foreign currencies relative to the U.S. dollar, partially offset by favorable costs. Services Gross Margin Services gross margin increased during the second quarter and first six months of 2025 compared to the same periods in 2024 due primarily to higher Services net sales. Services gross margin percentage increased during the second quarter and first six months of 2025 compared to the same periods in 2024 due primarily to a different mix of services, partially offset by higher Services costs and weakness in foreign currencies relative to the U.S. dollar. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2024 Form 10-K and Part II, Item 1A of this Form 10-Q, in each case under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Apple Inc. | Q2 2025 Form 10-Q | 15 Operating Expenses Operating expenses for the three- and six-month periods ended March 29, 2025 and March 30, 2024 were as follows (dollars in millions): Three Months Ended Six Months Ended March 29, 2025 March 30, 2024 March 29, 2025 March 30, 2024 Research and development $ 8,550 $ 7,903 $ 16,818 $ 15,599 Percentage of total net sales 9 % 9 % 8 % 7 % Selling, general and administrative $ 6,728 $ 6,468 $ 13,903 $ 13,254 Percentage of total net sales 7 % 7 % 6 % 6 % Total operating expenses $ 15,278 $ 14,371 $ 30,721 $ 28,853 Percentage of total net sales 16 % 16 % 14 % 14 % Research and Development The growth in research and development expense during the second quarter and first six months of 2025 compared to the same periods in 2024 was driven primarily by increases in headcount-related expenses and infrastructure-related costs. Selling, General and Administrative The growth in selling, general and administrative expense during the second quarter of 2025 compared to the second quarter of 2024 was driven primarily by increases in professional services and headcount-related expenses. Year-over-year selling, general and administrative expense increased during the first six months of 2025 due primarily to increases in variable selling expenses, headcount-related expenses and professional services. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and six-month periods ended March 29, 2025 and March 30, 2024 were as follows (dollars in millions): Three Months Ended Six Months Ended March 29, 2025 March 30, 2024 March 29, 2025 March 30, 2024 Provision for income taxes $ 4,530 $ 4,422 $ 10,784 $ 10,829 Effective tax rate 15.5 % 15.8 % 15.0 % 15.8 % Statutory federal income tax rate 21 % 21 % 21 % 21 % The Company’s effective tax rate for the second quarter of 2025 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, including the impact of changes in unrecognized tax benefits, partially offset by state income taxes. The Company’s effective tax rate for the first six months of 2025 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, including the impact of changes in unrecognized tax benefits, tax benefits from share-based compensation, the impact of foreign currency loss regulations issued by the U.S. Department of the Treasury in December 2024, and the tax impact from foreign currency revaluations related to the State Aid Decision. The Company’s effective tax rate for the second quarter of 2025 was lower compared to the second quarter of 2024 due primarily to the impact of changes in unrecognized tax benefits, partially offset by a higher effective tax rate on foreign earnings. The Company’s effective tax rate for the first six months of 2025 was lower compared to the same period in 2024 due primarily to the impact of changes in unrecognized tax benefits, the impact of foreign currency loss regulations issued by the U.S. Department of the Treasury in December 2024, and the tax impact from foreign currency revaluations related to the State Aid Decision, partially offset by a higher effective tax rate on foreign earnings. Apple Inc. | Q2 2025 Form 10-Q | 16 Liquidity and Capital Resources The Company believes its balances of cash, cash equivalents and marketable securities, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s contractual cash requirements have not changed materially since the 2024 Form 10-K, except for manufacturing purchase obligations and the State Aid Decision tax payable. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of March 29, 2025, the Company had manufacturing purchase obligations of $38.4 billion, which were payable within 12 months. State Aid Decision Tax Payable During the first six months of 2025, the Company released from escrow €14.2 billion or $15.4 billion to Ireland in connection with the State Aid Decision, which fully settled the obligation. Capital Return Program In addition to its contractual cash requirements, the Company has an authorized share repurchase program, under which the remaining availability was $40.8 billion as of March 29, 2025. On May 1, 2025, the Company announced the Board of Directors had authorized an additional program to repurchase up to $100 billion of the Company’s common stock. The programs do not obligate the Company to acquire a minimum amount of shares. On May 1, 2025, the Company also announced the Board of Directors raised the Company’s quarterly cash dividend from $0.25 to $0.26 per share, beginning with the dividend to be paid during the third quarter of 2025. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. During the second quarter of 2025, the Company repurchased $25.0 billion of its common stock and paid dividends and dividend equivalents of $3.8 billion. Recent Accounting Pronouncements Disaggregation of Income Statement Expenses In November 2024, the Financial Accounting Standards Board (the “FASB”) issued Accounting Standards Update (“ASU”) No. 2024-03, Income Statement—Reporting Comprehensive Income—Expense Disaggregation Disclosures (Subtopic 220-40): Disaggregation of Income Statement Expenses (“ASU 2024-03”) and in January 2025, the FASB issued ASU No. 2025-01, Income Statement—Reporting Comprehensive Income—Expense Disaggregation Disclosures (Subtopic 220-40): Clarifying the Effective Date, which clarified the effective date of ASU 2024-03. ASU 2024-03 will require the Company to disclose the amounts of purchases of inventory, employee compensation, depreciation and intangible asset amortization, as applicable, included in certain expense captions in the Consolidated Statements of Operations, as well as qualitatively describe remaining amounts included in those captions. ASU 2024-03 will also require the Company to disclose both the amount and the Company’s definition of selling expenses. The Company will adopt ASU 2024-03 in its fourth quarter of 2028 using a prospective transition method. Income Taxes In December 2023, the FASB issued ASU No. 2023-09, Income Taxes (Topic 740): Improvements to Income Tax Disclosures (“ASU 2023-09”), which will require the Company to disclose specified additional information in its income tax rate reconciliation and provide additional information for reconciling items that meet a quantitative threshold. ASU 2023-09 will also require the Company to disaggregate its income taxes paid disclosure by federal, state and foreign taxes, with further disaggregation required for significant individual jurisdictions. The Company will adopt ASU 2023-09 in its fourth quarter of 2026 using a prospective transition method. Apple Inc. | Q2 2025 Form 10-Q | 17 Segment Reporting In November 2023, the FASB issued ASU No. 2023-07, Segment Reporting (Topic 280): Improvements to Reportable Segment Disclosures (“ASU 2023-07”), which will require the Company to disclose segment expenses that are significant and regularly provided to the Company’s chief operating decision maker (“CODM”). In addition, ASU 2023-07 will require the Company to disclose the title and position of its CODM and how the CODM uses segment profit or loss information in assessing segment performance and deciding how to allocate resources. The Company will adopt ASU 2023-07 in its fourth quarter of 2025 using a retrospective transition method. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with GAAP and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2024 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting estimates since the 2024 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This Item and other sections of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of macroeconomic conditions on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the 2024 Form 10-K and Part II, Item 1A of this Form 10-Q, in each case under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. The following discussion should be read in conjunction with the 2024 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on environmental, social and governance matters, and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. During the first quarter of 2025, the Company announced the following product updates: •MacBook Pro® •Mac mini® •iMac® •iPad mini® Macroeconomic Conditions Macroeconomic conditions, including inflation, interest rates and currency fluctuations, have directly and indirectly impacted, and could in the future materially impact, the Company’s results of operations and financial condition. Apple Inc. | Q1 2025 Form 10-Q | 12 Segment Operating Performance The following table shows net sales by reportable segment for the three months ended December 28, 2024 and December 30, 2023 (dollars in millions): Three Months Ended December 28, 2024 December 30, 2023 Change Americas $ 52,648 $ 50,430 4 % Europe 33,861 30,397 11 % Greater China 18,513 20,819 (11) % Japan 8,987 7,767 16 % Rest of Asia Pacific 10,291 10,162 1 % Total net sales $ 124,300 $ 119,575 4 % Americas Americas net sales increased during the first quarter of 2025 compared to the same quarter in 2024 due primarily to higher net sales of Services and iPhone. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable year-over-year impact on Americas net sales during the first quarter of 2025. Europe Europe net sales increased during the first quarter of 2025 compared to the same quarter in 2024 due primarily to higher net sales of Services and iPhone. The strength in foreign currencies relative to the U.S. dollar had a net favorable year-over-year impact on Europe net sales during the first quarter of 2025. Greater China Greater China net sales decreased during the first quarter of 2025 compared to the same quarter in 2024 due to lower net sales of iPhone. The strength in the renminbi relative to the U.S. dollar had a favorable year-over-year impact on Greater China net sales during the first quarter of 2025. Japan Japan net sales increased during the first quarter of 2025 compared to the same quarter in 2024 due primarily to higher net sales of iPhone and Services. Rest of Asia Pacific Rest of Asia Pacific net sales were relatively flat during the first quarter of 2025 compared to the same quarter in 2024. Apple Inc. | Q1 2025 Form 10-Q | 13 Products and Services Performance The following table shows net sales by category for the three months ended December 28, 2024 and December 30, 2023 (dollars in millions): Three Months Ended December 28, 2024 December 30, 2023 Change iPhone $ 69,138 $ 69,702 (1) % Mac 8,987 7,780 16 % iPad 8,088 7,023 15 % Wearables, Home and Accessories 11,747 11,953 (2) % Services 26,340 23,117 14 % Total net sales $ 124,300 $ 119,575 4 % iPhone iPhone net sales were relatively flat during the first quarter of 2025 compared to the same quarter in 2024. Mac Mac net sales increased during the first quarter of 2025 compared to the same quarter in 2024 due primarily to higher net sales of laptops. iPad iPad net sales increased during the first quarter of 2025 compared to the same quarter in 2024 due primarily to higher net sales of iPad Air®. Wearables, Home and Accessories Wearables, Home and Accessories net sales decreased during the first quarter of 2025 compared to the same quarter in 2024 due primarily to lower net sales of Wearables. Services Services net sales increased during the first quarter of 2025 compared to the same quarter in 2024 due primarily to higher net sales from advertising, the App Store® and cloud services. Apple Inc. | Q1 2025 Form 10-Q | 14 Gross Margin Products and Services gross margin and gross margin percentage for the three months ended December 28, 2024 and December 30, 2023 were as follows (dollars in millions): Three Months Ended December 28, 2024 December 30, 2023 Gross margin: Products $ 38,513 $ 38,018 Services 19,762 16,837 Total gross margin $ 58,275 $ 54,855 Gross margin percentage: Products 39.3 % 39.4 % Services 75.0 % 72.8 % Total gross margin percentage 46.9 % 45.9 % Products Gross Margin Products gross margin and Products gross margin percentage were relatively flat during the first quarter of 2025 compared to the same quarter in 2024. Services Gross Margin Services gross margin increased during the first quarter of 2025 compared to the same quarter in 2024 due primarily to higher Services net sales and a different Services mix. Services gross margin percentage increased during the first quarter of 2025 compared to the same quarter in 2024 due primarily to a different Services mix, partially offset by higher Services costs. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2024 Form 10-K and Part II, Item 1A of this Form 10-Q, in each case under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Operating Expenses Operating expenses for the three months ended December 28, 2024 and December 30, 2023 were as follows (dollars in millions): Three Months Ended December 28, 2024 December 30, 2023 Research and development $ 8,268 $ 7,696 Percentage of total net sales 7 % 6 % Selling, general and administrative $ 7,175 $ 6,786 Percentage of total net sales 6 % 6 % Total operating expenses $ 15,443 $ 14,482 Percentage of total net sales 12 % 12 % Research and Development The growth in research and development expense during the first quarter of 2025 compared to the same quarter in 2024 was driven primarily by increases in headcount-related expenses and infrastructure-related costs. Selling, General and Administrative The growth in selling, general and administrative expense during the first quarter of 2025 compared to the same quarter in 2024 was driven primarily by higher variable selling expenses and increases in headcount-related expenses. Apple Inc. | Q1 2025 Form 10-Q | 15 Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three months ended December 28, 2024 and December 30, 2023 were as follows (dollars in millions): Three Months Ended December 28, 2024 December 30, 2023 Provision for income taxes $ 6,254 $ 6,407 Effective tax rate 14.7 % 15.9 % Statutory federal income tax rate 21 % 21 % The Company’s effective tax rate for the first quarter of 2025 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, tax benefits from share-based compensation, the impact of foreign currency loss regulations issued by the U.S. Department of the Treasury in December 2024, and the tax impact from foreign currency revaluations related to the State Aid Decision. The Company’s effective tax rate for the first quarter of 2025 was lower compared to the same quarter in 2024 due primarily to the impact of foreign currency loss regulations issued by the U.S. Department of the Treasury in December 2024 and the tax impact from foreign currency revaluations related to the State Aid Decision, partially offset by a higher effective tax rate on foreign earnings. Liquidity and Capital Resources The Company believes its balances of unrestricted cash, cash equivalents and marketable securities, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s contractual cash requirements have not changed materially since the 2024 Form 10-K, except for commercial paper, manufacturing purchase obligations and the State Aid Decision tax payable. Commercial Paper The Company issues unsecured short-term promissory notes pursuant to a commercial paper program. As of December 28, 2024, the Company had $2.0 billion of commercial paper outstanding, which was payable within 12 months. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of December 28, 2024, the Company had manufacturing purchase obligations of $39.8 billion, which were payable within 12 months. State Aid Decision Tax Payable During the first quarter of 2025, the Company paid €11.0 billion or $11.9 billion to Ireland in connection with the State Aid Decision. As of December 28, 2024, the Company had a remaining obligation to pay €3.3 billion or $3.4 billion, which was expected to be paid within 12 months. The funds necessary to settle the remaining obligation were held in escrow as of December 28, 2024, and restricted from general use. Capital Return Program In addition to its contractual cash requirements, the Company has an authorized share repurchase program. The program does not obligate the Company to acquire a minimum amount of shares. As of December 28, 2024, the Company’s quarterly cash dividend was $0.25 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. During the first quarter of 2025, the Company repurchased $23.3 billion of its common stock and paid dividends and dividend equivalents of $3.9 billion. Apple Inc. | Q1 2025 Form 10-Q | 16 Recent Accounting Pronouncements Disaggregation of Income Statement Expenses In November 2024, the Financial Accounting Standards Board (the “FASB”) issued Accounting Standards Update (“ASU”) No. 2024-03, Income Statement—Reporting Comprehensive Income—Expense Disaggregation Disclosures (Subtopic 220-40): Disaggregation of Income Statement Expenses (“ASU 2024-03”) and in January 2025, the FASB issued ASU No. 2025-01, Income Statement—Reporting Comprehensive Income—Expense Disaggregation Disclosures (Subtopic 220-40): Clarifying the Effective Date, which clarified the effective date of ASU 2024-03. ASU 2024-03 will require the Company to disclose the amounts of purchases of inventory, employee compensation, depreciation and intangible asset amortization, as applicable, included in certain expense captions in the Consolidated Statements of Operations, as well as qualitatively describe remaining amounts included in those captions. ASU 2024-03 will also require the Company to disclose both the amount and the Company’s definition of selling expenses. The Company will adopt ASU 2024-03 in its fourth quarter of 2028 using a prospective transition method. Income Taxes In December 2023, the FASB issued ASU No. 2023-09, Income Taxes (Topic 740): Improvements to Income Tax Disclosures (“ASU 2023-09”), which will require the Company to disclose specified additional information in its income tax rate reconciliation and provide additional information for reconciling items that meet a quantitative threshold. ASU 2023-09 will also require the Company to disaggregate its income taxes paid disclosure by federal, state and foreign taxes, with further disaggregation required for significant individual jurisdictions. The Company will adopt ASU 2023-09 in its fourth quarter of 2026 using a prospective transition method. Segment Reporting In November 2023, the FASB issued ASU No. 2023-07, Segment Reporting (Topic 280): Improvements to Reportable Segment Disclosures (“ASU 2023-07”), which will require the Company to disclose segment expenses that are significant and regularly provided to the Company’s chief operating decision maker (“CODM”). In addition, ASU 2023-07 will require the Company to disclose the title and position of its CODM and how the CODM uses segment profit or loss information in assessing segment performance and deciding how to allocate resources. The Company will adopt ASU 2023-07 in its fourth quarter of 2025 using a retrospective transition method. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with GAAP and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2024 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting estimates since the 2024 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This Item and other sections of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of macroeconomic conditions on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the 2023 Form 10-K and Part II, Item 1A of this Form 10-Q, in each case under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. The following discussion should be read in conjunction with the 2023 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on environmental, social and governance matters, and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. During the third quarter of 2024, the Company announced the following product and operating system updates: •iPad Air®; •iPad Pro®; •iOS 18, macOS® Sequoia, iPadOS® 18, watchOS® 11, visionOS™ 2 and tvOS® 18. The Company also announced Apple Intelligence™, a personal intelligence system that uses generative models, which will be available on certain iPhone, Mac and iPad devices. Apple Intelligence is deeply integrated into iOS 18, macOS Sequoia and iPadOS 18. Fiscal Period The Company’s fiscal year is the 52- or 53-week period that ends on the last Saturday of September. An additional week is included in the first fiscal quarter every five or six years to realign the Company’s fiscal quarters with calendar quarters, which occurred in the first quarter of 2023. The Company’s fiscal years 2024 and 2023 span 52 and 53 weeks, respectively. Macroeconomic Conditions Macroeconomic conditions, including inflation, interest rates and currency fluctuations, have directly and indirectly impacted, and could in the future materially impact, the Company’s results of operations and financial condition. Apple Inc. | Q3 2024 Form 10-Q | 13 Segment Operating Performance The following table shows net sales by reportable segment for the three- and nine-month periods ended June 29, 2024 and July 1, 2023 (dollars in millions): Three Months Ended Nine Months Ended June 29, 2024 July 1, 2023 Change June 29, 2024 July 1, 2023 Change Net sales by reportable segment: Americas $ 37,678 $ 35,383 6 % $ 125,381 $ 122,445 2 % Europe 21,884 20,205 8 % 76,404 71,831 6 % Greater China 14,728 15,758 (7) % 51,919 57,475 (10) % Japan 5,097 4,821 6 % 19,126 18,752 2 % Rest of Asia Pacific 6,390 5,630 13 % 23,275 23,284 — % Total net sales $ 85,777 $ 81,797 5 % $ 296,105 $ 293,787 1 % Americas Americas net sales increased during the third quarter of 2024 compared to the third quarter of 2023 due primarily to higher net sales of Services and iPad. Year-over-year Americas net sales increased during the first nine months of 2024 due primarily to higher net sales of Services, partially offset by lower net sales of iPhone and Wearables, Home and Accessories. The strength in foreign currencies relative to the U.S. dollar had a net favorable year-over-year impact on Americas net sales during the first nine months of 2024. Europe Europe net sales increased during the third quarter of 2024 compared to the third quarter of 2023 due primarily to higher net sales of Services and iPad. The weakness in foreign currencies relative to the U.S. dollar had a net unfavorable year-over-year impact on Europe net sales during the third quarter of 2024. Year-over-year Europe net sales increased during the first nine months of 2024 due primarily to higher net sales of Services and iPhone, partially offset by lower net sales of Wearables, Home and Accessories. Greater China Greater China net sales decreased during the third quarter of 2024 compared to the third quarter of 2023 due primarily to lower net sales of iPhone. Year-over-year Greater China net sales decreased during the first nine months of 2024 due primarily to lower net sales of iPhone and iPad. The weakness in the renminbi relative to the U.S. dollar had an unfavorable year-over-year impact on Greater China net sales during the third quarter and first nine months of 2024. Japan Japan net sales increased during the third quarter of 2024 compared to the third quarter of 2023 due primarily to higher net sales of iPhone and iPad. Year-over-year Japan net sales increased during the first nine months of 2024 due primarily to higher net sales of iPhone, partially offset by lower net sales of Wearables, Home and Accessories. The weakness in the yen relative to the U.S. dollar had an unfavorable year-over-year impact on Japan net sales during the third quarter and first nine months of 2024. Rest of Asia Pacific Rest of Asia Pacific net sales increased during the third quarter of 2024 compared to the third quarter of 2023 due primarily to higher net sales of Services, iPhone and iPad. Year-over-year Rest of Asia Pacific net sales were relatively flat during the first nine months of 2024. The weakness in foreign currencies relative to the U.S. dollar had a net unfavorable year-over-year impact on Rest of Asia Pacific net sales during the third quarter and first nine months of 2024. Apple Inc. | Q3 2024 Form 10-Q | 14 Products and Services Performance The following table shows net sales by category for the three- and nine-month periods ended June 29, 2024 and July 1, 2023 (dollars in millions): Three Months Ended Nine Months Ended June 29, 2024 July 1, 2023 Change June 29, 2024 July 1, 2023 Change Net sales by category: iPhone $ 39,296 $ 39,669 (1) % $ 154,961 $ 156,778 (1) % Mac 7,009 6,840 2 % 22,240 21,743 2 % iPad 7,162 5,791 24 % 19,744 21,857 (10) % Wearables, Home and Accessories 8,097 8,284 (2) % 27,963 30,523 (8) % Services 24,213 21,213 14 % 71,197 62,886 13 % Total net sales $ 85,777 $ 81,797 5 % $ 296,105 $ 293,787 1 % iPhone iPhone net sales were relatively flat during the third quarter and first nine months of 2024 compared to the same periods in 2023. Mac Mac net sales increased during the third quarter and first nine months of 2024 compared to the same periods in 2023 due to higher net sales of laptops. iPad iPad net sales increased during the third quarter of 2024 compared to the third quarter of 2023 due primarily to higher net sales of iPad Pro and iPad Air. Year-over-year iPad net sales decreased during the first nine months of 2024 due primarily to lower net sales of iPad 9th generation and iPad Pro, partially offset by higher net sales of iPad 10th generation. Wearables, Home and Accessories Wearables, Home and Accessories net sales decreased during the third quarter of 2024 compared to the third quarter of 2023 due primarily to lower net sales of Wearables. Year-over-year Wearables, Home and Accessories net sales decreased during the first nine months of 2024 due primarily to lower net sales of Wearables and Accessories. Services Services net sales increased during the third quarter and first nine months of 2024 compared to the same periods in 2023 due primarily to higher net sales from advertising, the App Store® and cloud services. Apple Inc. | Q3 2024 Form 10-Q | 15 Gross Margin Products and Services gross margin and gross margin percentage for the three- and nine-month periods ended June 29, 2024 and July 1, 2023 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 29, 2024 July 1, 2023 June 29, 2024 July 1, 2023 Gross margin: Products $ 21,761 $ 21,448 $ 84,241 $ 84,205 Services 17,917 14,965 52,563 44,516 Total gross margin $ 39,678 $ 36,413 $ 136,804 $ 128,721 Gross margin percentage: Products 35.3 % 35.4 % 37.5 % 36.5 % Services 74.0 % 70.5 % 73.8 % 70.8 % Total gross margin percentage 46.3 % 44.5 % 46.2 % 43.8 % Products Gross Margin Products gross margin was relatively flat during the third quarter and first nine months of 2024 compared to the same periods in 2023. Products gross margin percentage was relatively flat during the third quarter of 2024 compared to the third quarter of 2023. Year-over-year Products gross margin percentage increased during the first nine months of 2024 due primarily to cost savings, partially offset by a different Products mix and the weakness in foreign currencies relative to the U.S. dollar. Services Gross Margin Services gross margin increased during the third quarter and first nine months of 2024 compared to the same periods in 2023 due primarily to higher Services net sales. Services gross margin percentage increased during the third quarter and first nine months of 2024 compared to the same periods in 2023 due primarily to a different Services mix. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2023 Form 10-K and Part II, Item 1A of this Form 10-Q, in each case under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Operating Expenses Operating expenses for the three- and nine-month periods ended June 29, 2024 and July 1, 2023 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 29, 2024 July 1, 2023 June 29, 2024 July 1, 2023 Research and development $ 8,006 $ 7,442 $ 23,605 $ 22,608 Percentage of total net sales 9 % 9 % 8 % 8 % Selling, general and administrative $ 6,320 $ 5,973 $ 19,574 $ 18,781 Percentage of total net sales 7 % 7 % 7 % 6 % Total operating expenses $ 14,326 $ 13,415 $ 43,179 $ 41,389 Percentage of total net sales 17 % 16 % 15 % 14 % Research and Development The growth in research and development (“R&amp;D”) expense during the third quarter and first nine months of 2024 compared to the same periods in 2023 was driven primarily by increases in headcount-related expenses. Apple Inc. | Q3 2024 Form 10-Q | 16 Selling, General and Administrative Selling, general and administrative expense increased $347 million during the third quarter of 2024 and $793 million during the first nine months of 2024 compared to the same periods in 2023. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and nine-month periods ended June 29, 2024 and July 1, 2023 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 29, 2024 July 1, 2023 June 29, 2024 July 1, 2023 Provision for income taxes $ 4,046 $ 2,852 $ 14,875 $ 12,699 Effective tax rate 15.9 % 12.5 % 15.8 % 14.6 % Statutory federal income tax rate 21 % 21 % 21 % 21 % The Company’s effective tax rate for the third quarter and first nine months of 2024 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, the impact of the U.S. federal R&amp;D credit, and tax benefits from share-based compensation, partially offset by state income taxes. The Company’s effective tax rate for the third quarter and first nine months of 2024 was higher compared to the same periods in 2023 due primarily to a higher effective tax rate on foreign earnings and lower tax benefits from share-based compensation, partially offset by lower state income taxes. Liquidity and Capital Resources The Company believes its balances of cash, cash equivalents and unrestricted marketable securities, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s contractual cash requirements have not changed materially since the 2023 Form 10-K, except for manufacturing purchase obligations. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of June 29, 2024, the Company had manufacturing purchase obligations of $38.4 billion, with $38.3 billion payable within 12 months. Capital Return Program In addition to its contractual cash requirements, the Company has authorized share repurchase programs. The programs do not obligate the Company to acquire a minimum amount of shares. As of June 29, 2024, the Company’s quarterly cash dividend was $0.25 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. During the third quarter of 2024, the Company repurchased $26.0 billion of its common stock and paid dividends and dividend equivalents of $3.9 billion. Recent Accounting Pronouncements Income Taxes In December 2023, the Financial Accounting Standards Board (the “FASB”) issued Accounting Standards Update (“ASU”) No. 2023-09, Income Taxes (Topic 740): Improvements to Income Tax Disclosures (“ASU 2023-09”), which will require the Company to disclose specified additional information in its income tax rate reconciliation and provide additional information for reconciling items that meet a quantitative threshold. ASU 2023-09 will also require the Company to disaggregate its income taxes paid disclosure by federal, state and foreign taxes, with further disaggregation required for significant individual jurisdictions. The Company will adopt ASU 2023-09 in its fourth quarter of 2026 using a prospective transition method. Apple Inc. | Q3 2024 Form 10-Q | 17 Segment Reporting In November 2023, the FASB issued ASU No. 2023-07, Segment Reporting (Topic 280): Improvements to Reportable Segment Disclosures (“ASU 2023-07”), which will require the Company to disclose segment expenses that are significant and regularly provided to the Company’s chief operating decision maker (“CODM”). In addition, ASU 2023-07 will require the Company to disclose the title and position of its CODM and how the CODM uses segment profit or loss information in assessing segment performance and deciding how to allocate resources. The Company will adopt ASU 2023-07 in its fourth quarter of 2025 using a retrospective transition method. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with GAAP and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2023 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting estimates since the 2023 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>Item 7. Management’s Discussion and Analysis of Financial Condition and Results of Operations The following discussion should be read in conjunction with the consolidated financial statements and accompanying notes included in Part II, Item 8 of this Form 10-K. This Item generally discusses 2024 and 2023 items and year-to-year comparisons between 2024 and 2023. Discussions of 2022 items and year-to-year comparisons between 2023 and 2022 are not included, and can be found in “Management’s Discussion and Analysis of Financial Condition and Results of Operations” in Part II, Item 7 of the Company’s Annual Report on Form 10-K for the fiscal year ended September 30, 2023. Product, Service and Software Announcements The Company announces new product, service and software offerings at various times during the year. Significant announcements during fiscal year 2024 included the following: First Quarter 2024: •MacBook Pro 14-in.; •MacBook Pro 16-in.; and •iMac. Second Quarter 2024: •MacBook Air 13-in.; and •MacBook Air 15-in. Third Quarter 2024: •iPad Air; •iPad Pro; •iOS 18, macOS Sequoia, iPadOS 18, watchOS 11, visionOS 2 and tvOS 18, updates to the Company’s operating systems; and •Apple Intelligence™, a personal intelligence system that uses generative models. Fourth Quarter 2024: •iPhone 16, iPhone 16 Plus, iPhone 16 Pro and iPhone 16 Pro Max; •Apple Watch Series 10; and •AirPods 4. Fiscal Period The Company’s fiscal year is the 52- or 53-week period that ends on the last Saturday of September. An additional week is included in the first fiscal quarter every five or six years to realign the Company’s fiscal quarters with calendar quarters, which occurred in the first quarter of 2023. The Company’s fiscal years 2024 and 2022 spanned 52 weeks each, whereas fiscal year 2023 spanned 53 weeks. Macroeconomic Conditions Macroeconomic conditions, including inflation, interest rates and currency fluctuations, have directly and indirectly impacted, and could in the future materially impact, the Company’s results of operations and financial condition. Apple Inc. | 2024 Form 10-K | 21 Segment Operating Performance The following table shows net sales by reportable segment for 2024, 2023 and 2022 (dollars in millions): 2024 Change 2023 Change 2022 Americas $ 167,045 3 % $ 162,560 (4) % $ 169,658 Europe 101,328 7 % 94,294 (1) % 95,118 Greater China 66,952 (8) % 72,559 (2) % 74,200 Japan 25,052 3 % 24,257 (7) % 25,977 Rest of Asia Pacific 30,658 4 % 29,615 1 % 29,375 Total net sales $ 391,035 2 % $ 383,285 (3) % $ 394,328 Americas Americas net sales increased during 2024 compared to 2023 due primarily to higher net sales of Services. Europe Europe net sales increased during 2024 compared to 2023 due primarily to higher net sales of Services and iPhone. Greater China Greater China net sales decreased during 2024 compared to 2023 due primarily to lower net sales of iPhone and iPad. The weakness in the renminbi relative to the U.S. dollar had an unfavorable year-over-year impact on Greater China net sales during 2024. Japan Japan net sales increased during 2024 compared to 2023 due primarily to higher net sales of iPhone. The weakness in the yen relative to the U.S. dollar had an unfavorable year-over-year impact on Japan net sales during 2024. Rest of Asia Pacific Rest of Asia Pacific net sales increased during 2024 compared to 2023 due primarily to higher net sales of Services. The weakness in foreign currencies relative to the U.S. dollar had a net unfavorable year-over-year impact on Rest of Asia Pacific net sales during 2024. Apple Inc. | 2024 Form 10-K | 22 Products and Services Performance The following table shows net sales by category for 2024, 2023 and 2022 (dollars in millions): 2024 Change 2023 Change 2022 iPhone $ 201,183 — % $ 200,583 (2) % $ 205,489 Mac 29,984 2 % 29,357 (27) % 40,177 iPad 26,694 (6) % 28,300 (3) % 29,292 Wearables, Home and Accessories 37,005 (7) % 39,845 (3) % 41,241 Services (1) 96,169 13 % 85,200 9 % 78,129 Total net sales $ 391,035 2 % $ 383,285 (3) % $ 394,328 (1)Services net sales include amortization of the deferred value of services bundled in the sales price of certain products. iPhone iPhone net sales were relatively flat during 2024 compared to 2023. Mac Mac net sales increased during 2024 compared to 2023 due primarily to higher net sales of laptops. iPad iPad net sales decreased during 2024 compared to 2023 due primarily to lower net sales of iPad Pro and the entry-level iPad models, partially offset by higher net sales of iPad Air. Wearables, Home and Accessories Wearables, Home and Accessories net sales decreased during 2024 compared to 2023 due primarily to lower net sales of Wearables and Accessories. Services Services net sales increased during 2024 compared to 2023 due primarily to higher net sales from advertising, the App Store® and cloud services. Apple Inc. | 2024 Form 10-K | 23 Gross Margin Products and Services gross margin and gross margin percentage for 2024, 2023 and 2022 were as follows (dollars in millions): 2024 2023 2022 Gross margin: Products $ 109,633 $ 108,803 $ 114,728 Services 71,050 60,345 56,054 Total gross margin $ 180,683 $ 169,148 $ 170,782 Gross margin percentage: Products 37.2 % 36.5 % 36.3 % Services 73.9 % 70.8 % 71.7 % Total gross margin percentage 46.2 % 44.1 % 43.3 % Products Gross Margin Products gross margin and Products gross margin percentage increased during 2024 compared to 2023 due to cost savings, partially offset by a different Products mix and the weakness in foreign currencies relative to the U.S. dollar. Services Gross Margin Services gross margin increased during 2024 compared to 2023 due primarily to higher Services net sales. Services gross margin percentage increased during 2024 compared to 2023 due to a different Services mix. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of this Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Operating Expenses Operating expenses for 2024, 2023 and 2022 were as follows (dollars in millions): 2024 Change 2023 Change 2022 Research and development $ 31,370 5 % $ 29,915 14 % $ 26,251 Percentage of total net sales 8 % 8 % 7 % Selling, general and administrative $ 26,097 5 % $ 24,932 (1) % $ 25,094 Percentage of total net sales 7 % 7 % 6 % Total operating expenses $ 57,467 5 % $ 54,847 7 % $ 51,345 Percentage of total net sales 15 % 14 % 13 % Research and Development The growth in R&amp;D expense during 2024 compared to 2023 was driven primarily by increases in headcount-related expenses. Selling, General and Administrative Selling, general and administrative expense increased $1.2 billion during 2024 compared to 2023. Apple Inc. | 2024 Form 10-K | 24 Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for 2024, 2023 and 2022 were as follows (dollars in millions): 2024 2023 2022 Provision for income taxes $ 29,749 $ 16,741 $ 19,300 Effective tax rate 24.1 % 14.7 % 16.2 % Statutory federal income tax rate 21 % 21 % 21 % The Company’s effective tax rate for 2024 was higher than the statutory federal income tax rate due primarily to a one-time income tax charge of $10.2 billion, net, related to the State Aid Decision (refer to Note 7, “Income Taxes” in the Notes to Consolidated Financial Statements in Part II, Item 8 of this Form 10-K) and state income taxes, partially offset by a lower effective tax rate on foreign earnings, the impact of the U.S. federal R&amp;D credit, and tax benefits from share-based compensation. The Company’s effective tax rate for 2024 was higher compared to 2023 due primarily to a one-time income tax charge of $10.2 billion, net, related to the State Aid Decision, a higher effective tax rate on foreign earnings and lower tax benefits from share-based compensation. Liquidity and Capital Resources The Company believes its balances of unrestricted cash, cash equivalents and marketable securities, which totaled $140.8 billion as of September 28, 2024, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s material cash requirements include the following contractual obligations: Debt As of September 28, 2024, the Company had outstanding fixed-rate notes with varying maturities for an aggregate principal amount of $97.3 billion (collectively the “Notes”), with $10.9 billion payable within 12 months. Future interest payments associated with the Notes total $38.5 billion, with $2.6 billion payable within 12 months. The Company also issues unsecured short-term promissory notes pursuant to a commercial paper program. As of September 28, 2024, the Company had $10.0 billion of commercial paper outstanding, all of which was payable within 12 months. Leases The Company has lease arrangements for certain equipment and facilities, including corporate, data center, manufacturing and retail space. As of September 28, 2024, the Company had fixed lease payment obligations of $15.6 billion, with $2.0 billion payable within 12 months. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of September 28, 2024, the Company had manufacturing purchase obligations of $53.0 billion, with $52.9 billion payable within 12 months. Other Purchase Obligations The Company’s other purchase obligations primarily consist of noncancelable obligations to acquire capital assets, including assets related to product manufacturing, and noncancelable obligations related to supplier arrangements, licensed intellectual property and content, and distribution rights. As of September 28, 2024, the Company had other purchase obligations of $12.0 billion, with $4.1 billion payable within 12 months. Deemed Repatriation Tax Payable As of September 28, 2024, the balance of the deemed repatriation tax payable imposed by the U.S. Tax Cuts and Jobs Act of 2017 (the “TCJA”) was $16.5 billion, with $7.2 billion expected to be paid within 12 months. Apple Inc. | 2024 Form 10-K | 25 State Aid Decision Tax Payable As of September 28, 2024, the Company had an obligation to pay €14.2 billion or $15.8 billion to Ireland in connection with the State Aid Decision, all of which was expected to be paid within 12 months. The funds necessary to settle the obligation were held in escrow as of September 28, 2024, and restricted from general use. Capital Return Program In addition to its contractual cash requirements, the Company has an authorized share repurchase program. The program does not obligate the Company to acquire a minimum amount of shares. As of September 28, 2024, the Company’s quarterly cash dividend was $0.25 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board. In May 2024, the Company announced a new share repurchase program of up to $110 billion and raised its quarterly dividend from $0.24 to $0.25 per share beginning in May 2024. During 2024, the Company repurchased $95.0 billion of its common stock and paid dividends and dividend equivalents of $15.2 billion. Recent Accounting Pronouncements Income Taxes In December 2023, the Financial Accounting Standards Board (the “FASB”) issued Accounting Standards Update (“ASU”) No. 2023-09, Income Taxes (Topic 740): Improvements to Income Tax Disclosures (“ASU 2023-09”), which will require the Company to disclose specified additional information in its income tax rate reconciliation and provide additional information for reconciling items that meet a quantitative threshold. ASU 2023-09 will also require the Company to disaggregate its income taxes paid disclosure by federal, state and foreign taxes, with further disaggregation required for significant individual jurisdictions. The Company will adopt ASU 2023-09 in its fourth quarter of 2026 using a prospective transition method. Segment Reporting In November 2023, the FASB issued ASU No. 2023-07, Segment Reporting (Topic 280): Improvements to Reportable Segment Disclosures (“ASU 2023-07”), which will require the Company to disclose segment expenses that are significant and regularly provided to the Company’s chief operating decision maker (“CODM”). In addition, ASU 2023-07 will require the Company to disclose the title and position of its CODM and how the CODM uses segment profit or loss information in assessing segment performance and deciding how to allocate resources. The Company will adopt ASU 2023-07 in its fourth quarter of 2025 using a retrospective transition method. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles (“GAAP”) and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to Consolidated Financial Statements in Part II, Item 8 of this Form 10-K describes the significant accounting policies and methods used in the preparation of the Company’s consolidated financial statements. Management bases its estimates on historical experience and on various other assumptions it believes to be reasonable under the circumstances, the results of which form the basis for making judgments about the carrying values of assets and liabilities. Uncertain Tax Positions The Company is subject to income taxes in the U.S. and numerous foreign jurisdictions. The evaluation of the Company’s uncertain tax positions involves significant judgment in the interpretation and application of GAAP and complex domestic and international tax laws, including the TCJA and the allocation of international taxation rights between countries. Although management believes the Company’s reserves are reasonable, no assurance can be given that the final outcome of these uncertainties will not be different from that reflected in the Company’s reserves. Reserves are adjusted considering changing facts and circumstances, such as the closing of a tax examination. Resolution of these uncertainties in a manner inconsistent with management’s expectations could have a material impact on the Company’s financial condition and operating results. Legal and Other Contingencies The Company is subject to various legal proceedings and claims that arise in the ordinary course of business, the outcomes of which are inherently uncertain. The Company records a liability when it is probable that a loss has been incurred and the amount is reasonably estimable, the determination of which requires significant judgment. Resolution of legal matters in a manner inconsistent with management’s expectations could have a material impact on the Company’s financial condition and operating results.'</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This Item and other sections of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of macroeconomic conditions on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the 2023 Form 10-K under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. The following discussion should be read in conjunction with the 2023 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on environmental, social and governance matters, and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. During the second quarter of 2024, the Company announced an updated MacBook Air® 13-in. and MacBook Air 15-in. Fiscal Period The Company’s fiscal year is the 52- or 53-week period that ends on the last Saturday of September. An additional week is included in the first fiscal quarter every five or six years to realign the Company’s fiscal quarters with calendar quarters, which occurred in the first quarter of 2023. The Company’s fiscal years 2024 and 2023 span 52 and 53 weeks, respectively. Macroeconomic Conditions Macroeconomic conditions, including inflation, interest rates and currency fluctuations, have directly and indirectly impacted, and could in the future materially impact, the Company’s results of operations and financial condition. Apple Inc. | Q2 2024 Form 10-Q | 13 Segment Operating Performance The following table shows net sales by reportable segment for the three- and six-month periods ended March 30, 2024 and April 1, 2023 (dollars in millions): Three Months Ended Six Months Ended March 30, 2024 April 1, 2023 Change March 30, 2024 April 1, 2023 Change Net sales by reportable segment: Americas $ 37,273 $ 37,784 (1) % $ 87,703 $ 87,062 1 % Europe 24,123 23,945 1 % 54,520 51,626 6 % Greater China 16,372 17,812 (8) % 37,191 41,717 (11) % Japan 6,262 7,176 (13) % 14,029 13,931 1 % Rest of Asia Pacific 6,723 8,119 (17) % 16,885 17,654 (4) % Total net sales $ 90,753 $ 94,836 (4) % $ 210,328 $ 211,990 (1) % Americas Americas net sales were relatively flat during the second quarter of 2024 compared to the second quarter of 2023, with lower net sales of iPhone and iPad offset by higher net sales of Services. Year-over-year Americas net sales were relatively flat during the first six months of 2024, with higher net sales of Services offset by lower net sales of iPhone and iPad. The strength in foreign currencies relative to the U.S. dollar had a net favorable year-over-year impact on Americas net sales during the second quarter and first six months of 2024. Europe Europe net sales were relatively flat during the second quarter of 2024 compared to the second quarter of 2023, with higher net sales of Services offset by lower net sales of iPhone. The weakness in foreign currencies relative to the U.S. dollar had a net unfavorable year-over-year impact on Europe net sales during the second quarter of 2024. Year-over-year Europe net sales increased during the first six months of 2024 due primarily to higher net sales of iPhone and Services, partially offset by lower net sales of iPad. Greater China Greater China net sales decreased during the second quarter and first six months of 2024 compared to the same periods in 2023 due primarily to lower net sales of iPhone and iPad. The weakness in the renminbi relative to the U.S. dollar had an unfavorable year-over-year impact on Greater China net sales during the second quarter and first six months of 2024. Japan Japan net sales decreased during the second quarter of 2024 compared to the second quarter of 2023 due primarily to lower net sales of iPhone. Year-over-year Japan net sales during the first six months of 2024 were relatively flat. The weakness in the yen relative to the U.S. dollar had an unfavorable year-over-year impact on Japan net sales during the second quarter and first six months of 2024. Rest of Asia Pacific Rest of Asia Pacific net sales decreased during the second quarter of 2024 compared to the second quarter of 2023 due primarily to lower net sales of iPhone. Year-over-year Rest of Asia Pacific net sales decreased during the first six months of 2024 due primarily to lower net sales of Wearables, Home and Accessories and iPad. Apple Inc. | Q2 2024 Form 10-Q | 14 Products and Services Performance The following table shows net sales by category for the three- and six-month periods ended March 30, 2024 and April 1, 2023 (dollars in millions): Three Months Ended Six Months Ended March 30, 2024 April 1, 2023 Change March 30, 2024 April 1, 2023 Change Net sales by category: iPhone $ 45,963 $ 51,334 (10) % $ 115,665 $ 117,109 (1) % Mac 7,451 7,168 4 % 15,231 14,903 2 % iPad 5,559 6,670 (17) % 12,582 16,066 (22) % Wearables, Home and Accessories 7,913 8,757 (10) % 19,866 22,239 (11) % Services 23,867 20,907 14 % 46,984 41,673 13 % Total net sales $ 90,753 $ 94,836 (4) % $ 210,328 $ 211,990 (1) % iPhone iPhone net sales decreased during the second quarter of 2024 compared to the second quarter of 2023 due to lower net sales of Pro models. Year-over-year iPhone net sales were relatively flat during the first six months of 2024. Mac Mac net sales increased during the second quarter and first six months of 2024 compared to the same periods in 2023 due to higher net sales of laptops. iPad iPad net sales decreased during the second quarter and first six months of 2024 compared to the same periods in 2023 due primarily to lower net sales of iPad Pro® and iPad 9th generation. Wearables, Home and Accessories Wearables, Home and Accessories net sales decreased during the second quarter and first six months of 2024 compared to the same periods in 2023 due primarily to lower net sales of Wearables and Accessories. Services Services net sales increased during the second quarter and first six months of 2024 compared to the same periods in 2023 due primarily to higher net sales from advertising, the App Store® and cloud services. Apple Inc. | Q2 2024 Form 10-Q | 15 Gross Margin Products and Services gross margin and gross margin percentage for the three- and six-month periods ended March 30, 2024 and April 1, 2023 were as follows (dollars in millions): Three Months Ended Six Months Ended March 30, 2024 April 1, 2023 March 30, 2024 April 1, 2023 Gross margin: Products $ 24,462 $ 27,134 $ 62,480 $ 62,757 Services 17,809 14,842 34,646 29,551 Total gross margin $ 42,271 $ 41,976 $ 97,126 $ 92,308 Gross margin percentage: Products 36.6 % 36.7 % 38.3 % 36.8 % Services 74.6 % 71.0 % 73.7 % 70.9 % Total gross margin percentage 46.6 % 44.3 % 46.2 % 43.5 % Products Gross Margin Products gross margin decreased during the second quarter of 2024 compared to the second quarter of 2023 due primarily to lower Products volume and the weakness in foreign currencies relative to the U.S. dollar. Year-over-year Products gross margin was relatively flat during the first six months of 2024. Products gross margin percentage was relatively flat during the second quarter of 2024 compared to the second quarter of 2023. Year-over-year Products gross margin percentage increased during the first six months of 2024 due primarily to cost savings, partially offset by the weakness in foreign currencies relative to the U.S. dollar. Services Gross Margin Services gross margin and Services gross margin percentage increased during the second quarter and first six months of 2024 compared to the same periods in 2023 due primarily to a different Services mix. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2023 Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Operating Expenses Operating expenses for the three- and six-month periods ended March 30, 2024 and April 1, 2023 were as follows (dollars in millions): Three Months Ended Six Months Ended March 30, 2024 April 1, 2023 March 30, 2024 April 1, 2023 Research and development $ 7,903 $ 7,457 $ 15,599 $ 15,166 Percentage of total net sales 9 % 8 % 7 % 7 % Selling, general and administrative $ 6,468 $ 6,201 $ 13,254 $ 12,808 Percentage of total net sales 7 % 7 % 6 % 6 % Total operating expenses $ 14,371 $ 13,658 $ 28,853 $ 27,974 Percentage of total net sales 16 % 14 % 14 % 13 % Research and Development The growth in research and development (“R&amp;D”) expense during the second quarter and first six months of 2024 compared to the same periods in 2023 was driven primarily by increases in headcount-related expenses. Apple Inc. | Q2 2024 Form 10-Q | 16 Selling, General and Administrative The growth in selling, general and administrative expense during the second quarter and first six months of 2024 compared to the same periods in 2023 was driven in part by higher infrastructure-related costs. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and six-month periods ended March 30, 2024 and April 1, 2023 were as follows (dollars in millions): Three Months Ended Six Months Ended March 30, 2024 April 1, 2023 March 30, 2024 April 1, 2023 Provision for income taxes $ 4,422 $ 4,222 $ 10,829 $ 9,847 Effective tax rate 15.8 % 14.9 % 15.8 % 15.4 % Statutory federal income tax rate 21 % 21 % 21 % 21 % The Company’s effective tax rate for the second quarter and first six months of 2024 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, the impact of the U.S. federal R&amp;D credit, and tax benefits from share-based compensation, partially offset by state income taxes. The Company’s effective tax rate for the second quarter and first six months of 2024 was higher compared to the same periods in 2023 due primarily to a higher effective tax rate on foreign earnings and a lower tax benefit from the U.S. federal R&amp;D credit. Liquidity and Capital Resources The Company believes its balances of cash, cash equivalents and unrestricted marketable securities, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s contractual cash requirements have not changed materially since the 2023 Form 10-K, except for manufacturing purchase obligations. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of March 30, 2024, the Company had manufacturing purchase obligations of $34.2 billion, with $34.1 billion payable within 12 months. Capital Return Program In addition to its contractual cash requirements, the Company has an authorized share repurchase program, under which the remaining availability was $30.1 billion as of March 30, 2024. On May 2, 2024, the Company announced the Board of Directors had authorized an additional program to repurchase up to $110 billion of the Company’s common stock. The programs do not obligate the Company to acquire a minimum amount of shares. On May 2, 2024, the Company also announced the Board of Directors raised the Company’s quarterly cash dividend from $0.24 to $0.25 per share, beginning with the dividend to be paid during the third quarter of 2024. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. During the second quarter of 2024, the Company repurchased $23.5 billion of its common stock and paid dividends and dividend equivalents of $3.7 billion. Apple Inc. | Q2 2024 Form 10-Q | 17 Recent Accounting Pronouncements Income Taxes In December 2023, the Financial Accounting Standards Board (the “FASB”) issued Accounting Standards Update (“ASU”) No. 2023-09, Income Taxes (Topic 740): Improvements to Income Tax Disclosures (“ASU 2023-09”), which will require the Company to disclose specified additional information in its income tax rate reconciliation and provide additional information for reconciling items that meet a quantitative threshold. ASU 2023-09 will also require the Company to disaggregate its income taxes paid disclosure by federal, state and foreign taxes, with further disaggregation required for significant individual jurisdictions. The Company will adopt ASU 2023-09 in its fourth quarter of 2026. ASU 2023-09 allows for adoption using either a prospective or retrospective transition method. Segment Reporting In November 2023, the FASB issued ASU No. 2023-07, Segment Reporting (Topic 280): Improvements to Reportable Segment Disclosures (“ASU 2023-07”), which will require the Company to disclose segment expenses that are significant and regularly provided to the Company’s chief operating decision maker (“CODM”). In addition, ASU 2023-07 will require the Company to disclose the title and position of its CODM and how the CODM uses segment profit or loss information in assessing segment performance and deciding how to allocate resources. The Company will adopt ASU 2023-07 in its fourth quarter of 2025 using a retrospective transition method. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with GAAP and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2023 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting estimates since the 2023 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This Item and other sections of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of macroeconomic conditions on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the 2023 Form 10-K under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. The following discussion should be read in conjunction with the 2023 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on environmental, social and governance matters, and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. Fiscal Period The Company’s fiscal year is the 52- or 53-week period that ends on the last Saturday of September. An additional week is included in the first fiscal quarter every five or six years to realign the Company’s fiscal quarters with calendar quarters, which occurred in the first quarter of 2023. The Company’s fiscal years 2024 and 2023 span 52 and 53 weeks, respectively. Quarterly Highlights The Company’s first quarter of 2024 included 13 weeks, compared to 14 weeks during the first quarter of 2023. The Company’s total net sales increased 2% or $2.4 billion during the first quarter of 2024 compared to the same quarter in 2023, driven primarily by higher net sales of iPhone and Services, partially offset by lower net sales of iPad and Wearables, Home and Accessories. During the first quarter of 2024, the Company announced an updated MacBook Pro® 14-in., MacBook Pro 16-in. and iMac®. The Company repurchased $20.5 billion of its common stock and paid dividends and dividend equivalents of $3.8 billion during the first quarter of 2024. Macroeconomic Conditions Macroeconomic conditions, including inflation, changes in interest rates, and currency fluctuations, have directly and indirectly impacted, and could in the future materially impact, the Company’s results of operations and financial condition. Apple Inc. | Q1 2024 Form 10-Q | 13 Segment Operating Performance The following table shows net sales by reportable segment for the three months ended December 30, 2023 and December 31, 2022 (dollars in millions): Three Months Ended December 30, 2023 December 31, 2022 Change Net sales by reportable segment: Americas $ 50,430 $ 49,278 2 % Europe 30,397 27,681 10 % Greater China 20,819 23,905 (13) % Japan 7,767 6,755 15 % Rest of Asia Pacific 10,162 9,535 7 % Total net sales $ 119,575 $ 117,154 2 % Americas Americas net sales increased 2% or $1.2 billion during the first quarter of 2024 compared to the same quarter in 2023 due primarily to higher net sales of Services and iPhone, partially offset by lower net sales of iPad. The strength in foreign currencies relative to the U.S. dollar had a net favorable year-over-year impact on Americas net sales during the first quarter of 2024. Europe Europe net sales increased 10% or $2.7 billion during the first quarter of 2024 compared to the same quarter in 2023 due primarily to higher net sales of iPhone. The strength in foreign currencies relative to the U.S. dollar had a net favorable year-over-year impact on Europe net sales during the first quarter of 2024. Greater China Greater China net sales decreased 13% or $3.1 billion during the first quarter of 2024 compared to the same quarter in 2023 due primarily to lower net sales of iPhone, iPad and Wearables, Home and Accessories. The weakness in the renminbi relative to the U.S. dollar had an unfavorable year-over-year impact on Greater China net sales during the first quarter of 2024. Japan Japan net sales increased 15% or $1.0 billion during the first quarter of 2024 compared to the same quarter in 2023 due primarily to higher net sales of iPhone. The weakness in the yen relative to the U.S. dollar had an unfavorable year-over-year impact on Japan net sales during the first quarter of 2024. Rest of Asia Pacific Rest of Asia Pacific net sales increased 7% or $627 million during the first quarter of 2024 compared to the same quarter in 2023 due primarily to higher net sales of iPhone, partially offset by lower net sales of Wearables, Home and Accessories. Apple Inc. | Q1 2024 Form 10-Q | 14 Products and Services Performance The following table shows net sales by category for the three months ended December 30, 2023 and December 31, 2022 (dollars in millions): Three Months Ended December 30, 2023 December 31, 2022 Change Net sales by category: iPhone $ 69,702 $ 65,775 6 % Mac 7,780 7,735 1 % iPad 7,023 9,396 (25) % Wearables, Home and Accessories 11,953 13,482 (11) % Services 23,117 20,766 11 % Total net sales $ 119,575 $ 117,154 2 % iPhone iPhone net sales increased 6% or $3.9 billion during the first quarter of 2024 compared to the same quarter in 2023 due primarily to higher net sales of Pro models, partially offset by lower net sales of other models. Mac Mac net sales were relatively flat during the first quarter of 2024 compared to the same quarter in 2023. iPad iPad net sales decreased 25% or $2.4 billion during the first quarter of 2024 compared to the same quarter in 2023 due primarily to lower net sales of iPad Pro, iPad 9th generation and iPad Air. Wearables, Home and Accessories Wearables, Home and Accessories net sales decreased 11% or $1.5 billion during the first quarter of 2024 compared to the same quarter in 2023 due primarily to lower net sales of Wearables and Accessories. Services Services net sales increased 11% or $2.4 billion during the first quarter of 2024 compared to the same quarter in 2023 due primarily to higher net sales from advertising, video and cloud services. Apple Inc. | Q1 2024 Form 10-Q | 15 Gross Margin Products and Services gross margin and gross margin percentage for the three months ended December 30, 2023 and December 31, 2022 were as follows (dollars in millions): Three Months Ended December 30, 2023 December 31, 2022 Gross margin: Products $ 38,018 $ 35,623 Services 16,837 14,709 Total gross margin $ 54,855 $ 50,332 Gross margin percentage: Products 39.4 % 37.0 % Services 72.8 % 70.8 % Total gross margin percentage 45.9 % 43.0 % Products Gross Margin Products gross margin increased during the first quarter of 2024 compared to the same quarter in 2023 due primarily to cost savings and a different Products mix, partially offset by the weakness in foreign currencies relative to the U.S. dollar and lower Products volume. Products gross margin percentage increased during the first quarter of 2024 compared to the same quarter in 2023 due primarily to cost savings and a different Products mix, partially offset by the weakness in foreign currencies relative to the U.S. dollar. Services Gross Margin Services gross margin increased during the first quarter of 2024 compared to the same quarter in 2023 due primarily to higher Services net sales and a different Services mix. Services gross margin percentage increased during the first quarter of 2024 compared to the same quarter in 2023 due primarily to a different Services mix. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2023 Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Apple Inc. | Q1 2024 Form 10-Q | 16 Operating Expenses Operating expenses for the three months ended December 30, 2023 and December 31, 2022 were as follows (dollars in millions): Three Months Ended December 30, 2023 December 31, 2022 Research and development $ 7,696 $ 7,709 Percentage of total net sales 6 % 7 % Selling, general and administrative $ 6,786 $ 6,607 Percentage of total net sales 6 % 6 % Total operating expenses $ 14,482 $ 14,316 Percentage of total net sales 12 % 12 % Research and Development Research and development (“R&amp;D”) expense was relatively flat during the first quarter of 2024 compared to the same quarter in 2023. Selling, General and Administrative Selling, general and administrative expense increased 3% or $179 million during the first quarter of 2024 compared to the same quarter in 2023. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three months ended December 30, 2023 and December 31, 2022 were as follows (dollars in millions): Three Months Ended December 30, 2023 December 31, 2022 Provision for income taxes $ 6,407 $ 5,625 Effective tax rate 15.9 % 15.8 % Statutory federal income tax rate 21 % 21 % The Company’s effective tax rate for the first quarter of 2024 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, tax benefits from share-based compensation, and the impact of the U.S. federal R&amp;D credit, partially offset by state income taxes. The Company’s effective tax rate for the first quarter of 2024 was relatively flat compared to the same quarter in 2023. Liquidity and Capital Resources The Company believes its balances of cash, cash equivalents and unrestricted marketable securities, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s contractual cash requirements have not changed materially since the 2023 Form 10-K, except for manufacturing purchase obligations. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of December 30, 2023, the Company had manufacturing purchase obligations of $38.0 billion, with $37.9 billion payable within 12 months. Apple Inc. | Q1 2024 Form 10-Q | 17 Capital Return Program In addition to its contractual cash requirements, the Company has an authorized share repurchase program. The program does not obligate the Company to acquire a minimum amount of shares. As of December 30, 2023, the Company’s quarterly cash dividend was $0.24 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Recent Accounting Pronouncements Income Taxes In December 2023, the Financial Accounting Standards Board (the “FASB”) issued Accounting Standards Update (“ASU”) No. 2023-09, Income Taxes (Topic 740): Improvements to Income Tax Disclosures (“ASU 2023-09”), which will require the Company to disclose specified additional information in its income tax rate reconciliation and provide additional information for reconciling items that meet a quantitative threshold. ASU 2023-09 will also require the Company to disaggregate its income taxes paid disclosure by federal, state and foreign taxes, with further disaggregation required for significant individual jurisdictions. The Company will adopt ASU 2023-09 in its fourth quarter of 2026. ASU 2023-09 allows for adoption using either a prospective or retrospective transition method. Segment Reporting In November 2023, the FASB issued ASU No. 2023-07, Segment Reporting (Topic 280): Improvements to Reportable Segment Disclosures (“ASU 2023-07”), which will require the Company to disclose segment expenses that are significant and regularly provided to the Company’s chief operating decision maker (“CODM”). In addition, ASU 2023-07 will require the Company to disclose the title and position of its CODM and how the CODM uses segment profit or loss information in assessing segment performance and deciding how to allocate resources. The Company will adopt ASU 2023-07 in its fourth quarter of 2025 using a retrospective transition method. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with GAAP and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2023 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting estimates since the 2023 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>Item 7. Management’s Discussion and Analysis of Financial Condition and Results of Operations The following discussion should be read in conjunction with the consolidated financial statements and accompanying notes included in Part II, Item 8 of this Form 10-K. This Item generally discusses 2023 and 2022 items and year-to-year comparisons between 2023 and 2022. Discussions of 2021 items and year-to-year comparisons between 2022 and 2021 are not included, and can be found in “Management’s Discussion and Analysis of Financial Condition and Results of Operations” in Part II, Item 7 of the Company’s Annual Report on Form 10-K for the fiscal year ended September 24, 2022. Fiscal Period The Company’s fiscal year is the 52- or 53-week period that ends on the last Saturday of September. An additional week is included in the first fiscal quarter every five or six years to realign the Company’s fiscal quarters with calendar quarters, which occurred in the first quarter of 2023. The Company’s fiscal year 2023 spanned 53 weeks, whereas fiscal years 2022 and 2021 spanned 52 weeks each. Fiscal Year Highlights The Company’s total net sales were $383.3 billion and net income was $97.0 billion during 2023. The Company’s total net sales decreased 3% or $11.0 billion during 2023 compared to 2022. The weakness in foreign currencies relative to the U.S. dollar accounted for more than the entire year-over-year decrease in total net sales, which consisted primarily of lower net sales of Mac and iPhone, partially offset by higher net sales of Services. The Company announces new product, service and software offerings at various times during the year. Significant announcements during fiscal year 2023 included the following: First Quarter 2023: •iPad and iPad Pro; •Next-generation Apple TV 4K; and •MLS Season Pass, a Major League Soccer subscription streaming service. Second Quarter 2023: •MacBook Pro 14”, MacBook Pro 16” and Mac mini; and •Second-generation HomePod. Third Quarter 2023: •MacBook Air 15”, Mac Studio and Mac Pro; •Apple Vision Pro™, the Company’s first spatial computer featuring its new visionOS™, expected to be available in early calendar year 2024; and •iOS 17, macOS Sonoma, iPadOS 17, tvOS 17 and watchOS 10, updates to the Company’s operating systems. Fourth Quarter 2023: •iPhone 15, iPhone 15 Plus, iPhone 15 Pro and iPhone 15 Pro Max; and •Apple Watch Series 9 and Apple Watch Ultra 2. In May 2023, the Company announced a new share repurchase program of up to $90 billion and raised its quarterly dividend from $0.23 to $0.24 per share beginning in May 2023. During 2023, the Company repurchased $76.6 billion of its common stock and paid dividends and dividend equivalents of $15.0 billion. Macroeconomic Conditions Macroeconomic conditions, including inflation, changes in interest rates, and currency fluctuations, have directly and indirectly impacted, and could in the future materially impact, the Company’s results of operations and financial condition. Apple Inc. | 2023 Form 10-K | 20 Segment Operating Performance The following table shows net sales by reportable segment for 2023, 2022 and 2021 (dollars in millions): 2023 Change 2022 Change 2021 Net sales by reportable segment: Americas $ 162,560 (4) % $ 169,658 11 % $ 153,306 Europe 94,294 (1) % 95,118 7 % 89,307 Greater China 72,559 (2) % 74,200 9 % 68,366 Japan 24,257 (7) % 25,977 (9) % 28,482 Rest of Asia Pacific 29,615 1 % 29,375 11 % 26,356 Total net sales $ 383,285 (3) % $ 394,328 8 % $ 365,817 Americas Americas net sales decreased 4% or $7.1 billion during 2023 compared to 2022 due to lower net sales of iPhone and Mac, partially offset by higher net sales of Services. Europe Europe net sales decreased 1% or $824 million during 2023 compared to 2022. The weakness in foreign currencies relative to the U.S. dollar accounted for more than the entire year-over-year decrease in Europe net sales, which consisted primarily of lower net sales of Mac and Wearables, Home and Accessories, partially offset by higher net sales of iPhone and Services. Greater China Greater China net sales decreased 2% or $1.6 billion during 2023 compared to 2022. The weakness in the renminbi relative to the U.S. dollar accounted for more than the entire year-over-year decrease in Greater China net sales, which consisted primarily of lower net sales of Mac and iPhone. Japan Japan net sales decreased 7% or $1.7 billion during 2023 compared to 2022. The weakness in the yen relative to the U.S. dollar accounted for more than the entire year-over-year decrease in Japan net sales, which consisted primarily of lower net sales of iPhone, Wearables, Home and Accessories and Mac. Rest of Asia Pacific Rest of Asia Pacific net sales increased 1% or $240 million during 2023 compared to 2022. The weakness in foreign currencies relative to the U.S. dollar had a significantly unfavorable year-over-year impact on Rest of Asia Pacific net sales. The net sales increase consisted of higher net sales of iPhone and Services, partially offset by lower net sales of Mac and iPad. Apple Inc. | 2023 Form 10-K | 21 Products and Services Performance The following table shows net sales by category for 2023, 2022 and 2021 (dollars in millions): 2023 Change 2022 Change 2021 Net sales by category: iPhone (1) $ 200,583 (2) % $ 205,489 7 % $ 191,973 Mac (1) 29,357 (27) % 40,177 14 % 35,190 iPad (1) 28,300 (3) % 29,292 (8) % 31,862 Wearables, Home and Accessories (1) 39,845 (3) % 41,241 7 % 38,367 Services (2) 85,200 9 % 78,129 14 % 68,425 Total net sales $ 383,285 (3) % $ 394,328 8 % $ 365,817 (1)Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2)Services net sales include amortization of the deferred value of services bundled in the sales price of certain products. iPhone iPhone net sales decreased 2% or $4.9 billion during 2023 compared to 2022 due to lower net sales of non-Pro iPhone models, partially offset by higher net sales of Pro iPhone models. Mac Mac net sales decreased 27% or $10.8 billion during 2023 compared to 2022 due primarily to lower net sales of laptops. iPad iPad net sales decreased 3% or $1.0 billion during 2023 compared to 2022 due primarily to lower net sales of iPad mini and iPad Air, partially offset by the combined net sales of iPad 9th and 10th generation. Wearables, Home and Accessories Wearables, Home and Accessories net sales decreased 3% or $1.4 billion during 2023 compared to 2022 due primarily to lower net sales of Wearables and Accessories. Services Services net sales increased 9% or $7.1 billion during 2023 compared to 2022 due to higher net sales across all lines of business. Apple Inc. | 2023 Form 10-K | 22 Gross Margin Products and Services gross margin and gross margin percentage for 2023, 2022 and 2021 were as follows (dollars in millions): 2023 2022 2021 Gross margin: Products $ 108,803 $ 114,728 $ 105,126 Services 60,345 56,054 47,710 Total gross margin $ 169,148 $ 170,782 $ 152,836 Gross margin percentage: Products 36.5 % 36.3 % 35.3 % Services 70.8 % 71.7 % 69.7 % Total gross margin percentage 44.1 % 43.3 % 41.8 % Products Gross Margin Products gross margin decreased during 2023 compared to 2022 due to the weakness in foreign currencies relative to the U.S. dollar and lower Products volume, partially offset by cost savings and a different Products mix. Products gross margin percentage increased during 2023 compared to 2022 due to cost savings and a different Products mix, partially offset by the weakness in foreign currencies relative to the U.S. dollar and decreased leverage. Services Gross Margin Services gross margin increased during 2023 compared to 2022 due primarily to higher Services net sales, partially offset by the weakness in foreign currencies relative to the U.S. dollar and higher Services costs. Services gross margin percentage decreased during 2023 compared to 2022 due to higher Services costs and the weakness in foreign currencies relative to the U.S. dollar, partially offset by a different Services mix. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of this Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Operating Expenses Operating expenses for 2023, 2022 and 2021 were as follows (dollars in millions): 2023 Change 2022 Change 2021 Research and development $ 29,915 14 % $ 26,251 20 % $ 21,914 Percentage of total net sales 8 % 7 % 6 % Selling, general and administrative $ 24,932 (1) % $ 25,094 14 % $ 21,973 Percentage of total net sales 7 % 6 % 6 % Total operating expenses $ 54,847 7 % $ 51,345 17 % $ 43,887 Percentage of total net sales 14 % 13 % 12 % Research and Development The year-over-year growth in R&amp;D expense in 2023 was driven primarily by increases in headcount-related expenses. Selling, General and Administrative Selling, general and administrative expense was relatively flat in 2023 compared to 2022. Apple Inc. | 2023 Form 10-K | 23 Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for 2023, 2022 and 2021 were as follows (dollars in millions): 2023 2022 2021 Provision for income taxes $ 16,741 $ 19,300 $ 14,527 Effective tax rate 14.7 % 16.2 % 13.3 % Statutory federal income tax rate 21 % 21 % 21 % The Company’s effective tax rate for 2023 and 2022 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, the impact of the U.S. federal R&amp;D credit, and tax benefits from share-based compensation, partially offset by state income taxes. The Company’s effective tax rate for 2023 was lower compared to 2022 due primarily to a lower effective tax rate on foreign earnings and the impact of U.S. foreign tax credit regulations issued by the U.S. Department of the Treasury in 2022, partially offset by lower tax benefits from share-based compensation. Liquidity and Capital Resources The Company believes its balances of cash, cash equivalents and unrestricted marketable securities, which totaled $148.3 billion as of September 30, 2023, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s material cash requirements include the following contractual obligations: Debt As of September 30, 2023, the Company had outstanding fixed-rate notes with varying maturities for an aggregate principal amount of $106.6 billion (collectively the “Notes”), with $9.9 billion payable within 12 months. Future interest payments associated with the Notes total $41.1 billion, with $2.9 billion payable within 12 months. The Company also issues unsecured short-term promissory notes pursuant to a commercial paper program. As of September 30, 2023, the Company had $6.0 billion of commercial paper outstanding, all of which was payable within 12 months. Leases The Company has lease arrangements for certain equipment and facilities, including corporate, data center, manufacturing and retail space. As of September 30, 2023, the Company had fixed lease payment obligations of $15.8 billion, with $2.0 billion payable within 12 months. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of September 30, 2023, the Company had manufacturing purchase obligations of $53.1 billion, with $52.9 billion payable within 12 months. The Company’s manufacturing purchase obligations are primarily noncancelable. Other Purchase Obligations The Company’s other purchase obligations primarily consist of noncancelable obligations to acquire capital assets, including assets related to product manufacturing, and noncancelable obligations related to supplier arrangements, licensed intellectual property and content, and distribution rights. As of September 30, 2023, the Company had other purchase obligations of $21.9 billion, with $5.6 billion payable within 12 months. Deemed Repatriation Tax Payable As of September 30, 2023, the balance of the deemed repatriation tax payable imposed by the U.S. Tax Cuts and Jobs Act of 2017 (the “Act”) was $22.0 billion, with $6.5 billion expected to be paid within 12 months. Apple Inc. | 2023 Form 10-K | 24 Capital Return Program In addition to its contractual cash requirements, the Company has an authorized share repurchase program. The program does not obligate the Company to acquire a minimum amount of shares. As of September 30, 2023, the Company’s quarterly cash dividend was $0.24 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles (“GAAP”) and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to Consolidated Financial Statements in Part II, Item 8 of this Form 10-K describes the significant accounting policies and methods used in the preparation of the Company’s consolidated financial statements. Management bases its estimates on historical experience and on various other assumptions it believes to be reasonable under the circumstances, the results of which form the basis for making judgments about the carrying values of assets and liabilities. Uncertain Tax Positions The Company is subject to income taxes in the U.S. and numerous foreign jurisdictions. The evaluation of the Company’s uncertain tax positions involves significant judgment in the interpretation and application of GAAP and complex domestic and international tax laws, including the Act and matters related to the allocation of international taxation rights between countries. Although management believes the Company’s reserves are reasonable, no assurance can be given that the final outcome of these uncertainties will not be different from that which is reflected in the Company’s reserves. Reserves are adjusted considering changing facts and circumstances, such as the closing of a tax examination. Resolution of these uncertainties in a manner inconsistent with management’s expectations could have a material impact on the Company’s financial condition and operating results. Legal and Other Contingencies The Company is subject to various legal proceedings and claims that arise in the ordinary course of business, the outcomes of which are inherently uncertain. The Company records a liability when it is probable that a loss has been incurred and the amount is reasonably estimable, the determination of which requires significant judgment. Resolution of legal matters in a manner inconsistent with management’s expectations could have a material impact on the Company’s financial condition and operating results.'</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of macroeconomic conditions on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the Company’s Annual Report on Form 10-K for the fiscal year ended September 24, 2022 (the “2022 Form 10-K”) under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The following discussion should be read in conjunction with the 2022 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on environmental, social and governance matters, and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. Fiscal Period The Company’s fiscal year is the 52- or 53-week period that ends on the last Saturday of September. An additional week is included in the first fiscal quarter every five or six years to realign the Company’s fiscal quarters with calendar quarters, which occurred in the first quarter of 2023. The Company’s fiscal years 2023 and 2022 span 53 and 52 weeks, respectively. Quarterly Highlights Weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on the Company’s total net sales, which decreased 1% or $1.2 billion during the third quarter of 2023 compared to the same quarter in 2022. The year-over-year net sales decrease consisted primarily of lower net sales of iPad and iPhone, partially offset by higher net sales of Services. During the third quarter of 2023, the Company announced the following new products: •15-inch MacBook Air®, powered by the M2 chip; •Mac Studio™, powered by the M2 Max chip and the new M2 Ultra chip; •Mac Pro®, powered by the new M2 Ultra chip; and •Apple Vision Pro™, the Company’s first spatial computer featuring its new visionOS™, expected to be available in early calendar year 2024. The Company also announced iOS 17, macOS® Sonoma, iPadOS® 17, tvOS® 17 and watchOS® 10, updates to its operating systems that are expected to be available in the fall of 2023. Apple Inc. | Q3 2023 Form 10-Q | 14 The Company repurchased $18.0 billion of its common stock and paid dividends and dividend equivalents of $3.8 billion during the third quarter of 2023. Macroeconomic Conditions Macroeconomic conditions, including inflation, changes in interest rates, and currency fluctuations, have directly and indirectly impacted, and could in the future materially impact, the Company’s results of operations and financial condition. Segment Operating Performance The following table shows net sales by reportable segment for the three- and nine-month periods ended July 1, 2023 and June 25, 2022 (dollars in millions): Three Months Ended Nine Months Ended July 1, 2023 June 25, 2022 Change July 1, 2023 June 25, 2022 Change Net sales by reportable segment: Americas $ 35,383 $ 37,472 (6) % $ 122,445 $ 129,850 (6) % Europe 20,205 19,287 5 % 71,831 72,323 (1) % Greater China 15,758 14,604 8 % 57,475 58,730 (2) % Japan 4,821 5,446 (11) % 18,752 20,277 (8) % Rest of Asia Pacific 5,630 6,150 (8) % 23,284 23,002 1 % Total net sales $ 81,797 $ 82,959 (1) % $ 293,787 $ 304,182 (3) % Americas Americas net sales decreased during the third quarter and first nine months of 2023 compared to the same periods in 2022 due primarily to lower net sales of iPhone and Mac, partially offset by higher net sales of Services. Europe The weakness in foreign currencies relative to the U.S. dollar had a net unfavorable year-over-year impact on Europe net sales during the third quarter and first nine months of 2023. During the third quarter of 2023, the Europe net sales increase consisted primarily of higher net sales of iPhone. During the first nine months of 2023, the Europe net sales decrease consisted primarily of lower net sales of Mac, partially offset by higher net sales of iPhone. Greater China The weakness in the renminbi relative to the U.S. dollar had an unfavorable year-over-year impact on Greater China net sales during the third quarter and first nine months of 2023. During the third quarter of 2023, the Greater China net sales increase consisted primarily of higher net sales of iPhone. During the first nine months of 2023, the Greater China net sales decrease consisted primarily of lower net sales of iPhone. Japan The weakness in the yen relative to the U.S. dollar had an unfavorable year-over-year impact on Japan net sales during the third quarter and first nine months of 2023. During the third quarter of 2023, the Japan net sales decrease consisted primarily of lower net sales of iPhone. During the first nine months of 2023, the Japan net sales decrease consisted primarily of lower net sales of iPhone, Services and Wearables, Home and Accessories. Rest of Asia Pacific The weakness in foreign currencies relative to the U.S. dollar had a net unfavorable year-over-year impact on Rest of Asia Pacific net sales during the third quarter and first nine months of 2023. During the third quarter of 2023, the Rest of Asia Pacific net sales decrease consisted primarily of lower net sales of iPhone and iPad. During the first nine months of 2023, the Rest of Asia Pacific net sales increase consisted primarily of higher net sales of iPhone, partially offset by lower net sales of Mac. Apple Inc. | Q3 2023 Form 10-Q | 15 Products and Services Performance The following table shows net sales by category for the three- and nine-month periods ended July 1, 2023 and June 25, 2022 (dollars in millions): Three Months Ended Nine Months Ended July 1, 2023 June 25, 2022 Change July 1, 2023 June 25, 2022 Change Net sales by category: iPhone $ 39,669 $ 40,665 (2) % $ 156,778 $ 162,863 (4) % Mac 6,840 7,382 (7) % 21,743 28,669 (24) % iPad 5,791 7,224 (20) % 21,857 22,118 (1) % Wearables, Home and Accessories 8,284 8,084 2 % 30,523 31,591 (3) % Services 21,213 19,604 8 % 62,886 58,941 7 % Total net sales $ 81,797 $ 82,959 (1) % $ 293,787 $ 304,182 (3) % iPhone iPhone net sales decreased during the third quarter and first nine months of 2023 compared to the same periods in 2022 due primarily to lower net sales from certain iPhone models, partially offset by higher net sales of iPhone 14 Pro models. Mac Mac net sales decreased during the third quarter and first nine months of 2023 compared to the same periods in 2022 due primarily to lower net sales of laptops. iPad iPad net sales decreased during the third quarter of 2023 compared to the third quarter of 2022 due primarily to lower net sales across most iPad models. Year-over-year iPad net sales were relatively flat during the first nine months of 2023. Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during the third quarter of 2023 compared to the third quarter of 2022 due primarily to higher net sales of Wearables, which includes AirPods®, Apple Watch® and Beats® products, partially offset by lower net sales of accessories. Year-over-year Wearables, Home and Accessories net sales decreased during the first nine months of 2023 due primarily to lower net sales of Wearables and accessories. Services Services net sales increased during the third quarter of 2023 compared to the third quarter of 2022 due primarily to higher net sales from advertising, cloud services and the App Store®. Year-over-year Services net sales increased during the first nine months of 2023 due primarily to higher net sales from cloud services, advertising and music. Apple Inc. | Q3 2023 Form 10-Q | 16 Gross Margin Products and Services gross margin and gross margin percentage for the three- and nine-month periods ended July 1, 2023 and June 25, 2022 were as follows (dollars in millions): Three Months Ended Nine Months Ended July 1, 2023 June 25, 2022 July 1, 2023 June 25, 2022 Gross margin: Products $ 21,448 $ 21,870 $ 84,205 $ 90,157 Services 14,965 14,015 44,516 42,530 Total gross margin $ 36,413 $ 35,885 $ 128,721 $ 132,687 Gross margin percentage: Products 35.4 % 34.5 % 36.5 % 36.8 % Services 70.5 % 71.5 % 70.8 % 72.2 % Total gross margin percentage 44.5 % 43.3 % 43.8 % 43.6 % Products Gross Margin Products gross margin decreased during the third quarter and first nine months of 2023 compared to the same periods in 2022 due primarily to the weakness in foreign currencies relative to the U.S. dollar and lower Products volume, partially offset by cost savings and a different Products mix. Products gross margin percentage increased during the third quarter of 2023 compared to the third quarter of 2022 due primarily to cost savings and a different Products mix, partially offset by the weakness in foreign currencies relative to the U.S. dollar and decreased leverage. Year-over-year Products gross margin percentage decreased during the first nine months of 2023 due primarily to the weakness in foreign currencies relative to the U.S. dollar and decreased leverage, partially offset by cost savings and a different Products mix. Services Gross Margin Services gross margin increased during the third quarter and first nine months of 2023 compared to the same periods in 2022 due primarily to higher Services net sales, partially offset by the weakness in foreign currencies relative to the U.S. dollar and higher Services costs. Services gross margin percentage decreased during the third quarter of 2023 compared to the third quarter of 2022 due primarily to higher Services costs, partially offset by improved leverage. Year-over-year Services gross margin percentage decreased during the first nine months of 2023 due primarily to higher Services costs and the weakness in foreign currencies relative to the U.S. dollar, partially offset by improved leverage. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2022 Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Apple Inc. | Q3 2023 Form 10-Q | 17 Operating Expenses Operating expenses for the three- and nine-month periods ended July 1, 2023 and June 25, 2022 were as follows (dollars in millions): Three Months Ended Nine Months Ended July 1, 2023 June 25, 2022 July 1, 2023 June 25, 2022 Research and development $ 7,442 $ 6,797 $ 22,608 $ 19,490 Percentage of total net sales 9 % 8 % 8 % 6 % Selling, general and administrative $ 5,973 $ 6,012 $ 18,781 $ 18,654 Percentage of total net sales 7 % 7 % 6 % 6 % Total operating expenses $ 13,415 $ 12,809 $ 41,389 $ 38,144 Percentage of total net sales 16 % 15 % 14 % 13 % Research and Development The growth in research and development (“R&amp;D”) expense during the third quarter and first nine months of 2023 compared to the same periods in 2022 was driven primarily by increases in headcount-related expenses. Selling, General and Administrative Selling, general and administrative expense was relatively flat during the third quarter and first nine months of 2023 compared to the same periods in 2022. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and nine-month periods ended July 1, 2023 and June 25, 2022 were as follows (dollars in millions): Three Months Ended Nine Months Ended July 1, 2023 June 25, 2022 July 1, 2023 June 25, 2022 Provision for income taxes $ 2,852 $ 3,624 $ 12,699 $ 15,364 Effective tax rate 12.5 % 15.7 % 14.6 % 16.3 % Statutory federal income tax rate 21 % 21 % 21 % 21 % The Company’s effective tax rate for the third quarter and first nine months of 2023 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, including the favorable impact of changes in unrecognized tax benefits, tax benefits from share-based compensation, and the U.S. federal R&amp;D credit, partially offset by state income taxes. The Company’s effective tax rate for the third quarter of 2023 was lower compared to the third quarter of 2022 due primarily to a lower effective tax rate on foreign earnings, including the favorable impact of changes in unrecognized tax benefits, partially offset by lower tax benefits from share-based compensation. The Company’s effective tax rate for the first nine months of 2023 was lower compared to the same period in 2022 due primarily to a lower effective tax rate on foreign earnings and the impact of U.S. foreign tax credit regulations issued by the U.S. Department of the Treasury in 2022, partially offset by lower tax benefits from share-based compensation. Apple Inc. | Q3 2023 Form 10-Q | 18 Liquidity and Capital Resources The Company believes its balances of cash, cash equivalents and unrestricted marketable securities, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s contractual cash requirements have not changed materially since the 2022 Form 10-K, except for manufacturing purchase obligations. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. Outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. As of July 1, 2023, the Company had manufacturing purchase obligations of $38.4 billion, with $38.1 billion payable within 12 months. The Company’s manufacturing purchase obligations are primarily noncancelable. Capital Return Program In addition to its contractual cash requirements, the Company had authorized share repurchase programs as of July 1, 2023. The programs do not obligate the Company to acquire a minimum amount of shares. As of July 1, 2023, the Company’s quarterly cash dividend was $0.24 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to condensed consolidated Financial Statements in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2022 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting estimates since the 2022 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of macroeconomic conditions on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the Company’s Annual Report on Form 10-K for the fiscal year ended September 24, 2022 (the “2022 Form 10-K”) under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The following discussion should be read in conjunction with the 2022 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on environmental, social and governance matters, and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. Fiscal Period The Company’s fiscal year is the 52- or 53-week period that ends on the last Saturday of September. An additional week is included in the first fiscal quarter every five or six years to realign the Company’s fiscal quarters with calendar quarters, which occurred in the first quarter of 2023. The Company’s fiscal years 2023 and 2022 span 53 and 52 weeks, respectively. Quarterly Highlights Weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on the Company’s total net sales, which decreased 3% or $2.4 billion during the second quarter of 2023 compared to the same quarter in 2022. The year-over-year net sales decrease consisted primarily of lower net sales of Mac, partially offset by higher net sales of Services. During the second quarter of 2023, the Company announced the following new products: •MacBook Pro® 14” and MacBook Pro 16”, powered by the Apple M2 Pro and M2 Max chip; •Mac mini®, powered by the Apple M2 and M2 Pro chip; and •Second-generation HomePod®. The Company repurchased $19.1 billion of its common stock and paid dividends and dividend equivalents of $3.7 billion during the second quarter of 2023. Apple Inc. | Q2 2023 Form 10-Q | 14 Macroeconomic Conditions Macroeconomic conditions, including inflation, changes in interest rates, and currency fluctuations, have directly and indirectly impacted, and could in the future materially impact, the Company’s results of operations and financial condition. Segment Operating Performance The following table shows net sales by reportable segment for the three- and six-month periods ended April 1, 2023 and March 26, 2022 (dollars in millions): Three Months Ended Six Months Ended April 1, 2023 March 26, 2022 Change April 1, 2023 March 26, 2022 Change Net sales by reportable segment: Americas $ 37,784 $ 40,882 (8) % $ 87,062 $ 92,378 (6) % Europe 23,945 23,287 3 % 51,626 53,036 (3) % Greater China 17,812 18,343 (3) % 41,717 44,126 (5) % Japan 7,176 7,724 (7) % 13,931 14,831 (6) % Rest of Asia Pacific 8,119 7,042 15 % 17,654 16,852 5 % Total net sales $ 94,836 $ 97,278 (3) % $ 211,990 $ 221,223 (4) % Americas Americas net sales decreased during the second quarter and first six months of 2023 compared to the same periods in 2022 due primarily to lower net sales of iPhone and Mac, partially offset by higher net sales of Services. Europe The weakness in foreign currencies relative to the U.S. dollar had a net unfavorable year-over-year impact on Europe net sales during the second quarter and first six months of 2023. During the second quarter of 2023, the Europe net sales increase consisted primarily of higher net sales of iPhone, partially offset by lower net sales of Mac. During the first six months of 2023, the Europe net sales decrease consisted primarily of lower net sales of Mac, partially offset by higher net sales of iPhone. Greater China The weakness in the renminbi relative to the U.S. dollar had an unfavorable year-over-year impact on Greater China net sales during the second quarter and first six months of 2023. During the second quarter and first six months of 2023, the Greater China net sales decrease consisted primarily of lower net sales of iPhone and Mac. Japan The weakness in the yen relative to the U.S. dollar had an unfavorable year-over-year impact on Japan net sales during the second quarter and first six months of 2023. During the second quarter of 2023, the Japan net sales decrease consisted primarily of lower net sales of iPad, Services and iPhone. During the first six months of 2023, the Japan net sales decrease consisted primarily of lower net sales of Services, Wearables, Home and Accessories and Mac. Rest of Asia Pacific The weakness in foreign currencies relative to the U.S. dollar had an unfavorable year-over-year impact on Rest of Asia Pacific net sales during the second quarter and first six months of 2023. During the second quarter and first six months of 2023, the Rest of Asia Pacific net sales increase consisted primarily of higher net sales of iPhone, partially offset by lower net sales of Mac. Apple Inc. | Q2 2023 Form 10-Q | 15 Products and Services Performance The following table shows net sales by category for the three- and six-month periods ended April 1, 2023 and March 26, 2022 (dollars in millions): Three Months Ended Six Months Ended April 1, 2023 March 26, 2022 Change April 1, 2023 March 26, 2022 Change Net sales by category: iPhone $ 51,334 $ 50,570 2 % $ 117,109 $ 122,198 (4) % Mac 7,168 10,435 (31) % 14,903 21,287 (30) % iPad 6,670 7,646 (13) % 16,066 14,894 8 % Wearables, Home and Accessories 8,757 8,806 (1) % 22,239 23,507 (5) % Services 20,907 19,821 5 % 41,673 39,337 6 % Total net sales $ 94,836 $ 97,278 (3) % $ 211,990 $ 221,223 (4) % iPhone iPhone net sales were relatively flat during the second quarter of 2023 compared to the second quarter of 2022. Year-over-year iPhone net sales decreased during the first six months of 2023 due primarily to lower net sales from the Company’s new iPhone models launched in the fourth quarter of 2022. Mac Mac net sales decreased during the second quarter and first six months of 2023 compared to the same periods in 2022 due primarily to lower net sales of MacBook Pro. iPad iPad net sales decreased during the second quarter of 2023 compared to the second quarter of 2022 due primarily to lower net sales of iPad Pro® and iPad Air®. Year-over-year iPad net sales increased during the first six months of 2023 due primarily to higher net sales of iPad, partially offset by lower net sales of iPad mini®. Wearables, Home and Accessories Wearables, Home and Accessories net sales were relatively flat during the second quarter of 2023 compared to the second quarter of 2022. Year-over-year Wearables, Home and Accessories net sales decreased during the first six months of 2023 due primarily to lower net sales of AirPods®. Services Services net sales increased during the second quarter and first six months of 2023 compared to the same periods in 2022 due primarily to higher net sales from cloud services, music and advertising. Apple Inc. | Q2 2023 Form 10-Q | 16 Gross Margin Products and Services gross margin and gross margin percentage for the three- and six-month periods ended April 1, 2023 and March 26, 2022 were as follows (dollars in millions): Three Months Ended Six Months Ended April 1, 2023 March 26, 2022 April 1, 2023 March 26, 2022 Gross margin: Products $ 27,134 $ 28,167 $ 62,757 $ 68,287 Services 14,842 14,392 29,551 28,515 Total gross margin $ 41,976 $ 42,559 $ 92,308 $ 96,802 Gross margin percentage: Products 36.7 % 36.4 % 36.8 % 37.5 % Services 71.0 % 72.6 % 70.9 % 72.5 % Total gross margin percentage 44.3 % 43.7 % 43.5 % 43.8 % Products Gross Margin Products gross margin decreased during the second quarter and first six months of 2023 compared to the same periods in 2022 due primarily to lower Products volume and the weakness in foreign currencies relative to the U.S. dollar, partially offset by a different Products mix. Products gross margin percentage increased during the second quarter of 2023 compared to the second quarter of 2022 due primarily to a different Products mix, partially offset by the weakness in foreign currencies relative to the U.S. dollar. Year-over-year Products gross margin percentage decreased during the first six months of 2023 due primarily to the weakness in foreign currencies relative to the U.S. dollar, partially offset by a different Products mix. Services Gross Margin Services gross margin increased during the second quarter and first six months of 2023 compared to the same periods in 2022 due primarily to higher Services net sales, partially offset by the weakness in foreign currencies relative to the U.S. dollar and higher Services costs. Services gross margin percentage decreased during the second quarter and first six months of 2023 compared to the same periods in 2022 due primarily to the weakness in foreign currencies relative to the U.S. dollar and higher Services costs, partially offset by improved leverage. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2022 Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Apple Inc. | Q2 2023 Form 10-Q | 17 Operating Expenses Operating expenses for the three- and six-month periods ended April 1, 2023 and March 26, 2022 were as follows (dollars in millions): Three Months Ended Six Months Ended April 1, 2023 March 26, 2022 April 1, 2023 March 26, 2022 Research and development $ 7,457 $ 6,387 $ 15,166 $ 12,693 Percentage of total net sales 8 % 7 % 7 % 6 % Selling, general and administrative $ 6,201 $ 6,193 $ 12,808 $ 12,642 Percentage of total net sales 7 % 6 % 6 % 6 % Total operating expenses $ 13,658 $ 12,580 $ 27,974 $ 25,335 Percentage of total net sales 14 % 13 % 13 % 11 % Research and Development The growth in research and development (“R&amp;D”) expense during the second quarter and first six months of 2023 compared to the same periods in 2022 was driven primarily by increases in headcount-related expenses. Selling, General and Administrative Selling, general and administrative expense was relatively flat during the second quarter and first six months of 2023 compared to the same periods in 2022. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and six-month periods ended April 1, 2023 and March 26, 2022 were as follows (dollars in millions): Three Months Ended Six Months Ended April 1, 2023 March 26, 2022 April 1, 2023 March 26, 2022 Provision for income taxes $ 4,222 $ 5,129 $ 9,847 $ 11,740 Effective tax rate 14.9 % 17.0 % 15.4 % 16.4 % Statutory federal income tax rate 21 % 21 % 21 % 21 % The Company’s effective tax rate for the second quarter of 2023 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings and the U.S. federal R&amp;D credit, partially offset by state income taxes. The Company’s effective tax rate for the first six months of 2023 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, the U.S. federal R&amp;D credit and tax benefits from share-based compensation, partially offset by state income taxes. The Company’s effective tax rate for the second quarter of 2023 was lower compared to the second quarter of 2022 due primarily to the impact of U.S. foreign tax credit regulations issued by the U.S. Department of the Treasury in 2022 and a higher U.S. federal R&amp;D credit. The Company’s effective tax rate for the first six months of 2023 was lower compared to the same period in 2022 due primarily to the impact of U.S. foreign tax credit regulations issued by the U.S. Department of the Treasury in 2022 and a higher U.S. federal R&amp;D credit, partially offset by lower tax benefits from share-based compensation. Liquidity and Capital Resources The Company believes its balances of cash, cash equivalents and unrestricted marketable securities, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s contractual cash requirements have not changed materially since the 2022 Form 10-K, except for commercial paper and manufacturing purchase obligations. Apple Inc. | Q2 2023 Form 10-Q | 18 Commercial Paper The Company issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. As of April 1, 2023, the Company had $2.0 billion of Commercial Paper outstanding, all of which was payable within 12 months. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. Outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. As of April 1, 2023, the Company had manufacturing purchase obligations of $40.5 billion, with $40.1 billion payable within 12 months. The Company’s manufacturing purchase obligations are primarily noncancelable. Capital Return Program In addition to its contractual cash requirements, the Company has an authorized share repurchase program, under which the remaining availability was $22.6 billion as of April 1, 2023. On May 4, 2023, the Company announced the Board of Directors had authorized an additional program to repurchase up to $90 billion of the Company’s common stock. The programs do not obligate the Company to acquire a minimum amount of shares. On May 4, 2023, the Company also announced the Board of Directors raised the Company’s quarterly cash dividend from $0.23 to $0.24 per share, beginning with the dividend to be paid during the third quarter of 2023. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to condensed consolidated Financial Statements in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2022 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting estimates since the 2022 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of the COVID-19 pandemic on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the Company’s Annual Report on Form 10-K for the fiscal year ended September 24, 2022 (the “2022 Form 10-K”) under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The following discussion should be read in conjunction with the 2022 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on environmental, social and governance matters, and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. Fiscal Period The Company’s fiscal year is the 52- or 53-week period that ends on the last Saturday of September. An additional week is included in the first fiscal quarter every five or six years to realign the Company’s fiscal quarters with calendar quarters, which occurred in the first quarter of 2023. The Company’s fiscal years 2023 and 2022 span 53 and 52 weeks, respectively. Quarterly Highlights Total net sales decreased 5% or $6.8 billion during the first quarter of 2023 compared to the same quarter in 2022 due to the weakness in foreign currencies relative to the U.S. dollar. The weakness in foreign currencies contributed to lower net sales of iPhone and Mac, which was partially offset by higher net sales of iPad. During the first quarter of 2023, the Company announced a new iPad, a new iPad Pro® powered by the Apple M2 chip, and a new Apple TV 4K. The Company repurchased $19.0 billion of its common stock and paid dividends and dividend equivalents of $3.8 billion during the first quarter of 2023. Apple Inc. | Q1 2023 Form 10-Q | 15 COVID-19 The COVID-19 pandemic has had, and continues to have, a significant impact around the world, prompting governments and businesses to take unprecedented measures, such as restrictions on travel and business operations, temporary closures of businesses, and quarantine and shelter-in-place orders. The COVID-19 pandemic has at times significantly curtailed global economic activity and caused significant volatility and disruption in global financial markets. The COVID-19 pandemic and the measures taken by many countries in response have affected and could in the future materially impact the Company’s business, results of operations and financial condition. Certain of the Company’s outsourcing partners, component suppliers and logistical service providers have experienced, and could in the future experience, disruptions related to the COVID-19 pandemic, resulting in supply shortages. During the first quarter of 2023, COVID-related impacts temporarily affected the Company’s primary iPhone 14 Pro and iPhone 14 Pro Max assembly facility located in Zhengzhou, China. The facility operated at significantly reduced capacity, impacting iPhone 14 Pro and iPhone Pro Max shipments. Macroeconomic Conditions Macroeconomic conditions, including inflation, rising interest rates and currency fluctuations, have direct and indirect impacts on the Company’s business. The Company believes these factors have impacted, and could in the future materially impact, the Company’s results of operations and financial condition. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China mainland, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 9, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for the three months ended December 31, 2022 and December 25, 2021 (dollars in millions): Three Months Ended December 31, 2022 December 25, 2021 Change Net sales by reportable segment: Americas $ 49,278 $ 51,496 (4) % Europe 27,681 29,749 (7) % Greater China 23,905 25,783 (7) % Japan 6,755 7,107 (5) % Rest of Asia Pacific 9,535 9,810 (3) % Total net sales $ 117,154 $ 123,945 (5) % Americas Americas net sales decreased during the first quarter of 2023 compared to the same quarter in 2022 due primarily to lower net sales of iPhone and Mac, partially offset by higher net sales of Services and iPad. The weakness of the Canadian dollar relative to the U.S. dollar had an unfavorable year-over-year impact on Americas net sales during the first quarter of 2023. Europe Europe net sales decreased during the first quarter of 2023 compared to the same quarter in 2022 due to the weakness in foreign currencies relative to the U.S. dollar, which contributed to lower net sales of iPhone and Mac. Apple Inc. | Q1 2023 Form 10-Q | 16 Greater China Greater China net sales decreased during the first quarter of 2023 compared to the same quarter in 2022 due to the weakness of the renminbi relative to the U.S. dollar. The weakness of the renminbi contributed to lower net sales of iPhone, which was partially offset by higher net sales of iPad. Japan Japan net sales decreased during the first quarter of 2023 compared to the same quarter in 2022 due to the weakness of the yen relative to the U.S. dollar, which contributed to lower net sales of Services and Mac. Rest of Asia Pacific Rest of Asia Pacific net sales decreased during the first quarter of 2023 compared to the same quarter in 2022 due to the weakness in foreign currencies relative to the U.S. dollar. The weakness in foreign currencies contributed to lower net sales of iPhone and Mac, which was partially offset by higher net sales of Services and iPad. Products and Services Performance The following table shows net sales by category for the three months ended December 31, 2022 and December 25, 2021 (dollars in millions): Three Months Ended December 31, 2022 December 25, 2021 Change Net sales by category: iPhone (1) $ 65,775 $ 71,628 (8) % Mac (1) 7,735 10,852 (29) % iPad (1) 9,396 7,248 30 % Wearables, Home and Accessories (1)(2) 13,482 14,701 (8) % Services (3) 20,766 19,516 6 % Total net sales $ 117,154 $ 123,945 (5) % (1)Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2)Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod mini and accessories. (3)Services net sales include sales from the Company’s advertising, AppleCare, cloud, digital content, payment and other services. Services net sales also include amortization of the deferred value of services bundled in the sales price of certain products. iPhone iPhone net sales decreased during the first quarter of 2023 compared to the same quarter in 2022 due primarily to lower net sales from the Company’s new iPhone models launched in the fourth quarter of 2022. Mac Mac net sales decreased during the first quarter of 2023 compared to the same quarter in 2022 due primarily to lower net sales of MacBook Pro®. iPad iPad net sales increased during the first quarter of 2023 compared to the same quarter in 2022 due primarily to higher net sales of iPad and iPad Air®. Apple Inc. | Q1 2023 Form 10-Q | 17 Wearables, Home and Accessories Wearables, Home and Accessories net sales decreased during the first quarter of 2023 compared to the same quarter in 2022 due primarily to lower net sales of AirPods, partially offset by higher net sales of Watch. Services Services net sales increased during the first quarter of 2023 compared to the same quarter in 2022 due primarily to higher net sales from cloud services, the App Store® and music. Gross Margin Products and Services gross margin and gross margin percentage for the three months ended December 31, 2022 and December 25, 2021 were as follows (dollars in millions): Three Months Ended December 31, 2022 December 25, 2021 Gross margin: Products $ 35,623 $ 40,120 Services 14,709 14,123 Total gross margin $ 50,332 $ 54,243 Gross margin percentage: Products 37.0 % 38.4 % Services 70.8 % 72.4 % Total gross margin percentage 43.0 % 43.8 % Products Gross Margin Products gross margin decreased during the first quarter of 2023 compared to the same quarter in 2022 due primarily to the weakness in foreign currencies relative to the U.S. dollar and lower Products volume. Products gross margin percentage decreased during the first quarter of 2023 compared to the same quarter in 2022 due primarily to the weakness in foreign currencies relative to the U.S. dollar. Services Gross Margin Services gross margin increased during the first quarter of 2023 compared to the same quarter in 2022 due primarily to higher Services net sales, partially offset by the weakness in foreign currencies relative to the U.S. dollar. Services gross margin percentage decreased during the first quarter of 2023 compared to the same quarter in 2022 due primarily to the weakness in foreign currencies relative to the U.S. dollar and higher Services costs, partially offset by improved leverage. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2022 Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Apple Inc. | Q1 2023 Form 10-Q | 18 Operating Expenses Operating expenses for the three months ended December 31, 2022 and December 25, 2021 were as follows (dollars in millions): Three Months Ended December 31, 2022 December 25, 2021 Research and development $ 7,709 $ 6,306 Percentage of total net sales 7 % 5 % Selling, general and administrative $ 6,607 $ 6,449 Percentage of total net sales 6 % 5 % Total operating expenses $ 14,316 $ 12,755 Percentage of total net sales 12 % 10 % Research and Development The growth in research and development (“R&amp;D”) expense during the first quarter of 2023 compared to the same quarter in 2022 was driven primarily by increases in headcount-related expenses. Selling, General and Administrative The growth in selling, general and administrative expense during the first quarter of 2023 compared to the same quarter in 2022 was driven primarily by increases in headcount-related expenses. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three months ended December 31, 2022 and December 25, 2021 were as follows (dollars in millions): Three Months Ended December 31, 2022 December 25, 2021 Provision for income taxes $ 5,625 $ 6,611 Effective tax rate 15.8 % 16.0 % Statutory federal income tax rate 21 % 21 % The Company’s effective tax rate for the first quarter of 2023 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, tax benefits from share-based compensation, and the U.S. federal R&amp;D credit, partially offset by state income taxes. The Company’s effective tax rate for the first quarter of 2023 was lower compared to the same quarter in 2022 due primarily to a higher U.S. federal R&amp;D credit, lower state income taxes and a lower effective tax rate on foreign earnings, largely offset by lower tax benefits from share-based compensation. Liquidity and Capital Resources The Company believes its balances of cash, cash equivalents and unrestricted marketable securities, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s contractual cash requirements have not changed materially since the 2022 Form 10-K, except for commercial paper and manufacturing purchase obligations. Commercial Paper The Company issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. As of December 31, 2022, the Company had $1.7 billion of Commercial Paper outstanding, all of which was payable within 12 months. Apple Inc. | Q1 2023 Form 10-Q | 19 Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. Outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. As of December 31, 2022, the Company had manufacturing purchase obligations of $55.1 billion, with $54.8 billion payable within 12 months. The Company’s manufacturing purchase obligations are primarily noncancelable. In addition to its contractual cash requirements, the Company has a capital return program authorized by the Board of Directors. The share repurchase program (the “Program”) does not obligate the Company to acquire a minimum amount of shares. As of December 31, 2022, the Company’s quarterly cash dividend was $0.23 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to condensed consolidated Financial Statements in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2022 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting estimates since the 2022 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>Item 7. Management’s Discussion and Analysis of Financial Condition and Results of Operations The following discussion should be read in conjunction with the consolidated financial statements and accompanying notes included in Part II, Item 8 of this Form 10-K. This section of this Form 10-K generally discusses 2022 and 2021 items and year-to-year comparisons between 2022 and 2021. Discussions of 2020 items and year-to-year comparisons between 2021 and 2020 are not included in this Form 10-K, and can be found in “Management’s Discussion and Analysis of Financial Condition and Results of Operations” in Part II, Item 7 of the Company’s Annual Report on Form 10-K for the fiscal year ended September 25, 2021. Fiscal Year Highlights Fiscal 2022 Highlights Total net sales increased 8% or $28.5 billion during 2022 compared to 2021, driven primarily by higher net sales of iPhone, Services and Mac. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable year-over-year impact on all Products and Services net sales during 2022. The Company announces new product, service and software offerings at various times during the year. Significant announcements during fiscal 2022 included the following: First Quarter 2022: •Updated MacBook Pro 14” and MacBook Pro 16”, powered by the Apple M1 Pro or M1 Max chip; and •Third generation of AirPods. Second Quarter 2022: •Updated iPhone SE with 5G technology; •All-new Mac Studio, powered by the Apple M1 Max or M1 Ultra chip; •All-new Studio Display™; and •Updated iPad Air with 5G technology, powered by the Apple M1 chip. Third Quarter 2022: •Updated MacBook Air and MacBook Pro 13”, both powered by the Apple M2 chip; •iOS 16, macOS Ventura, iPadOS 16 and watchOS 9, updates to the Company’s operating systems; and •Apple Pay Later, a buy now, pay later service. Fourth Quarter 2022: •iPhone 14, iPhone 14 Plus, iPhone 14 Pro and iPhone 14 Pro Max; •Second generation of AirPods Pro; and •Apple Watch Series 8, updated Apple Watch SE and all-new Apple Watch Ultra. In April 2022, the Company announced an increase to its Program authorization from $315 billion to $405 billion and raised its quarterly dividend from $0.22 to $0.23 per share beginning in May 2022. During 2022, the Company repurchased $90.2 billion of its common stock and paid dividends and dividend equivalents of $14.8 billion. COVID-19 The COVID-19 pandemic has had, and continues to have, a significant impact around the world, prompting governments and businesses to take unprecedented measures, such as restrictions on travel and business operations, temporary closures of businesses, and quarantine and shelter-in-place orders. The COVID-19 pandemic has at times significantly curtailed global economic activity and caused significant volatility and disruption in global financial markets. The COVID-19 pandemic and the measures taken by many countries in response have affected and could in the future materially impact the Company’s business, results of operations and financial condition. Certain of the Company’s outsourcing partners, component suppliers and logistical service providers have experienced disruptions during the COVID-19 pandemic, resulting in supply shortages. Similar disruptions could occur in the future. Apple Inc. | 2022 Form 10-K | 20 Products and Services Performance The following table shows net sales by category for 2022, 2021 and 2020 (dollars in millions): 2022 Change 2021 Change 2020 Net sales by category: iPhone (1) $ 205,489 7 % $ 191,973 39 % $ 137,781 Mac (1) 40,177 14 % 35,190 23 % 28,622 iPad (1) 29,292 (8) % 31,862 34 % 23,724 Wearables, Home and Accessories (1)(2) 41,241 7 % 38,367 25 % 30,620 Services (3) 78,129 14 % 68,425 27 % 53,768 Total net sales $ 394,328 8 % $ 365,817 33 % $ 274,515 (1)Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2)Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod mini and accessories. (3)Services net sales include sales from the Company’s advertising, AppleCare, cloud, digital content, payment and other services. Services net sales also include amortization of the deferred value of services bundled in the sales price of certain products. iPhone iPhone net sales increased during 2022 compared to 2021 due primarily to higher net sales from the Company’s new iPhone models released since the beginning of the fourth quarter of 2021. Mac Mac net sales increased during 2022 compared to 2021 due primarily to higher net sales of laptops. iPad iPad net sales decreased during 2022 compared to 2021 due primarily to lower net sales of iPad Pro. Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during 2022 compared to 2021 due primarily to higher net sales of Apple Watch and AirPods. Services Services net sales increased during 2022 compared to 2021 due primarily to higher net sales from advertising, cloud services and the App Store. Apple Inc. | 2022 Form 10-K | 21 Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China mainland, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for 2022, 2021 and 2020 (dollars in millions): 2022 Change 2021 Change 2020 Net sales by reportable segment: Americas $ 169,658 11 % $ 153,306 23 % $ 124,556 Europe 95,118 7 % 89,307 30 % 68,640 Greater China 74,200 9 % 68,366 70 % 40,308 Japan 25,977 (9) % 28,482 33 % 21,418 Rest of Asia Pacific 29,375 11 % 26,356 35 % 19,593 Total net sales $ 394,328 8 % $ 365,817 33 % $ 274,515 Americas Americas net sales increased during 2022 compared to 2021 due primarily to higher net sales of iPhone, Services and Mac. Europe Europe net sales increased during 2022 compared to 2021 due primarily to higher net sales of iPhone and Services. The weakness in foreign currencies relative to the U.S. dollar had a net unfavorable year-over-year impact on Europe net sales during 2022. Greater China Greater China net sales increased during 2022 compared to 2021 due primarily to higher net sales of iPhone and Services. The strength of the renminbi relative to the U.S. dollar had a favorable year-over-year impact on Greater China net sales during 2022. Japan Japan net sales decreased during 2022 compared to 2021 due to the weakness of the yen relative to the U.S. dollar. Rest of Asia Pacific Rest of Asia Pacific net sales increased during 2022 compared to 2021 due primarily to higher net sales of iPhone, Mac and Services. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable year-over-year impact on Rest of Asia Pacific net sales during 2022. Apple Inc. | 2022 Form 10-K | 22 Gross Margin Products and Services gross margin and gross margin percentage for 2022, 2021 and 2020 were as follows (dollars in millions): 2022 2021 2020 Gross margin: Products $ 114,728 $ 105,126 $ 69,461 Services 56,054 47,710 35,495 Total gross margin $ 170,782 $ 152,836 $ 104,956 Gross margin percentage: Products 36.3 % 35.3 % 31.5 % Services 71.7 % 69.7 % 66.0 % Total gross margin percentage 43.3 % 41.8 % 38.2 % Products Gross Margin Products gross margin increased during 2022 compared to 2021 due primarily to a different Products mix and higher Products volume, partially offset by the weakness in foreign currencies relative to the U.S. dollar. Products gross margin percentage increased during 2022 compared to 2021 due primarily to a different Products mix, partially offset by the weakness in foreign currencies relative to the U.S. dollar. Services Gross Margin Services gross margin increased during 2022 compared to 2021 due primarily to higher Services net sales, partially offset by the weakness in foreign currencies relative to the U.S. dollar. Services gross margin percentage increased during 2022 compared to 2021 due primarily to improved leverage and a different Services mix, partially offset by the weakness in foreign currencies relative to the U.S. dollar. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of this Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Operating Expenses Operating expenses for 2022, 2021 and 2020 were as follows (dollars in millions): 2022 Change 2021 Change 2020 Research and development $ 26,251 20 % $ 21,914 17 % $ 18,752 Percentage of total net sales 7 % 6 % 7 % Selling, general and administrative $ 25,094 14 % $ 21,973 10 % $ 19,916 Percentage of total net sales 6 % 6 % 7 % Total operating expenses $ 51,345 17 % $ 43,887 13 % $ 38,668 Percentage of total net sales 13 % 12 % 14 % Research and Development The year-over-year growth in R&amp;D expense in 2022 was driven primarily by increases in headcount-related expenses and engineering program costs. Selling, General and Administrative The year-over-year growth in selling, general and administrative expense in 2022 was driven primarily by increases in headcount-related expenses, advertising and professional services. Apple Inc. | 2022 Form 10-K | 23 Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for 2022, 2021 and 2020 was as follows (dollars in millions): 2022 Change 2021 Change 2020 Interest and dividend income $ 2,825 $ 2,843 $ 3,763 Interest expense (2,931) (2,645) (2,873) Other income/(expense), net (228) 60 (87) Total other income/(expense), net $ (334) (229) % $ 258 (68) % $ 803 The decrease in OI&amp;E during 2022 compared to 2021 was due primarily to higher realized losses on debt securities, unfavorable fair value adjustments on equity securities and higher interest expense, partially offset by higher foreign exchange gains. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for 2022, 2021 and 2020 were as follows (dollars in millions): 2022 2021 2020 Provision for income taxes $ 19,300 $ 14,527 $ 9,680 Effective tax rate 16.2 % 13.3 % 14.4 % Statutory federal income tax rate 21 % 21 % 21 % The Company’s effective tax rate for 2022 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, tax benefits from share-based compensation and the impact of the U.S. federal R&amp;D credit, partially offset by state income taxes. The Company’s effective tax rate for 2021 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, tax benefits from share-based compensation and foreign-derived intangible income deductions. The Company’s effective tax rate for 2022 was higher compared to 2021 due primarily to a higher effective tax rate on foreign earnings, including the impact to U.S. foreign tax credits as a result of regulatory guidance issued by the U.S. Department of the Treasury in 2022, and lower tax benefits from foreign-derived intangible income deductions and share-based compensation. Liquidity and Capital Resources The Company believes its balances of cash, cash equivalents and unrestricted marketable securities, which totaled $156.4 billion as of September 24, 2022, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s material cash requirements include the following contractual obligations. Debt As of September 24, 2022, the Company had outstanding fixed-rate notes with varying maturities for an aggregate principal amount of $111.8 billion (collectively the “Notes”), with $11.1 billion payable within 12 months. Future interest payments associated with the Notes total $41.3 billion, with $2.9 billion payable within 12 months. The Company also issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. As of September 24, 2022, the Company had $10.0 billion of Commercial Paper outstanding, all of which was payable within 12 months. Leases The Company has lease arrangements for certain equipment and facilities, including corporate, data center, manufacturing and retail space. As of September 24, 2022, the Company had fixed lease payment obligations of $15.3 billion, with $2.0 billion payable within 12 months. Apple Inc. | 2022 Form 10-K | 24 Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. Outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. As of September 24, 2022, the Company had manufacturing purchase obligations of $71.1 billion, with $68.4 billion payable within 12 months. The Company’s manufacturing purchase obligations are primarily noncancelable. Other Purchase Obligations The Company’s other purchase obligations primarily consist of noncancelable obligations to acquire capital assets, including assets related to product manufacturing, and noncancelable obligations related to internet services and content creation. As of September 24, 2022, the Company had other purchase obligations of $17.8 billion, with $6.8 billion payable within 12 months. Deemed Repatriation Tax Payable As of September 24, 2022, the balance of the deemed repatriation tax payable imposed by the U.S. Tax Cuts and Jobs Act of 2017 (the “Act”) was $22.0 billion, with $5.3 billion expected to be paid within 12 months. In addition to its contractual cash requirements, the Company has a capital return program authorized by the Board of Directors. The Program does not obligate the Company to acquire a minimum amount of shares. As of September 24, 2022, the Company’s quarterly cash dividend was $0.23 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles (“GAAP”) and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to Consolidated Financial Statements in Part II, Item 8 of this Form 10-K describes the significant accounting policies and methods used in the preparation of the Company’s consolidated financial statements. Management bases its estimates on historical experience and on various other assumptions it believes to be reasonable under the circumstances, the results of which form the basis for making judgments about the carrying values of assets and liabilities. Uncertain Tax Positions The Company is subject to income taxes in the U.S. and numerous foreign jurisdictions. The evaluation of the Company’s uncertain tax positions involves significant judgment in the interpretation and application of GAAP and complex domestic and international tax laws, including the Act and matters related to the allocation of international taxation rights between countries. Although management believes the Company’s reserves are reasonable, no assurance can be given that the final outcome of these uncertainties will not be different from that which is reflected in the Company’s reserves. Reserves are adjusted considering changing facts and circumstances, such as the closing of a tax examination. Resolution of these uncertainties in a manner inconsistent with management’s expectations could have a material impact on the Company’s financial condition and operating results. Legal and Other Contingencies The Company is subject to various legal proceedings and claims that arise in the ordinary course of business, the outcomes of which are inherently uncertain. The Company records a liability when it is probable that a loss has been incurred and the amount is reasonably estimable, the determination of which requires significant judgment. Resolution of legal matters in a manner inconsistent with management’s expectations could have a material impact on the Company’s financial condition and operating results.'</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of the COVID-19 pandemic on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the Company’s Annual Report on Form 10-K for the fiscal year ended September 25, 2021 (the “2021 Form 10-K”) under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The following discussion should be read in conjunction with the 2021 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on environmental, social and corporate governance matters, and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. Quarterly Highlights Total net sales increased 2% or $1.5 billion during the third quarter of 2022 compared to the same quarter in 2021, driven primarily by higher net sales of Services and iPhone, partially offset by lower net sales of Mac and Wearables, Home and Accessories. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on all Products and Services net sales during the third quarter of 2022. At the end of the third quarter of 2022, the Company introduced an all-new MacBook Air® and an updated 13-inch MacBook Pro®, both powered by the new Apple M2 chip. The Company also announced iOS 16, macOS® Ventura, iPadOS® 16 and watchOS® 9, updates to its operating systems that are expected to be available in the fall of 2022. The Company repurchased $21.7 billion of its common stock and paid dividends and dividend equivalents of $3.8 billion during the third quarter of 2022. Apple Inc. | Q3 2022 Form 10-Q | 14 COVID-19 The COVID-19 pandemic has had, and continues to have, a significant impact around the world, prompting governments and businesses to take unprecedented measures, such as restrictions on travel and business operations, temporary closures of businesses, and quarantine and shelter-in-place orders. The COVID-19 pandemic has at times significantly curtailed global economic activity and caused significant volatility and disruption in global financial markets. The COVID-19 pandemic and the measures taken by many countries in response have affected and could in the future materially impact the Company’s business, results of operations and financial condition. Certain of the Company’s outsourcing partners, component suppliers and logistical service providers have experienced disruptions during the COVID-19 pandemic, resulting in supply shortages. Similar disruptions could occur in the future. Products and Services Performance The following table shows net sales by category for the three- and nine-month periods ended June 25, 2022 and June 26, 2021 (dollars in millions): Three Months Ended Nine Months Ended June 25, 2022 June 26, 2021 Change June 25, 2022 June 26, 2021 Change Net sales by category: iPhone (1) $ 40,665 $ 39,570 3 % $ 162,863 $ 153,105 6 % Mac (1) 7,382 8,235 (10) % 28,669 26,012 10 % iPad (1) 7,224 7,368 (2) % 22,118 23,610 (6) % Wearables, Home and Accessories (1)(2) 8,084 8,775 (8) % 31,591 29,582 7 % Services (3) 19,604 17,486 12 % 58,941 50,148 18 % Total net sales $ 82,959 $ 81,434 2 % $ 304,182 $ 282,457 8 % (1)Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2)Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod mini and accessories. (3)Services net sales include sales from the Company’s advertising, AppleCare, cloud, digital content, payment and other services. Services net sales also include amortization of the deferred value of services bundled in the sales price of certain products. iPhone iPhone net sales increased during the third quarter and first nine months of 2022 compared to the same periods in 2021 due primarily to higher net sales from the Company’s new iPhone models. Mac Mac net sales decreased during the third quarter of 2022 compared to the third quarter of 2021 due primarily to lower net sales of MacBook Air and iMac®, partially offset by higher net sales of MacBook Pro. Year-over-year Mac net sales increased during the first nine months of 2022 due primarily to higher net sales of MacBook Pro, partially offset by lower net sales of MacBook Air. iPad iPad net sales decreased during the third quarter of 2022 compared to the third quarter of 2021 due primarily to lower net sales of iPad Pro®, partially offset by higher net sales of all other iPad models. Year-over-year iPad net sales decreased during the first nine months of 2022 due primarily to lower net sales of the 10-inch version of iPad and iPad Air®, partially offset by higher net sales of iPad mini®. Wearables, Home and Accessories Wearables, Home and Accessories net sales decreased during the third quarter of 2022 compared to the third quarter of 2021 due primarily to lower net sales of AirPods and Apple Watch. Year-over-year Wearables, Home and Accessories net sales increased during the first nine months of 2022 due primarily to higher net sales of Apple Watch and AirPods. Apple Inc. | Q3 2022 Form 10-Q | 15 Services Services net sales increased during the third quarter of 2022 compared to the third quarter of 2021 due primarily to higher net sales from advertising, cloud services and AppleCare. Year-over-year Services net sales increased during the first nine months of 2022 due primarily to higher net sales from advertising, the App Store® and cloud services. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China mainland, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 9, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for the three- and nine-month periods ended June 25, 2022 and June 26, 2021 (dollars in millions): Three Months Ended Nine Months Ended June 25, 2022 June 26, 2021 Change June 25, 2022 June 26, 2021 Change Net sales by reportable segment: Americas $ 37,472 $ 35,870 4 % $ 129,850 $ 116,486 11 % Europe 19,287 18,943 2 % 72,323 68,513 6 % Greater China 14,604 14,762 (1) % 58,730 53,803 9 % Japan 5,446 6,464 (16) % 20,277 22,491 (10) % Rest of Asia Pacific 6,150 5,395 14 % 23,002 21,164 9 % Total net sales $ 82,959 $ 81,434 2 % $ 304,182 $ 282,457 8 % Americas Americas net sales increased during the third quarter of 2022 compared to the third quarter of 2021 due primarily to higher net sales of Services and iPhone, partially offset by lower net sales of Mac and Wearables, Home and Accessories. Year-over-year Americas net sales increased during the first nine months of 2022 due primarily to higher net sales of iPhone, Services and Wearables, Home and Accessories. Europe Europe net sales increased during the third quarter of 2022 compared to the third quarter of 2021 due primarily to higher net sales of iPhone, partially offset by lower net sales of Mac. Year-over-year Europe net sales increased during the first nine months of 2022 due primarily to higher net sales of Services and iPhone. The weakness in foreign currencies relative to the U.S. dollar had a net unfavorable impact on Europe net sales during the third quarter and first nine months of 2022. Greater China Greater China net sales decreased during the third quarter of 2022 compared to the third quarter of 2021 due primarily to lower net sales of iPhone, partially offset by higher net sales of Services. Year-over-year Greater China net sales increased during the first nine months of 2022 due primarily to higher net sales of iPhone and Services. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Greater China net sales during the third quarter of 2022. The strength of the renminbi relative to the U.S. dollar had a favorable impact on Greater China net sales during the first nine months of 2022. Japan Japan net sales decreased during the third quarter and first nine months of 2022 compared to the same periods in 2021 due primarily to lower net sales of iPhone and iPad. The weakness of the yen relative to the U.S. dollar had an unfavorable impact on Japan net sales during the third quarter and first nine months of 2022. Apple Inc. | Q3 2022 Form 10-Q | 16 Rest of Asia Pacific Rest of Asia Pacific net sales increased during the third quarter of 2022 compared to the third quarter of 2021 due primarily to higher net sales of iPhone and Services. Year-over-year Rest of Asia Pacific net sales increased during the first nine months of 2022 due primarily to higher net sales of Services, iPhone and Mac. The weakness in foreign currencies relative to the U.S. dollar had a net unfavorable impact on Rest of Asia Pacific net sales during the third quarter and first nine months of 2022. Gross Margin Products and Services gross margin and gross margin percentage for the three- and nine-month periods ended June 25, 2022 and June 26, 2021 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 25, 2022 June 26, 2021 June 25, 2022 June 26, 2021 Gross margin: Products $ 21,870 $ 23,049 $ 90,157 $ 82,833 Services 14,015 12,206 42,530 34,829 Total gross margin $ 35,885 $ 35,255 $ 132,687 $ 117,662 Gross margin percentage: Products 34.5 % 36.0 % 36.8 % 35.7 % Services 71.5 % 69.8 % 72.2 % 69.5 % Total gross margin percentage 43.3 % 43.3 % 43.6 % 41.7 % Products Gross Margin Products gross margin decreased during the third quarter of 2022 compared to the third quarter of 2021 due primarily to the weakness in foreign currencies relative to the U.S. dollar. Year-over-year Products gross margin increased during the first nine months of 2022 due primarily to a different Products mix and higher Products volume, partially offset by the weakness in foreign currencies relative to the U.S. dollar. Products gross margin percentage decreased during the third quarter of 2022 compared to the third quarter of 2021 due primarily to the weakness in foreign currencies relative to the U.S. dollar and a different Products mix. Year-over-year Products gross margin percentage increased during the first nine months of 2022 due primarily to a different Products mix. Services Gross Margin Services gross margin increased during the third quarter and first nine months of 2022 compared to the same periods in 2021 due primarily to higher Services net sales, partially offset by the weakness in foreign currencies relative to the U.S. dollar. Services gross margin percentage increased during the third quarter and first nine months of 2022 compared to the same periods in 2021 due primarily to improved leverage and a different Services mix, partially offset by the weakness in foreign currencies relative to the U.S. dollar and higher Services costs. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2021 Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Apple Inc. | Q3 2022 Form 10-Q | 17 Operating Expenses Operating expenses for the three- and nine-month periods ended June 25, 2022 and June 26, 2021 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 25, 2022 June 26, 2021 June 25, 2022 June 26, 2021 Research and development $ 6,797 $ 5,717 $ 19,490 $ 16,142 Percentage of total net sales 8 % 7 % 6 % 6 % Selling, general and administrative $ 6,012 $ 5,412 $ 18,654 $ 16,357 Percentage of total net sales 7 % 7 % 6 % 6 % Total operating expenses $ 12,809 $ 11,129 $ 38,144 $ 32,499 Percentage of total net sales 15 % 14 % 13 % 12 % Research and Development The growth in research and development (“R&amp;D”) expense during the third quarter and first nine months of 2022 compared to the same periods in 2021 was driven primarily by increases in headcount-related expenses, engineering program costs and professional services. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the third quarter and first nine months of 2022 compared to the same periods in 2021 was driven primarily by increases in headcount-related expenses, advertising and professional services. Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for the three- and nine-month periods ended June 25, 2022 and June 26, 2021 was as follows (dollars in millions): Three Months Ended Nine Months Ended June 25, 2022 June 26, 2021 Change June 25, 2022 June 26, 2021 Change Interest and dividend income $ 722 $ 719 $ 2,072 $ 2,184 Interest expense (719) (665) (2,104) (1,973) Other income/(expense), net (13) 189 (65) 585 Total other income/(expense), net $ (10) $ 243 (104) % $ (97) $ 796 (112) % OI&amp;E decreased during the third quarter and first nine months of 2022 compared to the same periods in 2021 due primarily to fair value adjustments and realized losses on marketable securities and higher interest expense, partially offset by foreign exchange gains. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and nine-month periods ended June 25, 2022 and June 26, 2021 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 25, 2022 June 26, 2021 June 25, 2022 June 26, 2021 Provision for income taxes $ 3,624 $ 2,625 $ 15,364 $ 11,830 Effective tax rate 15.7 % 10.8 % 16.3 % 13.8 % Statutory federal income tax rate 21 % 21 % 21 % 21 % The Company’s effective tax rate for the third quarter and first nine months of 2022 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, tax benefits from share-based compensation and the impact of the U.S. federal R&amp;D tax credit, partially offset by state income taxes. Apple Inc. | Q3 2022 Form 10-Q | 18 The Company’s effective tax rate for the third quarter of 2022 was higher compared to the third quarter of 2021 due primarily to a higher effective tax rate on foreign earnings and an adjustment to prior years’ foreign-derived intangible income deductions. The Company’s effective tax rate for the first nine months of 2022 was higher compared to the same period in 2021 due primarily to a higher effective tax rate on foreign earnings, lower tax benefits from share-based compensation, and the impact to U.S. foreign tax credits as a result of regulations issued by the U.S. Department of the Treasury in January 2022. Liquidity and Capital Resources The Company believes its balances of cash, cash equivalents and unrestricted marketable securities, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s contractual cash requirements have not changed materially since the 2021 Form 10-K, except for manufacturing purchase obligations. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. Outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. As of June 25, 2022, the Company had manufacturing purchase obligations of $43.1 billion, with $43.0 billion payable within 12 months. The Company’s manufacturing purchase obligations are primarily noncancelable. In addition to its contractual cash requirements, the Company has a share repurchase program authorized by the Board of Directors (the “Program”). The Program does not obligate the Company to acquire a minimum amount of shares. As of June 25, 2022, the Company’s quarterly cash dividend was $0.23 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to condensed consolidated Financial Statements in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2021 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting estimates since the 2021 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of the COVID-19 pandemic on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the Company’s Annual Report on Form 10-K for the fiscal year ended September 25, 2021 (the “2021 Form 10-K”) under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The following discussion should be read in conjunction with the 2021 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on environmental, social and corporate governance matters, and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. Quarterly Highlights Total net sales increased 9% or $7.7 billion during the second quarter of 2022 compared to the same quarter in 2021, driven primarily by growth in Services, iPhone and Mac. During the second quarter of 2022, the Company released the following products: •iPhone SE® with 5G technology; •iPad Air®, powered by the Apple M1 chip; •All-new Mac Studio™, powered by the Apple M1 Max or the new Apple M1 Ultra chip; and •All-new Apple Studio Display™. The Company repurchased $22.9 billion of its common stock and paid dividends and dividend equivalents of $3.6 billion during the second quarter of 2022. Apple Inc. | Q2 2022 Form 10-Q | 14 COVID-19 Update The COVID-19 pandemic has had, and continues to have, a significant impact around the world, prompting governments and businesses to take unprecedented measures, such as restrictions on travel and business operations, temporary closures of businesses, and quarantine and shelter-in-place orders. The COVID-19 pandemic has at times significantly curtailed global economic activity and caused significant volatility and disruption in global financial markets. The COVID-19 pandemic and the measures taken by many countries in response have affected and could in the future materially impact the Company’s business, results of operations and financial condition, as well as the price of the Company’s stock. During the second quarter of 2022, aspects of the Company’s business continued to be affected by the COVID-19 pandemic, with a significant number of the Company’s employees working remotely and many of the Company’s retail stores operating at limited capacity or temporarily closing at various times. Substantially all of the Company’s other facilities are open, subject to operating restrictions to protect public health and the health and safety of employees. The Company continues to work on safely reopening the remainder of its facilities, subject to local rules and regulations. At times, certain of the Company’s outsourcing partners, component suppliers and logistical service providers have experienced disruptions, resulting in supply shortages that could affect sales worldwide. Similar disruptions could occur in the future. The extent of the continuing impact of the COVID-19 pandemic on the Company’s operational and financial performance is uncertain and will depend on many factors outside the Company’s control, including the timing, extent, trajectory and duration of the pandemic, the emergence of new variants, the development, availability, distribution and effectiveness of vaccines and treatments, the imposition of protective public safety measures, and the impact of the pandemic on the global economy and demand for consumer products. Refer to Part I, Item 1A of the 2021 Form 10-K under the heading “Risk Factors” for more information. Products and Services Performance The following table shows net sales by category for the three- and six-month periods ended March 26, 2022 and March 27, 2021 (dollars in millions): Three Months Ended Six Months Ended March 26, 2022 March 27, 2021 Change March 26, 2022 March 27, 2021 Change Net sales by category: iPhone (1) $ 50,570 $ 47,938 5 % $ 122,198 $ 113,535 8 % Mac (1) 10,435 9,102 15 % 21,287 17,777 20 % iPad (1) 7,646 7,807 (2) % 14,894 16,242 (8) % Wearables, Home and Accessories (1)(2) 8,806 7,836 12 % 23,507 20,807 13 % Services (3) 19,821 16,901 17 % 39,337 32,662 20 % Total net sales $ 97,278 $ 89,584 9 % $ 221,223 $ 201,023 10 % (1)Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2)Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod mini, iPod touch and accessories. (3)Services net sales include sales from the Company’s advertising, AppleCare, cloud, digital content, payment and other services. Services net sales also include amortization of the deferred value of services bundled in the sales price of certain products. iPhone iPhone net sales increased during the second quarter and first six months of 2022 compared to the same periods in 2021 due primarily to higher net sales from the Company’s new iPhone models. Mac Mac net sales increased during the second quarter and first six months of 2022 compared to the same periods in 2021 due primarily to higher net sales of MacBook Pro®, partially offset by lower net sales of MacBook Air®. Apple Inc. | Q2 2022 Form 10-Q | 15 iPad iPad net sales decreased during the second quarter of 2022 compared to the second quarter of 2021 due primarily to lower net sales of the 10-inch version of iPad, offset by higher net sales of iPad Pro® and iPad mini®. Year-over-year iPad net sales decreased during the first six months of 2022 due primarily to lower net sales of the 10-inch version of iPad, partially offset by higher net sales of iPad mini. Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during the second quarter and first six months of 2022 compared to the same periods in 2021 due primarily to higher net sales of Apple Watch, AirPods and accessories. Services Services net sales increased during the second quarter and first six months of 2022 compared to the same periods in 2021 due primarily to higher net sales from advertising, the App Store® and cloud services. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China mainland, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 9, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for the three- and six-month periods ended March 26, 2022 and March 27, 2021 (dollars in millions): Three Months Ended Six Months Ended March 26, 2022 March 27, 2021 Change March 26, 2022 March 27, 2021 Change Net sales by reportable segment: Americas $ 40,882 $ 34,306 19 % $ 92,378 $ 80,616 15 % Europe 23,287 22,264 5 % 53,036 49,570 7 % Greater China 18,343 17,728 3 % 44,126 39,041 13 % Japan 7,724 7,742 — % 14,831 16,027 (7) % Rest of Asia Pacific 7,042 7,544 (7) % 16,852 15,769 7 % Total net sales $ 97,278 $ 89,584 9 % $ 221,223 $ 201,023 10 % Americas Americas net sales increased during the second quarter of 2022 compared to the second quarter of 2021 due primarily to higher net sales of iPhone, Services and Mac. Year-over-year Americas net sales increased during the first six months of 2022 due primarily to higher net sales of iPhone, Services and Wearables, Home and Accessories. Europe Europe net sales increased during the second quarter and first six months of 2022 compared to the same periods in 2021 due primarily to higher net sales of Services and Mac. The movement of foreign currencies in Europe relative to the U.S. dollar had a net unfavorable impact on Europe net sales during the second quarter and first six months of 2022. Greater China Greater China net sales increased during the second quarter and first six months of 2022 compared to the same periods in 2021 due primarily to higher net sales of iPhone and Services. The strength of the Chinese renminbi relative to the U.S. dollar had a favorable impact on Greater China net sales during the second quarter and first six months of 2022. Apple Inc. | Q2 2022 Form 10-Q | 16 Japan Japan net sales were flat during the second quarter of 2022 compared to the second quarter of 2021 due primarily to the weakness of the Japanese yen relative to the U.S. dollar, offset by higher net sales of iPhone and Services. Year-over-year Japan net sales decreased during the first six months of 2022 due primarily to the weakness of the Japanese yen relative to the U.S. dollar. Rest of Asia Pacific Rest of Asia Pacific net sales decreased during the second quarter of 2022 compared to the second quarter of 2021 due primarily to lower net sales of iPhone, partially offset by higher net sales of Services and Mac. Year-over-year Rest of Asia Pacific net sales increased during the first six months of 2022 due primarily to higher net sales of Services, Mac and Wearables, Home and Accessories. The movement of foreign currencies in Rest of Asia Pacific relative to the U.S. dollar had a net unfavorable impact on Rest of Asia Pacific net sales during the second quarter and first six months of 2022. Gross Margin Products and Services gross margin and gross margin percentage for the three- and six-month periods ended March 26, 2022 and March 27, 2021 were as follows (dollars in millions): Three Months Ended Six Months Ended March 26, 2022 March 27, 2021 March 26, 2022 March 27, 2021 Gross margin: Products $ 28,167 $ 26,236 $ 68,287 $ 59,784 Services 14,392 11,843 28,515 22,623 Total gross margin $ 42,559 $ 38,079 $ 96,802 $ 82,407 Gross margin percentage: Products 36.4 % 36.1 % 37.5 % 35.5 % Services 72.6 % 70.1 % 72.5 % 69.3 % Total gross margin percentage 43.7 % 42.5 % 43.8 % 41.0 % Products Gross Margin Products gross margin increased during the second quarter of 2022 compared to the second quarter of 2021 due primarily to higher Products volume. Year-over-year Products gross margin increased during the first six months of 2022 due primarily to a different Products mix and higher Products volume. Products gross margin percentage increased during the second quarter of 2022 compared to the second quarter of 2021 due primarily to improved leverage. Year-over-year Products gross margin percentage increased during the first six months of 2022 due primarily to a different Products mix. Services Gross Margin Services gross margin increased during the second quarter and first six months of 2022 compared to the same periods in 2021 due primarily to higher Services net sales and a different Services mix, partially offset by the weakness in foreign currencies relative to the U.S. dollar. Services gross margin percentage increased during the second quarter and first six months of 2022 compared to the same periods in 2021 due primarily to a different Services mix and improved leverage, partially offset by the weakness in foreign currencies relative to the U.S. dollar. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2021 Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Apple Inc. | Q2 2022 Form 10-Q | 17 Operating Expenses Operating expenses for the three- and six-month periods ended March 26, 2022 and March 27, 2021 were as follows (dollars in millions): Three Months Ended Six Months Ended March 26, 2022 March 27, 2021 March 26, 2022 March 27, 2021 Research and development $ 6,387 $ 5,262 $ 12,693 $ 10,425 Percentage of total net sales 7 % 6 % 6 % 5 % Selling, general and administrative $ 6,193 $ 5,314 $ 12,642 $ 10,945 Percentage of total net sales 6 % 6 % 6 % 5 % Total operating expenses $ 12,580 $ 10,576 $ 25,335 $ 21,370 Percentage of total net sales 13 % 12 % 11 % 11 % Research and Development The growth in research and development (“R&amp;D”) expense during the second quarter and first six months of 2022 compared to the same periods in 2021 was driven primarily by increases in headcount-related expenses, engineering program costs and professional services. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the second quarter of 2022 compared to the second quarter of 2021 was driven primarily by increases in advertising, headcount-related expenses and professional services. Year-over-year selling, general and administrative expense increased during the first six months of 2022 due primarily to increases in headcount-related expenses, advertising and variable selling expenses. Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for the three- and six-month periods ended March 26, 2022 and March 27, 2021 was as follows (dollars in millions): Three Months Ended Six Months Ended March 26, 2022 March 27, 2021 Change March 26, 2022 March 27, 2021 Change Interest and dividend income $ 700 $ 718 $ 1,350 $ 1,465 Interest expense (691) (670) (1,385) (1,308) Other income/(expense), net 151 460 (52) 396 Total other income/(expense), net $ 160 $ 508 (69) % $ (87) $ 553 (116) % OI&amp;E decreased during the second quarter and first six months of 2022 compared to the same periods in 2021 due primarily to fair value adjustments on marketable securities, partially offset by foreign exchange gains. Apple Inc. | Q2 2022 Form 10-Q | 18 Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and six-month periods ended March 26, 2022 and March 27, 2021 were as follows (dollars in millions): Three Months Ended Six Months Ended March 26, 2022 March 27, 2021 March 26, 2022 March 27, 2021 Provision for income taxes $ 5,129 $ 4,381 $ 11,740 $ 9,205 Effective tax rate 17.0 % 15.6 % 16.4 % 14.9 % Statutory federal income tax rate 21 % 21 % 21 % 21 % The Company’s effective tax rate for the second quarter of 2022 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, including the favorable impact of changes in unrecognized tax benefits, partially offset by the impact to U.S. foreign tax credits as a result of regulations issued by the U.S. Department of the Treasury in January 2022 (the “Regulations”). The Company’s effective tax rate for the first six months of 2022 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, including the favorable impact of changes in unrecognized tax benefits. The Company’s effective tax rate for the second quarter of 2022 was higher compared to the second quarter of 2021 due primarily to the impact to U.S. foreign tax credits as a result of the Regulations, partially offset by a lower effective tax rate on foreign earnings, including the favorable impact of changes in unrecognized tax benefits. The Company’s effective tax rate for the first six months of 2022 was higher compared to the same period in 2021 due primarily to the impact to U.S. foreign tax credits as a result of the Regulations and lower tax benefits from share-based compensation. Liquidity and Capital Resources The Company believes its balances of cash, cash equivalents and unrestricted marketable securities, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s contractual cash requirements have not changed materially since the 2021 Form 10-K, except for manufacturing purchase obligations. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. Outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. As of March 26, 2022, the Company had manufacturing purchase obligations of $40.6 billion, with $40.5 billion payable within 12 months. The Company’s manufacturing purchase obligations are primarily noncancelable. In addition to its contractual cash requirements, the Company has a share repurchase program authorized by the Board of Directors (the “Program”). As of March 26, 2022, the remaining availability under the Program was $17.6 billion. On April 28, 2022, the Company announced the Board of Directors increased the Program authorization by $90 billion. The Program does not obligate the Company to acquire a minimum amount of shares. On April 28, 2022, the Company also announced the Board of Directors raised the Company’s quarterly cash dividend from $0.22 to $0.23 per share, beginning with the dividend to be paid during the third quarter of 2022. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to condensed consolidated Financial Statements in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2021 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting estimates since the 2021 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of the COVID-19 pandemic on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the Company’s Annual Report on Form 10-K for the fiscal year ended September 25, 2021 (the “2021 Form 10-K”) under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The following discussion should be read in conjunction with the 2021 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on environmental, social and corporate governance matters, and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Quarterly Highlights Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. COVID-19 Update The COVID-19 pandemic has had, and continues to have, a significant impact around the world, prompting governments and businesses to take unprecedented measures, such as restrictions on travel and business operations, temporary closures of businesses, and quarantine and shelter-in-place orders. The COVID-19 pandemic has at times significantly curtailed global economic activity and caused significant volatility and disruption in global financial markets. The COVID-19 pandemic and the measures taken by many countries in response have affected and could in the future materially impact the Company’s business, results of operations and financial condition, as well as the price of the Company’s stock. During the first quarter of 2022, aspects of the Company’s business continued to be affected by the COVID-19 pandemic, with a significant number of the Company’s employees working remotely and certain of the Company’s retail stores operating at limited capacity or temporarily closing at various times. The Company has reopened substantially all of its other facilities, subject to operating restrictions to protect public health and the health and safety of employees, and it continues to work on safely reopening the remainder of its facilities, subject to local rules and regulations. At times, certain of the Company’s component suppliers and logistical service providers have experienced disruptions, resulting in supply shortages that affected sales worldwide. Similar impacts or other disruptions could occur in the future. Apple Inc. | Q1 2022 Form 10-Q | 14 The extent of the continuing impact of the COVID-19 pandemic on the Company’s operational and financial performance is uncertain and will depend on many factors outside the Company’s control, including the timing, extent, trajectory and duration of the pandemic, the emergence of new variants, the development, availability, distribution and effectiveness of vaccines and treatments, the imposition of protective public safety measures, and the impact of the pandemic on the global economy and demand for consumer products. Refer to Part I, Item 1A of the 2021 Form 10-K under the heading “Risk Factors” for more information. First Quarter Fiscal 2022 Highlights Total net sales increased 11% or $12.5 billion during the first quarter of 2022 compared to the same quarter in 2021, driven primarily by growth in iPhone, Services and Mac. During the first quarter of 2022, the Company released the following new products: •MacBook Pro®, available in 14- and 16-inch models and powered by an Apple M1 Pro chip or an Apple M1 Max chip; •Third generation of AirPods; and •Apple Watch Series 7. The Company repurchased $20.4 billion of its common stock and paid dividends and dividend equivalents of $3.7 billion during the first quarter of 2022. Products and Services Performance The following table shows net sales by category for the three months ended December 25, 2021 and December 26, 2020 (dollars in millions): Three Months Ended December 25, 2021 December 26, 2020 Change Net sales by category: iPhone (1) $ 71,628 $ 65,597 9 % Mac (1) 10,852 8,675 25 % iPad (1) 7,248 8,435 (14) % Wearables, Home and Accessories (1)(2) 14,701 12,971 13 % Services (3) 19,516 15,761 24 % Total net sales $ 123,945 $ 111,439 11 % (1)Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2)Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod mini, iPod touch and accessories. (3)Services net sales include sales from the Company’s advertising, AppleCare, cloud, digital content, payment and other services. Services net sales also include amortization of the deferred value of services bundled in the sales price of certain products. iPhone iPhone net sales increased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to higher net sales from the Company’s new iPhone models launched in the fourth quarter of 2021 and a different mix of iPhone sales. Mac Mac net sales increased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to higher net sales of MacBook Pro and MacBook Air®. iPad iPad net sales decreased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to lower net sales of the 10-inch version of iPad. Apple Inc. | Q1 2022 Form 10-Q | 15 Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to higher net sales of AirPods, Apple Watch and accessories. Services Services net sales increased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to higher net sales from advertising, the App Store® and cloud services. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China mainland, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 9, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for the three months ended December 25, 2021 and December 26, 2020 (dollars in millions): Three Months Ended December 25, 2021 December 26, 2020 Change Net sales by reportable segment: Americas $ 51,496 $ 46,310 11 % Europe 29,749 27,306 9 % Greater China 25,783 21,313 21 % Japan 7,107 8,285 (14) % Rest of Asia Pacific 9,810 8,225 19 % Total net sales $ 123,945 $ 111,439 11 % Americas Americas net sales increased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to higher net sales of Services, iPhone, and Wearables, Home and Accessories. Europe Europe net sales increased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to higher net sales of Services, Mac and iPhone. The movement of foreign currencies in Europe relative to the U.S. dollar had a net favorable impact on Europe net sales during the first quarter of 2022. Greater China Greater China net sales increased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to higher net sales of iPhone and Services. The strength of the Chinese renminbi relative to the U.S. dollar had a favorable impact on Greater China net sales during the first quarter of 2022. Japan Japan net sales decreased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to lower net sales of iPhone and iPad, partially offset by higher net sales of Services. The weakness of the Japanese yen relative to the U.S. dollar had an unfavorable impact on Japan net sales during the first quarter of 2022. Apple Inc. | Q1 2022 Form 10-Q | 16 Rest of Asia Pacific Rest of Asia Pacific net sales increased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to higher net sales of iPhone, Wearables, Home and Accessories and Mac. Gross Margin Products and Services gross margin and gross margin percentage for the three months ended December 25, 2021 and December 26, 2020 were as follows (dollars in millions): Three Months Ended December 25, 2021 December 26, 2020 Gross margin: Products $ 40,120 $ 33,548 Services 14,123 10,780 Total gross margin $ 54,243 $ 44,328 Gross margin percentage: Products 38.4 % 35.1 % Services 72.4 % 68.4 % Total gross margin percentage 43.8 % 39.8 % Products Gross Margin Products gross margin and Products gross margin percentage increased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to a different Products mix and the strength in foreign currencies relative to the U.S. dollar. Services Gross Margin Services gross margin increased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to higher Services net sales and a different Services mix. Services gross margin percentage increased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to a different Services mix and leverage, partially offset by higher Services costs. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2021 Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Operating Expenses Operating expenses for the three months ended December 25, 2021 and December 26, 2020 were as follows (dollars in millions): Three Months Ended December 25, 2021 December 26, 2020 Research and development $ 6,306 $ 5,163 Percentage of total net sales 5 % 5 % Selling, general and administrative $ 6,449 $ 5,631 Percentage of total net sales 5 % 5 % Total operating expenses $ 12,755 $ 10,794 Percentage of total net sales 10 % 10 % Apple Inc. | Q1 2022 Form 10-Q | 17 Research and Development The growth in research and development (“R&amp;D”) expense during the first quarter of 2022 compared to the same quarter in 2021 was driven primarily by increases in headcount-related expenses, engineering program costs and infrastructure-related costs. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the first quarter of 2022 compared to the same quarter in 2021 was driven primarily by increases in headcount-related expenses, variable selling expenses and professional services. Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for the three months ended December 25, 2021 and December 26, 2020 was as follows (dollars in millions): Three Months Ended December 25, 2021 December 26, 2020 Change Interest and dividend income $ 650 $ 747 Interest expense (694) (638) Other expense, net (203) (64) Total other income/(expense), net $ (247) $ 45 (649) % OI&amp;E decreased during the first quarter of 2022 compared to the same quarter in 2021 due primarily to higher net losses on marketable and non-marketable securities and lower interest income. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three months ended December 25, 2021 and December 26, 2020 were as follows (dollars in millions): Three Months Ended December 25, 2021 December 26, 2020 Provision for income taxes $ 6,611 $ 4,824 Effective tax rate 16.0 % 14.4 % Statutory federal income tax rate 21 % 21 % The Company’s effective tax rate for the first quarter of 2022 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings and tax benefits from share-based compensation. The Company’s effective tax rate for the first quarter of 2022 was higher compared to the same quarter in 2021 due primarily to lower tax benefits from share-based compensation and a change in geographic mix of earnings. Liquidity and Capital Resources The Company believes its balances of cash, cash equivalents and unrestricted marketable securities, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s cash requirements have not changed materially since the 2021 Form 10-K, except for manufacturing purchase obligations. Apple Inc. | Q1 2022 Form 10-Q | 18 Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. Outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. As of December 25, 2021, the Company had manufacturing purchase obligations of $47.6 billion, with $47.5 billion payable within 12 months. The Company’s manufacturing purchase obligations are primarily noncancelable. In addition to its cash requirements, the Company has a capital return program authorized by the Board of Directors. The share repurchase program (the “Program”) does not obligate the Company to acquire any specific number of shares. As of December 25, 2021, the Company’s quarterly cash dividend was $0.22 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies” of the Notes to condensed consolidated Financial Statements in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2021 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting estimates since the 2021 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>Item 7. Management’s Discussion and Analysis of Financial Condition and Results of Operations The following discussion should be read in conjunction with the consolidated financial statements and accompanying notes included in Part II, Item 8 of this Form 10-K. This section of this Form 10-K generally discusses 2021 and 2020 items and year-to-year comparisons between 2021 and 2020. Discussions of 2019 items and year-to-year comparisons between 2020 and 2019 are not included in this Form 10-K, and can be found in “Management’s Discussion and Analysis of Financial Condition and Results of Operations” in Part II, Item 7 of the Company’s Annual Report on Form 10-K for the fiscal year ended September 26, 2020. Fiscal Year Highlights COVID-19 Update The COVID-19 pandemic has had, and continues to have, a significant impact around the world, prompting governments and businesses to take unprecedented measures, such as restrictions on travel and business operations, temporary closures of businesses, and quarantine and shelter-in-place orders. The COVID-19 pandemic has at times significantly curtailed global economic activity and caused significant volatility and disruption in global financial markets. The COVID-19 pandemic and the measures taken by many countries in response have affected and could in the future materially impact the Company’s business, results of operations and financial condition, as well as the price of the Company’s stock. During 2021, aspects of the Company’s business continued to be affected by the COVID-19 pandemic, with many of the Company’s retail stores, as well as channel partner points of sale, temporarily closed at various times, and a significant number of the Company’s employees working remotely. The Company has reopened all of its retail stores and substantially all of its other facilities, subject to operating restrictions to protect public health and the health and safety of employees and customers, and it continues to work on safely reopening the remainder of its facilities, subject to local rules and regulations. During the fourth quarter of 2021, certain of the Company’s component suppliers and logistical service providers experienced disruptions, resulting in supply shortages that affected sales worldwide. Similar disruptions could occur in the future. The extent of the continuing impact of the COVID-19 pandemic on the Company’s operational and financial performance is uncertain and will depend on many factors outside the Company’s control, including the timing, extent, trajectory and duration of the pandemic, the emergence of new variants, the development, availability, distribution and effectiveness of vaccines and treatments, the imposition of protective public safety measures, and the impact of the pandemic on the global economy and demand for consumer products. Refer to Part I, Item 1A of this Form 10-K under the heading “Risk Factors” for more information. Fiscal 2021 Highlights Total net sales increased 33% or $91.3 billion during 2021 compared to 2020, driven by growth in all Products and Services categories. Year-over-year net sales during 2021 also grew in each of the Company’s reportable segments. In April 2021, the Company announced an increase to its current share repurchase program authorization from $225 billion to $315 billion and raised its quarterly dividend from $0.205 to $0.22 per share beginning in May 2021. During 2021, the Company repurchased $85.5 billion of its common stock and paid dividends and dividend equivalents of $14.5 billion. Apple Inc. | 2021 Form 10-K | 20 Products and Services Performance The following table shows net sales by category for 2021, 2020 and 2019 (dollars in millions): 2021 Change 2020 Change 2019 Net sales by category: iPhone (1) $ 191,973 39 % $ 137,781 (3) % $ 142,381 Mac (1) 35,190 23 % 28,622 11 % 25,740 iPad (1) 31,862 34 % 23,724 11 % 21,280 Wearables, Home and Accessories (1)(2) 38,367 25 % 30,620 25 % 24,482 Services (3) 68,425 27 % 53,768 16 % 46,291 Total net sales $ 365,817 33 % $ 274,515 6 % $ 260,174 (1)Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2)Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and accessories. (3)Services net sales include sales from the Company’s advertising, AppleCare, cloud, digital content, payment and other services. Services net sales also include amortization of the deferred value of services bundled in the sales price of certain products. iPhone iPhone net sales increased during 2021 compared to 2020 due primarily to higher net sales from the Company’s new iPhone models launched in the first quarter and fourth quarter of 2021 and a favorable mix of iPhone sales. Mac Mac net sales increased during 2021 compared to 2020 due primarily to higher net sales of MacBook Air, MacBook Pro and iMac. iPad iPad net sales increased during 2021 compared to 2020 due primarily to higher net sales of iPad Air and iPad Pro. Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during 2021 compared to 2020 due primarily to higher net sales of accessories and Apple Watch. Services Services net sales increased during 2021 compared to 2020 due primarily to higher net sales from advertising, the App Store and cloud services. Apple Inc. | 2021 Form 10-K | 21 Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China mainland, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for 2021, 2020 and 2019 (dollars in millions): 2021 Change 2020 Change 2019 Net sales by reportable segment: Americas $ 153,306 23 % $ 124,556 7 % $ 116,914 Europe 89,307 30 % 68,640 14 % 60,288 Greater China 68,366 70 % 40,308 (8) % 43,678 Japan 28,482 33 % 21,418 — % 21,506 Rest of Asia Pacific 26,356 35 % 19,593 10 % 17,788 Total net sales $ 365,817 33 % $ 274,515 6 % $ 260,174 Americas Americas net sales increased during 2021 compared to 2020 due primarily to higher net sales of iPhone, Services and Mac. Europe Europe net sales increased during 2021 compared to 2020 due primarily to higher net sales of iPhone, Services and iPad. The movement of foreign currencies in Europe relative to the U.S. dollar had a net favorable impact on Europe net sales during 2021. Greater China Greater China net sales increased during 2021 compared to 2020 due primarily to higher net sales of iPhone, iPad and Services. The strength of the Chinese renminbi relative to the U.S. dollar had a favorable impact on Greater China net sales during 2021. Japan Japan net sales increased during 2021 compared to 2020 due primarily to higher net sales of iPhone and Services. Rest of Asia Pacific Rest of Asia Pacific net sales increased during 2021 compared to 2020 due primarily to higher net sales of iPhone, iPad and Services. The movement of foreign currencies in the Rest of Asia Pacific relative to the U.S. dollar had a favorable impact on Rest of Asia Pacific net sales during 2021. Apple Inc. | 2021 Form 10-K | 22 Gross Margin Products and Services gross margin and gross margin percentage for 2021, 2020 and 2019 were as follows (dollars in millions): 2021 2020 2019 Gross margin: Products $ 105,126 $ 69,461 $ 68,887 Services 47,710 35,495 29,505 Total gross margin $ 152,836 $ 104,956 $ 98,392 Gross margin percentage: Products 35.3 % 31.5 % 32.2 % Services 69.7 % 66.0 % 63.7 % Total gross margin percentage 41.8 % 38.2 % 37.8 % Products Gross Margin Products gross margin increased during 2021 compared to 2020 due primarily to higher Products volume, a different Products mix and the strength in foreign currencies relative to the U.S. dollar. Products gross margin percentage increased during 2021 compared to 2020 due primarily to a different Products mix, improved leverage and the strength in foreign currencies relative to the U.S. dollar. Services Gross Margin Services gross margin increased during 2021 compared to 2020 due primarily to higher Services net sales and a different Services mix. Services gross margin percentage increased during 2021 compared to 2020 due primarily to a different Services mix and improved leverage, partially offset by higher Services costs. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of this Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Operating Expenses Operating expenses for 2021, 2020 and 2019 were as follows (dollars in millions): 2021 Change 2020 Change 2019 Research and development $ 21,914 17 % $ 18,752 16 % $ 16,217 Percentage of total net sales 6 % 7 % 6 % Selling, general and administrative $ 21,973 10 % $ 19,916 9 % $ 18,245 Percentage of total net sales 6 % 7 % 7 % Total operating expenses $ 43,887 13 % $ 38,668 12 % $ 34,462 Percentage of total net sales 12 % 14 % 13 % Research and Development The year-over-year growth in R&amp;D expense in 2021 was driven primarily by increases in headcount-related expenses, R&amp;D-related professional services and infrastructure-related costs. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The year-over-year growth in selling, general and administrative expense in 2021 was driven primarily by increases in headcount-related expenses, variable selling expenses and professional services. Apple Inc. | 2021 Form 10-K | 23 Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for 2021, 2020 and 2019 was as follows (dollars in millions): 2021 Change 2020 Change 2019 Interest and dividend income $ 2,843 $ 3,763 $ 4,961 Interest expense (2,645) (2,873) (3,576) Other income/(expense), net 60 (87) 422 Total other income/(expense), net $ 258 (68) % $ 803 (56) % $ 1,807 The year-over-year decrease in OI&amp;E during 2021 was due primarily to lower interest income and net losses on marketable securities, partially offset by positive fair value adjustments on non-marketable securities and lower interest expense on term debt. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for 2021, 2020 and 2019 were as follows (dollars in millions): 2021 2020 2019 Provision for income taxes $ 14,527 $ 9,680 $ 10,481 Effective tax rate 13.3 % 14.4 % 15.9 % Statutory federal income tax rate 21 % 21 % 21 % The Company’s effective tax rate for 2021 was lower than the statutory federal income tax rate due primarily to a lower effective tax rate on foreign earnings, tax benefits from share-based compensation and foreign-derived intangible income deductions. The Company’s effective tax rate for 2020 was lower than the statutory federal income tax rate due primarily to the lower tax rate on foreign earnings, including the impact of tax settlements, and tax benefits from share-based compensation. The Company’s effective tax rate for 2021 was lower compared to 2020 due primarily to higher tax benefits from foreign-derived intangible income deductions and share-based compensation and the favorable impact of changes in unrecognized tax benefits, partially offset by a one-time adjustment in 2020 of U.S. foreign tax credits in response to regulations issued by the U.S. Department of the Treasury in December 2019. During 2021, the Company established deferred tax assets (“DTAs”) for foreign tax credit carryforwards in Ireland and increased DTAs for R&amp;D tax credit carryforwards in California, which resulted in a combined $3.5 billion increase in the valuation allowance on the Company’s DTAs, with no effect on net income. Management believes it is more likely than not that forecasted income, together with future reversals of existing taxable temporary differences, will be sufficient to realize substantially all of the Company’s remaining DTAs. Liquidity and Capital Resources The Company believes its balances of cash, cash equivalents and unrestricted marketable securities, which totaled $172.6 billion as of September 25, 2021, along with cash generated by ongoing operations and continued access to debt markets, will be sufficient to satisfy its cash requirements and capital return program over the next 12 months and beyond. The Company’s material cash requirements include the following contractual and other obligations. Debt As of September 25, 2021, the Company had outstanding floating- and fixed-rate notes with varying maturities for an aggregate principal amount of $118.1 billion (collectively the “Notes”), with $9.6 billion payable within 12 months. Future interest payments associated with the Notes total $39.5 billion, with $2.9 billion payable within 12 months. The Company also issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. As of September 25, 2021, the Company had $6.0 billion of Commercial Paper outstanding, all of which was payable within 12 months. Apple Inc. | 2021 Form 10-K | 24 Leases The Company has lease arrangements for certain equipment and facilities, including retail, corporate, manufacturing and data center space. As of September 25, 2021, the Company had fixed lease payment obligations of $14.6 billion, with $1.8 billion payable within 12 months. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture subassemblies for the Company’s products and to perform final assembly and testing of finished products. The Company also obtains individual components for its products from a wide variety of individual suppliers. Outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. As of September 25, 2021, the Company had manufacturing purchase obligations of $54.8 billion, with $54.7 billion payable within 12 months. The Company’s manufacturing purchase obligations are primarily noncancelable. Other Purchase Obligations The Company’s other purchase obligations primarily consist of noncancelable obligations to acquire capital assets, including product tooling and manufacturing process equipment, and noncancelable obligations related to advertising, content creation and Internet and telecommunications services. As of September 25, 2021, the Company had other purchase obligations of $8.3 billion, with $4.8 billion payable within 12 months. Deemed Repatriation Tax Payable As of September 25, 2021, the balance of the deemed repatriation tax payable imposed by the U.S. Tax Cuts and Jobs Act of 2017 (the “Act”) was $24.6 billion, none of which is payable within 12 months. In addition to its cash requirements, the Company has a capital return program authorized by the Board of Directors. The Program does not obligate the Company to acquire any specific number of shares. As of September 25, 2021, the Company’s quarterly cash dividend was $0.22 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Critical Accounting Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles (“GAAP”) and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies,” of the Notes to Consolidated Financial Statements in Part II, Item 8 of this Form 10-K describes the significant accounting policies and methods used in the preparation of the Company’s consolidated financial statements. Management bases its estimates on historical experience and on various other assumptions it believes to be reasonable under the circumstances, the results of which form the basis for making judgments about the carrying values of assets and liabilities. Uncertain Tax Positions The Company is subject to income taxes in the U.S. and numerous foreign jurisdictions. The evaluation of the Company’s uncertain tax positions involves significant judgment in the interpretation and application of GAAP and complex domestic and international tax laws, including the Act and matters related to the allocation of international taxation rights between countries. Although management believes the Company’s reserves are reasonable, no assurance can be given that the final tax outcome of these matters will not be different from that which is reflected in the Company’s reserves. Reserves are adjusted considering changing facts and circumstances, such as the closing of a tax examination or the refinement of an estimate. Resolution of these uncertainties in a manner inconsistent with management’s expectations could have a material impact on the Company’s financial condition and operating results. Legal and Other Contingencies The Company is subject to various legal proceedings and claims that arise in the ordinary course of business, the outcomes of which are inherently uncertain. The Company records a liability when it is probable that a loss has been incurred and the amount is reasonably estimable, the determination of which requires significant judgment. Resolution of legal matters in a manner inconsistent with management’s expectations could have a material impact on the Company’s financial condition and operating results.'</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of the COVID-19 pandemic on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the Company’s Annual Report on Form 10-K for the fiscal year ended September 26, 2020 (the “2020 Form 10-K”) under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The following discussion should be read in conjunction with the 2020 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on corporate governance and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Quarterly Highlights Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. COVID-19 Update The COVID-19 pandemic has prompted governments and businesses to take unprecedented measures, such as restrictions on travel and business operations, temporary closures of businesses, and quarantines and shelter-in-place orders. The COVID-19 pandemic has significantly curtailed global economic activity and caused significant volatility and disruption in global financial markets. The COVID-19 pandemic and the measures taken by many countries in response have affected and could in the future materially impact the Company’s business, results of operations, financial condition and stock price. During the third quarter of 2021, aspects of the Company’s business continued to be affected by the COVID-19 pandemic, with many of the Company’s retail stores, as well as channel partner points of sale, temporarily closed at various times, and a significant number of the Company’s employees working remotely. The Company has reopened substantially all of its offices and retail stores, subject to operating restrictions to protect public health and the health and safety of employees and customers, and it continues to work on safely reopening the remainder of its offices and retail stores, subject to local rules and regulations. The extent of the continuing impact of the COVID-19 pandemic on the Company’s operational and financial performance is uncertain and will depend on many factors outside the Company’s control, including, without limitation, the timing, extent, trajectory and duration of the pandemic; the availability, distribution and effectiveness of vaccines; the imposition of protective public safety measures; and the impact of the pandemic on the global economy and demand for consumer products. Refer to Part I, Item 1A of the 2020 Form 10-K under the heading “Risk Factors,” for more information. Apple Inc. | Q3 2021 Form 10-Q | 23 The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations. Third Quarter Fiscal 2021 Highlights Total net sales increased 36% or $21.7 billion during the third quarter of 2021 compared to the same quarter in 2020, driven by growth in all Products and Services categories. Year-over-year net sales during the third quarter of 2021 also grew in each of the Company’s reportable segments. During the third quarter of 2021, the Company released the following new products and services: •iMac®, powered by the Apple M1 chip; •iPad Pro®, powered by the Apple M1 chip; •Apple TV 4K®, with a redesigned Siri Remote®; •AirTag™, an accessory that helps keep track of items using the Find My™ network; and •Apple Podcasts® Subscriptions. The Company also announced iOS 15, macOS® Monterey, iPadOS® 15 and watchOS® 8, updates to its operating systems that are expected to be available in the fall of 2021. The Company repurchased $22.5 billion of its common stock and paid dividends and dividend equivalents of $3.8 billion during the third quarter of 2021. Products and Services Performance The following table shows net sales by category for the three- and nine-month periods ended June 26, 2021 and June 27, 2020 (dollars in millions): Three Months Ended Nine Months Ended June 26, 2021 June 27, 2020 Change June 26, 2021 June 27, 2020 Change Net sales by category: iPhone (1) $ 39,570 $ 26,418 50 % $ 153,105 $ 111,337 38 % Mac (1) 8,235 7,079 16 % 26,012 19,590 33 % iPad (1) 7,368 6,582 12 % 23,610 16,927 39 % Wearables, Home and Accessories (1)(2) 8,775 6,450 36 % 29,582 22,744 30 % Services (3) 17,486 13,156 33 % 50,148 39,219 28 % Total net sales $ 81,434 $ 59,685 36 % $ 282,457 $ 209,817 35 % (1)Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2)Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and Apple-branded and third-party accessories. (3)Services net sales include sales from the Company’s advertising, AppleCare, digital content and other services. Services net sales also include amortization of the deferred value of Maps, Siri, and free iCloud storage and Apple TV+ services, which are bundled in the sales price of certain products. iPhone iPhone net sales increased during the third quarter and first nine months of 2021 compared to the same periods in 2020 due primarily to higher net sales from the Company’s new iPhone models launched in the first quarter of 2021. Mac Mac net sales increased during the third quarter of 2021 compared to the third quarter of 2020 due primarily to higher net sales of MacBook Air® and iMac. Year-over-year Mac net sales increased during the first nine months of 2021 due primarily to higher net sales of MacBook Air and MacBook Pro®. Apple Inc. | Q3 2021 Form 10-Q | 24 iPad iPad net sales increased during the third quarter of 2021 compared to the third quarter of 2020 due to higher net sales of iPad Air®. Year-over-year iPad net sales increased during the first nine months of 2021 due to higher net sales of iPad Air, iPad Pro and the 10-inch version of iPad. Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during the third quarter and first nine months of 2021 compared to the same periods in 2020 due primarily to higher net sales of Apple Watch and accessories. Services Services net sales increased during the third quarter of 2021 compared to the third quarter of 2020 due primarily to higher net sales from advertising, the App Store and AppleCare. Year-over-year Services net sales increased during the first nine months of 2021 due primarily to higher net sales from advertising, the App Store and cloud services. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China mainland, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for the three- and nine-month periods ended June 26, 2021 and June 27, 2020 (dollars in millions): Three Months Ended Nine Months Ended June 26, 2021 June 27, 2020 Change June 26, 2021 June 27, 2020 Change Net sales by reportable segment: Americas $ 35,870 $ 27,018 33 % $ 116,486 $ 93,858 24 % Europe 18,943 14,173 34 % 68,513 51,740 32 % Greater China 14,762 9,329 58 % 53,803 32,362 66 % Japan 6,464 4,966 30 % 22,491 16,395 37 % Rest of Asia Pacific 5,395 4,199 28 % 21,164 15,462 37 % Total net sales $ 81,434 $ 59,685 36 % $ 282,457 $ 209,817 35 % Americas Americas net sales increased during the third quarter of 2021 compared to the third quarter of 2020 due primarily to higher net sales of iPhone, Services and Wearables, Home and Accessories. Year-over-year Americas net sales increased during the first nine months of 2021 due primarily to higher net sales of iPhone, Services and Mac. Europe Europe net sales increased during the third quarter of 2021 compared to the third quarter of 2020 due primarily to higher net sales of iPhone, Services and Wearables, Home and Accessories. Year-over-year Europe net sales increased during the first nine months of 2021 due primarily to higher net sales of iPhone, iPad and Mac. The movement of foreign currencies in Europe relative to the U.S. dollar had a net favorable impact on Europe net sales during the third quarter and first nine months of 2021. Greater China Greater China net sales increased during the third quarter of 2021 compared to the third quarter of 2020 due primarily to higher net sales of iPhone and Services. Year-over-year Greater China net sales increased during the first nine months of 2021 due primarily to higher net sales of iPhone and iPad. The strength of the Chinese renminbi relative to the U.S. dollar had a favorable impact on Greater China net sales during the third quarter and first nine months of 2021. Apple Inc. | Q3 2021 Form 10-Q | 25 Japan Japan net sales increased during the third quarter of 2021 compared to the third quarter of 2020 due primarily to higher net sales of iPhone. Year-over-year Japan net sales increased during the first nine months of 2021 due primarily to higher net sales of iPhone and Services. The strength of the Japanese yen relative to the U.S. dollar had a favorable impact on Japan net sales during the first nine months of 2021. Rest of Asia Pacific Rest of Asia Pacific net sales increased during the third quarter and first nine months of 2021 compared to the same periods in 2020 due primarily to higher net sales of iPhone, Wearables, Home and Accessories and Services. The movement of foreign currencies in the Rest of Asia Pacific relative to the U.S. dollar had a favorable impact on Rest of Asia Pacific net sales during the third quarter and first nine months of 2021. Gross Margin Products and Services gross margin and gross margin percentage for the three- and nine-month periods ended June 26, 2021 and June 27, 2020 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 26, 2021 June 27, 2020 June 26, 2021 June 27, 2020 Gross margin: Products $ 23,049 $ 13,836 $ 82,833 $ 54,509 Services 12,206 8,844 34,829 25,758 Total gross margin $ 35,255 $ 22,680 $ 117,662 $ 80,267 Gross margin percentage: Products 36.0 % 29.7 % 35.7 % 32.0 % Services 69.8 % 67.2 % 69.5 % 65.7 % Total gross margin percentage 43.3 % 38.0 % 41.7 % 38.3 % Products Gross Margin Products gross margin increased during the third quarter and first nine months of 2021 compared to the same periods in 2020 due primarily to higher Products volume, a different Products mix and the strength in foreign currencies relative to the U.S. dollar. Products gross margin percentage increased during the third quarter of 2021 compared to the third quarter of 2020 due primarily to a different Products mix, the strength in foreign currencies relative to the U.S. dollar and improved leverage. Year-over-year Products gross margin percentage increased during the first nine months of 2021 due primarily to improved leverage, a different Products mix and the strength in foreign currencies relative to the U.S. dollar. Services Gross Margin Services gross margin increased during the third quarter and first nine months of 2021 compared to the same periods in 2020 due primarily to higher Services net sales, a different Services mix and the strength in foreign currencies relative to the U.S. dollar. Year-over-year Services gross margin percentage increased during the third quarter and first nine months of 2021 due primarily to a different Services mix and improved leverage, partially offset by higher Services costs. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2020 Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Apple Inc. | Q3 2021 Form 10-Q | 26 Operating Expenses Operating expenses for the three- and nine-month periods ended June 26, 2021 and June 27, 2020 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 26, 2021 June 27, 2020 June 26, 2021 June 27, 2020 Research and development $ 5,717 $ 4,758 $ 16,142 $ 13,774 Percentage of total net sales 7 % 8 % 6 % 7 % Selling, general and administrative $ 5,412 $ 4,831 $ 16,357 $ 14,980 Percentage of total net sales 7 % 8 % 6 % 7 % Total operating expenses $ 11,129 $ 9,589 $ 32,499 $ 28,754 Percentage of total net sales 14 % 16 % 12 % 14 % Research and Development The growth in research and development (“R&amp;D”) expense during the third quarter of 2021 compared to the third quarter of 2020 was driven primarily by increases in headcount-related expenses, and material and equipment costs. Year-over-year R&amp;D expense increased during the first nine months of 2021 due primarily to higher headcount-related expenses and R&amp;D-related professional services. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the third quarter of 2021 compared to the third quarter of 2020 was driven primarily by increases in headcount-related and advertising expenses. Year-over-year selling, general and administrative expense increased during the first nine months of 2021 due primarily to higher headcount-related and variable selling expenses. Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for the three- and nine-month periods ended June 26, 2021 and June 27, 2020 was as follows (dollars in millions): Three Months Ended Nine Months Ended June 26, 2021 June 27, 2020 Change June 26, 2021 June 27, 2020 Change Interest and dividend income $ 719 $ 901 $ 2,184 $ 2,995 Interest expense (665) (697) (1,973) (2,239) Other income/(expense), net 189 (158) 585 (79) Total other income/(expense), net $ 243 $ 46 428 % $ 796 $ 677 18 % OI&amp;E increased during the third quarter of 2021 compared to the third quarter of 2020 due primarily to a favorable carrying value adjustment of non-marketable securities and smaller impairments of securities, partially offset by lower interest income. Year-over-year OI&amp;E increased during the first nine months of 2021 due primarily to smaller impairments of securities, lower interest expense and favorable carrying value adjustments of non-marketable securities, partially offset by lower interest income. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 1.32% and 1.74% in the third quarter of 2021 and 2020, respectively, and 1.40% and 1.95% in the first nine months of 2021 and 2020, respectively. Apple Inc. | Q3 2021 Form 10-Q | 27 Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and nine-month periods ended June 26, 2021 and June 27, 2020 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 26, 2021 June 27, 2020 June 26, 2021 June 27, 2020 Provision for income taxes $ 2,625 $ 1,884 $ 11,830 $ 7,452 Effective tax rate 10.8 % 14.3 % 13.8 % 14.3 % Statutory federal income tax rate 21 % 21 % 21 % 21 % The Company’s effective tax rate for the third quarter and first nine months of 2021 was lower than the statutory federal income tax rate due primarily to a lower effective rate on foreign earnings, tax benefits from share-based compensation, and the favorable impact of changes in unrecognized tax benefits, partially offset by state income taxes. The Company’s effective tax rate for the third quarter of 2021 was lower compared to the third quarter of 2020 due primarily to the favorable impact of changes in unrecognized tax benefits, a higher mix of foreign earnings, and higher tax benefits from share-based compensation. The Company’s effective tax rate for the first nine months of 2021 was lower compared to the same period in 2020 due primarily to higher tax benefits from share-based compensation, the favorable impact of changes in unrecognized tax benefits, and a higher mix of foreign earnings, partially offset by a one-time adjustment in 2020 of U.S. foreign tax credits in response to regulations issued by the U.S. Department of the Treasury in December 2019. Liquidity and Capital Resources The following tables present selected financial information and statistics as of June 26, 2021 and September 26, 2020 and for the first nine months of 2021 and 2020 (in millions): June 26, 2021 September 26, 2020 Cash, cash equivalents and marketable securities (1) $ 193,644 $ 191,830 Property, plant and equipment, net $ 38,615 $ 36,766 Commercial paper $ 8,000 $ 4,996 Total term debt $ 113,791 $ 107,440 Working capital $ 6,669 $ 38,321 Nine Months Ended June 26, 2021 June 27, 2020 Cash generated by operating activities $ 83,838 $ 60,098 Cash used in investing activities $ (15,380) $ (9,820) Cash used in financing activities $ (72,971) $ (65,463) (1)As of June 26, 2021 and September 26, 2020, total marketable securities included $18.9 billion and $18.6 billion, respectively, that was restricted from general use, related to the State Aid Decision (refer to Note 5, “Income Taxes” in the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q) and other agreements. The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations over the next 12 months. In connection with the State Aid Decision, as of June 26, 2021, the adjusted recovery amount of €12.7 billion plus interest of €1.2 billion was funded into escrow, where it will remain restricted from general use pending the conclusion of all legal proceedings. Further information regarding the State Aid Decision can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 5, “Income Taxes.” The Company’s marketable securities investment portfolio is primarily invested in highly rated securities, with the primary objective of minimizing the potential risk of principal loss. The Company’s investment policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer. Apple Inc. | Q3 2021 Form 10-Q | 28 During the nine months ended June 26, 2021, cash generated by operating activities of $83.8 billion was a result of $74.1 billion of net income, non-cash adjustments to net income of $12.8 billion and a decrease in the net change in operating assets and liabilities of $3.1 billion. Cash used in investing activities of $15.4 billion during the nine months ended June 26, 2021 consisted primarily of cash used for purchases of marketable securities, net of maturities and sales, of $7.4 billion and cash used to acquire property, plant and equipment of $7.9 billion. Cash used in financing activities of $73.0 billion during the nine months ended June 26, 2021 consisted primarily of cash used to repurchase common stock of $66.2 billion, cash used to pay dividends and dividend equivalents of $10.8 billion and cash used to repay or redeem term debt of $7.5 billion, partially offset by net proceeds from issuance of term debt of $13.9 billion. During the nine months ended June 27, 2020, cash generated by operating activities of $60.1 billion was a result of $44.7 billion of net income, non-cash adjustments to net income of $13.5 billion and an increase in the net change in operating assets and liabilities of $1.8 billion. Cash used in investing activities of $9.8 billion during the nine months ended June 27, 2020 consisted primarily of cash used for purchases of marketable securities, net of maturities and sales, of $2.0 billion and cash used to acquire property, plant and equipment of $5.5 billion. Cash used in financing activities of $65.5 billion during the nine months ended June 27, 2020 consisted primarily of cash used to repurchase common stock of $55.2 billion, cash used to pay dividends and dividend equivalents of $10.6 billion and cash used to repay or redeem term debt of $12.6 billion, partially offset by net proceeds from issuance of term debt of $10.6 billion and proceeds from repurchase agreements of $5.2 billion. Debt The Company issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. The Company uses the net proceeds from the commercial paper program for general corporate purposes, including dividends and share repurchases. As of June 26, 2021, the Company had $8.0 billion of Commercial Paper outstanding, with a weighted-average interest rate of 0.04% and maturities generally less than nine months. As of June 26, 2021, the Company had outstanding floating- and fixed-rate notes with varying maturities for an aggregate principal amount of $113.2 billion (collectively the “Notes”). During the first nine months of 2021, the Company issued $13.9 billion and repaid or redeemed $7.5 billion of Notes. The Company has entered, and in the future may enter, into interest rate swaps to manage interest rate risk on the Notes. In addition, the Company has entered, and in the future may enter, into foreign currency swaps to manage foreign currency risk on the Notes. Further information regarding the Company’s debt issuances and related hedging activity can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 3, “Financial Instruments” and Note 6, “Debt.” Capital Return As of June 26, 2021, the Company was authorized to purchase up to $315 billion of the Company’s common stock under a share repurchase program (the “Program”). During the nine months ended June 26, 2021, the Company repurchased 515 million shares of its common stock for $65.5 billion, including 32 million shares initially delivered under a $5.0 billion accelerated share repurchase agreement (“ASR”) entered into in May 2021, bringing the total utilization under the Program to $234.1 billion. The Program does not obligate the Company to acquire any specific number of shares. Under the Program, shares may be repurchased in privately negotiated and/or open market transactions, including under plans complying with Rule 10b5-1 under the Securities Exchange Act of 1934, as amended (the “Exchange Act”). As of June 26, 2021, the Company’s quarterly cash dividend was $0.22 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Contractual Obligations Leases The Company has lease arrangements for certain equipment and facilities, including retail, corporate, manufacturing and data center space. The Company’s retail store and other facility leases typically have original terms not exceeding 10 years and generally contain multi-year renewal options. The Company’s total fixed lease payment obligation of $13.7 billion as of June 26, 2021 included future payments under leases that had commenced as of June 26, 2021, and were therefore recorded on the Company’s Condensed Consolidated Balance Sheet, as well as leases that had been signed but not yet commenced as of June 26, 2021. Apple Inc. | Q3 2021 Form 10-Q | 29 Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture sub-assemblies for the Company’s products and to perform final assembly and testing of finished products. These outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of June 26, 2021, the Company expects to pay $38.2 billion under manufacturing-related supplier arrangements, which are primarily noncancelable. Other Purchase Obligations The Company’s other purchase obligations primarily consist of noncancelable obligations to acquire capital assets, including product tooling and manufacturing process equipment, and noncancelable obligations related to advertising, content creation and Internet and telecommunications services. As of June 26, 2021, the Company had other purchase obligations of $9.1 billion. Deemed Repatriation Tax Payable As of June 26, 2021, the balance of the deemed repatriation tax payable imposed by the U.S. Tax Cuts and Jobs Act (the “Act”) was $24.9 billion, all of which was included in other non-current liabilities in the Company’s Condensed Consolidated Balance Sheet. The Company pays the deemed repatriation tax payable in installments in accordance with the Act. Other Non-Current Liabilities The Company’s remaining other non-current liabilities primarily consist of items for which the Company is unable to make a reasonably reliable estimate of the timing or amount of payments. Critical Accounting Policies and Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Management bases its estimates on historical experience and on various other assumptions it believes to be reasonable under the circumstances, the results of which form the basis for making judgments about the carrying values of assets and liabilities. Actual results may differ from these estimates, and such differences may be material. Note 1, “Summary of Significant Accounting Policies” in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2020 Form 10-K, and “Critical Accounting Policies and Estimates” in Part II, Item 7 of the 2020 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting policies and estimates since the 2020 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of the COVID-19 pandemic on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the Company’s Annual Report on Form 10-K for the year ended September 26, 2020 (the “2020 Form 10-K”) under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The following discussion should be read in conjunction with the 2020 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on corporate governance and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Quarterly Highlights Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. COVID-19 Update The COVID-19 pandemic has prompted governments and businesses to take unprecedented measures, such as restrictions on travel and business operations, temporary closures of businesses, and quarantines and shelter-in-place orders. The COVID-19 pandemic has significantly curtailed global economic activity and caused significant volatility and disruption in global financial markets. The COVID-19 pandemic and the measures taken by many countries in response have affected and could in the future materially impact the Company’s business, results of operations, financial condition and stock price. During the second quarter of 2021, aspects of the Company’s business continued to be affected by the COVID-19 pandemic, with many of the Company’s retail stores, as well as channel partner points of sale, temporarily closed at various times, and the vast majority of the Company’s employees working remotely. The Company has reopened some of its offices and retail stores, subject to operating restrictions to protect public health and the health and safety of employees and customers, and it continues to work on safely reopening the remainder of its offices and retail stores, subject to local rules and regulations. The full extent of the future impact of the COVID-19 pandemic on the Company’s operational and financial performance is currently uncertain and will depend on many factors outside the Company’s control, including, without limitation, the timing, extent, trajectory and duration of the pandemic; the availability, distribution and effectiveness of vaccines; the imposition of protective public safety measures; and the impact of the pandemic on the global economy and demand for consumer products. Refer to Part I, Item 1A of the 2020 Form 10-K under the heading “Risk Factors,” for more information. Apple Inc. | Q2 2021 Form 10-Q | 23 The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations. Second Quarter Fiscal 2021 Highlights Total net sales increased 54% or $31.3 billion during the second quarter of 2021 compared to the same quarter in 2020, driven by higher net sales in all Products and Services categories in each of the Company’s reportable segments. The COVID-19 pandemic had an unfavorable impact on the Company’s net sales during the second quarter of 2020. The Company repurchased $19.0 billion of its common stock and paid dividends and dividend equivalents of $3.4 billion during the second quarter of 2021. In April 2021, the Company announced the following new products and services, all of which are expected to be available in the spring of 2021: •iMac®, powered by the Apple M1 chip; •iPad Pro®, powered by the Apple M1 chip; •Apple TV 4K®, with a redesigned Siri Remote®; •AirTag™, an accessory that helps keep track of items using the Find My™ network; and •Apple Podcasts® Subscriptions. Products and Services Performance The following table shows net sales by category for the three- and six-month periods ended March 27, 2021 and March 28, 2020 (dollars in millions): Three Months Ended Six Months Ended March 27, 2021 March 28, 2020 Change March 27, 2021 March 28, 2020 Change Net sales by category: iPhone (1) $ 47,938 $ 28,962 66 % $ 113,535 $ 84,919 34 % Mac (1) 9,102 5,351 70 % 17,777 12,511 42 % iPad (1) 7,807 4,368 79 % 16,242 10,345 57 % Wearables, Home and Accessories (1)(2) 7,836 6,284 25 % 20,807 16,294 28 % Services (3) 16,901 13,348 27 % 32,662 26,063 25 % Total net sales $ 89,584 $ 58,313 54 % $ 201,023 $ 150,132 34 % (1)Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2)Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and Apple-branded and third-party accessories. (3)Services net sales include sales from the Company’s advertising, AppleCare, digital content and other services. Services net sales also include amortization of the deferred value of Maps, Siri, and free iCloud storage and Apple TV+ services, which are bundled in the sales price of certain products. iPhone iPhone net sales increased during the second quarter and first six months of 2021 compared to the same periods in 2020 due primarily to higher net sales from the successful launch of the Company’s new iPhone models in the first quarter of 2021 and a favorable mix of iPhone sales. Mac Mac net sales increased during the second quarter and first six months of 2021 compared to the same periods in 2020 due primarily to higher net sales of MacBook Air® and MacBook Pro®. iPad iPad net sales increased during the second quarter and first six months of 2021 compared to the same periods in 2020 due primarily to higher net sales of iPad Air® and the 10-inch version of iPad. Apple Inc. | Q2 2021 Form 10-Q | 24 Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during the second quarter and first six months of 2021 compared to the same periods in 2020 due primarily to higher net sales of Apple Watch and accessories. Services Services net sales increased during the second quarter and first six months of 2021 compared to the same periods in 2020 due primarily to higher net sales from the App Store, advertising and cloud services. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China mainland, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for the three- and six-month periods ended March 27, 2021 and March 28, 2020 (dollars in millions): Three Months Ended Six Months Ended March 27, 2021 March 28, 2020 Change March 27, 2021 March 28, 2020 Change Net sales by reportable segment: Americas $ 34,306 $ 25,473 35 % $ 80,616 $ 66,840 21 % Europe 22,264 14,294 56 % 49,570 37,567 32 % Greater China 17,728 9,455 87 % 39,041 23,033 70 % Japan 7,742 5,206 49 % 16,027 11,429 40 % Rest of Asia Pacific 7,544 3,885 94 % 15,769 11,263 40 % Total net sales $ 89,584 $ 58,313 54 % $ 201,023 $ 150,132 34 % Americas Americas net sales increased during the second quarter and first six months of 2021 compared to the same periods in 2020 due primarily to higher net sales of iPhone, Services and Mac. Europe Europe net sales increased during the second quarter and first six months of 2021 compared to the same periods in 2020 due primarily to higher net sales of iPhone, iPad and Mac. Greater China Greater China net sales increased during the second quarter and first six months of 2021 compared to the same periods in 2020 due primarily to higher net sales of iPhone and iPad. The strength of the Chinese renminbi relative to the U.S. dollar had a favorable impact on Greater China net sales during the second quarter and first six months of 2021. Japan Japan net sales increased during the second quarter and first six months of 2021 compared to the same periods in 2020 due primarily to higher net sales of iPhone, Services and iPad. The strength of the Japanese yen relative to the U.S. dollar had a favorable impact on Japan net sales during the second quarter and first six months of 2021. Apple Inc. | Q2 2021 Form 10-Q | 25 Rest of Asia Pacific Rest of Asia Pacific net sales increased during the second quarter of 2021 compared to the second quarter of 2020 due primarily to higher net sales of iPhone, iPad and Mac. Year-over-year Rest of Asia Pacific net sales increased during the first six months of 2021 due primarily to higher net sales of iPhone, iPad and Wearables, Home and Accessories. The movement of foreign currencies in the Rest of Asia Pacific relative to the U.S. dollar had a net favorable impact on net sales during the second quarter and first six months of 2021. Gross Margin Products and Services gross margin and gross margin percentage for the three- and six-month periods ended March 27, 2021 and March 28, 2020 were as follows (dollars in millions): Three Months Ended Six Months Ended March 27, 2021 March 28, 2020 March 27, 2021 March 28, 2020 Gross margin: Products $ 26,236 $ 13,644 $ 59,784 $ 40,673 Services 11,843 8,726 22,623 16,914 Total gross margin $ 38,079 $ 22,370 $ 82,407 $ 57,587 Gross margin percentage: Products 36.1 % 30.3 % 35.5 % 32.8 % Services 70.1 % 65.4 % 69.3 % 64.9 % Total gross margin percentage 42.5 % 38.4 % 41.0 % 38.4 % Products Gross Margin Products gross margin increased during the second quarter and first six months of 2021 compared to the same periods in 2020 due primarily to higher Products volume, a different Products mix and the strength in foreign currencies relative to the U.S. dollar. Year-over-year Products gross margin percentage increased during the second quarter and first six months of 2021 due primarily to higher leverage, a different Products mix and the strength in foreign currencies relative to the U.S. dollar. Services Gross Margin Services gross margin increased during the second quarter and first six months of 2021 compared to the same periods in 2020 due primarily to higher Services net sales, a different Services mix and the strength in foreign currencies relative to the U.S. dollar. Year-over-year Services gross margin percentage increased during the second quarter and first six months of 2021 due primarily to a different Services mix, higher leverage and the strength in foreign currencies relative to the U.S. dollar. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2020 Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and downward pressure. Apple Inc. | Q2 2021 Form 10-Q | 26 Operating Expenses Operating expenses for the three- and six-month periods ended March 27, 2021 and March 28, 2020 were as follows (dollars in millions): Three Months Ended Six Months Ended March 27, 2021 March 28, 2020 March 27, 2021 March 28, 2020 Research and development $ 5,262 $ 4,565 $ 10,425 $ 9,016 Percentage of total net sales 6 % 8 % 5 % 6 % Selling, general and administrative $ 5,314 $ 4,952 $ 10,945 $ 10,149 Percentage of total net sales 6 % 8 % 5 % 7 % Total operating expenses $ 10,576 $ 9,517 $ 21,370 $ 19,165 Percentage of total net sales 12 % 16 % 11 % 13 % Research and Development The growth in research and development (“R&amp;D”) expense during the second quarter and first six months of 2021 compared to the same periods in 2020 was driven primarily by increases in headcount-related expenses. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the second quarter and first six months of 2021 compared to the same periods in 2020 was driven primarily by increases in headcount-related expenses and higher variable selling expenses. Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for the three- and six-month periods ended March 27, 2021 and March 28, 2020 was as follows (dollars in millions): Three Months Ended Six Months Ended March 27, 2021 March 28, 2020 Change March 27, 2021 March 28, 2020 Change Interest and dividend income $ 718 $ 1,049 $ 1,465 $ 2,094 Interest expense (670) (757) (1,308) (1,542) Other income/(expense), net 460 (10) 396 79 Total other income/(expense), net $ 508 $ 282 80 % $ 553 $ 631 (12) % OI&amp;E increased during the second quarter of 2021 compared to the second quarter of 2020 due primarily to impairments of marketable and non-marketable securities in 2020 and a favorable carrying value adjustment of non-marketable securities in 2021, partially offset by lower interest income in 2021. OI&amp;E decreased during the first six months of 2021 compared to the same period in 2020 due primarily to lower interest income in 2021, partially offset by impairments of marketable and non-marketable securities in 2020 and lower interest expense in 2021. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 1.37% and 2.01% in the second quarter of 2021 and 2020, respectively, and 1.43% and 2.05% in the first six months of 2021 and 2020, respectively. Apple Inc. | Q2 2021 Form 10-Q | 27 Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and six-month periods ended March 27, 2021 and March 28, 2020 were as follows (dollars in millions): Three Months Ended Six Months Ended March 27, 2021 March 28, 2020 March 27, 2021 March 28, 2020 Provision for income taxes $ 4,381 $ 1,886 $ 9,205 $ 5,568 Effective tax rate 15.6 % 14.4 % 14.9 % 14.3 % Statutory federal income tax rate 21 % 21 % 21 % 21 % The Company’s effective tax rate for the second quarter of 2021 was lower than the statutory federal income tax rate due primarily to lower taxes on foreign earnings. The Company’s effective tax rate for the first six months of 2021 was lower than the statutory federal income tax rate due primarily to lower taxes on foreign earnings and tax benefits from share-based compensation. The Company’s effective tax rate for the second quarter of 2021 was higher compared to the second quarter of 2020 due primarily to higher taxes on foreign earnings and a lower impact of the U.S. federal R&amp;D tax credit. The Company’s effective tax rate for the first six months of 2021 was higher compared to the same period in 2020 due primarily to higher taxes on foreign earnings, partially offset by higher tax benefits from share-based compensation. Liquidity and Capital Resources The following tables present selected financial information and statistics as of March 27, 2021 and September 26, 2020 and for the first six months of 2021 and 2020 (in millions): March 27, 2021 September 26, 2020 Cash, cash equivalents and marketable securities (1) $ 204,373 $ 191,830 Property, plant and equipment, net $ 37,815 $ 36,766 Commercial paper $ 5,000 $ 4,996 Total term debt $ 116,645 $ 107,440 Working capital $ 15,080 $ 38,321 Six Months Ended March 27, 2021 March 28, 2020 Cash generated by operating activities $ 62,744 $ 43,827 Cash used in investing activities $ (18,952) $ (4,655) Cash used in financing activities $ (43,575) $ (46,347) (1)As of March 27, 2021 and September 26, 2020, total marketable securities included $19.0 billion and $18.6 billion, respectively, that was restricted from general use, related to the State Aid Decision (refer to Note 5, “Income Taxes” in the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q) and other agreements. The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations over the next 12 months. In connection with the State Aid Decision, as of March 27, 2021, the adjusted recovery amount of €12.9 billion plus interest of €1.2 billion was funded into escrow, where it will remain restricted from general use pending the conclusion of all legal proceedings. Further information regarding the State Aid Decision can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 5, “Income Taxes.” The Company’s marketable securities investment portfolio is primarily invested in highly rated securities, with the primary objective of minimizing the potential risk of principal loss. The Company’s investment policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer. Apple Inc. | Q2 2021 Form 10-Q | 28 During the six months ended March 27, 2021, cash generated by operating activities of $62.7 billion was a result of $52.4 billion of net income, non-cash adjustments to net income of $8.8 billion and an increase in the net change in operating assets and liabilities of $1.6 billion. Cash used in investing activities of $19.0 billion during the six months ended March 27, 2021 consisted primarily of cash used for purchases of marketable securities, net of maturities and sales, of $13.2 billion and cash used to acquire property, plant and equipment of $5.8 billion. Cash used in financing activities of $43.6 billion during the six months ended March 27, 2021 consisted primarily of cash used to repurchase common stock of $43.3 billion, cash used to pay dividends and dividend equivalents of $7.1 billion and cash used to repay or redeem term debt of $4.5 billion, partially offset by net proceeds from issuance of term debt of $13.9 billion. During the six months ended March 28, 2020, cash generated by operating activities of $43.8 billion was a result of $33.5 billion of net income, non-cash adjustments to net income of $8.1 billion and an increase in the net change in operating assets and liabilities of $2.2 billion. Cash used in investing activities of $4.7 billion during the six months ended March 28, 2020 consisted primarily of cash used to acquire property, plant and equipment of $4.0 billion, partially offset by proceeds from maturities and sales of marketable securities, net of purchases, of $1.0 billion. Cash used in financing activities of $46.3 billion during the six months ended March 28, 2020 consisted primarily of cash used to repurchase common stock of $39.3 billion, cash used to pay dividends and dividend equivalents of $6.9 billion and cash used to repay or redeem term debt of $5.3 billion, partially offset by net proceeds from commercial paper and repurchase agreement of $4.1 billion and net proceeds from issuance of term debt of $2.2 billion. Debt The Company issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. The Company uses the net proceeds from the commercial paper program for general corporate purposes, including dividends and share repurchases. As of March 27, 2021, the Company had $5.0 billion of Commercial Paper outstanding, with a weighted-average interest rate of 0.06% and maturities generally less than nine months. As of March 27, 2021, the Company had outstanding floating- and fixed-rate notes with varying maturities for an aggregate principal amount of $116.0 billion (collectively the “Notes”). During the first six months of 2021, the Company issued $13.9 billion and repaid or redeemed $4.5 billion of Notes. The Company has entered, and in the future may enter, into interest rate swaps to manage interest rate risk on the Notes. In addition, the Company has entered, and in the future may enter, into foreign currency swaps to manage foreign currency risk on the Notes. Further information regarding the Company’s debt issuances and related hedging activity can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 3, “Financial Instruments” and Note 6, “Debt.” Capital Return As of March 27, 2021, the Company was authorized to purchase up to $225 billion of the Company’s common stock under a share repurchase program (the “Program”). During the six months ended March 27, 2021, the Company repurchased 347 million shares of its common stock for $43.0 billion, bringing the total utilization under the Program to $211.6 billion. On April 28, 2021, the Company announced the Board of Directors increased the Program authorization by $90 billion. The Program does not obligate the Company to acquire any specific number of shares. Under the Program, shares may be repurchased in privately negotiated and/or open market transactions, including under plans complying with Rule 10b5-1 under the Securities Exchange Act of 1934, as amended (the “Exchange Act”). On April 28, 2021, the Company also announced the Board of Directors raised the Company’s quarterly cash dividend from $0.205 to $0.22 per share, beginning with the dividend to be paid during the third quarter of 2021. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Contractual Obligations Leases The Company has lease arrangements for certain equipment and facilities, including retail, corporate, manufacturing and data center space. The Company’s retail store and other facility leases typically have original terms not exceeding 10 years and generally contain multi-year renewal options. The Company’s total fixed lease payment obligation of $13.1 billion as of March 27, 2021 included future payments under leases that had commenced as of March 27, 2021, and were therefore recorded on the Company’s Condensed Consolidated Balance Sheet, as well as leases that had been signed but not yet commenced as of March 27, 2021. Apple Inc. | Q2 2021 Form 10-Q | 29 Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture sub-assemblies for the Company’s products and to perform final assembly and testing of finished products. These outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of March 27, 2021, the Company expects to pay $35.4 billion under manufacturing-related supplier arrangements, which are primarily noncancelable. Other Purchase Obligations The Company’s other purchase obligations primarily consist of noncancelable obligations to acquire capital assets, including product tooling and manufacturing process equipment, and noncancelable obligations related to advertising, content creation and Internet and telecommunications services. As of March 27, 2021, the Company had other purchase obligations of $8.6 billion. Deemed Repatriation Tax Payable As of March 27, 2021, the balance of the deemed repatriation tax payable imposed by the U.S. Tax Cuts and Jobs Act (the “Act”) was $27.8 billion, of which $25.1 billion was included in other non-current liabilities in the Company’s Condensed Consolidated Balance Sheet. The Company pays the deemed repatriation tax payable in installments in accordance with the Act. Other Non-Current Liabilities The Company’s remaining other non-current liabilities primarily consist of items for which the Company is unable to make a reasonably reliable estimate of the timing or amount of payments. Critical Accounting Policies and Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Management bases its estimates on historical experience and on various other assumptions it believes to be reasonable under the circumstances, the results of which form the basis for making judgments about the carrying values of assets and liabilities. Actual results may differ from these estimates, and such differences may be material. Note 1, “Summary of Significant Accounting Policies” in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2020 Form 10-K, and “Critical Accounting Policies and Estimates” in Part II, Item 7 of the 2020 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting policies and estimates since the 2020 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of the COVID-19 pandemic on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the Company’s Annual Report on Form 10-K for the year ended September 26, 2020 (the “2020 Form 10-K”) under the heading “Risk Factors.” The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The following discussion should be read in conjunction with the 2020 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on corporate governance and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Quarterly Highlights Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. COVID-19 Update The COVID-19 pandemic has prompted governments and businesses to take unprecedented measures, such as restrictions on travel and business operations, temporary closures of businesses, and quarantines and shelter-in-place orders. The COVID-19 pandemic has significantly curtailed global economic activity and caused significant volatility and disruption in global financial markets. The COVID-19 pandemic and the measures taken by many countries in response have affected and could in the future materially impact the Company’s business, results of operations, financial condition and stock price. During the first quarter of 2021, aspects of the Company’s business continued to be affected by the COVID-19 pandemic, with many of the Company’s retail stores, as well as channel partner points of sale, temporarily closed at various times, and the vast majority of the Company’s employees working remotely. The Company has reopened some of its offices and retail stores, subject to operating restrictions to protect public health and the health and safety of employees and customers, and it continues to work on safely reopening the remainder of its offices and retail stores, subject to local rules and regulations. The full extent of the future impact of the COVID-19 pandemic on the Company’s operational and financial performance is currently uncertain and will depend on many factors outside the Company’s control, including, without limitation, the timing, extent, trajectory and duration of the pandemic; the availability, distribution and effectiveness of vaccines; the imposition of protective public safety measures; and the impact of the pandemic on the global economy and demand for consumer products. Refer to Part I, Item 1A of the 2020 Form 10-K under the heading “Risk Factors,” for more information. Apple Inc. | Q1 2021 Form 10-Q | 22 The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations. First Quarter Fiscal 2021 Highlights Total net sales increased 21% or $19.6 billion during the first quarter of 2021 compared to the same quarter in 2020, driven by higher net sales in all Products and Services categories. Additionally, net sales in all of the Company’s geographic reportable segments grew during the first quarter of 2021. During the first quarter of 2021, the Company released the following products and services: •iPhone 12, iPhone 12 mini, iPhone 12 Pro and iPhone 12 Pro Max, all with 5G technology; •MacBook Air®, 13-inch MacBook Pro® and Mac mini®, all powered by M1, the Company’s first chip designed specifically for the Mac; •An all-new iPad Air®; •AirPods Max™, new over-ear wireless headphones, and HomePod mini™; and •Apple Fitness+SM, a fitness subscription service. The Company repurchased $24.0 billion of its common stock and paid dividends and dividend equivalents of $3.6 billion during the first quarter of 2021. Products and Services Performance The following table shows net sales by category for the three months ended December 26, 2020 and December 28, 2019 (dollars in millions): Three Months Ended December 26, 2020 December 28, 2019 Change Net sales by category: iPhone (1) $ 65,597 $ 55,957 17 % Mac (1) 8,675 7,160 21 % iPad (1) 8,435 5,977 41 % Wearables, Home and Accessories (1)(2) 12,971 10,010 30 % Services (3) 15,761 12,715 24 % Total net sales $ 111,439 $ 91,819 21 % (1)Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2)Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and Apple-branded and third-party accessories. (3)Services net sales include sales from the Company’s advertising, AppleCare, digital content and other services. Services net sales also include amortization of the deferred value of Maps, Siri, and free iCloud storage and Apple TV+ services, which are bundled in the sales price of certain products. iPhone iPhone net sales increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to higher net sales from the successful launch of the Company’s four new iPhone models and a favorable mix of iPhone sales. Mac Mac net sales increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to higher net sales of MacBook Air and MacBook Pro. iPad iPad net sales increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to higher net sales of iPad Air and iPad Pro®. Apple Inc. | Q1 2021 Form 10-Q | 23 Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to higher net sales of Apple Watch, accessories and AirPods. Services Services net sales increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to higher net sales from the App Store, advertising and cloud services. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China mainland, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for the three months ended December 26, 2020 and December 28, 2019 (dollars in millions): Three Months Ended December 26, 2020 December 28, 2019 Change Net sales by reportable segment: Americas $ 46,310 $ 41,367 12 % Europe 27,306 23,273 17 % Greater China 21,313 13,578 57 % Japan 8,285 6,223 33 % Rest of Asia Pacific 8,225 7,378 11 % Total net sales $ 111,439 $ 91,819 21 % Americas Americas net sales increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to higher net sales of Services, iPhone and Wearables, Home and Accessories. Europe Europe net sales increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to higher net sales of Wearables, Home and Accessories, iPhone and iPad. Greater China Greater China net sales increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to higher net sales of iPhone, iPad and Wearables, Home and Accessories. The strength of the Chinese renminbi relative to the U.S. dollar had a favorable impact on Greater China net sales during the first quarter of 2021. Japan Japan net sales increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to higher net sales of iPhone, Services and iPad. The strength of the Japanese yen relative to the U.S. dollar had a favorable impact on Japan net sales during the first quarter of 2021. Apple Inc. | Q1 2021 Form 10-Q | 24 Rest of Asia Pacific Rest of Asia Pacific net sales increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to higher net sales of Services, iPad and Wearables, Home and Accessories. The movement of foreign currencies in the Rest of Asia Pacific relative to the U.S. dollar had a net favorable impact on net sales during the first quarter of 2021. Gross Margin Products and Services gross margin and gross margin percentage for the three months ended December 26, 2020 and December 28, 2019 were as follows (dollars in millions): Three Months Ended December 26, 2020 December 28, 2019 Gross margin: Products $ 33,548 $ 27,029 Services 10,780 8,188 Total gross margin $ 44,328 $ 35,217 Gross margin percentage: Products 35.1 % 34.2 % Services 68.4 % 64.4 % Total gross margin percentage 39.8 % 38.4 % Products Gross Margin Products gross margin increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to higher Products volume and a different Products mix. Products gross margin percentage increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to higher leverage. Services Gross Margin Services gross margin increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to higher Services net sales and a different Services mix. Services gross margin percentage increased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to a different Services mix and higher leverage, partially offset by higher Services costs. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2020 Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and remain under downward pressure. Operating Expenses Operating expenses for the three months ended December 26, 2020 and December 28, 2019 were as follows (dollars in millions): Three Months Ended December 26, 2020 December 28, 2019 Research and development $ 5,163 $ 4,451 Percentage of total net sales 5 % 5 % Selling, general and administrative $ 5,631 $ 5,197 Percentage of total net sales 5 % 6 % Total operating expenses $ 10,794 $ 9,648 Percentage of total net sales 10 % 11 % Apple Inc. | Q1 2021 Form 10-Q | 25 Research and Development The growth in research and development (“R&amp;D”) expense during the first quarter of 2021 compared to the same quarter in 2020 was driven primarily by increases in headcount-related expenses. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the first quarter of 2021 compared to the same quarter in 2020 was driven primarily by increases in headcount-related expenses and higher variable selling expenses. Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for the three months ended December 26, 2020 and December 28, 2019 was as follows (dollars in millions): Three Months Ended December 26, 2020 December 28, 2019 Change Interest and dividend income $ 747 $ 1,045 Interest expense (638) (785) Other income/(expense), net (64) 89 Total other income/(expense), net $ 45 $ 349 (87) % OI&amp;E decreased during the first quarter of 2021 compared to the same quarter in 2020 due primarily to lower interest income and an adjustment to the carrying value of a non-marketable security, partially offset by lower interest expense. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 1.49% and 2.08% in the first quarter of 2021 and 2020, respectively. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three months ended December 26, 2020 and December 28, 2019 were as follows (dollars in millions): Three Months Ended December 26, 2020 December 28, 2019 Provision for income taxes $ 4,824 $ 3,682 Effective tax rate 14.4 % 14.2 % Statutory federal income tax rate 21 % 21 % The Company’s effective tax rate for the first quarter of 2021 was lower than the statutory federal income tax rate due primarily to lower tax rates on foreign earnings and tax benefits from share-based compensation. The Company’s effective tax rate for the first quarter of 2021 was relatively flat compared to the same quarter in 2020. Apple Inc. | Q1 2021 Form 10-Q | 26 Liquidity and Capital Resources The following tables present selected financial information and statistics as of December 26, 2020 and September 26, 2020 and for the first three months of 2021 and 2020 (in millions): December 26, 2020 September 26, 2020 Cash, cash equivalents and marketable securities (1) $ 195,571 $ 191,830 Property, plant and equipment, net $ 37,933 $ 36,766 Commercial paper $ 5,000 $ 4,996 Total term debt $ 107,043 $ 107,440 Working capital $ 21,599 $ 38,321 Three Months Ended December 26, 2020 December 28, 2019 Cash generated by operating activities $ 38,763 $ 30,516 Cash used in investing activities $ (8,584) $ (13,668) Cash used in financing activities $ (32,249) $ (25,407) (1)As of December 26, 2020 and September 26, 2020, total marketable securities included $19.5 billion and $18.6 billion, respectively, that was restricted from general use, related to the State Aid Decision (refer to Note 5, “Income Taxes” in the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q) and other agreements. The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations over the next 12 months. In connection with the State Aid Decision, as of December 26, 2020, the adjusted recovery amount of €12.9 billion plus interest of €1.2 billion was funded into escrow, where it will remain restricted from general use pending the conclusion of all legal proceedings. Further information regarding the State Aid Decision can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 5, “Income Taxes.” The Company’s marketable securities investment portfolio is primarily invested in highly rated securities, with the primary objective of minimizing the potential risk of principal loss. The Company’s investment policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer. During the three months ended December 26, 2020, cash generated by operating activities of $38.8 billion was a result of $28.8 billion of net income, non-cash adjustments to net income of $4.7 billion and an increase in the net change in operating assets and liabilities of $5.4 billion. Cash used in investing activities of $8.6 billion during the three months ended December 26, 2020 consisted primarily of cash used for purchases of marketable securities, net of maturities and sales, of $5.3 billion and cash used to acquire property, plant and equipment of $3.5 billion. Cash used in financing activities of $32.2 billion during the three months ended December 26, 2020 consisted primarily of cash used to repurchase common stock of $24.8 billion, cash used to pay dividends and dividend equivalents of $3.6 billion, cash used for taxes related to net share settlement of equity awards of $2.9 billion, and cash used to repay term debt of $1.0 billion. During the three months ended December 28, 2019, cash generated by operating activities of $30.5 billion was a result of $22.2 billion of net income, non-cash adjustments to net income of $4.0 billion and an increase in the net change in operating assets and liabilities of $4.2 billion. Cash used in investing activities of $13.7 billion during the three months ended December 28, 2019 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $10.4 billion and cash used to acquire property, plant and equipment of $2.1 billion. Cash used in financing activities of $25.4 billion during the three months ended December 28, 2019 consisted primarily of cash used to repurchase common stock of $20.7 billion, cash used to pay dividends and dividend equivalents of $3.5 billion and cash used to repay term debt of $1.0 billion, partially offset by net proceeds from the issuance of term debt of $2.2 billion. Debt The Company issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. The Company uses the net proceeds from the commercial paper program for general corporate purposes, including dividends and share repurchases. As of December 26, 2020, the Company had $5.0 billion of Commercial Paper outstanding, with a weighted-average interest rate of 0.10% and maturities generally less than nine months. Apple Inc. | Q1 2021 Form 10-Q | 27 As of December 26, 2020, the Company had outstanding floating- and fixed-rate notes with varying maturities for an aggregate principal amount of $105.9 billion (collectively the “Notes”). During the first three months of 2021, the Company repaid $1.0 billion of Notes. The Company has entered, and in the future may enter, into interest rate swaps to manage interest rate risk on the Notes. In addition, the Company has entered, and in the future may enter, into foreign currency swaps to manage foreign currency risk on the Notes. Further information regarding the Company’s debt issuances and related hedging activity can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 3, “Financial Instruments” and Note 6, “Debt.” Capital Return Program As of December 26, 2020, the Company was authorized to purchase up to $225 billion of the Company’s common stock under a share repurchase program, of which $192.6 billion had been utilized. During the three months ended December 26, 2020, the Company repurchased 200 million shares of its common stock for $24.0 billion. The Company’s share repurchase program does not obligate it to acquire any specific number of shares. Under this program, shares may be repurchased in privately negotiated and/or open market transactions, including under plans complying with Rule 10b5-1 under the Securities Exchange Act of 1934, as amended (the “Exchange Act”). As of December 26, 2020, the Company’s quarterly cash dividend was $0.205 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Contractual Obligations Leases The Company has lease arrangements for certain equipment and facilities, including retail, corporate, manufacturing and data center space. The Company’s retail store and other facility leases typically have original terms not exceeding 10 years and generally contain multi-year renewal options. The Company’s total fixed lease payment obligation of $13.0 billion as of December 26, 2020 included future payments under leases that had commenced as of December 26, 2020, and were therefore recorded on the Company’s Condensed Consolidated Balance Sheet, as well as leases that had been signed but not yet commenced as of December 26, 2020. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture sub-assemblies for the Company’s products and to perform final assembly and testing of finished products. These outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of December 26, 2020, the Company expects to pay $45.8 billion under manufacturing-related supplier arrangements, which are primarily noncancelable. Other Purchase Obligations The Company’s other purchase obligations primarily consist of noncancelable obligations to acquire capital assets, including product tooling and manufacturing process equipment, and noncancelable obligations related to advertising, content creation and Internet and telecommunications services. As of December 26, 2020, the Company had other purchase obligations of $7.8 billion. Deemed Repatriation Tax Payable As of December 26, 2020, the balance of the deemed repatriation tax payable imposed by the U.S. Tax Cuts and Jobs Act (the “Act”) was $29.9 billion, of which $28.1 billion was included in other non-current liabilities in the Company’s Condensed Consolidated Balance Sheet. The Company pays the deemed repatriation tax payable in installments in accordance with the Act. Other Non-Current Liabilities The Company’s remaining other non-current liabilities primarily consist of items for which the Company is unable to make a reasonably reliable estimate of the timing or amount of payments. Apple Inc. | Q1 2021 Form 10-Q | 28 Critical Accounting Policies and Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Management bases its estimates on historical experience and on various other assumptions it believes to be reasonable under the circumstances, the results of which form the basis for making judgments about the carrying values of assets and liabilities. Actual results may differ from these estimates, and such differences may be material. Note 1, “Summary of Significant Accounting Policies” in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2020 Form 10-K, and “Critical Accounting Policies and Estimates” in Part II, Item 7 of the 2020 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting policies and estimates since the 2020 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>Item 7. Management’s Discussion and Analysis of Financial Condition and Results of Operations The following discussion should be read in conjunction with the consolidated financial statements and accompanying notes included in Part II, Item 8 of this Form 10-K. This section of this Form 10-K generally discusses 2020 and 2019 items and year-to-year comparisons between 2020 and 2019. Discussions of 2018 items and year-to-year comparisons between 2019 and 2018 that are not included in this Form 10-K can be found in “Management’s Discussion and Analysis of Financial Condition and Results of Operations” in Part II, Item 7 of the Company’s Annual Report on Form 10-K for the fiscal year ended September 28, 2019. Fiscal Year Highlights COVID-19 Update COVID-19 has spread rapidly throughout the world, prompting governments and businesses to take unprecedented measures in response. Such measures have included restrictions on travel and business operations, temporary closures of businesses, and quarantines and shelter-in-place orders. The COVID-19 pandemic has significantly curtailed global economic activity and caused significant volatility and disruption in global financial markets. The COVID-19 pandemic and the measures taken by many countries in response have adversely affected and could in the future materially adversely impact the Company’s business, results of operations, financial condition and stock price. During 2020, aspects of the Company’s business were adversely affected by the COVID-19 pandemic, with many of the Company’s retail stores, as well as channel partner points of sale, temporarily closed at various times, and the vast majority of the Company’s employees working remotely. The Company has reopened some of its offices and the majority of its retail stores, subject to operating restrictions to protect public health and the health and safety of employees and customers, and it continues to work on safely re-opening the remainder of its offices and retail stores, subject to local rules and regulations. The full extent of the future impact of the COVID-19 pandemic on the Company’s operational and financial performance is currently uncertain and will depend on many factors outside the Company’s control, including, without limitation, the timing, extent, trajectory and duration of the pandemic, the development and availability of effective treatments and vaccines, the imposition of protective public safety measures, and the impact of the pandemic on the global economy and demand for consumer products. Refer to Part I, Item 1A of this Form 10-K under the heading “Risk Factors,” for more information. The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations. Fiscal 2020 Highlights Total net sales increased 6% or $14.3 billion during 2020 compared to 2019, primarily driven by higher net sales of Services and Wearables, Home and Accessories. The weakness in foreign currencies had an unfavorable impact on net sales during 2020. In April 2020, the Company announced an increase to its current share repurchase program authorization from $175 billion to $225 billion and raised its quarterly dividend from $0.1925 to $0.205 per share beginning in May 2020. During 2020, the Company repurchased $72.5 billion of its common stock and paid dividends and dividend equivalents of $14.1 billion. On August 28, 2020, the Company effected a four-for-one stock split to shareholders of record as of August 24, 2020. All share, RSU and per share or per RSU information has been retroactively adjusted to reflect the stock split. Apple Inc. | 2020 Form 10-K | 20 Products and Services Performance The following table shows net sales by category for 2020, 2019 and 2018 (dollars in millions): 2020 Change 2019 Change 2018 Net sales by category: iPhone (1) $ 137,781 (3) % $ 142,381 (14) % $ 164,888 Mac (1) 28,622 11 % 25,740 2 % 25,198 iPad (1) 23,724 11 % 21,280 16 % 18,380 Wearables, Home and Accessories (1)(2) 30,620 25 % 24,482 41 % 17,381 Services (3) 53,768 16 % 46,291 16 % 39,748 Total net sales $ 274,515 6 % $ 260,174 (2) % $ 265,595 (1)Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2)Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and Apple-branded and third-party accessories. (3)Services net sales include sales from the Company’s advertising, AppleCare, digital content and other services. Services net sales also include amortization of the deferred value of Maps, Siri, and free iCloud® storage and Apple TV+ services, which are bundled in the sales price of certain products. iPhone iPhone net sales decreased during 2020 compared to 2019 due primarily to the absence of new iPhone models in the fourth quarter of 2020 and the weakness in foreign currencies relative to the U.S. dollar, partially offset by the introduction of iPhone SE in the third quarter of 2020. Mac Mac net sales increased during 2020 compared to 2019 due primarily to higher net sales of MacBook Pro. iPad iPad net sales increased during 2020 compared to 2019 due primarily to higher net sales of 10-inch versions of iPad, iPad Air and iPad Pro. Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during 2020 compared to 2019 due primarily to higher net sales of AirPods and Apple Watch. Services Services net sales increased during 2020 compared to 2019 due primarily to higher net sales from the App Store, advertising and cloud services. Apple Inc. | 2020 Form 10-K | 21 Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China mainland, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for 2020, 2019 and 2018 (dollars in millions): 2020 Change 2019 Change 2018 Net sales by reportable segment: Americas $ 124,556 7 % $ 116,914 4 % $ 112,093 Europe 68,640 14 % 60,288 (3) % 62,420 Greater China 40,308 (8) % 43,678 (16) % 51,942 Japan 21,418 — % 21,506 (1) % 21,733 Rest of Asia Pacific 19,593 10 % 17,788 2 % 17,407 Total net sales $ 274,515 6 % $ 260,174 (2) % $ 265,595 Americas Americas net sales increased during 2020 compared to 2019 due primarily to higher net sales of Services and Wearables, Home and Accessories. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Americas net sales during 2020. Europe Europe net sales increased during 2020 compared to 2019 due primarily to higher net sales of iPhone, Wearables, Home and Accessories and Services. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Europe net sales during 2020. Greater China Greater China net sales decreased during 2020 compared to 2019 due primarily to lower net sales of iPhone, partially offset by higher net sales of Services and iPad. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Greater China net sales during 2020. Japan Japan net sales were flat during 2020 compared to 2019 due primarily to lower net sales of iPhone, offset by higher net sales of Services and Wearables, Home and Accessories. The strength of the Japanese yen relative to the U.S. dollar had a favorable impact on Japan net sales during 2020. Rest of Asia Pacific Rest of Asia Pacific net sales increased during 2020 compared to 2019 due primarily to higher net sales of Wearables, Home and Accessories, Services and iPhone. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Rest of Asia Pacific net sales during 2020. Apple Inc. | 2020 Form 10-K | 22 Gross Margin Products and Services gross margin and gross margin percentage for 2020, 2019 and 2018 were as follows (dollars in millions): 2020 2019 2018 Gross margin: Products $ 69,461 $ 68,887 $ 77,683 Services 35,495 29,505 24,156 Total gross margin $ 104,956 $ 98,392 $ 101,839 Gross margin percentage: Products 31.5 % 32.2 % 34.4 % Services 66.0 % 63.7 % 60.8 % Total gross margin percentage 38.2 % 37.8 % 38.3 % Products Gross Margin Products gross margin increased during 2020 compared to 2019 due primarily to higher Products volume and material cost savings, partially offset by the weakness in foreign currencies relative to the U.S. dollar and a different Products mix. Products gross margin percentage decreased during 2020 compared to 2019 due primarily to the weakness in foreign currencies relative to the U.S. dollar and a different Products mix, partially offset by material cost savings and higher leverage. Services Gross Margin Services gross margin increased during 2020 compared to 2019 due primarily to higher Services net sales and a different Services mix. Services gross margin percentage increased during 2020 compared to 2019 due primarily to a different Services mix and higher leverage, partially offset by higher Services costs. The Company’s future gross margins can be impacted by a variety of factors, as set forth in Part I, Item 1A of this Form 10-K under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and remain under downward pressure. Operating Expenses Operating expenses for 2020, 2019 and 2018 were as follows (dollars in millions): 2020 Change 2019 Change 2018 Research and development $ 18,752 16 % $ 16,217 14 % $ 14,236 Percentage of total net sales 7 % 6 % 5 % Selling, general and administrative $ 19,916 9 % $ 18,245 9 % $ 16,705 Percentage of total net sales 7 % 7 % 6 % Total operating expenses $ 38,668 12 % $ 34,462 11 % $ 30,941 Percentage of total net sales 14 % 13 % 12 % Research and Development The year-over-year growth in R&amp;D expense in 2020 was driven primarily by increases in headcount-related expenses. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The year-over-year growth in selling, general and administrative expense in 2020 was driven primarily by increases in headcount-related expenses, higher spending on marketing and advertising, and higher variable selling expenses. Apple Inc. | 2020 Form 10-K | 23 Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for 2020, 2019 and 2018 was as follows (dollars in millions): 2020 Change 2019 Change 2018 Interest and dividend income $ 3,763 $ 4,961 $ 5,686 Interest expense (2,873) (3,576) (3,240) Other income/(expense), net (87) 422 (441) Total other income/(expense), net $ 803 (56) % $ 1,807 (10) % $ 2,005 The year-over-year decrease in OI&amp;E during 2020 was due primarily to lower interest income and net impairment/gain activity on non-marketable securities, partially offset by lower interest expense. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 1.85% and 2.19% in 2020 and 2019, respectively. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for 2020, 2019 and 2018 were as follows (dollars in millions): 2020 2019 2018 Provision for income taxes $ 9,680 $ 10,481 $ 13,372 Effective tax rate 14.4 % 15.9 % 18.3 % Statutory federal income tax rate 21 % 21 % 24.5 % The Company’s effective tax rate for both 2020 and 2019 was lower than the statutory federal income tax rate due primarily to the lower tax rate on foreign earnings, including the impact of tax settlements, and tax benefits from share-based compensation. The Company’s effective tax rate for 2020 was lower compared to 2019 due primarily to a one-time adjustment of U.S. foreign tax credits in response to regulations issued by the U.S. Department of the Treasury in December 2019 in connection with the U.S. Tax Cuts and Jobs Act of 2017 (the “Act”) and higher tax benefits from share-based compensation. As of September 26, 2020, the Company had net deferred tax assets arising from deductible temporary differences and tax credits of $11.0 billion and deferred tax liabilities of $2.8 billion. Management believes it is more likely than not that forecasted income, including income that may be generated as a result of certain tax planning strategies, together with future reversals of existing taxable temporary differences, will be sufficient to recover the net deferred tax assets. The Company will continue to evaluate the amount of the valuation allowance, if any, by assessing the realizability of deferred tax assets. Recent Accounting Pronouncements Financial Instruments In June 2016, the Financial Accounting Standards Board issued Accounting Standards Update No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses on certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 will not have a material impact on its consolidated financial statements. Apple Inc. | 2020 Form 10-K | 24 Liquidity and Capital Resources The following table presents selected financial information and statistics as of and for the years ended September 26, 2020, September 28, 2019 and September 29, 2018 (in millions): 2020 2019 2018 Cash, cash equivalents and marketable securities (1) $ 191,830 $ 205,898 $ 237,100 Property, plant and equipment, net $ 36,766 $ 37,378 $ 41,304 Commercial paper $ 4,996 $ 5,980 $ 11,964 Total term debt $ 107,440 $ 102,067 $ 102,519 Working capital $ 38,321 $ 57,101 $ 15,410 Cash generated by operating activities $ 80,674 $ 69,391 $ 77,434 Cash generated by/(used in) investing activities $ (4,289) $ 45,896 $ 16,066 Cash used in financing activities $ (86,820) $ (90,976) $ (87,876) (1)As of September 26, 2020 and September 28, 2019, total marketable securities included $18.6 billion and $18.9 billion, respectively, that was restricted from general use, related to the State Aid Decision (refer to Note 5, “Income Taxes” in the Notes to Consolidated Financial Statements in Part II, Item 8 of this Form 10-K) and other agreements. The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations over the next 12 months. In connection with the State Aid Decision, as of September 26, 2020, the adjusted recovery amount of €12.9 billion plus interest of €1.2 billion was funded into escrow, where it will remain restricted from general use pending the conclusion of all legal proceedings. Further information regarding the State Aid Decision can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 5, “Income Taxes.” The Company’s marketable securities investment portfolio is primarily invested in highly rated securities, with the primary objective of minimizing the potential risk of principal loss. The Company’s investment policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer. During 2020, cash generated by operating activities of $80.7 billion was a result of $57.4 billion of net income, non-cash adjustments to net income of $17.6 billion and an increase in the net change in operating assets and liabilities of $5.7 billion. Cash used in investing activities of $4.3 billion during 2020 consisted primarily of cash used to acquire property, plant and equipment of $7.3 billion and cash paid for business acquisitions, net of cash acquired, of $1.5 billion, partially offset by proceeds from maturities and sales of marketable securities, net of purchases, of $5.5 billion. Cash used in financing activities of $86.8 billion during 2020 consisted primarily of cash used to repurchase common stock of $72.4 billion, cash used to pay dividends and dividend equivalents of $14.1 billion, cash used to repay or redeem term debt of $12.6 billion and net repayments of commercial paper of $1.0 billion, partially offset by net proceeds from the issuance of term debt of $16.1 billion. During 2019, cash generated by operating activities of $69.4 billion was a result of $55.3 billion of net income and non-cash adjustments to net income of $17.6 billion, partially offset by a decrease in the net change in operating assets and liabilities of $3.5 billion. Cash generated by investing activities of $45.9 billion during 2019 consisted primarily of proceeds from sales and maturities of marketable securities, net of purchases, of $57.5 billion, partially offset by cash used to acquire property, plant and equipment of $10.5 billion. Cash used in financing activities of $91.0 billion during 2019 consisted primarily of cash used to repurchase common stock of $66.9 billion, cash used to pay dividends and dividend equivalents of $14.1 billion, cash used to repay term debt of $8.8 billion and net repayments of commercial paper of $6.0 billion, partially offset by net proceeds from the issuance of term debt of $7.0 billion. Debt The Company issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. The Company uses the net proceeds from the commercial paper program for general corporate purposes, including dividends and share repurchases. As of September 26, 2020, the Company had $5.0 billion of Commercial Paper outstanding, with a weighted-average interest rate of 0.62% and maturities generally less than nine months. The Company may enter into agreements to sell certain of its marketable securities with a promise to repurchase the securities at a specified time and amount as an additional short-term liquidity arrangement. Apple Inc. | 2020 Form 10-K | 25 As of September 26, 2020, the Company had outstanding floating- and fixed-rate notes with varying maturities for an aggregate principal amount of $106.1 billion (collectively the “Notes”). During 2020, the Company issued $16.1 billion and repaid or redeemed $12.6 billion of Notes. The Company has entered, and in the future may enter, into interest rate swaps to manage interest rate risk on the Notes. In addition, the Company has entered, and in the future may enter, into foreign currency swaps to manage foreign currency risk on the Notes. Further information regarding the Company’s debt issuances and related hedging activity can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 3, “Financial Instruments” and Note 6, “Debt.” Capital Return Program As of September 26, 2020, the Company was authorized to purchase up to $225 billion of the Company’s common stock under a share repurchase program, of which $168.6 billion had been utilized. During 2020, the Company repurchased 917 million shares of its common stock for $72.5 billion, including 141 million shares delivered under a $10.0 billion November 2019 ASR and 64 million shares delivered under a $6.0 billion May 2020 ASR. The Company’s share repurchase program does not obligate it to acquire any specific number of shares. Under this program, shares may be repurchased in privately negotiated and/or open market transactions, including under plans complying with Rule 10b5-1 under the Exchange Act. As of September 26, 2020, the Company’s quarterly cash dividend was $0.205 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Contractual Obligations The following table presents certain payments due by the Company as of September 26, 2020, and includes amounts already recorded on the Consolidated Balance Sheet, except for manufacturing purchase obligations, other purchase obligations and certain lease obligations (in millions): Payments due in 2021 Payments due in 2022–2023 Payments due in 2024–2025 Payments due after 2025 Total Term debt $ 8,750 $ 20,958 $ 21,029 $ 55,341 $ 106,078 Leases 1,622 3,097 2,352 5,888 12,959 Manufacturing purchase obligations (1) 47,961 1,849 61 40 49,911 Other purchase obligations 6,178 2,736 400 90 9,404 Deemed repatriation tax payable 1,533 5,923 12,955 9,254 29,665 Total $ 66,044 $ 34,563 $ 36,797 $ 70,613 $ 208,017 (1)Represents amount expected to be paid under manufacturing-related supplier arrangements, which are primarily noncancelable. Leases The Company has lease arrangements for certain equipment and facilities, including retail, corporate, manufacturing and data center space. The Company’s retail store and other facility leases typically have original terms not exceeding 10 years and generally contain multi-year renewal options. The above contractual obligations table includes future payments under leases that had commenced as of September 26, 2020, and were therefore recorded on the Company’s Consolidated Balance Sheet, as well as leases that had been signed but not yet commenced as of September 26, 2020. Further information regarding the Company’s leases can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 12, “Leases.” Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture sub-assemblies for the Company’s products and to perform final assembly and testing of finished products. These outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. The Company also obtains individual components for its products from a wide variety of individual suppliers. Other Purchase Obligations The Company’s other purchase obligations consist of noncancelable obligations to acquire capital assets, including product tooling and manufacturing process equipment, and noncancelable obligations related to advertising, licensing, R&amp;D, Internet and telecommunications services, content creation and other activities. Apple Inc. | 2020 Form 10-K | 26 Deemed Repatriation Tax Payable As of September 26, 2020, a significant portion of the other non-current liabilities in the Company’s Consolidated Balance Sheet consisted of the deemed repatriation tax payable imposed by the Act. The Company plans to pay the deemed repatriation tax payable in installments in accordance with the Act. Other Non-Current Liabilities The Company’s remaining other non-current liabilities primarily consist of items for which the Company is unable to make a reasonably reliable estimate of the timing or amount of payments; therefore, such amounts are not included in the above contractual obligations table. Critical Accounting Policies and Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles (“GAAP”) and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies,” of the Notes to Consolidated Financial Statements in Part II, Item 8 of this Form 10-K describes the significant accounting policies and methods used in the preparation of the Company’s consolidated financial statements. Management bases its estimates on historical experience and on various other assumptions it believes to be reasonable under the circumstances, the results of which form the basis for making judgments about the carrying values of assets and liabilities. Actual results may differ from these estimates, and such differences may be material. Management believes the Company’s critical accounting policies and estimates are those related to revenue recognition, valuation of manufacturing-related assets and estimation of inventory purchase commitment cancellation fees, warranty costs, income taxes, and legal and other contingencies. Management considers these policies critical because they are both important to the portrayal of the Company’s financial condition and operating results, and they require management to make judgments and estimates about inherently uncertain matters. The Company’s senior management has reviewed these critical accounting policies and related disclosures with the Audit and Finance Committee of the Company’s Board of Directors. Revenue Recognition The Company has identified up to three performance obligations regularly included in arrangements involving the sale of iPhone, Mac, iPad and certain other products. The first performance obligation, which represents the substantial portion of the allocated sales price, is the hardware and bundled software delivered at the time of sale. The second performance obligation is the right to receive certain product-related bundled services, which include iCloud, Siri and Maps. The third performance obligation is the right to receive, on a when-and-if-available basis, future unspecified software upgrades relating to the software bundled with each device. The Company allocates revenue and any related discounts to these performance obligations based on their relative stand-alone selling prices (“SSPs”). Because the Company lacks observable prices for the undelivered performance obligations, the allocation of revenue is based on the Company’s estimated SSPs. Revenue allocated to the product-related bundled services and unspecified software upgrade rights is deferred and recognized on a straight-line basis over the estimated period they are expected to be provided. The Company’s process for determining estimated SSPs involves management’s judgment and considers multiple factors that may vary over time depending upon the unique facts and circumstances related to each deliverable. Should future facts and circumstances change, the Company’s SSPs and the future rate of related amortization for product-related bundled services and unspecified software upgrade rights related to future sales of these devices could change. Factors subject to change include the nature of the product-related bundled services and unspecified software upgrade rights offered, their estimated value and the estimated period they are expected to be provided. Valuation of Manufacturing-Related Assets and Estimation of Inventory Purchase Commitment Cancellation Fees The Company invests in manufacturing-related assets, including capital assets held at its suppliers’ facilities and prepayments provided to certain of its suppliers associated with long-term agreements to secure the supply of inventory. The Company also accrues estimated purchase commitment cancellation fees related to inventory orders that have been canceled or are expected to be canceled. The Company’s estimates of future product development plans and demand for its products are key inputs in determining the recoverability of manufacturing-related assets and assessing the adequacy of any purchase commitment cancellation fee accruals. If there is an abrupt and substantial decline in estimated demand for one or more of the Company’s products, a change in the Company’s product development plans, or an unanticipated change in technological requirements for any of the Company’s products, the Company may be required to record write-downs or impairments of manufacturing-related assets or accrue purchase commitment cancellation fees. Apple Inc. | 2020 Form 10-K | 27 Warranty Costs The Company offers limited warranties on its new and certified refurbished hardware products and on parts used to repair its hardware products, and customers may purchase extended service coverage, where available, on many of the Company’s hardware products. The Company accrues the estimated cost of warranties in the period the related revenue is recognized based on historical and projected warranty claim rates, historical and projected cost per claim and knowledge of specific product failures outside the Company’s typical experience. If actual product failure rates or repair costs differ from estimates, revisions to the estimated warranty liabilities would be required. Income Taxes The Company recognizes tax benefits from uncertain tax positions if it is more likely than not that the tax position will be sustained on examination by the taxing authorities, based on the technical merits of the position. The tax benefits recognized in the financial statements from such positions are measured based on the largest benefit that has a greater-than-50% likelihood of being realized upon ultimate settlement. The calculation of tax liabilities involves significant judgment in estimating the impact of uncertainties in the application of GAAP and complex tax laws. Resolution of these uncertainties in a manner inconsistent with management’s expectations could have a material impact on the Company’s financial condition and operating results. Legal and Other Contingencies As discussed in Part I, Item 3 of this Form 10-K under the heading “Legal Proceedings” and in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 10, “Commitments and Contingencies,” the Company is subject to various legal proceedings and claims that arise in the ordinary course of business. The Company records a liability when it is probable that a loss has been incurred and the amount is reasonably estimable, the determination of which requires significant judgment. Except as described in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 10, “Commitments and Contingencies” under the heading “Contingencies,” in the opinion of management, there was not at least a reasonable possibility the Company may have incurred a material loss, or a material loss greater than a recorded accrual, concerning loss contingencies for asserted legal and other claims. The outcome of litigation is inherently uncertain. If one or more legal matters were resolved against the Company in a reporting period for amounts above management’s expectations, the Company’s financial condition and operating results for that reporting period could be materially adversely affected.'</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of the COVID-19 pandemic on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the Company’s Annual Report on Form 10-K for the year ended September 28, 2019 (the “2019 Form 10-K”) and Part II, Item 1A of this Form 10-Q, in each case under the heading “Risk Factors.” The following discussion should be read in conjunction with the 2019 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on corporate governance and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Quarterly Highlights Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. COVID-19 Update During the second quarter of 2020, a novel strain of coronavirus (“COVID-19”) began spreading rapidly throughout the world, prompting governments and businesses to take unprecedented measures in response. Such measures included restrictions on travel and business operations, temporary closures of businesses, and quarantines and shelter-in-place orders. The COVID-19 pandemic has significantly curtailed global economic activity and caused significant volatility and disruption in global financial markets. The COVID-19 pandemic and the measures taken by many countries in response have adversely affected and could in the future materially adversely impact the Company’s business, results of operations, financial condition and stock price. During the third quarter of 2020, aspects of the Company’s business continued to be adversely affected by the COVID-19 pandemic, with many of the Company’s retail stores temporarily closed and the vast majority of the Company’s employees working remotely. The Company is working on safely re-opening its offices and retail stores, subject to local rules and regulations. Demand for certain of the Company’s products and services was impacted throughout the third quarter of 2020. The most pronounced impact occurred in April 2020, with demand improving in May and June 2020 across all product categories and Services. The full extent of the future impact of the COVID-19 pandemic on the Company’s operational and financial performance is currently uncertain and will depend on many factors outside the Company’s control, including, without limitation, the timing, extent, trajectory and duration of the pandemic, the development and availability of effective treatments and vaccines, the imposition of protective public safety measures, and the impact of the pandemic on the global economy and demand for consumer products. Refer to Part I, Item 1A of the 2019 Form 10-K and Part II, Item 1A of this Form 10-Q, in each case under the heading “Risk Factors,” for more information. Apple Inc. | Q3 2020 Form 10-Q | 25 The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations. Third Quarter Fiscal 2020 Highlights Total net sales increased 11% or $5.9 billion during the third quarter of 2020 compared to the same quarter in 2019, primarily driven by higher net sales of Services, iPad and Mac. The year-over-year increase in net sales during the third quarter of 2020 reflected growth in all of the Company’s geographic reportable segments and product categories. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on net sales during the third quarter of 2020. During the third quarter of 2020, the Company released a new iPhone SE and an updated 13-inch MacBook Pro®. The Company also announced iOS 14, iPadOS® 14, macOS® Big Sur, watchOS® 7 and tvOS® 14, updates to its operating systems that are expected to be available in the fall of 2020. The Company repurchased $16.0 billion of its common stock and paid dividends and dividend equivalents of $3.7 billion during the third quarter of 2020. Products and Services Performance The following table shows net sales by category for the three- and nine-month periods ended June 27, 2020 and June 29, 2019 (dollars in millions): Three Months Ended Nine Months Ended June 27, 2020 June 29, 2019 Change June 27, 2020 June 29, 2019 Change Net sales by category: iPhone (1) $ 26,418 $ 25,986 2 % $ 111,337 $ 109,019 2 % Mac (1) 7,079 5,820 22 % 19,590 18,749 4 % iPad (1) 6,582 5,023 31 % 16,927 16,624 2 % Wearables, Home and Accessories (1)(2) 6,450 5,525 17 % 22,744 17,962 27 % Services (3) 13,156 11,455 15 % 39,219 33,780 16 % Total net sales $ 59,685 $ 53,809 11 % $ 209,817 $ 196,134 7 % (1)Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2)Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and Apple-branded and third-party accessories. (3)Services net sales include sales from the Company’s digital content stores and streaming services, AppleCare, Advertising and other services. Services net sales also include amortization of the deferred value of Maps, Siri, and free iCloud storage and Apple TV + services, which are bundled in the sales price of certain products. iPhone iPhone net sales increased during the third quarter of 2020 compared to the third quarter of 2019 due primarily to net sales of the new iPhone SE released during the third quarter of 2020. Year-over-year iPhone net sales increased during the first nine months of 2020 due primarily to higher net sales of iPhone 11, 11 Pro and 11 Pro Max. Mac Mac net sales increased during the third quarter of 2020 compared to the third quarter of 2019 due to higher net sales of MacBook Pro and MacBook Air®. Year-over-year Mac net sales increased during the first nine months of 2020 due to higher net sales of MacBook Pro. iPad iPad net sales increased during the third quarter of 2020 compared to the third quarter of 2019 due primarily to higher net sales of iPad Pro®. Year-over-year iPad net sales increased during the first nine months of 2020 due primarily to higher net sales of iPad Air®. Apple Inc. | Q3 2020 Form 10-Q | 26 Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during the third quarter and first nine months of 2020 compared to the same periods in 2019 due primarily to higher net sales of AirPods. Services Services net sales increased during the third quarter of 2020 compared to the third quarter of 2019 due primarily to higher net sales from the App Store, Video and Cloud Services. Year-over-year Services net sales increased during the first nine months of 2020 due primarily to higher net sales from the App Store, Advertising and AppleCare. Advertising net sales includes net sales from licensing arrangements and the Company’s advertising platforms. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for the three- and nine-month periods ended June 27, 2020 and June 29, 2019 (dollars in millions): Three Months Ended Nine Months Ended June 27, 2020 June 29, 2019 Change June 27, 2020 June 29, 2019 Change Net sales by reportable segment: Americas $ 27,018 $ 25,056 8 % $ 93,858 $ 87,592 7 % Europe 14,173 11,925 19 % 51,740 45,342 14 % Greater China 9,329 9,157 2 % 32,362 32,544 (1) % Japan 4,966 4,082 22 % 16,395 16,524 (1) % Rest of Asia Pacific 4,199 3,589 17 % 15,462 14,132 9 % Total net sales $ 59,685 $ 53,809 11 % $ 209,817 $ 196,134 7 % Americas Americas net sales increased during the third quarter of 2020 compared to the third quarter of 2019 due primarily to higher net sales of Services and iPad. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Americas net sales during the third quarter of 2020. Year-over-year Americas net sales increased during the first nine months of 2020 due primarily to higher net sales of Services and Wearables, Home and Accessories. Europe Europe net sales increased during the third quarter of 2020 compared to the third quarter of 2019 due primarily to higher net sales of iPhone, iPad and Wearables, Home and Accessories. Year-over-year Europe net sales increased during the first nine months of 2020 due primarily to higher net sales of iPhone and Wearables, Home and Accessories. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Europe net sales during the third quarter and first nine months of 2020. Greater China Greater China net sales increased during the third quarter of 2020 compared to the third quarter of 2019 due primarily to higher net sales of iPad and Services, partially offset by lower net sales of iPhone. Year-over-year Greater China net sales decreased during the first nine months of 2020 due primarily to lower net sales of iPhone, partially offset by higher net sales of Services and Wearables, Home and Accessories. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Greater China net sales during the third quarter and first nine months of 2020. Apple Inc. | Q3 2020 Form 10-Q | 27 Japan Japan net sales increased during the third quarter of 2020 compared to the third quarter of 2019 due primarily to higher net sales of Services, iPad and Mac. Year-over-year Japan net sales decreased during the first nine months of 2020 due primarily to lower net sales of iPhone, partially offset by higher net sales of Services and Wearables, Home and Accessories. The strength of the Japanese Yen relative to the U.S. dollar had a favorable impact on Japan net sales during the first nine months of 2020. Rest of Asia Pacific Rest of Asia Pacific net sales increased during the third quarter of 2020 compared to the third quarter of 2019 due primarily to higher net sales of iPhone, iPad and Mac. Year-over-year Rest of Asia Pacific net sales increased during the first nine months of 2020 due primarily to higher net sales of Wearables, Home and Accessories, iPhone and Services. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Rest of Asia Pacific net sales during the third quarter and first nine months of 2020. Gross Margin Products and Services gross margin and gross margin percentage for the three- and nine-month periods ended June 27, 2020 and June 29, 2019 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 27, 2020 June 29, 2019 June 27, 2020 June 29, 2019 Gross margin: Products $ 13,836 $ 12,881 $ 54,509 $ 52,596 Services 8,844 7,346 25,758 21,483 Total gross margin $ 22,680 $ 20,227 $ 80,267 $ 74,079 Gross margin percentage: Products 29.7 % 30.4 % 32.0 % 32.4 % Services 67.2 % 64.1 % 65.7 % 63.6 % Total gross margin percentage 38.0 % 37.6 % 38.3 % 37.8 % Products Gross Margin Products gross margin increased during the third quarter of 2020 compared to the third quarter of 2019 due primarily to higher Products volume and material cost savings, partially offset by a different Products mix and the weakness in foreign currencies relative to the U.S. dollar. Year-over-year Products gross margin percentage decreased during the third quarter of 2020 due primarily to a different Products mix and the weakness in foreign currencies relative to the U.S. dollar, partially offset by material cost savings and higher leverage. Products gross margin increased during the first nine months of 2020 compared to the same period in 2019 due primarily to higher Products volume, partially offset by the weakness in foreign currencies relative to the U.S. dollar. Year-over-year Products gross margin percentage decreased during the first nine months of 2020 due primarily to the weakness in foreign currencies relative to the U.S. dollar and a different Products mix, partially offset by higher leverage. Services Gross Margin Services gross margin increased during the third quarter and first nine months of 2020 compared to the same periods in 2019 due primarily to higher Services net sales. Services gross margin percentage increased during the third quarter and first nine months of 2020 compared to the same periods in 2019 due primarily to a different Services mix and higher leverage, partially offset by higher Services costs. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2019 Form 10-K and Part II, Item 1A of this Form 10-Q, in each case under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and remain under downward pressure. Apple Inc. | Q3 2020 Form 10-Q | 28 Operating Expenses Operating expenses for the three- and nine-month periods ended June 27, 2020 and June 29, 2019 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 27, 2020 June 29, 2019 June 27, 2020 June 29, 2019 Research and development $ 4,758 $ 4,257 $ 13,774 $ 12,107 Percentage of total net sales 8 % 8 % 7 % 6 % Selling, general and administrative $ 4,831 $ 4,426 $ 14,980 $ 13,667 Percentage of total net sales 8 % 8 % 7 % 7 % Total operating expenses $ 9,589 $ 8,683 $ 28,754 $ 25,774 Percentage of total net sales 16 % 16 % 14 % 13 % Research and Development The growth in research and development (“R&amp;D”) expense during the third quarter and first nine months of 2020 compared to the same periods in 2019 was driven primarily by increases in headcount-related expenses. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the third quarter and first nine months of 2020 compared to the same periods in 2019 was driven primarily by increases in headcount-related expenses, higher spending on marketing and advertising and higher variable selling expenses. Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for the three- and nine-month periods ended June 27, 2020 and June 29, 2019 was as follows (dollars in millions): Three Months Ended Nine Months Ended June 27, 2020 June 29, 2019 Change June 27, 2020 June 29, 2019 Change Interest and dividend income $ 901 $ 1,190 $ 2,995 $ 3,855 Interest expense (697) (866) (2,239) (2,766) Other income/(expense), net (158) 43 (79) 216 Total other income/(expense), net $ 46 $ 367 (87) % $ 677 $ 1,305 (48) % OI&amp;E decreased during the third quarter and first nine months of 2020 compared to the same periods in 2019 due primarily to lower interest income and impairments on non-marketable securities, partially offset by lower interest expense. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 1.74% and 2.17% in the third quarter of 2020 and 2019, respectively, and 1.95% and 2.21% in the first nine months of 2020 and 2019, respectively. Apple Inc. | Q3 2020 Form 10-Q | 29 Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and nine-month periods ended June 27, 2020 and June 29, 2019 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 27, 2020 June 29, 2019 June 27, 2020 June 29, 2019 Provision for income taxes $ 1,884 $ 1,867 $ 7,452 $ 8,040 Effective tax rate 14.3 % 15.7 % 14.3 % 16.2 % Statutory federal income tax rate 21 % 21 % 21 % 21 % The Company’s effective tax rate for the third quarter and first nine months of 2020 was lower than the statutory federal income tax rate due primarily to lower taxes on foreign earnings, including the impact of tax settlements, and tax benefits from share-based compensation. The Company’s effective tax rate for the third quarter of 2020 was lower compared to the third quarter of 2019 due primarily to higher tax benefits from share-based compensation. The Company’s effective tax rate for the first nine months of 2020 was lower compared to the same period in 2019 due primarily to the one-time adjustment of U.S. foreign tax credits in response to regulations issued by the U.S. Department of the Treasury in December 2019 and lower taxes on foreign earnings, including the impact of tax settlements. Recent Accounting Pronouncements Financial Instruments In June 2016, the Financial Accounting Standards Board issued Accounting Standards Update No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses on certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Liquidity and Capital Resources The following tables present selected financial information and statistics as of June 27, 2020 and September 28, 2019 and for the first nine months of 2020 and 2019 (in millions): June 27, 2020 September 28, 2019 Cash, cash equivalents and marketable securities (1) $ 193,617 $ 205,898 Property, plant and equipment, net $ 35,687 $ 37,378 Commercial paper and repurchase agreements $ 11,166 $ 5,980 Total term debt $ 101,557 $ 102,067 Working capital $ 44,747 $ 57,101 Nine Months Ended June 27, 2020 June 29, 2019 Cash generated by operating activities $ 60,098 $ 49,481 Cash generated by/(used in) investing activities $ (9,820) $ 46,694 Cash used in financing activities $ (65,463) $ (69,937) (1)As of June 27, 2020 and September 28, 2019, total marketable securities included $18.3 billion and $18.9 billion, respectively, that was restricted from general use, related to the State Aid Decision (refer to Note 5, “Income Taxes” in the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q) and other agreements. Additionally, as of June 27, 2020, $5.3 billion of marketable securities were pledged as collateral under repurchase agreements (refer to Note 6, “Debt” in the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q). Apple Inc. | Q3 2020 Form 10-Q | 30 The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations over the next 12 months. In connection with the State Aid Decision, as of June 27, 2020, the adjusted recovery amount of €12.9 billion plus interest of €1.2 billion was funded into escrow, where it will remain restricted from general use pending the conclusion of all legal proceedings. The Company’s marketable securities investment portfolio is primarily invested in highly rated securities, with the primary objective of minimizing the potential risk of principal loss. The Company’s investment policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer. During the nine months ended June 27, 2020, cash generated by operating activities of $60.1 billion was a result of $44.7 billion of net income, non-cash adjustments to net income of $13.5 billion and an increase in the net change in operating assets and liabilities of $1.8 billion. Cash used in investing activities of $9.8 billion during the nine months ended June 27, 2020 consisted primarily of cash used for purchases of marketable securities, net of maturities and sales, of $2.0 billion and cash used to acquire property, plant and equipment of $5.5 billion. Cash used in financing activities of $65.5 billion during the nine months ended June 27, 2020 consisted primarily of cash used to repurchase common stock of $55.2 billion, cash used to pay dividends and dividend equivalents of $10.6 billion and cash used to repay or redeem term debt of $12.6 billion, partially offset by net proceeds from the issuance of term debt of $10.6 billion and proceeds from repurchase agreements of $5.2 billion. During the nine months ended June 29, 2019, cash generated by operating activities of $49.5 billion was a result of $41.6 billion of net income and non-cash adjustments to net income of $13.6 billion, partially offset by a decrease in the net change in operating assets and liabilities of $5.6 billion. Cash generated by investing activities of $46.7 billion during the nine months ended June 29, 2019 consisted primarily of proceeds from sales and maturities of marketable securities, net of purchases, of $54.4 billion, partially offset by cash used to acquire property, plant and equipment of $7.7 billion. Cash used in financing activities of $69.9 billion during the nine months ended June 29, 2019 consisted primarily of cash used to repurchase common stock of $49.5 billion, cash used to pay dividends and dividend equivalents of $10.6 billion and cash used to repay term debt of $5.5 billion. Debt The Company issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. The Company uses the net proceeds from the commercial paper program for general corporate purposes, including dividends and share repurchases. As of June 27, 2020, the Company had $6.0 billion of Commercial Paper outstanding, with a weighted-average interest rate of 0.77% and maturities generally less than nine months. In 2020, the Company entered into agreements to sell certain of its marketable securities with a promise to repurchase the securities at a specified time and amount (“Repos”). Due to the Company’s continuing involvement with the marketable securities, the Company accounts for its Repos as collateralized borrowings. As of June 27, 2020, the Company had $5.2 billion of Repo liabilities outstanding with maturities of less than three months, and had pledged $5.3 billion of marketable securities as collateral. As of June 27, 2020, the Company had outstanding floating- and fixed-rate notes with varying maturities for an aggregate principal amount of $100.1 billion (collectively the “Notes”). During the first nine months of 2020, the Company issued $10.6 billion and repaid or redeemed $12.6 billion of Notes. The Company has entered, and in the future may enter, into interest rate swaps to manage interest rate risk on the Notes. In addition, the Company has entered, and in the future may enter, into foreign currency swaps to manage foreign currency risk on the Notes. Further information regarding the Company’s debt issuances and related hedging activity can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 3, “Financial Instruments” and Note 6, “Debt.” Capital Return Program As of June 27, 2020, the Company was authorized to purchase up to $225 billion of the Company’s common stock under a share repurchase program, of which $150.6 billion had been utilized. During the nine months ended June 27, 2020, the Company repurchased 186.4 million shares of its common stock for $54.5 billion, including 35.2 million shares delivered under a $10.0 billion November 2019 accelerated share repurchase arrangement (“ASR”) and 15.2 million shares initially delivered under a $6.0 billion May 2020 ASR. The Company’s share repurchase program does not obligate it to acquire any specific number of shares. Under this program, shares may be repurchased in privately negotiated and/or open market transactions, including under plans complying with Rule 10b5-1 under the Securities Exchange Act of 1934, as amended (the “Exchange Act”). As of June 27, 2020, the Company’s quarterly cash dividend was $0.82 per share. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Apple Inc. | Q3 2020 Form 10-Q | 31 Common Stock Split On July 30, 2020, the Company announced a four-for-one split of its common stock to shareholders of record as of the close of business on August 24, 2020. Trading of the Company’s common stock will begin on a split-adjusted basis on August 31, 2020. Contractual Obligations Leases As of June 27, 2020, the Company’s total fixed lease payment obligations were $12.8 billion, of which $8.1 billion was included in other non-current liabilities in the Company’s Condensed Consolidated Balance Sheet. The Company’s leases typically have original terms not exceeding 10 years and generally contain multi-year renewal options. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture sub-assemblies for the Company’s products and to perform final assembly and testing of finished products. These outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of June 27, 2020, the Company expects to pay $30.3 billion under manufacturing-related supplier arrangements, which are primarily noncancelable. Other Purchase Obligations The Company’s other purchase obligations consist of noncancelable obligations to acquire capital assets, including product tooling and manufacturing process equipment, and noncancelable obligations related to advertising, licensing, R&amp;D, Internet and telecommunications services, content creation and other activities. As of June 27, 2020, the Company had other purchase obligations of $10.0 billion. Deemed Repatriation Tax Payable As of June 27, 2020, the balance of the deemed repatriation tax payable imposed by the U.S. Tax Cuts and Jobs Act (the “Act”) was $28.1 billion, and was included in other non-current liabilities in the Company’s Condensed Consolidated Balance Sheet. The Company plans to pay the deemed repatriation tax payable in installments in accordance with the Act. Other Non-Current Liabilities The Company’s remaining other non-current liabilities primarily consist of items for which the Company is unable to make a reasonably reliable estimate of the timing or amount of payments. Critical Accounting Policies and Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Management bases its estimates on historical experience and on various other assumptions it believes to be reasonable under the circumstances, the results of which form the basis for making judgments about the carrying values of assets and liabilities. Actual results may differ from these estimates, and such differences may be material. Note 1, “Summary of Significant Accounting Policies” in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2019 Form 10-K, and “Critical Accounting Policies and Estimates” in Part II, Item 7 of the 2019 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting policies and estimates since the 2019 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. For example, statements in this Form 10-Q regarding the potential future impact of the COVID-19 pandemic on the Company’s business and results of operations are forward-looking statements. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the Company’s Annual Report on Form 10-K for the year ended September 28, 2019 (the “2019 Form 10-K”) and Part II, Item 1A of this Form 10-Q, in each case under the heading “Risk Factors.” The following discussion should be read in conjunction with the 2019 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company periodically provides certain information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on corporate governance and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Quarterly Highlights Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. COVID-19 Update A novel strain of coronavirus (“COVID-19”) has spread rapidly throughout the world, prompting governments and businesses to take unprecedented measures in response. Such measures have included restrictions on travel and business operations, temporary closures of businesses, and quarantines and shelter-in-place orders. The COVID-19 pandemic has significantly curtailed global economic activity and caused significant volatility and disruption in global financial markets. The COVID-19 pandemic and the measures taken by many countries in response have adversely affected and could in the future materially adversely impact the Company’s business, results of operations, financial condition and stock price. During February 2020, following the initial outbreak of the virus in China, the Company experienced disruptions to its manufacturing, supply chain and logistical services provided by outsourcing partners, resulting in temporary iPhone supply shortages that affected sales worldwide. Also, the Company’s sales of its products in China were adversely affected as public health measures and other actions to curb the spread of the virus, including the temporary closure of the Company’s retail stores and channel partner points of sale, were put in place. The virus spread further around the world as the quarter progressed, and social distancing measures and shelter-in-place orders were introduced in many countries. Effective March 13, 2020, the Company temporarily closed all of its retail stores outside of China. The Company has also required substantially all of its employees in all of its offices outside of China to work remotely. Additionally, many of the Company’s channel partner points of sale outside of China temporarily closed. As a result of the above factors, the Company also experienced weakened demand for its products and services outside of China during the last three weeks of the quarter. Apple Inc. | Q2 2020 Form 10-Q | 25 The COVID-19 pandemic has continued to adversely impact demand for certain of the Company’s products and services through April 2020. The full extent of the impact of the COVID-19 pandemic on the Company’s operational and financial performance is currently uncertain and will depend on many factors outside the Company’s control, including, without limitation, the timing, extent, trajectory and duration of the pandemic, the development and availability of effective treatments and vaccines, the imposition of protective public safety measures, and the impact of the pandemic on the global economy and demand for consumer products. See “The Company’s business, results of operations, financial condition and stock price have been adversely affected and could in the future be materially adversely affected by the COVID-19 pandemic” in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors.” The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations. Second Quarter Fiscal 2020 Highlights Total net sales increased 1% or $298 million during the second quarter of 2020 compared to the same quarter in 2019, primarily driven by higher Services and Wearables, Home and Accessories net sales, partially offset by lower iPhone net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on net sales during the second quarter of 2020. During the second quarter of 2020, the Company released an updated iPad Pro® and added trackpad support to iPadOS®. Additionally, the Company released an updated MacBook Air®. The Company repurchased $18.5 billion of its common stock and paid dividends and dividend equivalents of $3.4 billion during the second quarter of 2020. Products and Services Performance The following table shows net sales by category for the three- and six-month periods ended March 28, 2020 and March 30, 2019 (dollars in millions): Three Months Ended Six Months Ended March 28, 2020 March 30, 2019 Change March 28, 2020 March 30, 2019 Change Net sales by category: iPhone (1) $ 28,962 $ 31,051 (7 )% $ 84,919 $ 83,033 2 % Mac (1) 5,351 5,513 (3 )% 12,511 12,929 (3 )% iPad (1) 4,368 4,872 (10 )% 10,345 11,601 (11 )% Wearables, Home and Accessories (1)(2) 6,284 5,129 23 % 16,294 12,437 31 % Services (3) 13,348 11,450 17 % 26,063 22,325 17 % Total net sales $ 58,313 $ 58,015 1 % $ 150,132 $ 142,325 5 % (1) Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2) Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and Apple-branded and third-party accessories. (3) Services net sales include sales from the Company’s digital content stores and streaming services, AppleCare, licensing and other services. Services net sales also include amortization of the deferred value of Maps, Siri, and free iCloud storage and Apple TV + services, which are bundled in the sales price of certain products. iPhone iPhone net sales decreased during the second quarter of 2020 compared to the second quarter of 2019 due primarily to the unfavorable impact of the COVID-19 pandemic. Year-over-year iPhone net sales increased during the first six months of 2020 due primarily to the successful launch of the Company’s new iPhone models during the first quarter of 2020, partially offset by the unfavorable impact of the COVID-19 pandemic during the second quarter of 2020. Mac Mac net sales decreased during the second quarter and first six months of 2020 compared to the same periods in 2019 due primarily to lower net sales of Mac portable computers and the impact of the COVID-19 pandemic. Apple Inc. | Q2 2020 Form 10-Q | 26 iPad iPad net sales decreased during the second quarter and first six months of 2020 compared to the same periods in 2019 due primarily to lower net sales of iPad Pro and the impact of the COVID-19 pandemic. Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during the second quarter and first six months of 2020 compared to the same periods in 2019, despite the impact of the COVID-19 pandemic, due to higher net sales of Wearables, primarily AirPods. Services Services net sales increased during the second quarter of 2020 compared to the second quarter of 2019, despite the impact of the COVID-19 pandemic, due primarily to higher net sales from the App Store, licensing and Cloud Services. Year-over-year Services net sales increased during the first six months of 2020 due primarily to higher net sales from the App Store, licensing and AppleCare. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for the three- and six-month periods ended March 28, 2020 and March 30, 2019 (dollars in millions): Three Months Ended Six Months Ended March 28, 2020 March 30, 2019 Change March 28, 2020 March 30, 2019 Change Net sales by reportable segment: Americas $ 25,473 $ 25,596 — % $ 66,840 $ 62,536 7 % Europe 14,294 13,054 9 % 37,567 33,417 12 % Greater China 9,455 10,218 (7 )% 23,033 23,387 (2 )% Japan 5,206 5,532 (6 )% 11,429 12,442 (8 )% Rest of Asia Pacific 3,885 3,615 7 % 11,263 10,543 7 % Total net sales $ 58,313 $ 58,015 1 % $ 150,132 $ 142,325 5 % Americas Americas net sales were flat during the second quarter of 2020 compared to the second quarter of 2019 due primarily to lower iPhone net sales as a result of the COVID-19 pandemic, largely offset by higher Services and Wearables, Home and Accessories net sales. Year-over-year Americas net sales increased during the first six months of 2020 due primarily to higher Services, Wearables, Home and Accessories and iPhone net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Americas net sales during the second quarter and first six months of 2020. Europe Europe net sales increased during the second quarter and first six months of 2020 compared to the same periods in 2019, despite the impact of the COVID-19 pandemic, due primarily to higher iPhone and Wearables, Home and Accessories net sales, partially offset by lower iPad net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Europe net sales during the second quarter and first six months of 2020. Apple Inc. | Q2 2020 Form 10-Q | 27 Greater China Greater China net sales decreased during the second quarter and first six months of 2020 compared to the same periods in 2019 due primarily to lower iPhone net sales as a result of the COVID-19 pandemic, partially offset by higher Services net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Greater China net sales during the second quarter and first six months of 2020. Japan Japan net sales decreased during the second quarter and first six months of 2020 compared to the same periods in 2019 due primarily to lower iPhone net sales attributable to lower carrier subsidies and as a result of the COVID-19 pandemic, partially offset by higher Services net sales. The strength of the Japanese Yen relative to the U.S. dollar had a favorable impact on Japan net sales during the second quarter and first six months of 2020. Rest of Asia Pacific Rest of Asia Pacific net sales increased during the second quarter of 2020 compared to the second quarter of 2019, despite the impact of the COVID-19 pandemic, due primarily to higher Wearables, Home and Accessories and iPhone net sales, partially offset by lower iPad net sales. Year-over-year Rest of Asia Pacific net sales increased during the first six months of 2020 due primarily to higher Wearables, Home and Accessories and Services net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Rest of Asia Pacific net sales during the second quarter and first six months of 2020. Gross Margin Products and Services gross margin and gross margin percentage for the three- and six-month periods ended March 28, 2020 and March 30, 2019 were as follows (dollars in millions): Three Months Ended Six Months Ended March 28, 2020 March 30, 2019 March 28, 2020 March 30, 2019 Gross margin: Products $ 13,644 $ 14,518 $ 40,673 $ 39,715 Services 8,726 7,303 16,914 14,137 Total gross margin $ 22,370 $ 21,821 $ 57,587 $ 53,852 Gross margin percentage: Products 30.3 % 31.2 % 32.8 % 33.1 % Services 65.4 % 63.8 % 64.9 % 63.3 % Total gross margin percentage 38.4 % 37.6 % 38.4 % 37.8 % Products Gross Margin Products gross margin and Products gross margin percentage decreased during the second quarter of 2020 compared to the second quarter of 2019 due primarily to the weakness in foreign currencies relative to the U.S. dollar and the impact of the COVID-19 pandemic. Products gross margin increased during the first six months of 2020 compared to the same period in 2019 due primarily to higher Products volume and favorable Products mix, partially offset by the weakness in foreign currencies relative to the U.S. dollar and the impact of the COVID-19 pandemic. Year-over-year Products gross margin percentage decreased during the first six months of 2020 due primarily to the weakness in foreign currencies relative to the U.S. dollar and the impact of the COVID-19 pandemic, partially offset by higher leverage. Services Gross Margin Services gross margin increased during the second quarter and first six months of 2020 compared to the same periods in 2019 due primarily to higher Services net sales. Services gross margin percentage increased during the second quarter and first six months of 2020 compared to the same periods in 2019 due primarily to a favorable Services mix and higher leverage, partially offset by higher Services costs. Apple Inc. | Q2 2020 Form 10-Q | 28 The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2019 Form 10-K and Part II, Item 1A of this Form 10-Q, in each case under the heading “Risk Factors.” As a result, the Company believes, in general, gross margins will be subject to volatility and remain under downward pressure. Operating Expenses Operating expenses for the three- and six-month periods ended March 28, 2020 and March 30, 2019 were as follows (dollars in millions): Three Months Ended Six Months Ended March 28, 2020 March 30, 2019 March 28, 2020 March 30, 2019 Research and development $ 4,565 $ 3,948 $ 9,016 $ 7,850 Percentage of total net sales 8 % 7 % 6 % 6 % Selling, general and administrative $ 4,952 $ 4,458 $ 10,149 $ 9,241 Percentage of total net sales 8 % 8 % 7 % 6 % Total operating expenses $ 9,517 $ 8,406 $ 19,165 $ 17,091 Percentage of total net sales 16 % 14 % 13 % 12 % Research and Development The growth in research and development (“R&amp;D”) expense during the second quarter and first six months of 2020 compared to the same periods in 2019 was driven primarily by increases in headcount-related expenses. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the second quarter and first six months of 2020 compared to the same periods in 2019 was driven primarily by higher spending on marketing and advertising and increases in headcount-related expenses. Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for the three- and six-month periods ended March 28, 2020 and March 30, 2019 was as follows (dollars in millions): Three Months Ended Six Months Ended March 28, 2020 March 30, 2019 Change March 28, 2020 March 30, 2019 Change Interest and dividend income $ 1,049 $ 1,358 $ 2,094 $ 2,665 Interest expense (757 ) (1,010 ) (1,542 ) (1,900 ) Other income/(expense), net (10 ) 30 79 173 Total other income/(expense), net $ 282 $ 378 (25 )% $ 631 $ 938 (33 )% OI&amp;E decreased during the second quarter and first six months of 2020 compared to the same periods in 2019 due primarily to lower interest income, partially offset by lower interest expense. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 2.01% and 2.27% in the second quarter of 2020 and 2019, respectively, and 2.05% and 2.23% in the first six months of 2020 and 2019, respectively. Apple Inc. | Q2 2020 Form 10-Q | 29 Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and six-month periods ended March 28, 2020 and March 30, 2019 were as follows (dollars in millions): Three Months Ended Six Months Ended March 28, 2020 March 30, 2019 March 28, 2020 March 30, 2019 Provision for income taxes $ 1,886 $ 2,232 $ 5,568 $ 6,173 Effective tax rate 14.4 % 16.2 % 14.3 % 16.4 % Statutory federal income tax rate 21 % 21 % 21 % 21 % The Company’s effective tax rate for the second quarter and first six months of 2020 was lower than the statutory federal income tax rate due primarily to lower taxes on foreign earnings, including the impact of tax settlements. The Company’s effective tax rate for the second quarter of 2020 was lower compared to the second quarter of 2019 due to lower taxes on foreign earnings, including the impact of tax settlements. The Company’s effective tax rate for the first six months of 2020 was lower compared to the same period in 2019 due to the one-time adjustment of U.S. foreign tax credits in response to regulations issued by the U.S. Department of the Treasury in December 2019 and lower taxes on foreign earnings, including the impact of tax settlements. Recent Accounting Pronouncements Financial Instruments In June 2016, the Financial Accounting Standards Board issued Accounting Standards Update No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses on certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Liquidity and Capital Resources The following tables present selected financial information and statistics as of March 28, 2020 and September 28, 2019 and for the first six months of 2020 and 2019 (in millions): March 28, 2020 September 28, 2019 Cash, cash equivalents and marketable securities (1) $ 192,844 $ 205,898 Property, plant and equipment, net $ 35,889 $ 37,378 Commercial paper and repurchase agreement $ 10,029 $ 5,980 Total term debt $ 99,478 $ 102,067 Working capital $ 47,659 $ 57,101 Six Months Ended March 28, 2020 March 30, 2019 Cash generated by operating activities $ 43,827 $ 37,845 Cash generated by/(used in) investing activities $ (4,655 ) $ 19,192 Cash used in financing activities $ (46,347 ) $ (43,133 ) (1) As of March 28, 2020 and September 28, 2019, total marketable securities included $17.6 billion and $18.9 billion, respectively, that was restricted from general use, related to the State Aid Decision (refer to Note 5, “Income Taxes” in the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q) and other agreements. Additionally, as of March 28, 2020, $2.6 billion of marketable securities were pledged as collateral under a repurchase agreement (refer to Note 6, “Debt” in the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q). Apple Inc. | Q2 2020 Form 10-Q | 30 The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations over the next 12 months. In connection with the State Aid Decision, as of March 28, 2020, the adjusted recovery amount of €12.9 billion plus interest of €1.2 billion was funded into escrow, where it will remain restricted from general use pending the conclusion of all appeals. The Company’s marketable securities investment portfolio is primarily invested in highly rated securities, with the primary objective of minimizing the potential risk of principal loss. The Company’s investment policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer. During the six months ended March 28, 2020, cash generated by operating activities of $43.8 billion was a result of $33.5 billion of net income, non-cash adjustments to net income of $8.1 billion and an increase in the net change in operating assets and liabilities of $2.2 billion. Cash used in investing activities of $4.7 billion during the six months ended March 28, 2020 consisted primarily of cash used for purchases of marketable securities, net of maturities and sales, of $1.0 billion and cash used to acquire property, plant and equipment of $4.0 billion. Cash used in financing activities of $46.3 billion during the six months ended March 28, 2020 consisted primarily of cash used to repurchase common stock of $39.3 billion, cash used to pay dividends and dividend equivalents of $6.9 billion and cash used to repay or redeem term debt of $5.3 billion, partially offset by net proceeds from commercial paper and repurchase agreement of $4.1 billion and net proceeds from the issuance of term debt of $2.2 billion. During the six months ended March 30, 2019, cash generated by operating activities of $37.8 billion was a result of $31.5 billion of net income and non-cash adjustments to net income of $9.2 billion, partially offset by a decrease in the net change in operating assets and liabilities of $2.9 billion. Cash generated by investing activities of $19.2 billion during the six months ended March 30, 2019 consisted primarily of proceeds from sales and maturities of marketable securities, net of purchases, of $25.7 billion, partially offset by cash used to acquire property, plant and equipment of $5.7 billion. Cash used in financing activities of $43.1 billion during the six months ended March 30, 2019 consisted primarily of cash used to repurchase common stock of $32.5 billion, cash used to pay dividends and dividend equivalents of $7.0 billion and cash used to repay term debt of $2.5 billion. Debt The Company issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. The Company uses the net proceeds from the commercial paper program for general corporate purposes, including dividends and share repurchases. As of March 28, 2020, the Company had $7.5 billion of Commercial Paper outstanding, with a weighted-average interest rate of 1.39% and maturities generally less than nine months. In the second quarter of 2020, the Company entered into an agreement to sell certain of its marketable securities with a promise to repurchase the securities at a specified time and amount (“Repo”). Due to the Company’s continuing involvement with the marketable securities, the Company accounts for the Repo as a collateralized borrowing. As of March 28, 2020, the Company had a $2.6 billion Repo liability with a maturity of less than six months, and had pledged $2.6 billion of marketable securities as collateral. As of March 28, 2020, the Company had outstanding floating- and fixed-rate notes with varying maturities for an aggregate principal amount of $98.0 billion (collectively the “Notes”). During the first six months of 2020, the Company issued $2.2 billion and repaid or redeemed $5.3 billion of Notes. The Company has entered, and in the future may enter, into interest rate swaps to manage interest rate risk on the Notes. In addition, the Company has entered, and in the future may enter, into foreign currency swaps to manage foreign currency risk on the Notes. Further information regarding the Company’s debt issuances and related hedging activity can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 3, “Financial Instruments” and Note 6, “Debt.” Capital Return Program As of March 28, 2020, the Company was authorized to purchase up to $175 billion of the Company’s common stock under a share repurchase program, of which $134.6 billion had been utilized. During the six months ended March 28, 2020, the Company repurchased 135.0 million shares of its common stock for $38.5 billion, including 30.4 million shares initially delivered under a $10.0 billion accelerated share repurchase arrangement dated November 2019. On April 30, 2020, the Company announced the Board of Directors increased the share repurchase program authorization by $50 billion. The Company’s share repurchase program does not obligate it to acquire any specific number of shares. Under this program, shares may be repurchased in privately negotiated and/or open market transactions, including under plans complying with Rule 10b5-1 under the Securities Exchange Act of 1934, as amended (the “Exchange Act”). On April 30, 2020, the Company also announced the Board of Directors raised the Company’s quarterly cash dividend from $0.77 to $0.82 per share, beginning with the dividend to be paid during the third quarter of 2020. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Apple Inc. | Q2 2020 Form 10-Q | 31 Contractual Obligations Leases As of March 28, 2020, the Company’s total fixed lease payment obligations were $12.5 billion, of which $8.1 billion was included in other non-current liabilities in the Company’s Condensed Consolidated Balance Sheet. The Company’s leases typically have original terms not exceeding 10 years and generally contain multi-year renewal options. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture sub-assemblies for the Company’s products and to perform final assembly and testing of finished products. These outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of March 28, 2020, the Company expects to pay $29.3 billion under manufacturing-related supplier arrangements, which are primarily noncancelable. Other Purchase Obligations The Company’s other purchase obligations consist of noncancelable obligations to acquire capital assets, including product tooling and manufacturing process equipment, and noncancelable obligations related to advertising, licensing, R&amp;D, Internet and telecommunications services, content creation and other activities. As of March 28, 2020, the Company had other purchase obligations of $8.7 billion. Deemed Repatriation Tax Payable As of March 28, 2020, the balance of the deemed repatriation tax payable imposed by the U.S. Tax Cuts and Jobs Act (the “Act”) was $28.2 billion, and was included in other non-current liabilities in the Company’s Condensed Consolidated Balance Sheet. The Company plans to pay the deemed repatriation tax payable in installments in accordance with the Act. Other Non-Current Liabilities The Company’s remaining other non-current liabilities primarily consist of items for which the Company is unable to make a reasonably reliable estimate of the timing or amount of payments. Critical Accounting Policies and Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Management bases its estimates on historical experience and on various other assumptions it believes to be reasonable under the circumstances, the results of which form the basis for making judgments about the carrying values of assets and liabilities. Actual results may differ from these estimates, and such differences may be material. Note 1, “Summary of Significant Accounting Policies” in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2019 Form 10-K, and “Critical Accounting Policies and Estimates” in Part II, Item 7 of the 2019 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting policies and estimates since the 2019 Form 10-K.'</t>
+  </si>
+  <si>
+    <t>Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of the Company’s Annual Report on Form 10-K for the year ended September 28, 2019 (the “2019 Form 10-K”) under the heading “Risk Factors.” The following discussion should be read in conjunction with the 2019 Form 10-K filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and accompanying notes included in Part I, Item 1 of this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company’s Annual Reports on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the SEC. The Company is subject to the informational requirements of the Exchange Act and files or furnishes reports, proxy statements and other information with the SEC. Such reports and other information filed by the Company with the SEC are available free of charge at investor.apple.com/investor-relations/sec-filings/default.aspx when such reports are available on the SEC’s website. The SEC maintains an Internet site that contains reports, proxy and information statements, and other information regarding issuers that file electronically with the SEC at www.sec.gov. The Company periodically provides other information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on corporate governance and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Quarterly Highlights Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. First Quarter Fiscal 2020 Highlights Total net sales increased 9% or $7.5 billion during the first quarter of 2020 compared to the same quarter in 2019, primarily driven by higher iPhone and Wearables, Home and Accessories net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on net sales during the first quarter of 2020. During the first quarter of 2020, the Company began shipping AirPods Pro™, the new 16-inch MacBook Pro® and the updated Mac Pro®. Additionally, the Company released Apple TV+ as a new service. The Company repurchased $20.0 billion of its common stock and paid dividends and dividend equivalents of $3.5 billion during the first quarter of 2020. Apple Inc. | Q1 2020 Form 10-Q | 24 Products and Services Performance The following table shows net sales by category for the three months ended December 28, 2019 and December 29, 2018 (dollars in millions): Three Months Ended December 28, 2019 December 29, 2018 Change Net sales by category: iPhone (1) $ 55,957 $ 51,982 8 % Mac (1) 7,160 7,416 (3 )% iPad (1) 5,977 6,729 (11 )% Wearables, Home and Accessories (1)(2) 10,010 7,308 37 % Services (3) 12,715 10,875 17 % Total net sales $ 91,819 $ 84,310 9 % (1) Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2) Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and Apple-branded and third-party accessories. (3) Services net sales include sales from the Company’s digital content stores and streaming services, AppleCare, licensing and other services. Services net sales also include amortization of the deferred value of Maps, Siri, and free iCloud and Apple TV + services, which are bundled in the sales price of certain products. iPhone iPhone net sales increased during the first quarter of 2020 compared to the same quarter in 2019 due primarily to the successful launch of the Company’s new iPhone models. Mac Mac net sales decreased during the first quarter of 2020 compared to the same quarter in 2019 due primarily to the timing of the MacBook Air® launch in the first quarter of 2019. iPad iPad net sales decreased during the first quarter of 2020 compared to the same quarter in 2019 due primarily to the timing of the iPad Pro® launch in the first quarter of 2019. Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during the first quarter of 2020 compared to the same quarter in 2019 due primarily to higher net sales of Wearables, including AirPods and Apple Watch. Services Services net sales increased during the first quarter of 2020 compared to the same quarter in 2019 due primarily to higher net sales from AppleCare, the App Store and licensing. Apple Inc. | Q1 2020 Form 10-Q | 25 Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for the three months ended December 28, 2019 and December 29, 2018 (dollars in millions): Three Months Ended December 28, 2019 December 29, 2018 Change Net sales by reportable segment: Americas $ 41,367 $ 36,940 12 % Europe 23,273 20,363 14 % Greater China 13,578 13,169 3 % Japan 6,223 6,910 (10 )% Rest of Asia Pacific 7,378 6,928 6 % Total net sales $ 91,819 $ 84,310 9 % Americas Americas net sales increased during the first quarter of 2020 compared to the same quarter in 2019 due primarily to higher iPhone and Wearables, Home and Accessories net sales. Europe Europe net sales increased during the first quarter of 2020 compared to the same quarter in 2019 due primarily to higher iPhone and Wearables, Home and Accessories net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Europe net sales during the first quarter of 2020. Greater China Greater China net sales increased during the first quarter of 2020 compared to the same quarter in 2019 due primarily to higher Wearables, Home and Accessories net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Greater China net sales during the first quarter of 2020. Japan Japan net sales decreased during the first quarter of 2020 compared to the same quarter in 2019 due primarily to lower iPhone net sales, partially offset by higher Services net sales. The strength of the Japanese Yen relative to the U.S. dollar had a favorable impact on Japan net sales during the first quarter of 2020. Rest of Asia Pacific Rest of Asia Pacific net sales increased during the first quarter of 2020 compared to the same quarter in 2019 due primarily to higher Wearables, Home and Accessories and Services net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Rest of Asia Pacific net sales during the first quarter of 2020. Apple Inc. | Q1 2020 Form 10-Q | 26 Gross Margin Products and Services gross margin and gross margin percentage for the three months ended December 28, 2019 and December 29, 2018 were as follows (dollars in millions): Three Months Ended December 28, 2019 December 29, 2018 Gross margin: Products $ 27,029 $ 25,197 Services 8,188 6,834 Total gross margin $ 35,217 $ 32,031 Gross margin percentage: Products 34.2 % 34.3 % Services 64.4 % 62.8 % Total gross margin percentage 38.4 % 38.0 % Products Gross Margin Products gross margin increased during the first quarter of 2020 compared to the same quarter in 2019 due primarily to higher leverage, partially offset by the weakness in foreign currencies relative to the U.S. dollar. Products gross margin percentage during the first quarter of 2020 was relatively flat compared to the same quarter in 2019. Services Gross Margin Services gross margin and Services gross margin percentage increased during the first quarter of 2020 compared to the same quarter in 2019 due primarily to a favorable Services mix and higher leverage, partially offset by higher Services costs. The Company’s future gross margins can be impacted by a variety of factors, as discussed in Part I, Item 1A of the 2019 Form 10-K under the heading “Risk Factors”. As a result, the Company believes, in general, gross margins will be subject to volatility and remain under downward pressure. Operating Expenses Operating expenses for the three months ended December 28, 2019 and December 29, 2018 were as follows (dollars in millions): Three Months Ended December 28, 2019 December 29, 2018 Research and development $ 4,451 $ 3,902 Percentage of total net sales 5 % 5 % Selling, general and administrative $ 5,197 $ 4,783 Percentage of total net sales 6 % 6 % Total operating expenses $ 9,648 $ 8,685 Percentage of total net sales 11 % 10 % Research and Development The growth in research and development (“R&amp;D”) expense during the first quarter of 2020 compared to the same quarter in 2019 was driven primarily by increases in headcount-related expenses. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the first quarter of 2020 compared to the same quarter in 2019 was driven primarily by higher spending on marketing and advertising and increases in headcount-related expenses. Apple Inc. | Q1 2020 Form 10-Q | 27 Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for the three months ended December 28, 2019 and December 29, 2018 was as follows (dollars in millions): Three Months Ended December 28, 2019 December 29, 2018 Change Interest and dividend income $ 1,045 $ 1,307 Interest expense (785 ) (890 ) Other income, net 89 143 Total other income/(expense), net $ 349 $ 560 (38 )% The decrease in OI&amp;E during the first quarter of 2020 compared to the same quarter in 2019 was due primarily to lower interest income, partially offset by lower interest expense. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 2.08% and 2.19% in the first quarter of 2020 and 2019, respectively. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three months ended December 28, 2019 and December 29, 2018 were as follows (dollars in millions): Three Months Ended December 28, 2019 December 29, 2018 Provision for income taxes $ 3,682 $ 3,941 Effective tax rate 14.2 % 16.5 % Statutory federal income tax rate 21 % 21 % The Company’s effective tax rate for the first quarter of 2020 was lower than the statutory federal income tax rate due primarily to lower tax rates on foreign earnings, tax benefits from share-based compensation and a one-time adjustment of U.S. foreign tax credits in response to regulations issued by the U.S. Department of the Treasury in December 2019. The Company’s effective tax rate for the first quarter of 2020 was lower compared to the same quarter in 2019 due to a one-time adjustment of U.S. foreign tax credits. Recent Accounting Pronouncements Financial Instruments In June 2016, the Financial Accounting Standards Board issued Accounting Standards Update No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses on certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Apple Inc. | Q1 2020 Form 10-Q | 28 Liquidity and Capital Resources The following tables present selected financial information and statistics as of December 28, 2019 and September 28, 2019 and for the first three months of 2020 and 2019 (in millions): December 28, 2019 September 28, 2019 Cash, cash equivalents and marketable securities (1) $ 207,061 $ 205,898 Property, plant and equipment, net $ 37,031 $ 37,378 Commercial paper $ 4,990 $ 5,980 Total term debt $ 103,302 $ 102,067 Working capital $ 61,070 $ 57,101 Three Months Ended December 28, 2019 December 29, 2018 Cash generated by operating activities $ 30,516 $ 26,690 Cash generated by/(used in) investing activities $ (13,668 ) $ 5,844 Cash used in financing activities $ (25,407 ) $ (13,676 ) (1) As of December 28, 2019 and September 28, 2019, total marketable securities included $19.1 billion and $18.9 billion, respectively, that was restricted from general use, related to the State Aid Decision (refer to Note 5, “Income Taxes” in the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q) and other agreements. The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations over the next 12 months. In connection with the State Aid Decision, as of December 28, 2019, the adjusted recovery amount of €12.9 billion plus interest of €1.2 billion was funded into escrow, where it will remain restricted from general use pending the conclusion of all appeals. The Company’s marketable securities investment portfolio is primarily invested in highly rated securities, with the primary objective of minimizing the potential risk of principal loss. The Company’s investment policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer. During the three months ended December 28, 2019, cash generated by operating activities of $30.5 billion was a result of $22.2 billion of net income, non-cash adjustments to net income of $4.0 billion and an increase in the net change in operating assets and liabilities of $4.2 billion. Cash used in investing activities of $13.7 billion during the three months ended December 28, 2019 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $10.4 billion and cash used to acquire property, plant and equipment of $2.1 billion. Cash used in financing activities of $25.4 billion during the three months ended December 28, 2019 consisted primarily of cash used to repurchase common stock of $20.7 billion, cash used to pay dividends and dividend equivalents of $3.5 billion and cash used to repay term debt of $1.0 billion, partially offset by net proceeds from the issuance of term debt of $2.2 billion. During the three months ended December 29, 2018, cash generated by operating activities of $26.7 billion was a result of $20.0 billion of net income, non-cash adjustments to net income of $5.0 billion and an increase in the net change in operating assets and liabilities of $1.8 billion. Cash generated by investing activities of $5.8 billion during the three months ended December 29, 2018 consisted primarily of proceeds from maturities and sales of marketable securities, net of purchases, of $9.8 billion, partially offset by cash used to acquire property, plant and equipment of $3.4 billion. Cash used in financing activities of $13.7 billion during the three months ended December 29, 2018 consisted primarily of cash used to repurchase common stock of $8.8 billion and cash used to pay dividends and dividend equivalents of $3.6 billion. Debt The Company issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. The Company uses the net proceeds from the commercial paper program for general corporate purposes, including dividends and share repurchases. As of December 28, 2019, the Company had $5.0 billion of Commercial Paper outstanding, with a weighted-average interest rate of 1.88% and maturities generally less than nine months. Apple Inc. | Q1 2020 Form 10-Q | 29 As of December 28, 2019, the Company had outstanding floating- and fixed-rate notes with varying maturities for an aggregate principal amount of $103.1 billion (collectively the “Notes”). During the first three months of 2020, the Company issued $2.2 billion and repaid $1.0 billion of Notes. The Company has entered, and in the future may enter, into interest rate swaps to manage interest rate risk on the Notes. In addition, the Company has entered, and in the future may enter, into foreign currency swaps to manage foreign currency risk on the Notes. Further information regarding the Company’s debt issuances and related hedging activity can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 3, “Financial Instruments” and Note 6, “Debt.” Capital Return Program On April 30, 2019, the Company announced the Board of Directors increased the current share repurchase program authorization from $100 billion to $175 billion of the Company’s common stock, of which $116.1 billion had been utilized as of December 28, 2019. During the three months ended December 28, 2019, the Company repurchased 70.4 million shares of its common stock for $20.0 billion, including 30.4 million shares initially delivered under a $10.0 billion accelerated share repurchase arrangement (“ASR”) dated November 2019. The Company’s share repurchase program does not obligate it to acquire any specific number of shares. Under this program, shares may be repurchased in privately negotiated and/or open market transactions, including under plans complying with Rule 10b5-1 under the Exchange Act. On April 30, 2019, the Company also announced the Board of Directors raised the Company’s quarterly cash dividend from $0.73 to $0.77 per share, beginning with the dividend paid during the third quarter of 2019. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Contractual Obligations Leases As of December 28, 2019, the Company’s total fixed lease payment obligations were $12.2 billion, of which $7.2 billion was included in other non-current liabilities in the Company’s Condensed Consolidated Balance Sheet. The Company’s leases typically have original terms not exceeding 10 years and generally contain multi-year renewal options. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture sub-assemblies for the Company’s products and to perform final assembly and testing of finished products. These outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of December 28, 2019, the Company expects to pay $30.2 billion under manufacturing-related supplier arrangements, which are primarily noncancelable. Other Purchase Obligations The Company’s other purchase obligations consist of noncancelable obligations to acquire capital assets, including product tooling and manufacturing process equipment, and noncancelable obligations related to advertising, licensing, R&amp;D, Internet and telecommunications services, content creation and other activities. As of December 28, 2019, the Company had other purchase obligations of $9.0 billion. Deemed Repatriation Tax Payable As of December 28, 2019, the balance of the deemed repatriation tax payable imposed by the U.S. Tax Cuts and Jobs Act (the “Act”) was $28.2 billion, and was included in other non-current liabilities in the Company’s Condensed Consolidated Balance Sheet. The Company plans to pay the deemed repatriation tax payable in installments in accordance with the Act. Other Non-Current Liabilities The Company’s remaining other non-current liabilities primarily consist of items for which the Company is unable to make a reasonably reliable estimate of the timing or amount of payments. Apple Inc. | Q1 2020 Form 10-Q | 30 Critical Accounting Policies and Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Management bases its estimates on historical experience and on various other assumptions it believes to be reasonable under the circumstances, the results of which form the basis for making judgments about the carrying values of assets and liabilities. Actual results may differ from these estimates, and such differences may be material. Note 1, “Summary of Significant Accounting Policies” in Part I, Item 1 of this Form 10-Q and in the Notes to Consolidated Financial Statements in Part II, Item 8 of the 2019 Form 10-K, and “Critical Accounting Policies and Estimates” in Part II, Item 7 of the 2019 Form 10-K describe the significant accounting policies and methods used in the preparation of the Company’s condensed consolidated financial statements. There have been no material changes to the Company’s critical accounting policies and estimates since the 2019 Form 10-K.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 7. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Annual Report on Form 10-K (“Form 10-K”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of this Form 10-K under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the consolidated financial statements and accompanying notes included in Part II, Item 8 of this Form 10-K. Unless otherwise stated, all information presented herein is based on the Company’s fiscal calendar, and references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. This section of this Form 10-K generally discusses 2019 and 2018 items and year-to-year comparisons between 2019 and 2018. Discussions of 2017 items and year-to-year comparisons between 2018 and 2017 that are not included in this Form 10-K can be found in “Management’s Discussion and Analysis of Financial Condition and Results of Operations” in Part II, Item 7 of the Company’s Annual Report on Form 10-K for the fiscal year ended September 29, 2018. Fiscal Period The Company’s fiscal year is the 52- or 53-week period that ends on the last Saturday of September. The Company’s fiscal years 2019 and 2018 spanned 52 weeks each, whereas fiscal year 2017 included 53 weeks. A 14th week was included in the first quarter of 2017, as is done every five or six years, to realign the Company’s fiscal quarters with calendar quarters. Fiscal 2019 Highlights Total net sales decreased 2% or $5.4 billion during 2019 compared to 2018, driven by lower net sales of iPhone, partially offset by higher net sales of Wearables, Home and Accessories and Services in all geographic operating segments. The weakness in foreign currencies had a significant unfavorable impact on net sales during 2019. In April 2019, the Company announced an increase to its current share repurchase program authorization from $100 billion to $175 billion and raised its quarterly dividend from $0.73 to $0.77 per share beginning in May 2019. During 2019, the Company repurchased $67.1 billion of its common stock and paid dividends and dividend equivalents of $14.1 billion. Apple Inc. | 2019 Form 10-K | 18 Products and Services Performance Beginning in the first quarter of 2019, the Company classified the amortization of the deferred value of Maps, Siri and free iCloud services, which are bundled in the sales price of iPhone, Mac, iPad and certain other products, in Services net sales. Historically, the Company classified the amortization of these amounts in Products net sales consistent with its management reporting framework. As a result, Products and Services net sales for 2018 and 2017 were reclassified to conform to the 2019 presentation. The following table shows net sales by category for 2019, 2018 and 2017 (dollars in millions): 2019 Change 2018 Change 2017 Net sales by category: iPhone (1) $ 142,381 (14 )% $ 164,888 18 % $ 139,337 Mac (1) 25,740 2 % 25,198 (1 )% 25,569 iPad (1) 21,280 16 % 18,380 (2 )% 18,802 Wearables, Home and Accessories (1)(2) 24,482 41 % 17,381 36 % 12,826 Services (3) 46,291 16 % 39,748 22 % 32,700 Total net sales $ 260,174 (2 )% $ 265,595 16 % $ 229,234 (1) Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2) Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and Apple-branded and third-party accessories. (3) Services net sales include sales from the Company’s digital content stores and streaming services, AppleCare, licensing and other services. Services net sales also include amortization of the deferred value of Maps, Siri and free iCloud services, which are bundled in the sales price of certain products. iPhone iPhone net sales decreased during 2019 compared to 2018 due primarily to lower iPhone unit sales. Mac Mac net sales increased during 2019 compared to 2018 due primarily to higher net sales of MacBook Air, partially offset by lower net sales of MacBook® and MacBook Pro®. iPad iPad net sales increased during 2019 compared to 2018 due primarily to higher net sales of iPad Pro. Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during 2019 compared to 2018 due primarily to higher net sales of AirPods and Apple Watch. Services Services net sales increased during 2019 compared to 2018 due primarily to higher net sales from the App Store, licensing and AppleCare. Apple Inc. | 2019 Form 10-K | 19 Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for 2019, 2018 and 2017 (dollars in millions): 2019 Change 2018 Change 2017 Net sales by reportable segment: Americas $ 116,914 4 % $ 112,093 16 % $ 96,600 Europe 60,288 (3 )% 62,420 14 % 54,938 Greater China 43,678 (16 )% 51,942 16 % 44,764 Japan 21,506 (1 )% 21,733 23 % 17,733 Rest of Asia Pacific 17,788 2 % 17,407 15 % 15,199 Total net sales $ 260,174 (2 )% $ 265,595 16 % $ 229,234 Americas Americas net sales increased during 2019 compared to 2018 due primarily to higher Services and Wearables, Home and Accessories net sales, partially offset by lower iPhone net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Americas net sales during 2019. Europe Europe net sales decreased during 2019 compared to 2018 due to lower iPhone net sales, partially offset by higher Wearables, Home and Accessories and Services net sales. The weakness in foreign currencies relative to the U.S. dollar had a significant unfavorable impact on Europe net sales during 2019. Greater China Greater China net sales decreased during 2019 compared to 2018 due primarily to lower iPhone net sales, partially offset by higher Wearables, Home and Accessories and Services net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Greater China net sales during 2019. Japan Japan net sales decreased during 2019 compared to 2018 due to lower iPhone net sales, partially offset by higher Services and Wearables, Home and Accessories net sales. The value of the Japanese Yen relative to the U.S. dollar had a favorable impact on Japan net sales during 2019. Rest of Asia Pacific Rest of Asia Pacific net sales increased during 2019 compared to 2018 due primarily to higher Wearables, Home and Accessories and Services net sales, partially offset by lower iPhone net sales. The weakness in foreign currencies relative to the U.S. dollar had a significant unfavorable impact on Rest of Asia Pacific net sales during 2019. Apple Inc. | 2019 Form 10-K | 20 Gross Margin Products and Services gross margin and gross margin percentage for 2019, 2018 and 2017 were as follows (dollars in millions): 2019 2018 2017 Gross margin: Products $ 68,887 $ 77,683 $ 70,197 Services 29,505 24,156 17,989 Total gross margin $ 98,392 $ 101,839 $ 88,186 Gross margin percentage: Products 32.2 % 34.4 % 35.7 % Services 63.7 % 60.8 % 55.0 % Total gross margin percentage 37.8 % 38.3 % 38.5 % Products Gross Margin Products gross margin and Products gross margin percentage decreased during 2019 compared to 2018 due primarily to lower iPhone unit sales and the weakness in foreign currencies relative to the U.S. dollar. Products gross margin increased during 2018 compared to 2017 due primarily to a favorable shift in mix of iPhones and the strength in foreign currencies relative to the U.S. dollar, partially offset by higher product cost structures. Year-over-year Products gross margin percentage decreased during 2018 due primarily to higher product cost structures, partially offset by the strength in foreign currencies relative to the U.S. dollar. Services Gross Margin Year-over-year Services gross margin increased during 2019 and 2018 due primarily to higher Services net sales and a different services mix. Year-over-year Services gross margin percentage increased during 2019 and 2018 due primarily to a different services mix and leverage of the Company’s services fixed cost structure from higher Services net sales. The Company’s future gross margins can be impacted by a variety of factors, as set forth in Part I, Item 1A of this Form 10-K under the heading “Risk Factors”. As a result, the Company believes, in general, gross margins will be subject to volatility and remain under downward pressure. Operating Expenses Operating expenses for 2019, 2018 and 2017 were as follows (dollars in millions): 2019 Change 2018 Change 2017 Research and development $ 16,217 14 % $ 14,236 23 % $ 11,581 Percentage of total net sales 6 % 5 % 5 % Selling, general and administrative $ 18,245 9 % $ 16,705 9 % $ 15,261 Percentage of total net sales 7 % 6 % 7 % Total operating expenses $ 34,462 11 % $ 30,941 15 % $ 26,842 Percentage of total net sales 13 % 12 % 12 % Research and Development The year-over-year growth in R&amp;D expense in 2019 was driven primarily by increases in headcount-related expenses. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The year-over-year growth in selling, general and administrative expense in 2019 was driven primarily by increases in headcount-related expenses and higher spending on marketing and advertising and infrastructure-related costs. Apple Inc. | 2019 Form 10-K | 21 Other Income/(Expense), Net Other income/(expense), net (“OI&amp;E”) for 2019, 2018 and 2017 was as follows (dollars in millions): 2019 Change 2018 Change 2017 Interest and dividend income $ 4,961 $ 5,686 $ 5,201 Interest expense (3,576 ) (3,240 ) (2,323 ) Other income/(expense), net 422 (441 ) (133 ) Total other income/(expense), net $ 1,807 (10 )% $ 2,005 (27 )% $ 2,745 The year-over-year decrease in OI&amp;E during 2019 was due primarily to lower interest income and higher interest expense, partially offset by the impact of foreign exchange–related items. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 2.19% and 2.16% in 2019 and 2018, respectively. Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for 2019, 2018 and 2017 were as follows (dollars in millions): 2019 2018 2017 Provision for income taxes $ 10,481 $ 13,372 $ 15,738 Effective tax rate 15.9 % 18.3 % 24.6 % Statutory federal income tax rate 21.0 % 24.5 % 35.0 % On December 22, 2017, the U.S. enacted the Tax Cuts and Jobs Act (the “Act”), which significantly changed U.S. tax law. The Act lowered the Company’s U.S. statutory federal income tax rate from 35% to 21% effective January 1, 2018, while also imposing a deemed repatriation tax on previously deferred foreign income. By operation of law, the Company applied a blended U.S. statutory federal income tax rate of 24.5% for 2018 (the “2018 blended U.S. tax rate”). The Act also created a new minimum tax on certain foreign earnings. The Company’s effective tax rate for 2019 was lower than the statutory federal income tax rate due primarily to the lower tax rate on foreign earnings and tax benefits from share-based compensation. The Company’s effective tax rate for 2018 was lower than the 2018 blended U.S. tax rate due primarily to the lower tax rate on foreign earnings, partially offset by the remeasurement of deferred tax assets and liabilities as a result of the Act. The Company’s effective tax rate for 2019 was lower compared to 2018 due primarily to a lower statutory federal income tax rate in 2019 and the impact of the Act in 2018, partially offset by higher taxes on foreign earnings in 2019. As of September 28, 2019, the Company had net deferred tax assets arising from deductible temporary differences and tax credits of $14.3 billion and deferred tax liabilities of $6.2 billion. Management believes it is more likely than not that forecasted income, including income that may be generated as a result of certain tax planning strategies, together with future reversals of existing taxable temporary differences, will be sufficient to recover the net deferred tax assets. The Company will continue to evaluate the amount of the valuation allowance, if any, by assessing the realizability of deferred tax assets. Recent Accounting Pronouncements Hedging In August 2017, the Financial Accounting Standards Board (the “FASB”) issued Accounting Standards Update (“ASU”) No. 2017-12, Derivatives and Hedging (Topic 815): Targeted Improvements to Accounting for Hedging Activities (“ASU 2017-12”). ASU 2017-12 expands component and fair value hedging, specifies the presentation of the effects of hedging instruments, and eliminates the separate measurement and presentation of hedge ineffectiveness. The Company will adopt ASU 2017-12 in its first quarter of 2020 utilizing the modified retrospective transition method. Based on the Company’s derivative portfolio and hedging strategies, the adoption of ASU 2017-12 is not expected to have a material impact on its consolidated financial statements. Financial Instruments In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses on certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Apple Inc. | 2019 Form 10-K | 22 Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. The Company will adopt ASU 2016-02 utilizing the modified retrospective transition method through a cumulative-effect adjustment at the beginning of its first quarter of 2020. Upon adoption, the Company anticipates recording lease-related assets and liabilities of approximately $8 billion on its Condensed Consolidated Balance Sheet, with no material impact to its Condensed Consolidated Statements of Operations. Liquidity and Capital Resources The following table presents selected financial information and statistics as of and for the years ended September 28, 2019, September 29, 2018 and September 30, 2017 (in millions): 2019 2018 2017 Cash, cash equivalents and marketable securities (1) $ 205,898 $ 237,100 $ 268,895 Property, plant and equipment, net $ 37,378 $ 41,304 $ 33,783 Commercial paper $ 5,980 $ 11,964 $ 11,977 Total term debt $ 102,067 $ 102,519 $ 103,703 Working capital $ 57,101 $ 15,410 $ 28,792 Cash generated by operating activities $ 69,391 $ 77,434 $ 64,225 Cash generated by/(used in) investing activities $ 45,896 $ 16,066 $ (46,446 ) Cash used in financing activities $ (90,976 ) $ (87,876 ) $ (17,974 ) (1) As of September 28, 2019 and September 29, 2018, total cash, cash equivalents and marketable securities included $18.9 billion and $20.3 billion, respectively, that was restricted from general use, related to the State Aid Decision (refer to Note 5, “Income Taxes” in the Notes to Consolidated Financial Statements in Part II, Item 8 of this Form 10-K) and other agreements. The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations over the next 12 months. In connection with the State Aid Decision, as of September 28, 2019, the entire adjusted recovery amount of €12.9 billion plus interest of €1.2 billion was funded into escrow, where it will remain restricted from general use pending the conclusion of all appeals. Further information regarding the State Aid Decision can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 5, “Income Taxes.” The Company’s marketable securities investment portfolio is primarily invested in highly rated securities, with the primary objective of minimizing the potential risk of principal loss. The Company’s investment policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer. During 2019, cash generated by operating activities of $69.4 billion was a result of $55.3 billion of net income and non-cash adjustments to net income of $17.6 billion, partially offset by a decrease in the net change in operating assets and liabilities of $3.5 billion. Cash generated by investing activities of $45.9 billion during 2019 consisted primarily of proceeds from sales and maturities of marketable securities, net of purchases, of $57.5 billion, partially offset by cash used to acquire property, plant and equipment of $10.5 billion. Cash used in financing activities of $91.0 billion during 2019 consisted primarily of cash used to repurchase common stock of $66.9 billion, cash used to pay dividends and dividend equivalents of $14.1 billion, cash used to repay term debt of $8.8 billion and net repayments of commercial paper of $6.0 billion, partially offset by net proceeds from the issuance of term debt of $7.0 billion. During 2018, cash generated by operating activities of $77.4 billion was a result of $59.5 billion of net income and an increase in the net change in operating assets and liabilities of $34.7 billion, partially offset by non-cash adjustments to net income of $16.8 billion. Cash generated by investing activities of $16.1 billion during 2018 consisted primarily of proceeds from maturities and sales of marketable securities, net of purchases, of $32.4 billion, partially offset by cash used to acquire property, plant and equipment of $13.3 billion. Cash used in financing activities of $87.9 billion during 2018 consisted primarily of cash used to repurchase common stock of $72.7 billion, cash used to pay dividends and dividend equivalents of $13.7 billion and cash used to repay term debt of $6.5 billion, partially offset by net proceeds from the issuance of term debt of $7.0 billion. Apple Inc. | 2019 Form 10-K | 23 Capital Assets The Company’s capital expenditures were $7.6 billion during 2019, which included product tooling and manufacturing process equipment; data centers; corporate facilities and infrastructure, including information systems hardware, software and enhancements; and retail store facilities. Debt The Company issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. The Company uses the net proceeds from the commercial paper program for general corporate purposes, including dividends and share repurchases. As of September 28, 2019, the Company had $6.0 billion of Commercial Paper outstanding, with a weighted-average interest rate of 2.24% and maturities generally less than nine months. As of September 28, 2019, the Company had outstanding floating- and fixed-rate notes with varying maturities for an aggregate principal amount of $101.7 billion (collectively the “Notes”). During 2019, the Company issued $7.0 billion and repaid $8.8 billion of Notes. The Company has entered, and in the future may enter, into interest rate swaps to manage interest rate risk on the Notes. In addition, the Company has entered, and in the future may enter, into foreign currency swaps to manage foreign currency risk on the Notes. Further information regarding the Company’s debt issuances and related hedging activity can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 3, “Financial Instruments” and Note 6, “Debt.” Capital Return Program On April 30, 2019, the Company announced the Board of Directors increased the current share repurchase program authorization from $100 billion to $175 billion of the Company’s common stock, of which $96.1 billion had been utilized as of September 28, 2019. During 2019, the Company repurchased 345.2 million shares of its common stock for $67.1 billion, including 62.0 million shares delivered under a $12.0 billion ASR dated February 2019, which settled in August 2019. The Company’s share repurchase program does not obligate it to acquire any specific number of shares. Under this program, shares may be repurchased in privately negotiated and/or open market transactions, including under plans complying with Rule 10b5-1 under the Exchange Act. On April 30, 2019, the Company also announced the Board of Directors raised the Company’s quarterly cash dividend from $0.73 to $0.77 per share, beginning with the dividend paid during the third quarter of 2019. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Contractual Obligations The following table presents certain payments due by the Company as of September 28, 2019, and excludes amounts already recorded on the Consolidated Balance Sheet, except for term debt and the deemed repatriation tax payable (in millions): Payments due in 2020 Payments due in 2021–2022 Payments due in 2023–2024 Payments due after 2024 Total Term debt $ 10,270 $ 18,278 $ 19,329 $ 53,802 $ 101,679 Operating leases 1,306 2,413 1,746 5,373 10,838 Manufacturing purchase obligations (1) 40,076 1,974 808 69 42,927 Other purchase obligations 3,744 2,271 572 41 6,628 Deemed repatriation tax payable — 4,350 8,501 16,655 29,506 Total $ 55,396 $ 29,286 $ 30,956 $ 75,940 $ 191,578 (1) Represents amount expected to be paid under manufacturing-related supplier arrangements, which are primarily noncancelable. Operating Leases The Company’s retail store and other facility leases typically have original terms not exceeding 10 years and generally contain multi-year renewal options. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture sub-assemblies for the Company’s products and to perform final assembly and testing of finished products. These outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. The Company also obtains individual components for its products from a wide variety of individual suppliers. Apple Inc. | 2019 Form 10-K | 24 Other Purchase Obligations The Company’s other purchase obligations consist of noncancelable obligations to acquire capital assets, including product tooling and manufacturing process equipment, and noncancelable obligations related to advertising, licensing, R&amp;D, Internet and telecommunications services, content creation and other activities. Deemed Repatriation Tax Payable As of September 28, 2019, a significant portion of the other non-current liabilities in the Company’s Consolidated Balance Sheet consisted of the deemed repatriation tax payable imposed by the Act. The Company plans to pay the deemed repatriation tax payable in installments in accordance with the Act. Other Non-Current Liabilities The Company’s remaining other non-current liabilities primarily consist of items for which the Company is unable to make a reasonably reliable estimate of the timing or amount of payments; therefore, such amounts are not included in the above contractual obligation table. Critical Accounting Policies and Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles (“GAAP”) and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates that affect the amounts reported. Note 1, “Summary of Significant Accounting Policies,” of the Notes to Consolidated Financial Statements in Part II, Item 8 of this Form 10-K describes the significant accounting policies and methods used in the preparation of the Company’s consolidated financial statements. Management bases its estimates on historical experience and on various other assumptions it believes to be reasonable under the circumstances, the results of which form the basis for making judgments about the carrying values of assets and liabilities. Actual results may differ from these estimates, and such differences may be material. Management believes the Company’s critical accounting policies and estimates are those related to revenue recognition, valuation of manufacturing-related assets and estimation of inventory purchase commitment cancellation fees, warranty costs, income taxes, and legal and other contingencies. Management considers these policies critical because they are both important to the portrayal of the Company’s financial condition and operating results, and they require management to make judgments and estimates about inherently uncertain matters. The Company’s senior management has reviewed these critical accounting policies and related disclosures with the Audit and Finance Committee of the Company’s Board of Directors. Revenue Recognition The Company has identified up to three performance obligations regularly included in arrangements involving the sale of iPhone, Mac, iPad and certain other products. The first performance obligation, which represents the substantial portion of the allocated sales price, is the hardware and bundled software delivered at the time of sale. The second performance obligation is the right to receive certain product-related bundled services, which include iCloud, Siri and Maps. The third performance obligation is the right to receive, on a when-and-if-available basis, future unspecified software upgrades relating to the software bundled with each device. The Company allocates revenue and any related discounts to these performance obligations based on their relative stand-alone selling prices (“SSPs”). Because the Company lacks observable prices for the undelivered performance obligations, the allocation of revenue is based on the Company’s estimated SSPs. Revenue allocated to the product-related bundled services and unspecified software upgrade rights is deferred and recognized on a straight-line basis over the estimated period they are expected to be provided. The Company’s process for determining estimated SSPs involves management’s judgment and considers multiple factors that may vary over time depending upon the unique facts and circumstances related to each deliverable. Should future facts and circumstances change, the Company’s SSPs and the future rate of related amortization for product-related bundled services and unspecified software upgrade rights related to future sales of these devices could change. Factors subject to change include the nature of the product-related bundled services and unspecified software upgrade rights offered, their estimated value and the estimated period they are expected to be provided. Apple Inc. | 2019 Form 10-K | 25 Valuation of Manufacturing-Related Assets and Estimation of Inventory Purchase Commitment Cancellation Fees The Company invests in manufacturing-related assets, including capital assets held at its suppliers’ facilities and prepayments provided to certain of its suppliers associated with long-term agreements to secure the supply of inventory. The Company also accrues estimated purchase commitment cancellation fees related to inventory orders that have been canceled or are expected to be canceled. The Company’s estimates of future product development plans and demand for its products are the key inputs in the determination of the recoverability of manufacturing-related assets and the assessment of the adequacy of any purchase commitment cancellation fee accruals. If there is an abrupt and substantial decline in estimated demand for one or more of the Company’s products, a change in the Company’s product development plans, or an unanticipated change in technological requirements for any of the Company’s products, the Company may be required to record write-downs or impairments of manufacturing-related assets or accrue purchase commitment cancellation fees. Warranty Costs The Company offers limited warranties on its new hardware products and on parts used to repair its hardware products, and customers may purchase extended service coverage, where available, on many of the Company’s hardware products. The Company accrues the estimated cost of warranties in the period the related revenue is recognized based on historical and projected warranty claim rates, historical and projected cost per claim and knowledge of specific product failures outside the Company’s typical experience. The Company regularly reviews these estimates and adjusts the amounts as necessary. If actual product failure rates or repair costs differ from estimates, revisions to the estimated warranty liabilities would be required. Income Taxes The Company recognizes tax benefits from uncertain tax positions only if it is more likely than not that the tax position will be sustained on examination by the taxing authorities, based on the technical merits of the position. The tax benefits recognized in the financial statements from such positions are then measured based on the largest benefit that has a greater-than-50% likelihood of being realized upon ultimate settlement. The calculation of tax liabilities involves significant judgment in estimating the impact of uncertainties in the application of GAAP and complex tax laws. Resolution of these uncertainties in a manner inconsistent with management’s expectations could have a material impact on the Company’s financial condition and operating results. Legal and Other Contingencies As discussed in Part I, Item 3 of this Form 10-K under the heading “Legal Proceedings” and in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 10, “Commitments and Contingencies,” the Company is subject to </t>
+  </si>
+  <si>
+    <t>Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the Company’s Annual Report on Form 10-K for the year ended September 29, 2018 (the “2018 Form 10-K”) filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and notes thereto included in Part I, Item 1 of this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company’s Annual Reports on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the SEC. The Company is subject to the informational requirements of the Exchange Act and files or furnishes reports, proxy statements and other information with the SEC. Such reports and other information filed by the Company with the SEC are available free of charge at investor.apple.com/investor-relations/sec-filings/default.aspx when such reports are available on the SEC’s website. The SEC maintains an internet site that contains reports, proxy and information statements, and other information regarding issuers that file electronically with the SEC at www.sec.gov. The Company periodically provides other information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on corporate governance and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Quarterly Highlights Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. However, neither historical seasonal patterns nor historical patterns of product or service introductions should be considered reliable indicators of the Company’s future pattern of product or service introductions, future net sales or financial performance. Third Quarter Fiscal 2019 Highlights Total net sales increased 1% or $544 million during the third quarter of 2019 compared to the same quarter in 2018, primarily driven by higher Wearables, Home and Accessories and Services net sales, partially offset by lower iPhone net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on net sales during the third quarter of 2019. The Company announced iOS 13, macOS® Catalina, watchOS® 6 and tvOS® 13, updates to its existing operating systems, and introduced iPadOS™, a new operating system designed for iPad, all of which are expected to be available in the fall of 2019. The Company also introduced an updated Mac Pro® and an all-new Pro Display XDR, both of which are expected to be available in the fall of 2019. The Company repurchased $17.0 billion of its common stock and paid dividends and dividend equivalents of $3.6 billion during the third quarter of 2019. Apple Inc. | Q3 2019 Form 10-Q | 25 Products and Services Performance Beginning in the first quarter of 2019, the Company classified the amortization of the deferred value of Maps, Siri and free iCloud services, which are bundled in the sales price of iPhone, Mac, iPad and certain other products, in services net sales. Historically, the Company classified the amortization of these amounts in products net sales consistent with its management reporting framework. As a result, products and services net sales information for the third quarter and first nine months of 2018 was reclassified to conform to the 2019 presentation. The following table shows net sales by category for the three- and nine-month periods ended June 29, 2019 and June 30, 2018 (dollars in millions): Three Months Ended Nine Months Ended June 29, 2019 June 30, 2018 Change June 29, 2019 June 30, 2018 Change Net sales by category: iPhone (1) $ 25,986 $ 29,470 (12 )% $ 109,019 $ 128,133 (15 )% Mac (1) 5,820 5,258 11 % 18,749 17,858 5 % iPad (1) 5,023 4,634 8 % 16,624 14,397 15 % Wearables, Home and Accessories (1)(2) 5,525 3,733 48 % 17,962 13,158 37 % Services (3) 11,455 10,170 13 % 33,780 29,149 16 % Total net sales $ 53,809 $ 53,265 1 % $ 196,134 $ 202,695 (3 )% (1) Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2) Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and Apple-branded and third-party accessories. (3) Services net sales include sales from the Company’s digital content stores and streaming services, AppleCare, Apple Pay, licensing and other services. Services net sales also include amortization of the deferred value of Maps, Siri and free iCloud services, which are bundled in the sales price of certain products. iPhone iPhone net sales decreased during the third quarter and first nine months of 2019 compared to the same periods in 2018 due primarily to lower iPhone unit sales. Mac Mac net sales increased during the third quarter of 2019 compared to the same quarter in 2018 due primarily to higher net sales of MacBook Air®. Year-over-year Mac net sales increased during the first nine months of 2019 due primarily to higher net sales of MacBook Air, partially offset by lower net sales of MacBook®. iPad iPad net sales increased during the third quarter and first nine months of 2019 compared to the same periods in 2018 due primarily to higher net sales of iPad Pro®. Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during the third quarter and first nine months of 2019 compared to the same periods in 2018 due primarily to higher net sales of AirPods and Apple Watch. Services Services net sales increased during the third quarter and first nine months of 2019 compared to the same periods in 2018 due primarily to the App Store, licensing and AppleCare. Apple Inc. | Q3 2019 Form 10-Q | 26 Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for the three- and nine-month periods ended June 29, 2019 and June 30, 2018 (dollars in millions): Three Months Ended Nine Months Ended June 29, 2019 June 30, 2018 Change June 29, 2019 June 30, 2018 Change Net sales by reportable segment: Americas $ 25,056 $ 24,542 2 % $ 87,592 $ 84,576 4 % Europe 11,925 12,138 (2 )% 45,342 47,038 (4 )% Greater China 9,157 9,551 (4 )% 32,544 40,531 (20 )% Japan 4,082 3,867 6 % 16,524 16,572 — % Rest of Asia Pacific 3,589 3,167 13 % 14,132 13,978 1 % Total net sales $ 53,809 $ 53,265 1 % $ 196,134 $ 202,695 (3 )% Americas Americas net sales increased during the third quarter and first nine months of 2019 compared to the same periods in 2018 due primarily to higher Wearables, Home and Accessories and Services net sales, partially offset by lower iPhone net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Americas net sales during the third quarter and first nine months of 2019. Europe Europe net sales decreased during the third quarter and first nine months of 2019 compared to the same periods in 2018 due primarily to lower iPhone net sales, partially offset by higher Wearables, Home and Accessories and Services net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Europe net sales during the third quarter and first nine months of 2019. Greater China Greater China net sales decreased during the third quarter and first nine months of 2019 compared to the same periods in 2018 due primarily to lower iPhone net sales, partially offset by higher Wearables, Home and Accessories and Services net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Greater China net sales during the third quarter and first nine months of 2019. Japan Japan net sales increased during the third quarter of 2019 compared to the same quarter in 2018 due primarily to higher Services and Wearables, Home and Accessories net sales, partially offset by lower iPhone net sales. Year-over-year Japan net sales during the first nine months of 2019 were relatively flat as lower iPhone net sales were offset primarily by higher Services and Wearables, Home and Accessories net sales. The value of the Japanese Yen relative to the U.S. dollar had an unfavorable impact on Japan net sales during the third quarter and first nine months of 2019. Rest of Asia Pacific Rest of Asia Pacific net sales increased during the third quarter of 2019 compared to the same quarter in 2018 due primarily to higher Wearables, Home and Accessories, iPad and Services net sales. Year-over-year Rest of Asia Pacific net sales during the first nine months of 2019 increased due primarily to higher Wearables, Home and Accessories, iPad and Services net sales, partially offset by lower iPhone net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Rest of Asia Pacific net sales during the third quarter and first nine months of 2019. Apple Inc. | Q3 2019 Form 10-Q | 27 Gross Margin Products and services gross margin and gross margin percentage for the three- and nine-month periods ended June 29, 2019 and June 30, 2018 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 29, 2019 June 30, 2018 June 29, 2019 June 30, 2018 Gross margin: Products $ 12,881 $ 14,139 $ 52,596 $ 60,079 Services 7,346 6,282 21,483 17,676 Total gross margin $ 20,227 $ 20,421 $ 74,079 $ 77,755 Gross margin percentage: Products 30.4 % 32.8 % 32.4 % 34.6 % Services 64.1 % 61.8 % 63.6 % 60.6 % Total gross margin percentage 37.6 % 38.3 % 37.8 % 38.4 % Products Gross Margin Products gross margin decreased during the third quarter of 2019 compared to the same quarter in 2018 due primarily to the weakness in foreign currencies relative to the U.S. dollar. Products gross margin decreased during the first nine months of 2019 compared to the same period in 2018 due primarily to lower iPhone unit sales and the weakness in foreign currencies relative to the U.S. dollar. Year-over-year products gross margin percentage decreased during the third quarter and first nine months of 2019 due primarily to the weakness in foreign currencies relative to the U.S. dollar and the impact of lower iPhone unit sales on the Company’s products fixed cost structure. Services Gross Margin Services gross margin increased during the third quarter and first nine months of 2019 compared to the same periods in 2018 due primarily to higher services net sales. Year-over-year services gross margin percentage increased during the third quarter and first nine months of 2019 due primarily to leverage of the Company’s services fixed cost structure from higher services net sales and a different services mix. The Company anticipates total gross margin percentage during the fourth quarter of 2019 to be between 37.5% and 38.5%. The foregoing statement regarding the Company’s expected total gross margin percentage in the fourth quarter of 2019 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will be subject to volatility and remain under downward pressure due to a variety of factors, including: continued industry-wide global product pricing pressures and product pricing actions that the Company may take in response to such pressures; increased competition; the Company’s ability to effectively stimulate demand for certain of its products and services; compressed product life cycles; potential increases in the cost of components, outside manufacturing services, and acquiring and delivering content for the Company’s services; the Company’s ability to manage product quality and warranty costs effectively; shifts in the mix of products and services, or in the geographic, currency or channel mix; fluctuations in foreign exchange rates; and costs associated with the Company’s frequent introductions and transitions of products and services. Apple Inc. | Q3 2019 Form 10-Q | 28 Operating Expenses Operating expenses for the three- and nine-month periods ended June 29, 2019 and June 30, 2018 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 29, 2019 June 30, 2018 June 29, 2019 June 30, 2018 Research and development $ 4,257 $ 3,701 $ 12,107 $ 10,486 Percentage of total net sales 8 % 7 % 6 % 5 % Selling, general and administrative $ 4,426 $ 4,108 $ 13,667 $ 12,489 Percentage of total net sales 8 % 8 % 7 % 6 % Total operating expenses $ 8,683 $ 7,809 $ 25,774 $ 22,975 Percentage of total net sales 16 % 15 % 13 % 11 % Research and Development The growth in research and development (“R&amp;D”) expense during the third quarter of 2019 and first nine months of 2019 compared to the same periods in 2018 was driven primarily by increases in headcount-related expenses. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the third quarter of 2019 compared to the same quarter in 2018 was driven primarily by higher spending on marketing and advertising and an increase in headcount-related expenses. The year-over-year growth in selling, general and administrative expense during the first nine months of 2019 was driven primarily by an increase in headcount-related expenses and higher spending on marketing and advertising and infrastructure-related costs. Other Income/(Expense), Net Other income/(expense), net for the three- and nine-month periods ended June 29, 2019 and June 30, 2018 was as follows (dollars in millions): Three Months Ended Nine Months Ended June 29, 2019 June 30, 2018 Change June 29, 2019 June 30, 2018 Change Interest and dividend income $ 1,190 $ 1,418 $ 3,855 $ 4,375 Interest expense (866 ) (846 ) (2,766 ) (2,372 ) Other income/(expense), net 43 100 216 (301 ) Total other income/(expense), net $ 367 $ 672 (45 )% $ 1,305 $ 1,702 (23 )% The decrease in other income/(expense), net during the third quarter of 2019 compared to the same quarter in 2018 was due to lower interest income and the impact of foreign exchange–related items. The year-over-year decrease in other income/(expense), net during the first nine months of 2019 was due primarily to lower interest income and higher interest expense, partially offset by the impact of foreign exchange–related items. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 2.17% and 2.25% in the third quarters of 2019 and 2018, respectively, and 2.21% and 2.16% in the first nine months of 2019 and 2018, respectively. Apple Inc. | Q3 2019 Form 10-Q | 29 Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and nine-month periods ended June 29, 2019 and June 30, 2018 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 29, 2019 June 30, 2018 June 29, 2019 June 30, 2018 Provision for income taxes $ 1,867 $ 1,765 $ 8,040 $ 11,076 Effective tax rate 15.7 % 13.3 % 16.2 % 19.6 % Statutory federal income tax rate 21.0 % 24.5 % 21.0 % 24.5 % The Company’s effective tax rate for the third quarter and first nine months of 2019 was lower than the statutory federal income tax rate due primarily to the lower tax rate on foreign earnings and tax benefits from share-based compensation. The Company’s effective tax rate for the third quarter of 2019 was higher compared to the same quarter in 2018 due primarily to higher taxes on foreign earnings, partially offset by a lower statutory federal income tax rate in 2019. The Company’s effective tax rate for the first nine months of 2019 was lower compared to the same period in 2018 due primarily to a lower statutory federal income tax rate in 2019. Recent Accounting Pronouncements Hedging In August 2017, the Financial Accounting Standards Board (the “FASB”) issued Accounting Standards Update (“ASU”) No. 2017-12, Derivatives and Hedging (Topic 815): Targeted Improvements to Accounting for Hedging Activities (“ASU 2017-12”). ASU 2017-12 expands component and fair value hedging, specifies the presentation of the effects of hedging instruments, and eliminates the separate measurement and presentation of hedge ineffectiveness. The Company will adopt ASU 2017-12 in its first quarter of 2020 utilizing the modified retrospective transition method. Based on the Company’s derivative portfolio and hedging strategies, the adoption of ASU 2017-12 is not expected to have a material impact on its consolidated financial statements. Financial Instruments In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses on certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. The Company will adopt ASU 2016-02 utilizing the modified retrospective transition method through a cumulative-effect adjustment at the beginning of its first quarter of 2020. While the Company is currently evaluating the impact of adopting ASU 2016-02, based on the lease portfolio as of June 29, 2019, the Company anticipates recording lease assets and liabilities of approximately $9 billion on its Condensed Consolidated Balance Sheets, with no material impact to its Condensed Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company’s lease portfolio as of the adoption date. Apple Inc. | Q3 2019 Form 10-Q | 30 Liquidity and Capital Resources The following tables present selected financial information and statistics as of June 29, 2019 and September 29, 2018 and for the first nine months of 2019 and 2018 (in millions): June 29, 2019 September 29, 2018 Cash, cash equivalents and marketable securities (1) $ 210,610 $ 237,100 Property, plant and equipment, net $ 37,636 $ 41,304 Commercial paper $ 9,953 $ 11,964 Total term debt $ 98,465 $ 102,519 Working capital $ 45,269 $ 15,410 Nine Months Ended June 29, 2019 June 30, 2018 Cash generated by operating activities $ 49,481 $ 57,911 Cash generated by investing activities $ 46,694 $ 19,067 Cash used in financing activities $ (69,937 ) $ (65,296 ) (1) As of June 29, 2019 and September 29, 2018, total cash, cash equivalents and marketable securities included $19.5 billion and $20.3 billion, respectively, that was restricted from general use, related to the State Aid Decision (refer to Note 5, “Income Taxes” in the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q) and other agreements. The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations over the next 12 months. In connection with the State Aid Decision, as of June 29, 2019, the entire recovery amount of €13.1 billion plus interest of €1.2 billion was funded into escrow, where it will remain restricted from general use pending conclusion of all appeals. The Company’s marketable securities investment portfolio is primarily invested in highly rated securities, with the primary objective of minimizing the potential risk of principal loss. The Company’s investment policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer. During the nine months ended June 29, 2019, cash generated by operating activities of $49.5 billion was a result of $41.6 billion of net income and non-cash adjustments to net income of $13.6 billion, partially offset by a decrease in the net change in operating assets and liabilities of $5.6 billion. Cash generated by investing activities of $46.7 billion during the nine months ended June 29, 2019 consisted primarily of proceeds from sales and maturities of marketable securities, net of purchases, of $54.4 billion, partially offset by cash used to acquire property, plant and equipment of $7.7 billion. Cash used in financing activities of $69.9 billion during the nine months ended June 29, 2019 consisted primarily of cash used to repurchase common stock of $49.5 billion, cash used to pay dividends and dividend equivalents of $10.6 billion and cash used to repay term debt of $5.5 billion. During the nine months ended June 30, 2018, cash generated by operating activities of $57.9 billion was a result of $45.4 billion of net income and an increase in the net change in operating assets and liabilities of $33.9 billion, partially offset by non-cash adjustments to net income of $21.4 billion. Cash generated by investing activities of $19.1 billion during the nine months ended June 30, 2018 consisted primarily of proceeds from maturities and sales of marketable securities, net of purchases, of $31.8 billion, partially offset by cash used to acquire property, plant and equipment of $10.3 billion. Cash used in financing activities of $65.3 billion during the nine months ended June 30, 2018 consisted primarily of cash used to repurchase common stock of $53.6 billion, cash used to pay dividends and dividend equivalents of $10.2 billion and cash used to repay term debt of $6.5 billion, partially offset by net proceeds from the issuance of term debt of $7.0 billion. Capital Assets The Company’s capital expenditures were $4.9 billion during the first nine months of 2019. The Company anticipates utilizing approximately $10.0 billion for capital expenditures during 2019, which includes product tooling and manufacturing process equipment; data centers; corporate facilities and infrastructure, including information systems hardware, software and enhancements; and retail store facilities. Apple Inc. | Q3 2019 Form 10-Q | 31 Debt The Company issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. The Company uses the net proceeds from the commercial paper program for general corporate purposes, including dividends and share repurchases. As of June 29, 2019, the Company had $10.0 billion of Commercial Paper outstanding, with a weighted-average interest rate of 2.49% and maturities generally less than nine months. As of June 29, 2019, the Company had outstanding floating- and fixed-rate notes with varying maturities for an aggregate principal amount of $98.3 billion (collectively the “Notes”). During the first nine months of 2019, the Company repaid $5.5 billion of its Notes upon maturity. The Company has entered, and in the future may enter, into interest rate swaps to manage interest rate risk on the Notes. In addition, the Company has entered, and in the future may enter, into foreign currency swaps to manage foreign currency risk on the Notes. Further information regarding the Company’s debt issuances and related hedging activity can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 3, “Financial Instruments” and Note 6, “Debt.” Capital Return Program On April 30, 2019, the Company announced the Board of Directors increased the current share repurchase program authorization from $100 billion to $175 billion of the Company’s common stock, of which $78.2 billion had been utilized as of June 29, 2019. During the nine months ended June 29, 2019, the Company repurchased 252.6 million shares of its common stock for $49.2 billion, including 55.1 million shares initially delivered under a $12.0 billion accelerated share repurchase arrangement (“ASR”) dated February 2019. The Company’s share repurchase program does not obligate it to acquire any specific number of shares. Under this program, shares may be repurchased in privately negotiated and/or open market transactions, including under plans complying with Rule 10b5-1 under the Exchange Act. On April 30, 2019, the Company also announced the Board of Directors raised the Company’s quarterly cash dividend from $0.73 to $0.77 per share, beginning with the dividend paid during the third quarter of 2019. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Contractual Obligations Operating Leases As of June 29, 2019, the Company’s total future minimum lease payments under noncancelable operating leases were $11.1 billion. The Company’s retail store and other facility leases typically have original terms not exceeding 10 years and generally contain multi-year renewal options. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture sub-assemblies for the Company’s products and to perform final assembly and testing of finished products. These outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of June 29, 2019, the Company expects to pay $29.8 billion under manufacturing-related supplier arrangements, which are primarily noncancelable. Other Purchase Obligations The Company’s other purchase obligations consist of noncancelable obligations to acquire capital assets, including product tooling and manufacturing process equipment, and noncancelable obligations related to advertising, licensing, R&amp;D, internet and telecommunications services, content creation and other activities. As of June 29, 2019, the Company had other purchase obligations of $6.3 billion. Other Non-Current Liabilities As of June 29, 2019, a significant portion of the other non-current liabilities in the Company’s Condensed Consolidated Balance Sheet consisted of the $30.5 billion deemed repatriation tax payable imposed by the U.S. Tax Cuts and Jobs Act (the “Act”). The Company plans to pay the deemed repatriation tax payable in installments in accordance with the Act. The Company’s remaining other non-current liabilities primarily consist of items for which the Company is unable to make a reasonably reliable estimate of the timing of payments. Apple Inc. | Q3 2019 Form 10-Q | 32 Indemnification Agreements entered into by the Company may include indemnification provisions, which may subject the Company to costs and damages in the event of a claim against an indemnified third party. In the opinion of management, there was not at least a reasonable possibility the Company may have incurred a material loss, or a material loss in excess of a recorded accrual, with respect to indemnification of third parties. The Company offers an iPhone Upgrade Program, which is available to customers who purchase a qualifying iPhone in the U.S., the U.K. and mainland China. The iPhone Upgrade Program provides customers the right to trade in that iPhone for a specified amount when purchasing a new iPhone, provided certain conditions are met. The Company accounts for the trade-in right as a guarantee liability and recognizes arrangement revenue net of the fair value of such right, with subsequent changes to the guarantee liability recognized within net sales. The Company has entered into indemnification agreements with its directors and executive officers. Under these agreements, the Company has agreed to indemnify such individuals to the fullest extent permitted by law against liabilities that arise by reason of their status as directors or officers of the Company, and to advance expenses incurred by such individuals in connection with related legal proceedings. It is not possible to determine the maximum potential amount of payments the Company could be required to make under these agreements due to the limited history of prior indemnification claims and the unique facts and circumstances involved in each claim. While the Company maintains directors and officers liability insurance coverage, such insurance coverage may be insuffici</t>
+  </si>
+  <si>
+    <t>Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the Company’s Annual Report on Form 10-K for the year ended September 29, 2018 (the “2018 Form 10-K”) filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and notes thereto included in Part I, Item 1 of this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company’s Annual Reports on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the SEC. The Company is subject to the informational requirements of the Exchange Act and files or furnishes reports, proxy statements and other information with the SEC. Such reports and other information filed by the Company with the SEC are available free of charge at investor.apple.com/investor-relations/sec-filings/default.aspx when such reports are available on the SEC’s website. The SEC maintains an internet site that contains reports, proxy and information statements, and other information regarding issuers that file electronically with the SEC at www.sec.gov. The Company periodically provides other information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on corporate governance and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Quarterly Highlights Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product and service introductions can significantly impact net sales, cost of sales and operating expenses. The timing of product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new inventory following a product launch, and channel inventory of an older product often declines as the launch of a newer product approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. However, neither historical seasonal patterns nor historical patterns of product or service introductions should be considered reliable indicators of the Company’s future pattern of product or service introductions, future net sales or financial performance. Second Quarter Fiscal 2019 Highlights Total net sales decreased 5% or $3.1 billion during the second quarter of 2019 compared to the same quarter in 2018, driven by lower iPhone net sales, partially offset by higher Services and Wearables, Home and Accessories net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on net sales during the second quarter of 2019. During the second quarter of 2019, the Company released the following products: • An iPad Air® and an updated iPad mini®, featuring Retina® displays and Apple Pencil® compatibility. • An updated iMac® with improved compute and graphics performance. • Updated AirPods with hands-free “Hey Siri” and the option of a wireless charging case. Apple Inc. | Q2 2019 Form 10-Q | 25 The Company also announced the following new services: • Apple News+, a subscription news and magazine service, available initially in the U.S. and Canada. • Apple Card™, a new kind of credit card designed for the iPhone, expected to be available to qualified customers in the U.S. in summer 2019. • Apple Arcade™, a game subscription service, expected to launch in fall 2019. • New Apple TV app and Apple TV channels, bringing together different ways to access shows, movies, sports and news in one app across devices, and allowing users to subscribe to specific third-party video services, expected to be available starting in May 2019. • Apple TV+, a new subscription service for exclusive original shows, movies and documentaries, expected to be available in fall 2019. The Company repurchased $24.0 billion of its common stock and paid dividends and dividend equivalents of $3.4 billion during the second quarter of 2019. Products and Services Performance Beginning in the first quarter of 2019, the Company classified the amortization of the deferred value of Maps, Siri and free iCloud services, which are bundled in the sales price of iPhone, Mac, iPad and certain other products, in services net sales. Historically, the Company classified the amortization of these amounts in products net sales consistent with its management reporting framework. As a result, products and services net sales information for the second quarter and first six months of 2018 was reclassified to conform to the 2019 presentation. The following table shows net sales by category for the three- and six-month periods ended March 30, 2019 and March 31, 2018 (dollars in millions): Three Months Ended Six Months Ended March 30, 2019 March 31, 2018 Change March 30, 2019 March 31, 2018 Change Net sales by category: iPhone (1) $ 31,051 $ 37,559 (17 )% $ 83,033 $ 98,663 (16 )% Mac (1) 5,513 5,776 (5 )% 12,929 12,600 3 % iPad (1) 4,872 4,008 22 % 11,601 9,763 19 % Wearables, Home and Accessories (1)(2) 5,129 3,944 30 % 12,437 9,425 32 % Services (3) 11,450 9,850 16 % 22,325 18,979 18 % Total net sales $ 58,015 $ 61,137 (5 )% $ 142,325 $ 149,430 (5 )% (1) Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2) Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and Apple-branded and third-party accessories. (3) Services net sales include sales from the Company’s digital content stores and streaming services, AppleCare, Apple Pay, licensing and other services. Services net sales also include amortization of the deferred value of Maps, Siri and free iCloud services, which are bundled in the sales price of certain products. iPhone iPhone net sales decreased during the second quarter and first six months of 2019 compared to the same periods in 2018 due primarily to lower iPhone unit sales in all the reportable geographic segments. Mac Mac net sales decreased during the second quarter of 2019 compared to the same quarter in 2018 due primarily to lower net sales of iMac. Year-over-year Mac net sales increased during the first six months of 2019 due primarily to higher net sales of MacBook Air, partially offset by lower net sales of iMac. iPad iPad net sales increased during the second quarter and first six months of 2019 compared to the same periods in 2018 due primarily to higher net sales of iPad Pro®. Apple Inc. | Q2 2019 Form 10-Q | 26 Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during the second quarter and first six months of 2019 compared to the same periods in 2018 due primarily to higher net sales of Apple Watch and AirPods. Services Services net sales increased during the second quarter and first six months of 2019 compared to the same periods in 2018 due primarily to the App Store, licensing and AppleCare. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for the three- and six-month periods ended March 30, 2019 and March 31, 2018 (dollars in millions): Three Months Ended Six Months Ended March 30, 2019 March 31, 2018 Change March 30, 2019 March 31, 2018 Change Net sales by reportable segment: Americas $ 25,596 $ 24,841 3 % $ 62,536 $ 60,034 4 % Europe 13,054 13,846 (6 )% 33,417 34,900 (4 )% Greater China 10,218 13,024 (22 )% 23,387 30,980 (25 )% Japan 5,532 5,468 1 % 12,442 12,705 (2 )% Rest of Asia Pacific 3,615 3,958 (9 )% 10,543 10,811 (2 )% Total net sales $ 58,015 $ 61,137 (5 )% $ 142,325 $ 149,430 (5 )% Americas Americas net sales increased during the second quarter and first six months of 2019 compared to the same periods in 2018 due primarily to higher Services and Wearables, Home and Accessories net sales, partially offset by lower iPhone net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Americas net sales during the second quarter and first six months of 2019. Europe Europe net sales decreased during the second quarter and first six months of 2019 compared to the same periods in 2018 due primarily to lower iPhone net sales, partially offset by higher Wearables, Home and Accessories and Services net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Europe net sales during the second quarter and first six months of 2019. Greater China Greater China net sales decreased during the second quarter and first six months of 2019 compared to the same periods in 2018, driven by lower iPhone net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Greater China net sales during the second quarter and first six months of 2019. Japan Japan net sales during the second quarter of 2019 were relatively flat compared to the same quarter in 2018, as higher Services and iPad net sales were primarily offset by lower iPhone net sales. Year-over-year Japan net sales decreased during the first six months of 2019 due primarily to lower iPhone net sales, partially offset by higher Services and iPad net sales. The value of the Japanese Yen relative to the U.S. dollar had a favorable impact on Japan net sales during the second quarter of 2019. Apple Inc. | Q2 2019 Form 10-Q | 27 Rest of Asia Pacific Rest of Asia Pacific net sales decreased during the second quarter and first six months of 2019 compared to the same periods in 2018 due primarily to lower iPhone net sales, partially offset by higher Wearables, Home and Accessories and iPad net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Rest of Asia Pacific net sales during the second quarter and first six months of 2019. Gross Margin Products and services gross margin and gross margin percentage for the three- and six-month periods ended March 30, 2019 and March 31, 2018 were as follows (dollars in millions): Three Months Ended Six Months Ended March 30, 2019 March 31, 2018 March 30, 2019 March 31, 2018 Gross margin: Products $ 14,518 $ 17,351 $ 39,715 $ 45,940 Services 7,303 6,071 14,137 11,394 Total gross margin $ 21,821 $ 23,422 $ 53,852 $ 57,334 Gross margin percentage: Products 31.2 % 33.8 % 33.1 % 35.2 % Services 63.8 % 61.6 % 63.3 % 60.0 % Total gross margin percentage 37.6 % 38.3 % 37.8 % 38.4 % Products Gross Margin Products gross margin decreased during the second quarter and first six months of 2019 compared to the same periods in 2018 due primarily to lower iPhone unit sales and the weakness in foreign currencies relative to the U.S. dollar. Year-over-year products gross margin percentage decreased during the second quarter and first six months of 2019 due primarily to the impact of lower iPhone unit sales on the Company’s products fixed cost structure and the weakness in foreign currencies relative to the U.S. dollar. Services Gross Margin Services gross margin increased during the second quarter and first six months of 2019 compared to the same periods in 2018 due primarily to a different services mix. Year-over-year services gross margin percentage increased during the second quarter and first six months of 2019 due primarily to a different services mix and leverage of the Company’s services fixed cost structure from higher services net sales, partially offset by the weakness in foreign currencies relative to the U.S. dollar. The Company anticipates total gross margin percentage during the third quarter of 2019 to be between 37.0% and 38.0%. The foregoing statement regarding the Company’s expected total gross margin percentage in the third quarter of 2019 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will be subject to volatility and remain under downward pressure due to a variety of factors, including: continued industry-wide global product pricing pressures and product pricing actions that the Company may take in response to such pressures; increased competition; the Company’s ability to effectively stimulate demand for certain of its products and services; compressed product life cycles; potential increases in the cost of components, outside manufacturing services, and acquiring and delivering content for the Company’s services; the Company’s ability to manage product quality and warranty costs effectively; shifts in the mix of products and services, or in the geographic, currency or channel mix; fluctuations in exchange rates; and costs associated with the Company’s frequent introductions and transitions of products and services. Apple Inc. | Q2 2019 Form 10-Q | 28 Operating Expenses Operating expenses for the three- and six-month periods ended March 30, 2019 and March 31, 2018 were as follows (dollars in millions): Three Months Ended Six Months Ended March 30, 2019 March 31, 2018 March 30, 2019 March 31, 2018 Research and development $ 3,948 $ 3,378 $ 7,850 $ 6,785 Percentage of total net sales 7 % 6 % 6 % 5 % Selling, general and administrative $ 4,458 $ 4,150 $ 9,241 $ 8,381 Percentage of total net sales 8 % 7 % 6 % 6 % Total operating expenses $ 8,406 $ 7,528 $ 17,091 $ 15,166 Percentage of total net sales 14 % 12 % 12 % 10 % Research and Development The growth in research and development (“R&amp;D”) expense during the second quarter and first six months of 2019 compared to the same periods in 2018 was driven primarily by increases in headcount-related expenses and infrastructure-related costs. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the second quarter of 2019 compared to the same quarter in 2018 was driven primarily by higher spending on marketing and advertising and increases in headcount-related expenses. The year-over-year growth in selling, general and administrative expense during the first six months of 2019 was driven primarily by increases in headcount-related expenses, marketing and advertising spending and infrastructure-related costs. Other Income/(Expense), Net Other income/(expense), net for the three- and six-month periods ended March 30, 2019 and March 31, 2018 was as follows (dollars in millions): Three Months Ended Six Months Ended March 30, 2019 March 31, 2018 Change March 30, 2019 March 31, 2018 Change Interest and dividend income $ 1,358 $ 1,505 $ 2,665 $ 2,957 Interest expense (1,010 ) (792 ) (1,900 ) (1,526 ) Other income/(expense), net 30 (439 ) 173 (401 ) Total other income/(expense), net $ 378 $ 274 38 % $ 938 $ 1,030 (9 )% The increase in other income/(expense), net during the second quarter of 2019 compared to the same quarter in 2018 was due primarily to the impact of foreign exchange–related items, partially offset by higher interest expense and lower interest income. The year-over-year decrease in other income/(expense), net during the first six months of 2019 was due primarily to higher interest expense, lower interest income and lower investment-related gains, partially offset by the impact of foreign exchange–related items. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 2.27% and 2.14% in the second quarter of 2019 and 2018, respectively, and 2.23% and 2.12% in the first six months of 2019 and 2018, respectively. Apple Inc. | Q2 2019 Form 10-Q | 29 Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three- and six-month periods ended March 30, 2019 and March 31, 2018 were as follows (dollars in millions): Three Months Ended Six Months Ended March 30, 2019 March 31, 2018 March 30, 2019 March 31, 2018 Provision for income taxes $ 2,232 $ 2,346 $ 6,173 $ 9,311 Effective tax rate 16.2 % 14.5 % 16.4 % 21.6 % Statutory federal income tax rate 21 % 24.5 % 21 % 24.5 % The Company’s effective tax rate for the second quarter of 2019 was lower than the statutory federal income tax rate due primarily to the lower tax rate on foreign earnings. The Company’s effective tax rate for the first six months of 2019 was lower than the statutory federal income tax rate due primarily to the lower tax rate on foreign earnings and tax benefits from share-based compensation. The Company’s effective tax rate for the second quarter of 2019 was higher compared to the same quarter in 2018 due primarily to higher taxes on foreign earnings, partially offset by a lower statutory federal income tax rate in 2019. The Company’s effective tax rate for the first six months of 2019 was lower compared to the same period in 2018 due primarily to higher taxes in 2018 arising from the remeasurement of deferred tax assets and liabilities as a result of the Tax Cuts and Jobs Act (the “Act”) and a lower statutory federal income tax rate in 2019, partially offset by higher taxes on foreign earnings in 2019. Recent Accounting Pronouncements Hedging In August 2017, the Financial Accounting Standards Board (the “FASB”) issued Accounting Standards Update (“ASU”) No. 2017-12, Derivatives and Hedging (Topic 815): Targeted Improvements to Accounting for Hedging Activities (“ASU 2017-12”). ASU 2017-12 expands component and fair value hedging, specifies the presentation of the effects of hedging instruments, and eliminates the separate measurement and presentation of hedge ineffectiveness. The Company will adopt ASU 2017-12 in its first quarter of 2020 utilizing the modified retrospective transition method. Based on the Company’s derivative portfolio and hedging strategies, the adoption of ASU 2017-12 is not expected to have a material impact on its consolidated financial statements. Financial Instruments In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses on certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. The Company will adopt ASU 2016-02 utilizing the modified retrospective transition method through a cumulative-effect adjustment at the beginning of its first quarter of 2020. While the Company is currently evaluating the impact of adopting ASU 2016-02, based on the lease portfolio as of March 30, 2019, the Company anticipates recording lease assets and liabilities of approximately $9 billion on its Condensed Consolidated Balance Sheets, with no material impact to its Condensed Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company’s lease portfolio as of the adoption date. Apple Inc. | Q2 2019 Form 10-Q | 30 Liquidity and Capital Resources The following tables present selected financial information and statistics as of March 30, 2019 and September 29, 2018 and for the first six months of 2019 and 2018 (in millions): March 30, 2019 September 29, 2018 Cash, cash equivalents and marketable securities (1) $ 225,411 $ 237,100 Property, plant and equipment, net $ 38,746 $ 41,304 Commercial paper $ 11,924 $ 11,964 Total term debt $ 100,706 $ 102,519 Working capital $ 29,574 $ 15,410 Six Months Ended March 30, 2019 March 31, 2018 Cash generated by operating activities $ 37,845 $ 43,423 Cash generated by investing activities $ 19,192 $ 15,120 Cash used in financing activities $ (43,133 ) $ (33,773 ) (1) As of March 30, 2019 and September 29, 2018, total cash, cash equivalents and marketable securities included $19.3 billion and $20.3 billion, respectively, that was restricted from general use, related to the State Aid Decision (refer to Note 5, “Income Taxes” in the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q) and other agreements. The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations over the next 12 months. In connection with the State Aid Decision, as of March 30, 2019, the entire recovery amount of €13.1 billion plus interest of €1.2 billion was funded into escrow, where it will remain restricted from general use pending conclusion of all appeals. The Company’s marketable securities investment portfolio is primarily invested in highly rated securities, with the primary objective of minimizing the potential risk of principal loss. The Company’s investment policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer. During the six months ended March 30, 2019, cash generated by operating activities of $37.8 billion was a result of $31.5 billion of net income and non-cash adjustments to net income of $9.2 billion, partially offset by a decrease in the net change in operating assets and liabilities of $2.9 billion. Cash generated by investing activities of $19.2 billion during the six months ended March 30, 2019 consisted primarily of proceeds from sales and maturities of marketable securities, net of purchases, of $25.7 billion, partially offset by cash used to acquire property, plant and equipment of $5.7 billion. Cash used in financing activities of $43.1 billion during the six months ended March 30, 2019 consisted primarily of cash used to repurchase common stock of $32.5 billion, cash used to pay dividends and dividend equivalents of $7.0 billion and cash used to repay term debt of $2.5 billion. During the six months ended March 31, 2018, cash generated by operating activities of $43.4 billion was a result of $33.9 billion of net income and an increase in the net change in operating assets and liabilities of $35.8 billion, partially offset by non-cash adjustments to net income of $26.3 billion. Cash generated by investing activities of $15.1 billion during the six months ended March 31, 2018 consisted primarily of proceeds from sales and maturities of marketable securities, net of purchases, of $22.4 billion, partially offset by cash used to acquire property, plant and equipment of $7.0 billion. Cash used in financing activities of $33.8 billion during the six months ended March 31, 2018 consisted primarily of cash used to repurchase common stock of $32.9 billion and cash used to pay dividends and dividend equivalents of $6.5 billion, partially offset by net proceeds from the issuance of term debt of $7.0 billion. Capital Assets The Company’s capital expenditures were $3.3 billion during the first six months of 2019. The Company anticipates utilizing approximately $12.0 billion for capital expenditures during 2019, which includes product tooling and manufacturing process equipment; data centers; corporate facilities and infrastructure, including information systems hardware, software and enhancements; and retail store facilities. Apple Inc. | Q2 2019 Form 10-Q | 31 Debt The Company issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. The Company uses the net proceeds from the commercial paper program for general corporate purposes, including dividends and share repurchases. As of March 30, 2019, the Company had $11.9 billion of Commercial Paper outstanding, with a weighted-average interest rate of 2.56% and maturities generally less than nine months. As of March 30, 2019, the Company had outstanding floating- and fixed-rate notes with varying maturities for an aggregate principal amount of $101.2 billion (collectively the “Notes”). During the first six months of 2019, the Company repaid $2.5 billion of its Notes upon maturity. The Company has entered, and in the future may enter, into interest rate swaps to manage interest rate risk on the Notes. In addition, the Company has entered, and in the future may enter, into foreign currency swaps to manage foreign currency risk on the Notes. Further information regarding the Company’s debt issuances and related hedging activity can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 3, “Financial Instruments” and Note 6, “Debt.” Capital Return Program As of March 30, 2019, the Company had an authorized program to repurchase up to $100 billion of the Company’s common stock, of which $61.3 billion had been utilized. During the six months ended March 30, 2019, the Company repurchased 164.7 million shares of its common stock for $32.2 billion, including 55.1 million shares initially delivered under a $12.0 billion accelerated share repurchase arrangement (“ASR”) dated February 2019. On April 30, 2019, the Company announced the Board of Directors increased the share repurchase program authorization from $100 billion to $175 billion. The Company’s share repurchase program does not obligate it to acquire any specific number of shares. Under this program, shares may be repurchased in privately negotiated and/or open market transactions, including under plans complying with Rule 10b5-1 under the Exchange Act. On April 30, 2019, the Company also announced the Board of Directors raised the Company’s quarterly cash dividend from $0.73 to $0.77 per share, beginning with the dividend to be paid during the third quarter of 2019. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Contractual Obligations Operating Leases As of March 30, 2019, the Company’s total future minimum lease payments under noncancelable operating leases were $10.4 billion. The Company’s retail store and other facility leases typically have original terms not exceeding 10 years and generally contain multi-year renewal options. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture sub-assemblies for the Company’s products and to perform final assembly and testing of finished products. These outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of March 30, 2019, the Company expects to pay $26.2 billion under manufacturing-related supplier arrangements, which are primarily noncancelable. Other Purchase Obligations The Company’s other purchase obligations consist of noncancelable obligations to acquire capital assets, including product tooling and manufacturing process equipment, and noncancelable obligations related to advertising, licensing, R&amp;D, internet and telecommunications services, content creation and other activities. As of March 30, 2019, the Company had other purchase obligations of $6.7 billion. Other Non-Current Liabilities As of March 30, 2019, a significant portion of the other non-current liabilities in the Company’s Condensed Consolidated Balance Sheet consisted of the $30.9 billion deemed repatriation tax payable imposed by the Act. The Company plans to pay the deemed repatriation tax payable in installments in accordance with the Act. The Company’s remaining other non-current liabilities primarily consist of items for which the Company is unable to make a reasonably reliable estimate of the timing of payments. Apple Inc. | Q2 2019 Form 10-Q | 32 Indemnification Agreements entered into by the Company may include indemnification provisions, which may subject the Company to costs and damages in the event of a claim against an indemnified third party. Except as disclosed in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 10, “Commitments and Contingencies” under the heading “Contingencies,” in the opinion of management, there was not at least a reasonable possibility the Company may have incurred a material loss, or a material loss in excess of a recorded accrual, with respect to indemnification of third parties. The Company offers an iPhone Upgrade Program, which is available to customers who purchase a qualifying iPhone in the U.S., the U.K. and mainland China. The iPhone Upgrade Program provides customers the right to trade in that iPhone for a specified amount when purchasing a new iPhone, provided certain conditions are met. The Compan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the Company’s Annual Report on Form 10-K for the year ended September 29, 2018 (the “2018 Form 10-K”) filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and notes thereto included in Part I, Item 1 of this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company’s Annual Reports on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the SEC. The Company is subject to the informational requirements of the Exchange Act and files or furnishes reports, proxy statements and other information with the SEC. Such reports and other information filed by the Company with the SEC are available free of charge at investor.apple.com/investor-relations/sec-filings/default.aspx when such reports are available on the SEC’s website. The SEC maintains an internet site that contains reports, proxy and information statements, and other information regarding issuers that file electronically with the SEC at www.sec.gov. The Company periodically provides other information for investors on its corporate website, www.apple.com, and its investor relations website, investor.apple.com. This includes press releases and other information about financial performance, information on corporate governance and details related to the Company’s annual meeting of shareholders. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices and personal computers, and sells a variety of related software, services, accessories and third-party digital content and applications. The Company’s products and services include iPhone, Mac, iPad, Apple Watch, AirPods, Apple TV, HomePod, a portfolio of consumer and professional software applications, iOS, macOS, watchOS and tvOS operating systems, iCloud, Apple Pay and a variety of accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store, App Store, Mac App Store, TV App Store, Book Store and Apple Music (collectively “Digital Content and Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and resellers. In addition, the Company sells a variety of third-party Apple-compatible products, including application software and various accessories, through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Business Strategy The Company is committed to bringing the best user experience to its customers through its innovative hardware, software and services. The Company’s business strategy leverages its unique ability to design and develop its own operating systems, hardware, application software and services to provide its customers products and solutions with innovative design, superior ease-of-use and seamless integration. As part of its strategy, the Company continues to expand its platform for the discovery and delivery of digital content and applications through its Digital Content and Services, which allows customers to discover and download or stream digital content, iOS, Mac, Apple Watch and Apple TV applications, and books through either a Mac or Windows personal computer or through iPhone, iPad and iPod touch devices, Apple TV, Apple Watch and HomePod. The Company also supports a community for the development of third-party software and hardware products and digital content that complement the Company’s offerings. The Company believes a high-quality buying experience with knowledgeable salespersons who can convey the value of the Company’s products and services greatly enhances its ability to attract and retain customers. Therefore, the Company’s strategy also includes building and expanding its own retail and online stores and its third-party distribution network to effectively reach more customers and provide them with a high-quality sales and post-sales support experience. The Company believes ongoing investment in research and development (“R&amp;D”), marketing and advertising is critical to the development and sale of innovative products, services and technologies. Apple Inc. | Q1 2019 Form 10-Q | 24 Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product introductions can significantly impact product sales, product costs and operating expenses. Product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new product inventory following a product introduction, and channel inventory of a particular product often declines as the next related major product launch approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. However, neither historical seasonal patterns nor historical patterns of product introductions should be considered reliable indicators of the Company’s future pattern of product introductions, future net sales or financial performance. First Quarter Fiscal 2019 Highlights Total net sales decreased 5% or $4.0 billion during the first quarter of 2019 compared to the same quarter in 2018, driven by lower iPhone net sales, partially offset primarily by higher Wearables, Home and Accessories and Services net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on net sales during the first quarter of 2019. The Company began shipping iPhone XR in October 2018. During the first quarter of 2019, the Company introduced two new versions of iPad Pro® as well as a new Apple Pencil® and Smart Keyboard Folio™, all of which began shipping in November 2018. The Company also introduced a new version of MacBook Air® and a new Mac mini®, both of which began shipping in November 2018. The Company repurchased $8.2 billion of its common stock and paid dividends and dividend equivalents of $3.6 billion during the first quarter of 2019. Products and Services Performance Beginning in the first quarter of 2019, the Company classified the amortization of the deferred value of Maps, Siri and free iCloud services, which are bundled in the sales price of iPhone, Mac, iPad and certain other products, in Services net sales. Historically, the Company classified the amortization of these amounts in Products net sales consistent with its management reporting framework. As a result, Products and Services net sales information for the first quarter of 2018 was reclassified to conform to the 2019 presentation. The following table shows net sales by category for the three months ended December 29, 2018 and December 30, 2017 (dollars in millions): Three Months Ended December 29, 2018 December 30, 2017 Change Net sales by category: iPhone (1) $ 51,982 $ 61,104 (15 )% Mac (1) 7,416 6,824 9 % iPad (1) 6,729 5,755 17 % Wearables, Home and Accessories (1)(2) 7,308 5,481 33 % Services (3) 10,875 9,129 19 % Total net sales $ 84,310 $ 88,293 (5 )% (1) Products net sales include amortization of the deferred value of unspecified software upgrade rights, which are bundled in the sales price of the respective product. (2) Wearables, Home and Accessories net sales include sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and Apple-branded and third-party accessories. (3) Services net sales include sales from Digital Content and Services, AppleCare, Apple Pay, licensing and other services. Services net sales also include amortization of the deferred value of Maps, Siri and free iCloud services, which are bundled in the sales price of certain products. iPhone iPhone net sales decreased during the first quarter of 2019 compared to the same quarter in 2018 due to lower iPhone unit sales in all the reportable geographic segments. Apple Inc. | Q1 2019 Form 10-Q | 25 Mac Mac net sales increased during the first quarter of 2019 compared to the same quarter in 2018 due primarily to higher net sales of MacBook Air. iPad iPad net sales increased during the first quarter of 2019 compared to the same quarter in 2018 due primarily to higher net sales of iPad Pro. Wearables, Home and Accessories Wearables, Home and Accessories net sales increased during the first quarter of 2019 compared to the same quarter in 2018 due primarily to higher net sales of Apple Watch and AirPods. Services Services net sales increased during the first quarter of 2019 compared to the same quarter in 2018 due primarily to licensing, the App Store and AppleCare. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” The following table shows net sales by reportable segment for the three months ended December 29, 2018 and December 30, 2017 (dollars in millions): Three Months Ended December 29, 2018 December 30, 2017 Change Net sales by reportable segment: Americas $ 36,940 $ 35,193 5 % Europe 20,363 21,054 (3 )% Greater China 13,169 17,956 (27 )% Japan 6,910 7,237 (5 )% Rest of Asia Pacific 6,928 6,853 1 % Total net sales $ 84,310 $ 88,293 (5 )% Americas Americas net sales increased during the first quarter of 2019 compared to the same quarter in 2018 due primarily to higher Wearables, Home and Accessories and Services net sales, partially offset by lower iPhone net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Americas net sales during the first quarter of 2019. Europe Europe net sales decreased during the first quarter of 2019 compared to the same quarter in 2018 due primarily to lower iPhone net sales, partially offset by higher Wearables, Home and Accessories and Services net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Europe net sales during the first quarter of 2019. Greater China Greater China net sales decreased during the first quarter of 2019 compared to the same quarter in 2018 due primarily to lower iPhone net sales. Apple Inc. | Q1 2019 Form 10-Q | 26 Japan Japan net sales decreased during the first quarter of 2019 compared to the same quarter in 2018 due primarily to lower iPhone net sales, partially offset by higher Services and iPad net sales. Rest of Asia Pacific Rest of Asia Pacific net sales during the first quarter of 2019 were generally flat compared to the same quarter in 2018, as higher Wearables, Home and Accessories and Services net sales were offset by lower iPhone net sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Rest of Asia Pacific net sales during the first quarter of 2019. Gross Margin Products and services gross margin and gross margin percentage for the three months ended December 29, 2018 and December 30, 2017 were as follows (dollars in millions): Three Months Ended December 29, 2018 December 30, 2017 Gross margin: Products $ 25,197 $ 28,589 Services 6,834 5,323 Total gross margin $ 32,031 $ 33,912 Gross margin percentage: Products 34.3 % 36.1 % Services 62.8 % 58.3 % Total gross margin percentage 38.0 % 38.4 % Products Gross Margin Products gross margin decreased during the first quarter of 2019 compared to the same quarter in 2018 due primarily to lower iPhone unit sales and the weakness in foreign currencies relative to the U.S. dollar, partially offset by higher net sales of Mac, iPad and Wearables. Year-over-year products gross margin percentage decreased during the first quarter of 2019 due primarily to a different product mix and the impact of lower iPhone unit sales on the Company’s products fixed cost structure. Services Gross Margin Services gross margin increased during the first quarter of 2019 compared to the same quarter in 2018 due primarily to a different services mix. Year-over-year services gross margin percentage increased during the first quarter of 2019 due primarily to a favorable mix of services with higher margins and the impact of higher services net sales on the Company’s services fixed cost structure. The Company anticipates total gross margin percentage during the second quarter of 2019 to be between 37.0% and 38.0%. The foregoing statement regarding the Company’s expected total gross margin percentage in the second quarter of 2019 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will be subject to volatility and remain under downward pressure due to a variety of factors, including: continued industry-wide global product pricing pressures and product pricing actions that the Company may take in response to such pressures; increased competition; the Company’s ability to effectively stimulate demand for certain of its products; compressed product life cycles; potential increases in the cost of components and outside manufacturing services; the Company’s ability to manage product quality and warranty costs effectively; shifts in the mix of products and services, or in the geographic, currency or channel mix; fluctuations in exchange rates; and costs associated with the Company’s frequent introductions and transitions of products and services. Apple Inc. | Q1 2019 Form 10-Q | 27 Operating Expenses Operating expenses for the three months ended December 29, 2018 and December 30, 2017 were as follows (dollars in millions): Three Months Ended December 29, 2018 December 30, 2017 Research and development $ 3,902 $ 3,407 Percentage of total net sales 5 % 4 % Selling, general and administrative $ 4,783 $ 4,231 Percentage of total net sales 6 % 5 % Total operating expenses $ 8,685 $ 7,638 Percentage of total net sales 10 % 9 % Research and Development The growth in R&amp;D expense during the first quarter of 2019 compared to the same quarter in 2018 was driven primarily by increases in headcount-related expenses and infrastructure-related costs. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the first quarter of 2019 compared to the same quarter in 2018 was driven primarily by increases in professional fees and headcount-related expenses. Other Income/(Expense), Net Other income/(expense), net for the three months ended December 29, 2018 and December 30, 2017 was as follows (dollars in millions): Three Months Ended December 29, 2018 December 30, 2017 Change Interest and dividend income $ 1,307 $ 1,452 Interest expense (890 ) (734 ) Other income, net 143 38 Total other income/(expense), net $ 560 $ 756 (26 )% The decrease in other income/(expense), net during the first quarter of 2019 compared to the same quarter in 2018 was due primarily to higher interest expense on debt, lower interest income and lower investment-related gains, partially offset by the impact of foreign exchange–related items. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 2.19% and 2.11% in the first quarter of 2019 and 2018, respectively. Apple Inc. | Q1 2019 Form 10-Q | 28 Provision for Income Taxes Provision for income taxes, effective tax rate and statutory federal income tax rate for the three months ended December 29, 2018 and December 30, 2017 were as follows (dollars in millions): Three Months Ended December 29, 2018 December 30, 2017 Provision for income taxes $ 3,941 $ 6,965 Effective tax rate 16.5 % 25.8 % Statutory federal income tax rate 21 % 24.5 % The Company’s effective tax rate for the first quarter of 2019 was lower than the statutory federal income tax rate of 21% due primarily to the lower tax rate on foreign earnings and tax benefits from share-based compensation. The Company’s effective tax rate for the first quarter of 2019 was lower compared to the same quarter in 2018 due to higher taxes in 2018 as a result of the Tax Cuts and Jobs Act (the “Act”) and a lower statutory federal income tax rate in 2019, partially offset by higher taxes on foreign earnings in 2019. Recent Accounting Pronouncements Hedging In August 2017, the Financial Accounting Standards Board (the “FASB”) issued Accounting Standards Update (“ASU”) No. 2017-12, Derivatives and Hedging (Topic 815): Targeted Improvements to Accounting for Hedging Activities (“ASU 2017-12”). ASU 2017-12 expands component and fair value hedging, specifies the presentation of the effects of hedging instruments, and eliminates the separate measurement and presentation of hedge ineffectiveness. The Company will adopt ASU 2017-12 in its first quarter of 2020 utilizing the modified retrospective transition method and is currently evaluating the impact of adoption on its consolidated financial statements. Financial Instruments In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses on certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. The Company will adopt ASU 2016-02 utilizing the modified retrospective transition method through a cumulative-effect adjustment at the beginning of its first quarter of 2020. While the Company is currently evaluating the impact of adopting ASU 2016-02, based on the lease portfolio as of December 29, 2018, the Company anticipates recording lease assets and liabilities of approximately $9.1 billion on its Condensed Consolidated Balance Sheets, with no material impact to its Condensed Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company’s lease portfolio as of the adoption date. Apple Inc. | Q1 2019 Form 10-Q | 29 Liquidity and Capital Resources The following tables present selected financial information and statistics as of December 29, 2018 and September 29, 2018 and for the first three months of 2019 and 2018 (in millions): December 29, 2018 September 29, 2018 Cash, cash equivalents and marketable securities (1) $ 245,035 $ 237,100 Property, plant and equipment, net $ 39,597 $ 41,304 Commercial paper $ 11,969 $ 11,964 Total term debt $ 102,761 $ 102,519 Working capital $ 32,545 $ 15,410 Three Months Ended December 29, 2018 December 30, 2017 Cash generated by operating activities $ 26,690 $ 28,293 Cash generated by/(used in) investing activities $ 5,844 $ (13,590 ) Cash used in financing activities $ (13,676 ) $ (7,501 ) (1) As of December 29, 2018 and September 29, 2018, total cash, cash equivalents and marketable securities included $19.9 billion and $20.3 billion, respectively, that was restricted from general use, related to the State Aid Decision (refer to Note 5, “Income Taxes” in the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q) and other agreements. The Company believes its existing balances of cash, cash equivalents and marketable securities, along with commercial paper and other short-term liquidity arrangements, will be sufficient to satisfy its working capital needs, capital asset purchases, dividends, share repurchases, debt repayments and other liquidity requirements associated with its existing operations over the next 12 months. In connection with the State Aid Decision, as of December 29, 2018, the entire recovery amount of €13.1 billion plus interest of €1.2 billion was funded into escrow, where it will remain restricted from general use pending conclusion of all appeals. The Company’s marketable securities investment portfolio is primarily invested in highly rated securities, with the primary objective of minimizing the potential risk of principal loss. The Company’s investment policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer. During the three months ended December 29, 2018, cash generated by operating activities of $26.7 billion was a result of $20.0 billion of net income, non-cash adjustments to net income of $5.0 billion and an increase in the net change in operating assets and liabilities of $1.8 billion. Cash generated by investing activities of $5.8 billion during the three months ended December 29, 2018 consisted primarily of proceeds from maturities and sales of marketable securities, net of purchases, of $9.8 billion, partially offset by cash used to acquire property, plant and equipment of $3.4 billion. Cash used in financing activities of $13.7 billion during the three months ended December 29, 2018 consisted primarily of cash used to repurchase common stock of $8.8 billion and cash used to pay dividends and dividend equivalents of $3.6 billion. During the three months ended December 30, 2017, cash generated by operating activities of $28.3 billion was a result of $20.1 billion of net income and an increase in the net change in operating assets and liabilities of $37.9 billion, partially offset by non-cash adjustments to net income of $29.7 billion. Cash used in investing activities of $13.6 billion during the three months ended December 30, 2017 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $10.4 billion and cash used to acquire property, plant and equipment of $2.8 billion. Cash used in financing activities of $7.5 billion during the three months ended December 30, 2017 consisted primarily of cash used to repurchase common stock of $10.1 billion and cash used to pay dividends and dividend equivalents of $3.3 billion, partially offset by proceeds from the issuance of term debt, net of $7.0 billion. Capital Assets The Company’s capital expenditures were $1.5 billion during the first three months of 2019. The Company anticipates utilizing approximately $12.0 billion for capital expenditures during 2019, which includes product tooling and manufacturing process equipment; data centers; corporate facilities and infrastructure, including information systems hardware, software and enhancements; and retail store facilities. Apple Inc. | Q1 2019 Form 10-Q | 30 Debt The Company issues unsecured short-term promissory notes (“Commercial Paper”) pursuant to a commercial paper program. The Company uses the net proceeds from the commercial paper program for general corporate purposes, including dividends and share repurchases. As of December 29, 2018, the Company had $12.0 billion of Commercial Paper outstanding, with a weighted-average interest rate of 2.39% and maturities generally less than nine months. As of December 29, 2018, the Company had outstanding floating- and fixed-rate notes with varying maturities for an aggregate principal amount of $103.8 billion (collectively the “Notes”). The Company has entered, and in the future may enter, into interest rate swaps to manage interest rate risk on the Notes. In addition, the Company has entered, and in the future may enter, into foreign currency swaps to manage foreign currency risk on the Notes. Further information regarding the Company’s debt issuances and related hedging activity can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 3, “Financial Instruments” and Note 6, “Debt.” Capital Return Program On May 1, 2018, the Company announced the Board of Directors had authorized a program to repurchase up to $100 billion of the Company’s common stock, of which $37.3 billion had been utilized as of December 29, 2018. During the three months ended December 29, 2018, the Company repurchased 38.0 million shares of its common stock for $8.2 billion. The Company’s share repurchase program does not obligate it to acquire any specific number of shares. Under this program, shares may be repurchased in privately negotiated and/or open market transactions, including under plans complying with Rule 10b5-1 under the Exchange Act. On May 1, 2018, the Company also announced the Board of Directors raised the Company’s quarterly cash dividend from $0.63 to $0.73 per share, beginning with the dividend paid during the third quarter of 2018. The Company intends to increase its dividend on an annual basis, subject to declaration by the Board of Directors. Contractual Obligations Operating Leases As of December 29, 2018, the Company’s total future minimum lease payments under noncancelable operating leases were $9.9 billion. The Company’s retail store and other facility leases typically have original terms not exceeding 10 years and generally contain multi-year renewal options. Manufacturing Purchase Obligations The Company utilizes several outsourcing partners to manufacture sub-assemblies for the Company’s products and to perform final assembly and testing of finished products. These outsourcing partners acquire components and build product based on demand information supplied by the Company, which typically covers periods up to 150 days. The Company also obtains individual components for its products from a wide variety of individual suppliers. As of December 29, 2018, the Company expects to pay $30.2 billion under manufacturing-related supplier arrangements, which are primarily noncancelable. Other Purchase Obligations The Company’s other purchase obligations consist of noncancelable obligations to acquire capital assets, including product tooling and manufacturing process equipment, and noncancelable obligations related to advertising, licensing, R&amp;D, internet and telecommunications services, content creation and other activities. As of December 29, 2018, the Company had other purchase obligations of $6.3 billion. Other Non-Current Liabilities As of December 29, 2018, a significant portion of the other non-current liabilities in the Company’s Condensed Consolidated Balance Sheet consisted of the $30.9 billion deemed repatriation tax payable imposed by the Act. The Company plans to pay the deemed repatriation tax payable in installments in accordance with the Act. The Company’s remaining other non-current liabilities primarily consist of items for which the Company is unable to make a reasonably reliable estimate of the timing of payments. Apple Inc. | Q1 2019 Form 10-Q | 31 Indemnification Agreements entered into by the Company may include indemnification provisions, which may subject the Company to costs and damages in the event of a claim against an indemnified third party. Except as disclosed in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 10, “Commitments and Contingencies” under the heading “Contingencies,” in the opinion of management, there was not at least a reasonable possibility the Company may have incurred a material loss, or a material loss in excess of a recorded accrual, with respect to indemnification of third parties. The Company offers an iPhone Upgrade Program, which is available to customers who purchase a qualifying iPhone in the U.S., the U.K. and mainland China. The iPhone Upgrade Program provides customers the right to trade in that iPhone for a specified amount when purchasing a new iPhone, provided certain conditions are met. The Company accounts for the trade-in right as a guarantee liability and recognizes arrangement revenue net of the fair value of such right, with subsequent changes to the guarantee liability recognized within net sales. The Company has entered into indemnification agreements with its directors and executive officers. Under these agreements, the Company has agreed to indemnify such individuals to the fullest extent permitted by law against liabilities that arise by reason of their status as directors or officers of the Company, and to advance expenses incurred by such individuals in connection with related legal proceedings. It is not possible to determine the maximum potential amount of payments the Company could be required to make under these agreements due to the limited history of prior indemnification claims and the unique facts and circumstances involved in each claim. While the Company maintains directors and officers liability insurance coverage, such insurance coverage may be insufficient to cover all losses or all types of claims that may arise. Critical Accounting Policies and Estimates The preparation of financial statements and related disclosures in conformity with U.S. generally accepted accounting principles and the Company’s discussion and analysis of its financial condition and operating results require the Company’s management to make judgments, assumptions and estimates </t>
+  </si>
+  <si>
+    <t>Item 7. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Annual Report on Form 10-K (“Form 10-K”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of this Form 10-K under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the consolidated financial statements and notes thereto included in Part II, Item 8 of this Form 10-K. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices and personal computers, and sells a variety of related software, services, accessories and third-party digital content and applications. The Company’s products and services include iPhone, iPad, Mac, Apple Watch, AirPods, Apple TV, HomePod, a portfolio of consumer and professional software applications, iOS, macOS, watchOS and tvOS operating systems, iCloud, Apple Pay and a variety of other accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store, App Store, Mac App Store, TV App Store, Book Store and Apple Music (collectively “Digital Content and Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and resellers. In addition, the Company sells a variety of third-party Apple-compatible products, including application software and various accessories, through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Fiscal Period The Company’s fiscal year is the 52- or 53-week period that ends on the last Saturday of September. The Company’s fiscal years 2018 and 2016 spanned 52 weeks each, whereas fiscal year 2017 included 53 weeks. A 14th week was included in the first quarter of 2017, as is done every five or six years, to realign the Company’s fiscal quarters with calendar quarters. Fiscal 2018 Highlights Net sales increased 16% or $36.4 billion during 2018 compared to 2017, driven by higher net sales of iPhone, Services and Other Products. Net sales increased year-over-year in each of the geographic reportable segments. In May 2018, the Company announced a new capital return program of $100 billion and raised its quarterly dividend from $0.63 to $0.73 per share beginning in May 2018. During 2018, the Company spent $73.1 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $13.7 billion. Fiscal 2017 Highlights Net sales increased 6% or $13.6 billion during 2017 compared to 2016, primarily driven by growth in Services, iPhone and Mac. The year-over-year increase in net sales reflected growth in each of the geographic reportable segments, with the exception of Greater China. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on net sales during 2017. In May 2017, the Company announced an increase to its capital return program by raising the total size of the program from $250 billion to $300 billion. This included increasing its share repurchase authorization from $175 billion to $210 billion and raising its quarterly dividend from $0.57 to $0.63 per share beginning in May 2017. During 2017, the Company spent $33.0 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $12.8 billion. The $210 billion share repurchase program was completed in the third quarter of 2018. The Company issued $24.0 billion of U.S. dollar–denominated term debt, €2.5 billion of euro-denominated term debt and C$2.5 billion of Canadian dollar–denominated term debt during 2017. Apple Inc. | 2018 Form 10-K | 22 Sales Data The following table shows net sales by reportable segment and net sales and unit sales by product for 2018, 2017 and 2016 (dollars in millions and units in thousands): 2018 Change 2017 Change 2016 Net Sales by Reportable Segment: Americas $ 112,093 16 % $ 96,600 12 % $ 86,613 Europe 62,420 14 % 54,938 10 % 49,952 Greater China 51,942 16 % 44,764 (8 )% 48,492 Japan 21,733 23 % 17,733 5 % 16,928 Rest of Asia Pacific 17,407 15 % 15,199 11 % 13,654 Total net sales $ 265,595 16 % $ 229,234 6 % $ 215,639 Net Sales by Product: iPhone (1) $ 166,699 18 % $ 141,319 3 % $ 136,700 iPad (1) 18,805 (2 )% 19,222 (7 )% 20,628 Mac (1) 25,484 (1 )% 25,850 13 % 22,831 Services (2) 37,190 24 % 29,980 23 % 24,348 Other Products (1)(3) 17,417 35 % 12,863 16 % 11,132 Total net sales $ 265,595 16 % $ 229,234 6 % $ 215,639 Unit Sales by Product: iPhone 217,722 — % 216,756 2 % 211,884 iPad 43,535 — % 43,753 (4 )% 45,590 Mac 18,209 (5 )% 19,251 4 % 18,484 (1) Includes deferrals and amortization of related software upgrade rights and non-software services. (2) Includes revenue from Digital Content and Services, AppleCare, Apple Pay, licensing and other services. Services net sales in 2018 included a favorable one-time item of $236 million in connection with the final resolution of various lawsuits. Services net sales in 2017 included a favorable one-time adjustment of $640 million due to a change in estimate based on the availability of additional supporting information. (3) Includes sales of AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and other Apple-branded and third-party accessories. Apple Inc. | 2018 Form 10-K | 23 Product Performance iPhone The following table presents iPhone net sales and unit sales information for 2018, 2017 and 2016 (dollars in millions and units in thousands): 2018 Change 2017 Change 2016 Net sales $ 166,699 18 % $ 141,319 3 % $ 136,700 Percentage of total net sales 63 % 62 % 63 % Unit sales 217,722 — % 216,756 2 % 211,884 iPhone net sales increased during 2018 compared to 2017 due primarily to a different mix of iPhones resulting in higher average selling prices. iPhone net sales increased during 2017 compared to 2016 due to higher iPhone unit sales and a different mix of iPhones with higher average selling prices. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on iPhone net sales during 2017. iPad The following table presents iPad net sales and unit sales information for 2018, 2017 and 2016 (dollars in millions and units in thousands): 2018 Change 2017 Change 2016 Net sales $ 18,805 (2 )% $ 19,222 (7 )% $ 20,628 Percentage of total net sales 7 % 8 % 10 % Unit sales 43,535 — % 43,753 (4 )% 45,590 iPad net sales decreased during 2018 compared to 2017 due primarily to a different mix of iPads resulting in lower average selling prices. The strength in foreign currencies relative to the U.S. dollar had a favorable impact on iPad net sales during 2018. iPad net sales decreased during 2017 compared to 2016 due to lower iPad unit sales and a different mix of iPads with lower average selling prices. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on iPad net sales during 2017. Mac The following table presents Mac net sales and unit sales information for 2018, 2017 and 2016 (dollars in millions and units in thousands): 2018 Change 2017 Change 2016 Net sales $ 25,484 (1 )% $ 25,850 13 % $ 22,831 Percentage of total net sales 10 % 11 % 11 % Unit sales 18,209 (5 )% 19,251 4 % 18,484 Mac net sales decreased during 2018 compared to 2017 due primarily to lower Mac unit sales, partially offset by a different mix of Macs with higher average selling prices. The strength in foreign currencies relative to the U.S. dollar had a favorable impact on Mac net sales during 2018. Mac net sales increased during 2017 compared to 2016 due primarily to a different mix of Macs with higher average selling prices and higher Mac unit sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Mac net sales during 2017. Apple Inc. | 2018 Form 10-K | 24 Services The following table presents Services net sales information for 2018, 2017 and 2016 (dollars in millions): 2018 Change 2017 Change 2016 Net sales $ 37,190 24 % $ 29,980 23 % $ 24,348 Percentage of total net sales 14 % 13 % 11 % The year-over-year growth in Services net sales in 2018 was due primarily to licensing, App Store and AppleCare. During 2018, the Company recognized a favorable one-time item of $236 million in connection with the final resolution of various lawsuits. The year-over-year growth in Services net sales in 2017 was due primarily to increases in App Store and licensing sales. Services net sales in 2017 included a favorable one-time adjustment of $640 million due to a change in estimate based on the availability of additional supporting information. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 10, “Segment Information and Geographic Data.” Americas The following table presents Americas net sales information for 2018, 2017 and 2016 (dollars in millions): 2018 Change 2017 Change 2016 Net sales $ 112,093 16 % $ 96,600 12 % $ 86,613 Percentage of total net sales 42 % 42 % 40 % Americas net sales increased during 2018 compared to 2017 due to higher net sales of iPhone, Services and Other Products. Americas net sales increased during 2017 compared to 2016 due primarily to higher net sales of iPhone, Services and Mac. Europe The following table presents Europe net sales information for 2018, 2017 and 2016 (dollars in millions): 2018 Change 2017 Change 2016 Net sales $ 62,420 14 % $ 54,938 10 % $ 49,952 Percentage of total net sales 24 % 24 % 23 % Europe net sales increased during 2018 compared to 2017 due primarily to higher net sales of iPhone and Services. The strength in foreign currencies relative to the U.S. dollar had a favorable impact on Europe net sales during 2018. Europe net sales increased during 2017 compared to 2016 due primarily to higher net sales of iPhone and Services. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Europe net sales during 2017. Apple Inc. | 2018 Form 10-K | 25 Greater China The following table presents Greater China net sales information for 2018, 2017 and 2016 (dollars in millions): 2018 Change 2017 Change 2016 Net sales $ 51,942 16 % $ 44,764 (8 )% $ 48,492 Percentage of total net sales 20 % 20 % 22 % Greater China net sales increased during 2018 compared to 2017 due primarily to higher net sales of iPhone and Services. The strength in foreign currencies relative to the U.S. dollar had a favorable impact on Greater China net sales during 2018. Greater China net sales decreased during 2017 compared to 2016 due primarily to lower net sales of iPhone, partially offset by higher net sales of Services. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Greater China net sales during 2017. Japan The following table presents Japan net sales information for 2018, 2017 and 2016 (dollars in millions): 2018 Change 2017 Change 2016 Net sales $ 21,733 23 % $ 17,733 5 % $ 16,928 Percentage of total net sales 8 % 8 % 8 % Japan net sales increased during 2018 compared to 2017 due primarily to higher net sales of iPhone and Services. The year-over-year increase in Japan net sales in 2017 was due to higher net sales of Services and the strength in the Japanese yen relative to the U.S. dollar. Rest of Asia Pacific The following table presents Rest of Asia Pacific net sales information for 2018, 2017 and 2016 (dollars in millions): 2018 Change 2017 Change 2016 Net sales $ 17,407 15 % $ 15,199 11 % $ 13,654 Percentage of total net sales 7 % 7 % 6 % Rest of Asia Pacific net sales increased during 2018 compared to 2017 due primarily to higher net sales of iPhone and Services. The strength in foreign currencies relative to the U.S. dollar had a favorable impact on Rest of Asia Pacific net sales during 2018. Rest of Asia Pacific net sales increased during 2017 compared to 2016 due primarily to higher net sales of iPhone, Services and Mac. The strength in foreign currencies relative to the U.S. dollar had a favorable impact on Rest of Asia Pacific net sales during 2017. Gross Margin Gross margin for 2018, 2017 and 2016 was as follows (dollars in millions): 2018 2017 2016 Net sales $ 265,595 $ 229,234 $ 215,639 Cost of sales 163,756 141,048 131,376 Gross margin $ 101,839 $ 88,186 $ 84,263 Gross margin percentage 38.3 % 38.5 % 39.1 % Gross margin increased in 2018 compared to 2017 due primarily to a favorable shift in mix of iPhones with higher average selling prices and higher Services net sales, partially offset by higher product cost structures. Gross margin percentage decreased year-over-year due primarily to higher product cost structures, partially offset by higher Services net sales. The strength in foreign currencies relative to the U.S. dollar had a favorable impact on gross margin and gross margin percentage during 2018. Apple Inc. | 2018 Form 10-K | 26 Gross margin increased in 2017 compared to 2016 due primarily to a shift in mix to Services and an overall increase in product volumes. Gross margin percentage decreased year-over-year due primarily to higher product costs, partially offset by a favorable shift in mix to Services. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on gross margin and gross margin percentage during 2017. The Company anticipates gross margin percentage during the first quarter of 2019 to be between 38.0% and 38.5%. The foregoing statement regarding the Company’s expected gross margin percentage in the first quarter of 2019 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part I, Item 1A of this Form 10-K under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will be subject to volatility and remain under downward pressure due to a variety of factors, including: continued industry-wide global product pricing pressures and product pricing actions that the Company may take in response to such pressures; increased competition; the Company’s ability to effectively stimulate demand for certain of its products; compressed product life cycles; potential increases in the cost of components and outside manufacturing services; the Company’s ability to manage product quality and warranty costs effectively; shifts in the mix of products and services, or in the geographic, currency or channel mix; fluctuations in exchange rates; and costs associated with the Company’s frequent introductions and transitions of products and services. Operating Expenses Operating expenses for 2018, 2017 and 2016 were as follows (dollars in millions): 2018 Change 2017 Change 2016 Research and development $ 14,236 23 % $ 11,581 15 % $ 10,045 Percentage of total net sales 5 % 5 % 5 % Selling, general and administrative $ 16,705 9 % $ 15,261 8 % $ 14,194 Percentage of total net sales 6 % 7 % 7 % Total operating expenses $ 30,941 15 % $ 26,842 11 % $ 24,239 Percentage of total net sales 12 % 12 % 11 % Research and Development The year-over-year growth in R&amp;D expense in 2018 was driven primarily by increases in headcount-related expenses, infrastructure-related costs and material costs to support expanded R&amp;D activities. R&amp;D expense increased during 2017 compared to 2016 due primarily to increases in headcount-related expenses and material costs to support expanded R&amp;D activities. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The year-over-year growth in selling, general and administrative expense in 2018 was driven primarily by increases in in headcount-related expenses, professional services and infrastructure-related costs. The increase in selling, general and administrative expense in 2017 compared to 2016 was driven primarily by an increase in headcount-related expenses, variable selling expenses and infrastructure-related costs. Other Income/(Expense), Net Other income/(expense), net for 2018, 2017 and 2016 was as follows (dollars in millions): 2018 Change 2017 Change 2016 Interest and dividend income $ 5,686 $ 5,201 $ 3,999 Interest expense (3,240 ) (2,323 ) (1,456 ) Other expense, net (441 ) (133 ) (1,195 ) Total other income/(expense), net $ 2,005 (27 )% $ 2,745 104 % $ 1,348 The year-over-year decrease in other income/(expense), net during 2018 was due primarily to higher interest expense on debt and the impact of foreign exchange–related items, partially offset by higher interest income. The year-over-year increase in other income/(expense), net during 2017 was due primarily to higher interest income and the favorable impact of foreign exchange–related items, partially offset by higher interest expense on debt. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 2.16%, 1.99% and 1.73% in 2018, 2017 and 2016, respectively. Apple Inc. | 2018 Form 10-K | 27 Provision for Income Taxes Provision for income taxes and effective tax rates for 2018, 2017 and 2016 were as follows (dollars in millions): 2018 2017 2016 Provision for income taxes $ 13,372 $ 15,738 $ 15,685 Effective tax rate 18.3 % 24.6 % 25.6 % On December 22, 2017, the U.S. enacted the Tax Cuts and Jobs Act (the “Act”), which significantly changed U.S. tax law. The Act lowered the Company’s U.S. statutory federal income tax rate from 35% to 21% effective January 1, 2018, while also imposing a deemed repatriation tax on previously deferred foreign income. By operation of law, the Company applied a blended U.S. statutory federal income tax rate of 24.5% for 2018 (the “2018 blended U.S. tax rate”). The Act also created a new minimum tax on certain future foreign earnings. The Company’s effective tax rate for 2018 was lower than the 2018 blended U.S. tax rate due primarily to the lower tax rate on foreign earnings, partially offset by the remeasurement of deferred tax assets and liabilities as a result of the Act. The Company’s effective tax rates for 2017 and 2016 were lower than the historical statutory federal income tax rate of 35% due primarily to certain undistributed foreign earnings, a substantial portion of which was generated by subsidiaries organized in Ireland, for which no U.S. taxes were provided when such earnings were intended to be indefinitely reinvested outside the U.S. The lower effective tax rate in 2018 compared to 2017 was due primarily to the lower 2018 blended U.S. tax rate, partially offset by the remeasurement of deferred tax assets and liabilities as a result of the Act. The lower effective tax rate in 2017 compared to 2016 was due to a different geographic mix of earnings and higher U.S. R&amp;D tax credits. As a result of adopting Accounting Standards Update (“ASU”) No. 2016-09, Compensation – Stock Compensation (Topic 718): Improvements to Employee Share-Based Payment Accounting (“ASU 2016-09”), in 2018, the Company records any excess tax benefits or deficiencies from its equity awards as part of the provision for income taxes. The Company anticipates that these excess tax benefits or deficiencies will have the greatest impact on its effective tax rates in the first and third quarters, as the majority of the Company’s equity awards vest in those quarters. As of September 29, 2018, the Company had deferred tax assets arising from deductible temporary differences, tax losses and tax credits of $6.3 billion and deferred tax liabilities of $426 million. Management believes it is more likely than not that forecasted income, including income that may be generated as a result of certain tax planning strategies, together with future reversals of existing taxable temporary differences, will be sufficient to recover the deferred tax assets. The Company will continue to evaluate the realizability of deferred tax assets quarterly by assessing the need for and the amount of a valuation allowance. On August 30, 2016, the European Commission announced its decision that Ireland granted state aid to the Company by providing tax opinions in 1991 and 2007 concerning the tax allocation of profits of the Irish branches of two subsidiaries of the Company (the “State Aid Decision”). The State Aid Decision ordered Ireland to calculate and recover additional taxes from the Company for the period June 2003 through December 2014. The recovery amount was calculated to be €13.1 billion, plus interest of €1.2 billion. Irish legislative changes, effective as of January 2015, eliminated the application of the tax opinions from that date forward. The Company believes the State Aid Decision to be without merit and appealed to the General Court of the Court of Justice of the European Union. Ireland has also appealed the State Aid Decision. The Company believes that any incremental Irish corporate income taxes potentially due related to the State Aid Decision would be creditable against U.S. taxes, subject to any foreign tax credit limitations in the Act. As of September 29, 2018, the entire recovery amount plus interest was funded into escrow, where it will remain restricted from general use pending conclusion of all appeals. On July 24, 2018, the U.S. Ninth Circuit Court of Appeals reversed the U.S. Tax Court's decision in Altera Corp v. Commissioner, regarding the inclusion of share-based compensation in cost-sharing arrangements with foreign subsidiaries. The reversal was subsequently withdrawn, and the Company believes adequate provision has been made for any adjustments that may result from the final resolution of the case. Recent Accounting Pronouncements Hedging In August 2017, the Financial Accounting Standards Board (the “FASB”) issued ASU No. 2017-12, Derivatives and Hedging (Topic 815): Targeted Improvements to Accounting for Hedging Activities (“ASU 2017-12”). ASU 2017-12 expands component and fair value hedging, specifies the presentation of the effects of hedging instruments, and eliminates the separate measurement and presentation of hedge ineffectiveness. The Company will adopt ASU 2017-12 in its first quarter of 2020 utilizing the modified retrospective transition method and is currently evaluating the impact of adoption on its consolidated financial statements. Apple Inc. | 2018 Form 10-K | 28 Income Taxes In October 2016, the FASB issued ASU No. 2016-16, Income Taxes (Topic 740): Intra-Entity Transfers of Assets Other Than Inventory (“ASU 2016-16”), which requires the recognition of the income tax consequences of an intra-entity transfer of an asset, other than inventory, when the transfer occurs. The Company will adopt ASU 2016-16 in its first quarter of 2019 utilizing the modified retrospective transition method. Currently, the Company estimates recording $3 billion of net deferred tax assets on its Condensed Consolidated Balance Sheets upon adoption. However, the ultimate impact of adopting ASU 2016-16 will depend on the balance of intellectual property transferred between its subsidiaries as of the adoption date, as well as the deferred tax impact of the new minimum tax on certain future foreign earnings. The Company will recognize incremental deferred income tax expense thereafter as these net deferred tax assets are utilized. Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. The Company will adopt ASU 2016-02 utilizing the modified retrospective transition method through a cumulative-effect adjustment at the beginning of its first quarter of 2020. While the Company is currently evaluating the impact of adopting ASU 2016-02, based on the lease portfolio as of September 29, 2018, the Company anticipates recording lease assets and liabilities of approximately $8.9 billion on its Condensed Consolidated Balance Sheets, with no material impact to its Condensed Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company’s lease portfolio as of the adoption date. Financial Instruments In January 2016, the FASB issued ASU No. 2016-01, Financial Instruments – Overall (Subtopic 825-10): Recognition and Measurement of Financial Assets and Financial Liabilities (“ASU 2016-01”), which updates certain aspects of recognition, measurement, presentation and disclosure of financial instruments. The Company will adopt ASU 2016-01 in its first quarter of 2019 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, the adoption of ASU 2016-01 is not expected to have a material impact on its consolidated financial statements. In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses of certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Revenue Recognition In May 2014, the FASB issued ASU No. 2014-09, Revenue from Contracts with Customers (Topic 606) (“ASU 2014-09”), which amends the existing accounting standards for revenue recognition. ASU 2014-09 is based on principles that govern the recognition of revenue at an amount an entity expects to be entitled when products are transferred to customers. Subsequently, the FASB issued additional ASUs to clarify the guidance in ASU 2014-09. ASU 2014-09 and its related ASUs are collectively referred to herein as the “new revenue standard.” The new revenue standard may be applied retrospectively to each prior period presented or retrospectively with the cumulative effect recognized as of the date of adoption. The Company will adopt the new revenue standard in its first quarter of 2019 utilizing the full retrospective transition method. The new revenue standard will not have a material impact on the amount and timing of revenue recognized in the Company’s consolidated financial statements. Apple Inc. | 2018 Form 10-K | 29 Liquidity and Capital Resources The following table presents selected financial information and statistics as of and for the years ended September 29, 2018, September 30, 2017 and September 24, 2016 (in millions): 2018 2017 2016 Cash, cash equivalents and marketable securities (1) $ 237,100 $ 268,895 $ 237,585 Property, plant and equipment, net $ 41,304 $ 33,783 $ 27,010 Commercial paper $ 11,964 $ 11,977 $ 8,105 Total term debt $ 102,519 $ 103,703 $ 78,927 Working capital $ 14,473 $ 27,831 $ 27,863 Cash generated by operating activities (2) $ 77,434 $ 64,225 $ 66,231 Cash generated by/(used in) investing activities $ 16,066 $ (46,446 ) $ (45,977 ) Cash used in financing activities (2) $ (87,876 ) $ (17,974 ) $ (20,890 ) (1) As of September 29, 2018, total cash, cash equivalents and marketable securities included $20.3 billion that was restricted from general use, related to the State Aid Decision and other agreements. (2) Refer to Note 1, “Summary of Significant Accounting Polices” in the Notes to Consolidated Financial Statements in Part II, Item 8 of this Form 10-K for more information on the prior period reclassification related to the Company’s adoption of ASU 2016-09. The Company believes its existing balances of cash, cash equivalents and marketable securities will be sufficient to satisfy its working capital needs, capital asset purchases, outstanding commitments and other liquidity requirements associated with its existing operations over the next 12 months. The Company currently anticipates the cash used for future dividends, the share repurchase program and debt repayments will come from its current cash and cash generated from ongoing operating activities. In connection with the State Aid Decision, as of September 29, 2018, the entire recovery amount of €13.1 billion plus interest of €1.2 billion was funded into escrow, where it will remain restricted from general use pending conclusion of all appeals. The Company’s marketable securities investment portfolio is primarily invested in highly rated securities, with the primary objective of minimizing the potential risk of principal loss. The Company’s investment policy generally requires securities to be investment grade and limits the amount of credit exposure to any one issuer. During 2018, cash generated by operating activities of $77.4 billion was a result of $59.5 billion of net income and an increase in the net change in operating assets and liabilities of $34.7 billion, partially offset by non-cash adjustments to net income of $16.8 billion. Cash generated by investing activities of $16.1 billion during 2018 consisted primarily of proceeds from maturities and sales of marketable securities, net of purchases, of $32.4 billion, partially offset by cash used to acquire property, plant and equipment of $13.3 billion. Cash used in financing activities of $87.9 billion during 2018 consisted primarily of cash used to repurchase common stock of $72.7 billion, cash used to pay dividends and dividend equivalents of $13.7 billion and cash used to repay term debt of $6.5 billion, partially offset by proceeds from the issuance of term debt, net of $7.0 billion. During 2017, cash generated by operating activities of $64.2 billion was a result of $48.4 billion of net income, non-cash adjustments to net income of $20.8 billion and a decrease in the net change in operating assets and liabilities of $4.9 billion, which included a one-time payment of $1.9 billion related to a multi-year license agreement. Cash used in investing activities of $46.4 billion during 2017 consisted primarily of cash used for purchases of marketable securities, net of sale</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the Company’s Annual Report on Form 10-K for the year ended September 30, 2017 (the “2017 Form 10-K”) filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and notes thereto included in Part I, Item 1 of this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company’s Annual Reports on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the SEC. The Company is subject to the informational requirements of the Exchange Act and files or furnishes reports, proxy statements, and other information with the SEC. Such reports and other information filed by the Company with the SEC are available free of charge on the Company’s website at investor.apple.com/sec.cfm when such reports are available on the SEC’s website. The public may read and copy any materials filed by the Company with the SEC at the SEC’s Public Reference Room at 100 F Street, NE, Room 1580, Washington, DC 20549. The public may obtain information on the operation of the Public Reference Room by calling the SEC at 1-800-SEC-0330. The SEC maintains an internet site that contains reports, proxy and information statements and other information regarding issuers that file electronically with the SEC at www.sec.gov. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices and personal computers, and sells a variety of related software, services, accessories and third-party digital content and applications. The Company’s products and services include iPhone, iPad, Mac, Apple Watch, AirPods, Apple TV, HomePod, a portfolio of consumer and professional software applications, iOS, macOS, watchOS and tvOS operating systems, iCloud, Apple Pay and a variety of other accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store, App Store, Mac App Store, TV App Store, iBooks Store and Apple Music (collectively “Digital Content and Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and resellers. In addition, the Company sells a variety of third-party Apple-compatible products, including application software and various accessories through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Business Strategy The Company is committed to bringing the best user experience to its customers through its innovative hardware, software and services. The Company’s business strategy leverages its unique ability to design and develop its own operating systems, hardware, application software and services to provide its customers products and solutions with innovative design, superior ease-of-use and seamless integration. As part of its strategy, the Company continues to expand its platform for the discovery and delivery of digital content and applications through its Digital Content and Services, which allows customers to discover and download digital content, iOS, Mac, Apple Watch and Apple TV applications, and books through either a Mac or Windows personal computer or through iPhone, iPad and iPod touch® devices (“iOS devices”), Apple TV and Apple Watch. The Company also supports a community for the development of third-party software and hardware products and digital content that complement the Company’s offerings. The Company believes a high-quality buying experience with knowledgeable salespersons who can convey the value of the Company’s products and services greatly enhances its ability to attract and retain customers. Therefore, the Company’s strategy also includes building and expanding its own retail and online stores and its third-party distribution network to effectively reach more customers and provide them with a high-quality sales and post-sales support experience. The Company believes ongoing investment in research and development (“R&amp;D”), marketing and advertising is critical to the development and sale of innovative products, services and technologies. Apple Inc. | Q3 2018 Form 10-Q | 22 Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product introductions can significantly impact net sales, product costs and operating expenses. Product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new product inventory following a product introduction, and channel inventory of a particular product often declines as the next related major product launch approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. However, neither historical seasonal patterns nor historical patterns of product introductions should be considered reliable indicators of the Company’s future pattern of product introductions, future net sales or financial performance. Fiscal Period The Company’s fiscal year is the 52- or 53-week period that ends on the last Saturday of September. The first quarter of 2018 spanned 13 weeks, whereas a 14th week was added to the first quarter of 2017, as is done every five or six years, to realign fiscal quarters with calendar quarters. Third Quarter Fiscal 2018 Highlights Net sales increased 17% or $7.9 billion during the third quarter of 2018 compared to the same quarter in 2017, primarily driven by higher net sales of iPhone, Services and Other Products. Additionally, the strength in foreign currencies relative to the U.S. dollar had a favorable impact on net sales during the third quarter of 2018 compared to the same quarter in 2017. Net sales increased year-over-year in each of the geographic reportable segments. During the third quarter of 2018, the Company announced iOS 12, macOS Mojave, watchOS 5 and tvOS 12, updates to its operating systems which are expected to be available in the fall of 2018. The Company spent $20.0 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $3.7 billion during the third quarter of 2018. Apple Inc. | Q3 2018 Form 10-Q | 23 Sales Data The following table shows net sales by reportable segment and net sales and unit sales by product for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 (dollars in millions and units in thousands): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 Change June 30, 2018 July 1, 2017 Change Net Sales by Reportable Segment: Americas $ 24,542 $ 20,376 20 % $ 84,576 $ 73,501 15 % Europe 12,138 10,675 14 % 47,038 41,929 12 % Greater China 9,551 8,004 19 % 40,531 34,963 16 % Japan 3,867 3,624 7 % 16,572 13,875 19 % Rest of Asia Pacific 3,167 2,729 16 % 13,978 12,387 13 % Total net sales $ 53,265 $ 45,408 17 % $ 202,695 $ 176,655 15 % Net Sales by Product: iPhone (1) $ 29,906 $ 24,846 20 % $ 129,514 $ 112,473 15 % iPad (1) 4,741 4,969 (5 )% 14,716 14,391 2 % Mac (1) 5,330 5,592 (5 )% 18,073 18,680 (3 )% Services (2) 9,548 7,266 31 % 27,209 21,479 27 % Other Products (1)(3) 3,740 2,735 37 % 13,183 9,632 37 % Total net sales $ 53,265 $ 45,408 17 % $ 202,695 $ 176,655 15 % Unit Sales by Product: iPhone 41,300 41,026 1 % 170,833 170,079 — % iPad 11,553 11,424 1 % 33,836 33,427 1 % Mac 3,720 4,292 (13 )% 12,910 13,865 (7 )% (1) Includes deferrals and amortization of related software upgrade rights and non-software services. (2) Includes revenue from Digital Content and Services, AppleCare®, Apple Pay, licensing and other services. Services net sales in the third quarter of 2018 included a favorable one-time item of $236 million in connection with the final resolution of various lawsuits. (3) Includes sales of AirPods, Apple TV, Apple Watch, Beats® products, HomePod, iPod touch and other Apple-branded and third-party accessories. Apple Inc. | Q3 2018 Form 10-Q | 24 Product Performance iPhone The following table presents iPhone net sales and unit sales information for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 (dollars in millions and units in thousands): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 Change June 30, 2018 July 1, 2017 Change Net sales $ 29,906 $ 24,846 20 % $ 129,514 $ 112,473 15 % Percentage of total net sales 56 % 55 % 64 % 64 % Unit sales 41,300 41,026 1 % 170,833 170,079 — % iPhone net sales increased during the third quarter and first nine months of 2018 compared to the same periods in 2017 due primarily to a different mix of iPhones resulting in higher average selling prices. iPad The following table presents iPad net sales and unit sales information for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 (dollars in millions and units in thousands): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 Change June 30, 2018 July 1, 2017 Change Net sales $ 4,741 $ 4,969 (5 )% $ 14,716 $ 14,391 2 % Percentage of total net sales 9 % 11 % 7 % 8 % Unit sales 11,553 11,424 1 % 33,836 33,427 1 % iPad net sales decreased during the third quarter of 2018 compared to the same period in 2017 due primarily to a different mix of iPads resulting in lower average selling prices. iPad net sales increased year-over-year during the first nine months of 2018 due primarily to higher iPad unit sales and the strength in foreign currencies relative to the U.S. dollar. Mac The following table presents Mac net sales and unit sales information for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 (dollars in millions and units in thousands): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 Change June 30, 2018 July 1, 2017 Change Net sales $ 5,330 $ 5,592 (5 )% $ 18,073 $ 18,680 (3 )% Percentage of total net sales 10 % 12 % 9 % 11 % Unit sales 3,720 4,292 (13 )% 12,910 13,865 (7 )% Mac net sales decreased during the third quarter and first nine months of 2018 compared to the same periods in 2017 due primarily to lower Mac unit sales. The launch of MacBook Pro® in the first quarter of 2017 and the updated Mac portables in the third quarter of 2017 contributed to higher Mac net sales and unit sales during the first nine months of 2017. Apple Inc. | Q3 2018 Form 10-Q | 25 Services The following table presents Services net sales information for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 (dollars in millions): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 Change June 30, 2018 July 1, 2017 Change Net sales $ 9,548 $ 7,266 31 % $ 27,209 $ 21,479 27 % Percentage of total net sales 18 % 16 % 13 % 12 % Services net sales increased during the third quarter and first nine months of 2018 compared to the same periods in 2017 due primarily to licensing, App Store and AppleCare. During the third quarter of 2018, the Company recognized a favorable one-time item of $236 million in connection with the final resolution of various lawsuits. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 10, “Segment Information and Geographic Data.” Americas The following table presents Americas net sales information for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 (dollars in millions): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 Change June 30, 2018 July 1, 2017 Change Net sales $ 24,542 $ 20,376 20 % $ 84,576 $ 73,501 15 % Percentage of total net sales 46 % 45 % 42 % 42 % Americas net sales increased during the third quarter and first nine months of 2018 compared to the same periods in 2017 due primarily to higher net sales of iPhone and Services. Europe The following table presents Europe net sales information for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 (dollars in millions): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 Change June 30, 2018 July 1, 2017 Change Net sales $ 12,138 $ 10,675 14 % $ 47,038 $ 41,929 12 % Percentage of total net sales 23 % 24 % 23 % 24 % Europe net sales increased during the third quarter and first nine months of 2018 compared to the same periods in 2017 due primarily to higher net sales of iPhone and Services. Additionally, the strength in foreign currencies relative to the U.S. dollar had a favorable impact on Europe net sales. Apple Inc. | Q3 2018 Form 10-Q | 26 Greater China The following table presents Greater China net sales information for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 (dollars in millions): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 Change June 30, 2018 July 1, 2017 Change Net sales $ 9,551 $ 8,004 19 % $ 40,531 $ 34,963 16 % Percentage of total net sales 18 % 18 % 20 % 20 % Greater China net sales increased during the third quarter of 2018 compared to the same period in 2017 due primarily to higher net sales of iPhone and Other Products. Greater China net sales increased year-over-year during the first nine months of 2018 due primarily to higher net sales of iPhone and Services. The strength in foreign currencies relative to the U.S. dollar also had a favorable impact on Greater China net sales during the third quarter and first nine months of 2018. Japan The following table presents Japan net sales information for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 (dollars in millions): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 Change June 30, 2018 July 1, 2017 Change Net sales $ 3,867 $ 3,624 7 % $ 16,572 $ 13,875 19 % Percentage of total net sales 7 % 8 % 8 % 8 % Japan net sales increased during the third quarter of 2018 compared to the same period in 2017 due primarily to higher net sales of Services. Japan net sales increased year-over-year during the first nine months of 2018 due primarily to higher net sales of iPhone and Services. Additionally, the value of the Japanese Yen relative to the U.S. dollar had a favorable impact on Japan net sales during the third quarter of 2018 and an unfavorable impact during the first nine months of 2018. Rest of Asia Pacific The following table presents Rest of Asia Pacific net sales information for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 (dollars in millions): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 Change June 30, 2018 July 1, 2017 Change Net sales $ 3,167 $ 2,729 16 % $ 13,978 $ 12,387 13 % Percentage of total net sales 6 % 6 % 7 % 7 % Rest of Asia Pacific net sales increased during the third quarter and first nine months of 2018 compared to the same periods in 2017 due primarily to higher net sales of iPhone and Services. Additionally, the strength in foreign currencies relative to the U.S. dollar had a favorable impact on Rest of Asia Pacific net sales. Apple Inc. | Q3 2018 Form 10-Q | 27 Gross Margin Gross margin for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 was as follows (dollars in millions): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 June 30, 2018 July 1, 2017 Net sales $ 53,265 $ 45,408 $ 202,695 $ 176,655 Cost of sales 32,844 27,920 124,940 108,400 Gross margin $ 20,421 $ 17,488 $ 77,755 $ 68,255 Gross margin percentage 38.3 % 38.5 % 38.4 % 38.6 % Gross margin increased during the third quarter and first nine months of 2018 compared to the same periods in 2017 due primarily to higher Services net sales and a favorable shift in the mix of iPhones with higher average selling prices, partially offset by higher product cost structures. Additionally, to a lesser extent the strength in foreign currencies relative to the U.S. dollar and higher year-over-year product unit sales had a favorable impact on gross margin. Gross margin percentage decreased during the third quarter and first nine months of 2018 compared to the same periods in 2017 due primarily to higher product cost structures, partially offset by a favorable shift in mix of products and Services. Additionally, the strength in foreign currencies relative to the U.S. dollar had a favorable impact on gross margin percentage. The Company anticipates gross margin percentage during the fourth quarter of 2018 to be between 38.0% and 38.5%. The foregoing statement regarding the Company’s expected gross margin percentage in the fourth quarter of 2018 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will remain under downward pressure due to a variety of factors, including: continued industry-wide global product pricing pressures and product pricing actions that the Company may take in response to such pressures; increased competition; the Company’s ability to effectively stimulate demand for certain of its products; compressed product life cycles; product transitions; potential increases in the cost of components and outside manufacturing services; the Company’s ability to manage product quality and warranty costs effectively; and a potential shift in the Company’s sales mix towards products with lower gross margins. Due to the Company’s significant international operations, its financial condition and operating results, including gross margins, could be significantly affected by fluctuations in exchange rates. Operating Expenses Operating expenses for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 June 30, 2018 July 1, 2017 Research and development $ 3,701 $ 2,937 $ 10,486 $ 8,584 Percentage of total net sales 7 % 6 % 5 % 5 % Selling, general and administrative $ 4,108 $ 3,783 $ 12,489 $ 11,447 Percentage of total net sales 8 % 8 % 6 % 6 % Total operating expenses $ 7,809 $ 6,720 $ 22,975 $ 20,031 Percentage of total net sales 15 % 15 % 11 % 11 % Research and Development The growth in R&amp;D expense during the third quarter and first nine months of 2018 compared to the same periods in 2017 was driven primarily by increases in headcount-related expenses and material costs to support expanded R&amp;D activities. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the third quarter and first nine months of 2018 compared to the same periods in 2017 was driven primarily by increases in headcount-related expenses, professional services and infrastructure-related costs. Apple Inc. | Q3 2018 Form 10-Q | 28 Other Income/(Expense), Net Other income/(expense), net for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 was as follows (dollars in millions): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 Change June 30, 2018 July 1, 2017 Change Interest and dividend income $ 1,418 $ 1,327 $ 4,375 $ 3,833 Interest expense (846 ) (602 ) (2,372 ) (1,657 ) Other income/(expense), net 100 (185 ) (301 ) (228 ) Total other income/(expense), net $ 672 $ 540 24 % $ 1,702 $ 1,948 (13 )% The increase in other income/(expense), net during the third quarter of 2018 compared to the same period in 2017 was due primarily to the impact of foreign exchange–related items, partially offset by higher interest expense on debt. The year-over-year decrease in other income/(expense), net during the first nine months of 2018 was due primarily to higher interest expense on debt and the impact of foreign exchange–related items, partially offset by higher interest income. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 2.25% and 2.03% in the third quarter of 2018 and 2017, respectively, and 2.16% and 1.96% in the first nine months of 2018 and 2017, respectively. Provision for Income Taxes Provision for income taxes and effective tax rates for the three- and nine-month periods ended June 30, 2018 and July 1, 2017 were as follows (dollars in millions): Three Months Ended Nine Months Ended June 30, 2018 July 1, 2017 June 30, 2018 July 1, 2017 Provision for income taxes $ 1,765 $ 2,591 $ 11,076 $ 12,535 Effective tax rate 13.3 % 22.9 % 19.6 % 25.0 % On December 22, 2017, the U.S. enacted the Tax Cuts and Jobs Act (the “Act”), which significantly changed U.S. tax law. The Act lowered the Company’s U.S. statutory federal income tax rate from 35% to 21% effective January 1, 2018, while also imposing a deemed repatriation tax on previously deferred foreign income. By operation of law, the Company will apply a blended U.S. statutory federal income tax rate of 24.5% for 2018 (the “2018 blended U.S. tax rate”). The Act also created a new minimum tax on certain future foreign earnings. The Company’s effective tax rate of 13.3% for the third quarter of 2018 was lower than the 2018 blended U.S. tax rate due primarily to the reduction in its provisional tax expense estimate. The Company’s effective tax rate of 19.6% for the first nine months of 2018 was lower than the 2018 blended U.S. tax rate due primarily to the lower tax rate on foreign earnings, partially offset by the remeasurement of deferred tax assets and liabilities as a result of the Act. The Company’s effective tax rate of 13.3% for the third quarter of 2018 was lower than the same period in 2017 due primarily to the lower 2018 blended U.S. tax rate as a result of the Act and the reduction in its provisional tax expense estimate, partially offset by higher taxes on foreign earnings during the third quarter of 2018. The Company’s effective tax rate of 19.6% for the first nine months of 2018 was lower than the same period in 2017 due to the lower 2018 blended U.S. tax rate, partially offset by the remeasurement of deferred tax assets and liabilities as a result of the Act. As a result of adopting Accounting Standards Update (“ASU”) No. 2016-09, Compensation – Stock Compensation (Topic 718): Improvements to Employee Share-Based Payment Accounting, in 2018, the Company records any excess tax benefits or deficiencies from its equity awards as part of the provision for income taxes. The Company anticipates that these excess tax benefits or deficiencies will have the greatest impact on its effective tax rates in the first and third quarters, as the majority of the Company’s equity awards vest in those quarters. Apple Inc. | Q3 2018 Form 10-Q | 29 The Company is subject to taxation and files income tax returns in the U.S. federal jurisdiction and in many state and foreign jurisdictions. The U.S. Internal Revenue Service (the “IRS”) concluded its review of the years 2013 through 2015 during the third quarter of 2018. All years prior to 2016 are now closed. The Company is also subject to audits by state, local and foreign tax authorities. In major states and major foreign jurisdictions, the years subsequent to 2003 generally remain open and could be subject to examination by the taxing authorities. The Company believes that adequate provisions have been made for any adjustments that may result from tax examinations. However, the outcome of tax audits cannot be predicted with certainty. If any issues addressed in the Company’s tax audits are resolved in a manner inconsistent with its expectations, the Company could be required to adjust its provision for income taxes in the period such resolution occurs. On August 30, 2016, the European Commission announced its decision that Ireland granted state aid to the Company by providing tax opinions in 1991 and 2007 concerning the tax allocation of profits of the Irish branches of two subsidiaries of the Company (the “State Aid Decision”). The State Aid Decision ordered Ireland to calculate and recover additional taxes from the Company for the period June 2003 through December 2014. The recovery amount was calculated to be €13 billion, plus interest of €1 billion. Irish legislative changes, effective as of January 2015, eliminated the application of the tax opinions from that date forward. The Company believes the State Aid Decision to be without merit and appealed to the General Court of the Court of Justice of the European Union. Ireland has also appealed the State Aid Decision. The Company believes that any incremental Irish corporate income taxes potentially due related to the State Aid Decision would be creditable against U.S. taxes, subject to any foreign tax credit limitations in the Act. During the third quarter of 2018, the Company began funding amounts into escrow, where they will remain pending conclusion of all appeals. On July 24, 2018, the U.S. Ninth Circuit Court of Appeals reversed the U.S. Tax Court's decision in Altera Corp v. Commissioner. As a result of this reversal, the Company expects to include share-based compensation in cost-sharing arrangements with its foreign subsidiaries. The Company is still evaluating the effect of this reversal and anticipates recognizing the impact during the fourth quarter of 2018. Recent Accounting Pronouncements Hedging In August 2017, the Financial Accounting Standards Board (the “FASB”) issued ASU No. 2017-12, Derivatives and Hedging (Topic 815): Targeted Improvements to Accounting for Hedging Activities (“ASU 2017-12”). ASU 2017-12 expands component and fair value hedging, specifies the presentation of the effects of hedging instruments, and eliminates the separate measurement and presentation of hedge ineffectiveness. The Company will adopt ASU 2017-12 in its first quarter of 2020 utilizing the modified retrospective transition method and is currently evaluating the impact of adoption on its consolidated financial statements. Restricted Cash In November 2016, the FASB issued ASU No. 2016-18, Statement of Cash Flows (Topic 230): Restricted Cash (“ASU 2016-18”), which enhances and clarifies the guidance on the classification and presentation of restricted cash in the statement of cash flows. The Company will adopt ASU 2016-18 in its first quarter of 2019 utilizing the retrospective transition method. Currently, the Company’s restricted cash balance is not significant. Income Taxes In October 2016, the FASB issued ASU No. 2016-16, Income Taxes (Topic 740): Intra-Entity Transfers of Assets Other Than Inventory (“ASU 2016-16”), which requires the recognition of the income tax consequences of an intra-entity transfer of an asset, other than inventory, when the transfer occurs. The Company will adopt ASU 2016-16 in its first quarter of 2019 utilizing the modified retrospective transition method. Currently, the Company estimates recording up to $4 billion of net deferred tax assets on its Condensed Consolidated Balance Sheets upon adoption. However, the ultimate impact of adopting ASU 2016-16 will depend on the balance of intellectual property transferred between its subsidiaries as of the adoption date, as well as the deferred tax impact of the new minimum tax on certain future foreign earnings. The Company will recognize incremental deferred income tax expense thereafter as these net deferred tax assets are utilized. Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. The Company will adopt ASU 2016-02 in its first quarter of 2020 utilizing the modified retrospective transition method. While the Company is currently evaluating the impact of adopting ASU 2016-02, based on the lease portfolio as of June 30, 2018, the Company anticipates recording lease assets and liabilities of approximately $8.8 billion on its Condensed Consolidated Balance Sheets, with no material impact to its Condensed Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company’s lease portfolio as of the adoption date. Apple Inc. | Q3 2018 Form 10-Q | 30 Financial Instruments In January 2016, the FASB issued ASU No. 2016-01, Financial Instruments – Overall (Subtopic 825-10): Recognition and Measurement of Financial Assets and Financial Liabilities (“ASU 2016-01”), which updates certain aspects of recognition, measurement, presentation and disclosure of financial instruments. The Company will adopt ASU 2016-01 in its first quarter of 2019 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, the adoption of ASU 2016-01 is not expected to have a material impact on its consolidated financial statements. In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses of certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expecte</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the Company’s Annual Report on Form 10-K for the year ended September 30, 2017 (the “2017 Form 10-K”) filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and notes thereto included in Part I, Item 1 of this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company’s Annual Reports on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the SEC. The Company is subject to the informational requirements of the Exchange Act and files or furnishes reports, proxy statements, and other information with the SEC. Such reports and other information filed by the Company with the SEC are available free of charge on the Company’s website at investor.apple.com/sec.cfm when such reports are available on the SEC’s website. The public may read and copy any materials filed by the Company with the SEC at the SEC’s Public Reference Room at 100 F Street, NE, Room 1580, Washington, DC 20549. The public may obtain information on the operation of the Public Reference Room by calling the SEC at 1-800-SEC-0330. The SEC maintains an internet site that contains reports, proxy and information statements and other information regarding issuers that file electronically with the SEC at www.sec.gov. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices and personal computers, and sells a variety of related software, services, accessories, networking solutions and third-party digital content and applications. The Company’s products and services include iPhone, iPad, Mac, Apple Watch, AirPods, Apple TV, HomePod, a portfolio of consumer and professional software applications, iOS, macOS, watchOS and tvOS operating systems, iCloud, Apple Pay and a variety of other accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store, App Store, Mac App Store, TV App Store, iBooks Store and Apple Music (collectively “Digital Content and Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and resellers. In addition, the Company sells a variety of third-party Apple-compatible products, including application software and various accessories through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Business Strategy The Company is committed to bringing the best user experience to its customers through its innovative hardware, software and services. The Company’s business strategy leverages its unique ability to design and develop its own operating systems, hardware, application software and services to provide its customers products and solutions with innovative design, superior ease-of-use and seamless integration. As part of its strategy, the Company continues to expand its platform for the discovery and delivery of digital content and applications through its Digital Content and Services, which allows customers to discover and download digital content, iOS, Mac, Apple Watch and Apple TV applications, and books through either a Mac or Windows personal computer or through iPhone, iPad and iPod touch® devices (“iOS devices”), Apple TV and Apple Watch. The Company also supports a community for the development of third-party software and hardware products and digital content that complement the Company’s offerings. The Company believes a high-quality buying experience with knowledgeable salespersons who can convey the value of the Company’s products and services greatly enhances its ability to attract and retain customers. Therefore, the Company’s strategy also includes building and expanding its own retail and online stores and its third-party distribution network to effectively reach more customers and provide them with a high-quality sales and post-sales support experience. The Company believes ongoing investment in research and development (“R&amp;D”), marketing and advertising is critical to the development and sale of innovative products, services and technologies. Apple Inc. | Q2 2018 Form 10-Q | 21 Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product introductions can significantly impact net sales, product costs and operating expenses. Product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new product inventory following a product introduction, and channel inventory of a particular product often declines as the next related major product launch approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. However, neither historical seasonal patterns nor historical patterns of product introductions should be considered reliable indicators of the Company’s future pattern of product introductions, future net sales or financial performance. Fiscal Period The Company’s fiscal year is the 52- or 53-week period that ends on the last Saturday of September. The first quarter of 2018 spanned 13 weeks, whereas a 14th week was added to the first quarter of 2017, as is done every five or six years, to realign fiscal quarters with calendar quarters. Second Quarter Fiscal 2018 Highlights Net sales increased 16% or $8.2 billion during the second quarter of 2018 compared to the same quarter in 2017, primarily driven by higher net sales of iPhone, Services and Other Products. Year-over-year net sales increased in each of the geographic reportable segments. Additionally, the strength in foreign currencies relative to the U.S. dollar had a favorable impact on net sales during the second quarter of 2018 compared to the same quarter in 2017. The Company began shipping HomePod in February 2018. In March 2018, the Company introduced a new 9.7-inch iPad with Apple Pencil® compatibility, which began shipping at the end of the second quarter of 2018. The Company spent $23.5 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $3.2 billion during the second quarter of 2018. Apple Inc. | Q2 2018 Form 10-Q | 22 Sales Data The following table shows net sales by reportable segment and net sales and unit sales by product for the three- and six-month periods ended March 31, 2018 and April 1, 2017 (dollars in millions and units in thousands): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 Change March 31, 2018 April 1, 2017 Change Net Sales by Reportable Segment: Americas $ 24,841 $ 21,157 17 % $ 60,034 $ 53,125 13 % Europe 13,846 12,733 9 % 34,900 31,254 12 % Greater China 13,024 10,726 21 % 30,980 26,959 15 % Japan 5,468 4,485 22 % 12,705 10,251 24 % Rest of Asia Pacific 3,958 3,795 4 % 10,811 9,658 12 % Total net sales $ 61,137 $ 52,896 16 % $ 149,430 $ 131,247 14 % Net Sales by Product: iPhone (1) $ 38,032 $ 33,249 14 % $ 99,608 $ 87,627 14 % iPad (1) 4,113 3,889 6 % 9,975 9,422 6 % Mac (1) 5,848 5,844 — % 12,743 13,088 (3 )% Services (2) 9,190 7,041 31 % 17,661 14,213 24 % Other Products (1)(3) 3,954 2,873 38 % 9,443 6,897 37 % Total net sales $ 61,137 $ 52,896 16 % $ 149,430 $ 131,247 14 % Unit Sales by Product: iPhone 52,217 50,763 3 % 129,533 129,053 — % iPad 9,113 8,922 2 % 22,283 22,003 1 % Mac 4,078 4,199 (3 )% 9,190 9,573 (4 )% (1) Includes deferrals and amortization of related software upgrade rights and non-software services. (2) Includes revenue from Digital Content and Services, AppleCare®, Apple Pay, licensing and other services. (3) Includes sales of AirPods, Apple TV, Apple Watch, Beats® products, HomePod, iPod touch and other Apple-branded and third-party accessories. Apple Inc. | Q2 2018 Form 10-Q | 23 Product Performance iPhone The following table presents iPhone net sales and unit sales information for the three- and six-month periods ended March 31, 2018 and April 1, 2017 (dollars in millions and units in thousands): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 Change March 31, 2018 April 1, 2017 Change Net sales $ 38,032 $ 33,249 14 % $ 99,608 $ 87,627 14 % Percentage of total net sales 62 % 63 % 67 % 67 % Unit sales 52,217 50,763 3 % 129,533 129,053 — % iPhone net sales increased during the second quarter and first six months of 2018 compared to the same periods in 2017 due primarily to a different mix of iPhones with higher average selling prices. iPad The following table presents iPad net sales and unit sales information for the three- and six-month periods ended March 31, 2018 and April 1, 2017 (dollars in millions and units in thousands): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 Change March 31, 2018 April 1, 2017 Change Net sales $ 4,113 $ 3,889 6 % $ 9,975 $ 9,422 6 % Percentage of total net sales 7 % 7 % 7 % 7 % Unit sales 9,113 8,922 2 % 22,283 22,003 1 % iPad net sales increased during the second quarter and first six months of 2018 compared to the same periods in 2017 due primarily to a different mix of iPads with higher average selling prices. Mac The following table presents Mac net sales and unit sales information for the three- and six-month periods ended March 31, 2018 and April 1, 2017 (dollars in millions and units in thousands): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 Change March 31, 2018 April 1, 2017 Change Net sales $ 5,848 $ 5,844 — % $ 12,743 $ 13,088 (3 )% Percentage of total net sales 10 % 11 % 9 % 10 % Unit sales 4,078 4,199 (3 )% 9,190 9,573 (4 )% Mac net sales were flat during the second quarter of 2018 and declined during the first six months of 2018 compared to the same periods in 2017 due primarily to lower Mac unit sales. The MacBook Pro® launch during the first quarter of 2017 had a positive impact on the results during the first six months of 2017. The strength in foreign currencies relative to the U.S. dollar had a favorable impact on Mac net sales during the second quarter and first six months of 2018. Apple Inc. | Q2 2018 Form 10-Q | 24 Services The following table presents Services net sales information for the three- and six-month periods ended March 31, 2018 and April 1, 2017 (dollars in millions): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 Change March 31, 2018 April 1, 2017 Change Net sales $ 9,190 $ 7,041 31 % $ 17,661 $ 14,213 24 % Percentage of total net sales 15 % 13 % 12 % 11 % Services net sales increased during the second quarter of 2018 compared to the same period in 2017 due primarily to licensing, App Store and AppleCare. Year-over-year growth in Services net sales during the first six months of 2018 was due primarily to licensing, App Store and iCloud. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 10, “Segment Information and Geographic Data.” Americas The following table presents Americas net sales information for the three- and six-month periods ended March 31, 2018 and April 1, 2017 (dollars in millions): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 Change March 31, 2018 April 1, 2017 Change Net sales $ 24,841 $ 21,157 17 % $ 60,034 $ 53,125 13 % Percentage of total net sales 41 % 40 % 40 % 40 % Americas net sales increased during the second quarter and first six months of 2018 compared to the same periods in 2017 due primarily to higher net sales of iPhone, Services and Other Products. Europe The following table presents Europe net sales information for the three- and six-month periods ended March 31, 2018 and April 1, 2017 (dollars in millions): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 Change March 31, 2018 April 1, 2017 Change Net sales $ 13,846 $ 12,733 9 % $ 34,900 $ 31,254 12 % Percentage of total net sales 23 % 24 % 23 % 24 % The strength in foreign currencies relative to the U.S. dollar had a favorable impact on Europe net sales during the second quarter and first six months of 2018 compared to the same periods in 2017. Additionally, year-over-year Europe net sales increased during the first six months of 2018 due primarily to higher net sales of iPhone and Services. Apple Inc. | Q2 2018 Form 10-Q | 25 Greater China The following table presents Greater China net sales information for the three- and six-month periods ended March 31, 2018 and April 1, 2017 (dollars in millions): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 Change March 31, 2018 April 1, 2017 Change Net sales $ 13,024 $ 10,726 21 % $ 30,980 $ 26,959 15 % Percentage of total net sales 21 % 20 % 21 % 21 % Greater China net sales increased during the second quarter and first six months of 2018 compared to the same periods in 2017 due primarily to higher net sales of iPhone and the strength in foreign currencies relative to the U.S. dollar. Japan The following table presents Japan net sales information for the three- and six-month periods ended March 31, 2018 and April 1, 2017 (dollars in millions): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 Change March 31, 2018 April 1, 2017 Change Net sales $ 5,468 $ 4,485 22 % $ 12,705 $ 10,251 24 % Percentage of total net sales 9 % 8 % 9 % 8 % Japan net sales increased during the second quarter and first six months of 2018 compared to the same periods in 2017 due primarily to higher net sales of iPhone and Services. Additionally, the value of the Japanese Yen relative to the U.S. dollar had a favorable impact on Japan net sales during the second quarter of 2018 and an unfavorable impact during the first six months of 2018. Rest of Asia Pacific The following table presents Rest of Asia Pacific net sales information for the three- and six-month periods ended March 31, 2018 and April 1, 2017 (dollars in millions): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 Change March 31, 2018 April 1, 2017 Change Net sales $ 3,958 $ 3,795 4 % $ 10,811 $ 9,658 12 % Percentage of total net sales 6 % 7 % 7 % 7 % The strength in foreign currencies relative to the U.S. dollar had a favorable impact on Rest of Asia Pacific net sales during the second quarter and first six months of 2018 compared to the same periods in 2017. Additionally, year-over-year Rest of Asia Pacific net sales increased during the first six months of 2018 due primarily to higher net sales of iPhone and Services. Apple Inc. | Q2 2018 Form 10-Q | 26 Gross Margin Gross margin for the three- and six-month periods ended March 31, 2018 and April 1, 2017 was as follows (dollars in millions): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 March 31, 2018 April 1, 2017 Net sales $ 61,137 $ 52,896 $ 149,430 $ 131,247 Cost of sales 37,715 32,305 92,096 80,480 Gross margin $ 23,422 $ 20,591 $ 57,334 $ 50,767 Gross margin percentage 38.3 % 38.9 % 38.4 % 38.7 % Gross margin increased during the second quarter and first six months of 2018 compared to the same periods in 2017 due primarily to a favorable shift in mix of products and Services, partially offset by higher product cost structures. Additionally, to a lesser extent the strength in foreign currencies relative to the U.S. dollar had a favorable impact on gross margin. Gross margin percentage decreased during the second quarter and first six months of 2018 compared to the same periods in 2017 due primarily to higher product cost structures, partially offset by a favorable shift in mix of products and Services. Additionally, to a lesser extent the strength in foreign currencies relative to the U.S. dollar had a favorable impact on gross margin percentage. The Company anticipates gross margin percentage during the third quarter of 2018 to be between 38.0% and 38.5%. The foregoing statement regarding the Company’s expected gross margin percentage in the third quarter of 2018 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will remain under downward pressure due to a variety of factors, including: continued industry-wide global product pricing pressures; increased competition; the Company’s ability to effectively stimulate demand for certain of its products; compressed product life cycles; product transitions; potential increases in the cost of components and outside manufacturing services; the Company’s ability to manage product quality and warranty costs effectively; and a potential shift in the Company’s sales mix towards products with lower gross margins. In response to competitive pressures, the Company expects it will continue to take product pricing actions, which would adversely affect gross margins. Due to the Company’s significant international operations, its financial condition and operating results, including gross margins, could be significantly affected by fluctuations in exchange rates. Operating Expenses Operating expenses for the three- and six-month periods ended March 31, 2018 and April 1, 2017 were as follows (dollars in millions): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 March 31, 2018 April 1, 2017 Research and development $ 3,378 $ 2,776 $ 6,785 $ 5,647 Percentage of total net sales 6 % 5 % 5 % 4 % Selling, general and administrative $ 4,150 $ 3,718 $ 8,381 $ 7,664 Percentage of total net sales 7 % 7 % 6 % 6 % Total operating expenses $ 7,528 $ 6,494 $ 15,166 $ 13,311 Percentage of total net sales 12 % 12 % 10 % 10 % Research and Development The growth in R&amp;D expense during the second quarter and first six months of 2018 compared to the same periods in 2017 was driven primarily by increases in headcount-related expenses and material costs to support expanded R&amp;D activities. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the second quarter and first six months of 2018 compared to the same periods in 2017 was driven primarily by increases in headcount-related expenses and infrastructure-related costs. Apple Inc. | Q2 2018 Form 10-Q | 27 Other Income/(Expense), Net Other income/(expense), net for the three- and six-month periods ended March 31, 2018 and April 1, 2017 was as follows (dollars in millions): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 Change March 31, 2018 April 1, 2017 Change Interest and dividend income $ 1,505 $ 1,282 $ 2,957 $ 2,506 Interest expense (792 ) (530 ) (1,526 ) (1,055 ) Other expense, net (439 ) (165 ) (401 ) (43 ) Total other income/(expense), net $ 274 $ 587 (53 )% $ 1,030 $ 1,408 (27 )% The decrease in other income/(expense), net during the second quarter and first six months of 2018 compared to the same periods in 2017 was due primarily to the impact of foreign exchange–related items and higher interest expense on debt, partially offset by higher interest income. Additionally, the decrease in other income/(expense), net during the first six months of 2018 was partially offset by realized gains on sales of marketable securities. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 2.14% and 1.99% in the second quarter of 2018 and 2017, respectively, and 2.12% and 1.93% in the first six months of 2018 and 2017, respectively. Provision for Income Taxes Provision for income taxes and effective tax rates for the three- and six-month periods ended March 31, 2018 and April 1, 2017 were as follows (dollars in millions): Three Months Ended Six Months Ended March 31, 2018 April 1, 2017 March 31, 2018 April 1, 2017 Provision for income taxes $ 2,346 $ 3,655 $ 9,311 $ 9,944 Effective tax rate 14.5 % 24.9 % 21.6 % 25.6 % On December 22, 2017, the U.S. enacted the Tax Cuts and Jobs Act (the “Act”), which significantly changed U.S. tax law. The Act lowered the Company’s U.S. statutory federal income tax rate from 35% to 21% effective January 1, 2018, while also imposing a deemed repatriation tax on previously deferred foreign income. By operation of law, the Company will apply a blended U.S. statutory federal income tax rate of 24.5% for 2018 (the “2018 blended U.S. tax rate”). The Act also created a new minimum tax on certain future foreign earnings. The Company’s effective tax rate of 14.5% for the second quarter of 2018 was lower than the 2018 blended U.S. tax rate due primarily to the lower tax rate on foreign earnings. The Company’s effective tax rate of 21.6% for the first six months of 2018 was lower than the 2018 blended U.S. tax rate due primarily to the lower tax rate on foreign earnings, partially offset by the remeasurement of deferred tax assets and liabilities as a result of the Act. The Company’s effective tax rate of 14.5% for the second quarter of 2018 was lower than the same period in 2017 due to the lower 2018 blended U.S. tax rate as a result of the Act. The Company’s effective tax rate of 21.6% for the first six months of 2018 was lower than the same period in 2017 due to the lower 2018 blended U.S. tax rate, partially offset by the remeasurement of deferred tax assets and liabilities as a result of the Act. As a result of adopting Accounting Standards Update (“ASU”) No. 2016-09, Compensation – Stock Compensation (Topic 718): Improvements to Employee Share-Based Payment Accounting, in 2018, the Company records any excess tax benefits or deficiencies from its equity awards as part of the provision for income taxes. The Company anticipates that these excess tax benefits or deficiencies will have the greatest impact on its effective tax rates in the first and third quarters, as the majority of the Company’s equity awards vest in those quarters. The Company is subject to audits by federal, state, local and foreign tax authorities. Management believes that adequate provisions have been made for any adjustments that may result from tax examinations. However, the outcome of tax audits cannot be predicted with certainty. If any issues addressed in the Company’s tax audits are resolved in a manner inconsistent with management’s expectations, the Company could be required to adjust its provision for income taxes in the period such resolution occurs. Apple Inc. | Q2 2018 Form 10-Q | 28 On August 30, 2016, the European Commission announced its decision that Ireland granted state aid to the Company by providing tax opinions in 1991 and 2007 concerning the tax allocation of profits of the Irish branches of two subsidiaries of the Company (the “State Aid Decision”). The State Aid Decision orders Ireland to calculate and recover additional taxes from the Company for the period June 2003 through December 2014. Irish legislative changes, effective as of January 2015, eliminated the application of the tax opinions from that date forward. The Company believes the State Aid Decision to be without merit and appealed to the General Court of the Court of Justice of the European Union. Ireland has also appealed the State Aid Decision. Although Ireland is still computing the recovery amount, the Company expects the amount to be in line with the European Commission’s announced recovery amount of €13 billion, plus interest of €1 billion. During the third quarter of 2018, the Company expects to begin funding amounts into escrow, where they will remain pending conclusion of all appeals. The Company believes that any incremental Irish corporate income taxes potentially due related to the State Aid Decision would be creditable against U.S. taxes. Recent Accounting Pronouncements Hedging In August 2017, the Financial Accounting Standards Board (the “FASB”) issued ASU No. 2017-12, Derivatives and Hedging (Topic 815): Targeted Improvements to Accounting for Hedging Activities (“ASU 2017-12”). ASU 2017-12 expands component and fair value hedging, specifies the presentation of the effects of hedging instruments, and eliminates the separate measurement and presentation of hedge ineffectiveness. The Company will adopt ASU 2017-12 in its first quarter of 2020 utilizing the modified retrospective transition method and is currently evaluating the impact of adoption on its consolidated financial statements. Restricted Cash In November 2016, the FASB issued ASU No. 2016-18, Statement of Cash Flows (Topic 230): Restricted Cash (“ASU 2016-18”), which enhances and clarifies the guidance on the classification and presentation of restricted cash in the statement of cash flows. The Company will adopt ASU 2016-18 in its first quarter of 2019 utilizing the retrospective transition method. Currently, the Company’s restricted cash balance is not significant. Income Taxes In October 2016, the FASB issued ASU No. 2016-16, Income Taxes (Topic 740): Intra-Entity Transfers of Assets Other Than Inventory (“ASU 2016-16”), which requires the recognition of the income tax consequences of an intra-entity transfer of an asset, other than inventory, when the transfer occurs. The Company will adopt ASU 2016-16 in its first quarter of 2019 utilizing the modified retrospective transition method. Currently, the Company estimates recording up to $4 billion of net deferred tax assets on its Condensed Consolidated Balance Sheets upon adoption. However, the ultimate impact of adopting ASU 2016-16 will depend on the balance of intellectual property transferred between its subsidiaries as of the adoption date, as well as the deferred tax impact of the new minimum tax on certain future foreign earnings. The Company will recognize incremental deferred income tax expense thereafter as these net deferred tax assets are utilized. Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. The Company will adopt ASU 2016-02 in its first quarter of 2020 utilizing the modified retrospective transition method. While the Company is currently evaluating the impact of adopting ASU 2016-02, based on the lease portfolio as of March 31, 2018, the Company anticipates recording lease assets and liabilities of approximately $9.0 billion on its Condensed Consolidated Balance Sheets, with no material impact to its Condensed Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company’s lease portfolio as of the adoption date. Financial Instruments In January 2016, the FASB issued ASU No. 2016-01, Financial Instruments – Overall (Subtopic 825-10): Recognition and Measurement of Financial Assets and Financial Liabilities (“ASU 2016-01”), which updates certain aspects of recognition, measurement, presentation and disclosure of financial instruments. The Company will adopt ASU 2016-01 in its first quarter of 2019 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, the adoption of ASU 2016-01 is not expected to have a material impact on its consolidated financial statements. In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses of certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Apple Inc. | Q2 2018 Form 10-Q | 29 Revenue Recognition In May 2014, the FASB issued ASU No. 2014-09, Revenue from Contracts with Customers (Topic 606) (“ASU 2014-09”), which amends the existing accounting standards for revenue recognition. ASU 2014-09 is based on principles that govern the recognition of revenue at an amount an entity expects to be entitled when products are transferred to customers. Subsequently, the FASB has issued the following standards related to ASU 2014-09: ASU No. 2016-08, Revenue from Contracts with Customers (Topic 606): Principal versus Agent Considerations (“ASU 2016-08”); ASU No. 2016-10, Revenue from Contracts with Customers (Topic 606): Identifying Performance Obligations and Licensing (“ASU 2016-10”); ASU No. 2016-12, Revenue from Contracts with Customers (Topic 606): Narrow-Scope Improvements and Practical Expedients (“ASU 2016-12”); and ASU No. 2016-20, Technical Corrections and Improvements to Topic 606, Revenue from Contracts with Customers (“ASU 2016-20”). The Company must adopt ASU 2016-08, ASU 2016-10, ASU 2016-12 and ASU 2016-20 with ASU 2014-09 (collectively, the “new revenue standards”). The new revenue standards may be applied retrospectively to each prior period presented or retrospectively with the cumulative effect recognized as of the date of adoption. The Company will adopt the new revenue standards in its first quarter of 2019 utilizing the full retrospective transiti</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10-Q (“Form 10-Q”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the Company’s Annual Report on Form 10-K for the year ended September 30, 2017 (the “2017 Form 10-K”) filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and notes thereto included in Part I, Item 1 of this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company’s Annual Report on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the SEC. The Company is subject to the informational requirements of the Exchange Act and files or furnishes reports, proxy statements, and other information with the SEC. Such reports and other information filed by the Company with the SEC are available free of charge on the Company’s website at investor.apple.com/sec.cfm when such reports are available on the SEC’s website. The public may read and copy any materials filed by the Company with the SEC at the SEC’s Public Reference Room at 100 F Street, NE, Room 1580, Washington, DC 20549. The public may obtain information on the operation of the Public Reference Room by calling the SEC at 1-800-SEC-0330. The SEC maintains an internet site that contains reports, proxy and information statements and other information regarding issuers that file electronically with the SEC at www.sec.gov. The information contained on the websites referenced in this Form 10-Q is not incorporated by reference into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices and personal computers, and sells a variety of related software, services, accessories, networking solutions and third-party digital content and applications. The Company’s products and services include iPhone, iPad, Mac, Apple Watch, Apple TV, a portfolio of consumer and professional software applications, iOS, macOS, watchOS and tvOS operating systems, iCloud, Apple Pay and a variety of accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store, App Store, Mac App Store, TV App Store, iBooks Store and Apple Music (collectively “Digital Content and Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and resellers. In addition, the Company sells a variety of third-party Apple-compatible products, including application software and various accessories through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Business Strategy The Company is committed to bringing the best user experience to its customers through its innovative hardware, software and services. The Company’s business strategy leverages its unique ability to design and develop its own operating systems, hardware, application software and services to provide its customers products and solutions with innovative design, superior ease-of-use and seamless integration. As part of its strategy, the Company continues to expand its platform for the discovery and delivery of digital content and applications through its Digital Content and Services, which allows customers to discover and download digital content, iOS, Mac, Apple Watch and Apple TV applications, and books through either a Mac or Windows personal computer or through iPhone, iPad and iPod touch® devices (“iOS devices”), Apple TV and Apple Watch. The Company also supports a community for the development of third-party software and hardware products and digital content that complement the Company’s offerings. The Company believes a high-quality buying experience with knowledgeable salespersons who can convey the value of the Company’s products and services greatly enhances its ability to attract and retain customers. Therefore, the Company’s strategy also includes building and expanding its own retail and online stores and its third-party distribution network to effectively reach more customers and provide them with a high-quality sales and post-sales support experience. The Company believes ongoing investment in research and development (“R&amp;D”), marketing and advertising is critical to the development and sale of innovative products, services and technologies. Apple Inc. | Q1 2018 Form 10-Q | 21 Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product introductions can significantly impact net sales, product costs and operating expenses. Product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new product inventory following a product introduction, and channel inventory of a particular product often declines as the next related major product launch approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. However, neither historical seasonal patterns nor historical patterns of product introductions should be considered reliable indicators of the Company’s future pattern of product introductions, future net sales or financial performance. Fiscal Period The Company’s fiscal year is the 52- or 53-week period that ends on the last Saturday of September. The first quarter of 2018 spanned 13 weeks, whereas a 14th week was added to the first quarter of 2017, as is done every five or six years, to realign fiscal quarters with calendar quarters. First Quarter Fiscal 2018 Highlights Net sales increased 13% or $9.9 billion during the first quarter of 2018 compared to the same quarter in 2017, primarily driven by growth in iPhone, Other Products and Services. The year-over-year increase in net sales reflected growth in all of the Company’s geographic reportable segments. The Company began shipping iPhone X in November 2017 and iMac Pro™ in December 2017. The Company spent $10.1 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $3.3 billion during the first quarter of 2018. Additionally, the Company issued $7.0 billion of U.S. dollar-denominated term debt. Sales Data The following table shows net sales by reportable segment and net sales and unit sales by product for the three months ended December 30, 2017 and December 31, 2016 (dollars in millions and units in thousands): Three Months Ended December 30, 2017 December 31, 2016 Change Net Sales by Reportable Segment: Americas $ 35,193 $ 31,968 10 % Europe 21,054 18,521 14 % Greater China 17,956 16,233 11 % Japan 7,237 5,766 26 % Rest of Asia Pacific 6,853 5,863 17 % Total net sales $ 88,293 $ 78,351 13 % Net Sales by Product: iPhone (1) $ 61,576 $ 54,378 13 % iPad (1) 5,862 5,533 6 % Mac (1) 6,895 7,244 (5 )% Services (2) 8,471 7,172 18 % Other Products (1)(3) 5,489 4,024 36 % Total net sales $ 88,293 $ 78,351 13 % Unit Sales by Product: iPhone 77,316 78,290 (1 )% iPad 13,170 13,081 1 % Mac 5,112 5,374 (5 )% (1) Includes deferrals and amortization of related software upgrade rights and non-software services. (2) Includes revenue from Digital Content and Services, AppleCare®, Apple Pay, licensing and other services. (3) Includes sales of Apple TV, Apple Watch, Beats® products, iPod touch and Apple-branded and third-party accessories. Apple Inc. | Q1 2018 Form 10-Q | 22 Product Performance iPhone The following table presents iPhone net sales and unit sales information for the three months ended December 30, 2017 and December 31, 2016 (dollars in millions and units in thousands): Three Months Ended December 30, 2017 December 31, 2016 Change Net sales $ 61,576 $ 54,378 13 % Percentage of total net sales 70 % 69 % Unit sales 77,316 78,290 (1 )% iPhone net sales increased during the first quarter of 2018 compared to the same quarter in 2017 due primarily to a different mix of iPhones with higher average selling prices. iPad The following table presents iPad net sales and unit sales information for the three months ended December 30, 2017 and December 31, 2016 (dollars in millions and units in thousands): Three Months Ended December 30, 2017 December 31, 2016 Change Net sales $ 5,862 $ 5,533 6 % Percentage of total net sales 7 % 7 % Unit sales 13,170 13,081 1 % iPad net sales increased during the first quarter of 2018 compared to the same quarter in 2017 due primarily to a different mix of iPads with higher average selling prices. Mac The following table presents Mac net sales and unit sales information for the three months ended December 30, 2017 and December 31, 2016 (dollars in millions and units in thousands): Three Months Ended December 30, 2017 December 31, 2016 Change Net sales $ 6,895 $ 7,244 (5 )% Percentage of total net sales 8 % 9 % Unit sales 5,112 5,374 (5 )% Mac net sales decreased during the first quarter of 2018 compared to the same quarter in 2017 due primarily to lower Mac unit sales given the positive impact of the MacBook Pro® launch during the first quarter of 2017 on that quarter’s results. Services The following table presents Services net sales information for the three months ended December 30, 2017 and December 31, 2016 (dollars in millions): Three Months Ended December 30, 2017 December 31, 2016 Change Net sales $ 8,471 $ 7,172 18 % Percentage of total net sales 10 % 9 % The year-over-year growth in Services net sales in the first quarter of 2018 was due primarily to increases in licensing and App Store sales. Apple Inc. | Q1 2018 Form 10-Q | 23 Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” Americas The following table presents Americas net sales information for the three months ended December 30, 2017 and December 31, 2016 (dollars in millions): Three Months Ended December 30, 2017 December 31, 2016 Change Net sales $ 35,193 $ 31,968 10 % Percentage of total net sales 40 % 41 % Americas net sales increased during the first quarter of 2018 compared to the same quarter in 2017 due primarily to higher net sales of iPhone and Other Products. Europe The following table presents Europe net sales information for the three months ended December 30, 2017 and December 31, 2016 (dollars in millions): Three Months Ended December 30, 2017 December 31, 2016 Change Net sales $ 21,054 $ 18,521 14 % Percentage of total net sales 24 % 24 % Europe net sales increased during the first quarter of 2018 compared to the same quarter in 2017 due primarily to higher net sales of iPhone and Services. The strength in foreign currencies relative to the U.S. dollar had a favorable year-over-year impact on Europe net sales during the first quarter of 2018. Greater China The following table presents Greater China net sales information for the three months ended December 30, 2017 and December 31, 2016 (dollars in millions): Three Months Ended December 30, 2017 December 31, 2016 Change Net sales $ 17,956 $ 16,233 11 % Percentage of total net sales 20 % 21 % Greater China net sales increased during the first quarter of 2018 compared to the same quarter in 2017 due primarily to higher net sales of iPhone and Services. Apple Inc. | Q1 2018 Form 10-Q | 24 Japan The following table presents Japan net sales information for the three months ended December 30, 2017 and December 31, 2016 (dollars in millions): Three Months Ended December 30, 2017 December 31, 2016 Change Net sales $ 7,237 $ 5,766 26 % Percentage of total net sales 8 % 7 % Japan net sales increased during the first quarter of 2018 compared to the same quarter in 2017 due primarily to higher net sales of iPhone, partially offset by the weakness in the Japanese yen relative to the U.S. dollar. Rest of Asia Pacific The following table presents Rest of Asia Pacific net sales information for the three months ended December 30, 2017 and December 31, 2016 (dollars in millions): Three Months Ended December 30, 2017 December 31, 2016 Change Net sales $ 6,853 $ 5,863 17 % Percentage of total net sales 8 % 7 % Rest of Asia Pacific net sales increased during the first quarter of 2018 compared to the same quarter in 2017 due primarily to higher net sales of iPhone and Services. Gross Margin Gross margin for the three months ended December 30, 2017 and December 31, 2016 was as follows (dollars in millions): Three Months Ended December 30, 2017 December 31, 2016 Net sales $ 88,293 $ 78,351 Cost of sales 54,381 48,175 Gross margin $ 33,912 $ 30,176 Gross margin percentage 38.4 % 38.5 % Gross margin percentage during the first quarter of 2018 compared to the same quarter in 2017 was relatively flat. The Company anticipates gross margin percentage during the second quarter of 2018 to be between 38.0% and 38.5%. The foregoing statement regarding the Company’s expected gross margin percentage in the second quarter of 2018 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will remain under downward pressure due to a variety of factors, including: continued industry-wide global product pricing pressures; increased competition; the Company’s ability to effectively stimulate demand for certain of its products; compressed product life cycles; product transitions; potential increases in the cost of components and outside manufacturing services; the Company’s ability to manage product quality and warranty costs effectively; and a potential shift in the Company’s sales mix towards products with lower gross margins. In response to competitive pressures, the Company expects it will continue to take product pricing actions, which would adversely affect gross margins. Due to the Company’s significant international operations, its financial condition and operating results, including gross margins, could be significantly affected by fluctuations in exchange rates. Apple Inc. | Q1 2018 Form 10-Q | 25 Operating Expenses Operating expenses for the three months ended December 30, 2017 and December 31, 2016 were as follows (dollars in millions): Three Months Ended December 30, 2017 December 31, 2016 Research and development $ 3,407 $ 2,871 Percentage of total net sales 4 % 4 % Selling, general and administrative $ 4,231 $ 3,946 Percentage of total net sales 5 % 5 % Total operating expenses $ 7,638 $ 6,817 Percentage of total net sales 9 % 9 % Research and Development The growth in R&amp;D expense during the first quarter of 2018 compared to the same quarter in 2017 was driven primarily by increases in headcount-related expenses and material costs to support expanded R&amp;D activities. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the first quarter of 2018 compared to the same quarter in 2017 was driven primarily by higher spending on marketing and advertising, and an increase in infrastructure-related costs. Other Income/(Expense), Net Other income/(expense), net for the three months ended December 30, 2017 and December 31, 2016 was as follows (dollars in millions): Three Months Ended December 30, 2017 December 31, 2016 Change Interest and dividend income $ 1,452 $ 1,224 Interest expense (734 ) (525 ) Other income, net 38 122 Total other income/(expense), net $ 756 $ 821 (8 )% The decrease in other income/(expense), net during the first quarter of 2018 compared to the same quarter in 2017 was due primarily to the impact of foreign exchange-related items and higher interest expense on debt, partially offset by higher interest income and realized gains on sales of marketable securities. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 2.11% and 1.87% in the first quarter of 2018 and 2017, respectively. Provision for Income Taxes Provision for income taxes and effective tax rates for the three months ended December 30, 2017 and December 31, 2016 were as follows (dollars in millions): Three Months Ended December 30, 2017 December 31, 2016 Provision for income taxes $ 6,965 $ 6,289 Effective tax rate 25.8 % 26.0 % Apple Inc. | Q1 2018 Form 10-Q | 26 On December 22, 2017, the U.S. enacted the Tax Cuts and Jobs Act (the “Act”), which significantly changed U.S. tax law. The Act lowered the Company’s U.S. statutory federal income tax rate from 35% to 21% effective January 1, 2018, while also imposing a deemed repatriation tax on deferred foreign income. By operation of law, the Company will apply a blended U.S. statutory federal income tax rate of 24.5% for 2018. The Act also created a new minimum tax on certain future foreign earnings. The Company’s effective tax rate of 25.8% for the first quarter of 2018 differs from the blended rate of 24.5% due primarily to the remeasurement of deferred tax assets and liabilities, partially offset by the impact of taxes on foreign earnings. The Company’s effective tax rate for the first quarter of 2018 is slightly lower than the first quarter of 2017 due to the lower U.S. statutory blended tax rate, primarily offset by the remeasurement of deferred tax assets and liabilities. The Company anticipates its effective tax rate for the remainder of 2018 to be approximately 15%. The foregoing statement regarding the Company’s expected effective tax rate during 2018 is forward-looking and could differ from actual results. The Company’s future expected tax rate can be impacted by multiple factors including, but not limited to, those set forth in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors.” The Company’s effective tax rate for the first quarter of 2017 differed from the U.S. statutory federal income tax rate of 35% due primarily to certain undistributed foreign earnings, a substantial portion of which was generated by subsidiaries organized in Ireland, for which no U.S. taxes were provided when such earnings were intended to be indefinitely reinvested outside the U.S. The Company is subject to audits by federal, state, local and foreign tax authorities. Management believes that adequate provisions have been made for any adjustments that may result from tax examinations. However, the outcome of tax audits cannot be predicted with certainty. If any issues addressed in the Company’s tax audits are resolved in a manner inconsistent with management’s expectations, the Company could be required to adjust its provision for income taxes in the period such resolution occurs. On August 30, 2016, the European Commission announced its decision that Ireland granted state aid to the Company by providing tax opinions in 1991 and 2007 concerning the tax allocation of profits of the Irish branches of two subsidiaries of the Company (the “State Aid Decision”). The State Aid Decision orders Ireland to calculate and recover additional taxes from the Company for the period June 2003 through December 2014. Irish legislative changes, effective as of January 2015, eliminated the application of the tax opinions from that date forward. The Company believes the State Aid Decision to be without merit and appealed to the General Court of the Court of Justice of the European Union. Ireland has also appealed the State Aid Decision. Although Ireland is still computing the recovery amount, the Company expects the amount to be in line with the European Commission’s announced recovery amount of €13 billion, plus interest of €1 billion. Once the recovery amount is finalized by Ireland, the Company anticipates funding it by placing amounts into escrow in 2018, pending conclusion of all appeals. The Company believes that any incremental Irish corporate income taxes potentially due related to the State Aid Decision would be creditable against U.S. taxes. Recent Accounting Pronouncements Hedging In August 2017, the Financial Accounting Standards Board (“FASB”) issued Accounting Standards Update (“ASU”) No. 2017-12, Derivatives and Hedging (Topic 815): Targeted Improvements to Accounting for Hedging Activities (“ASU 2017-12”). ASU 2017-12 expands component and fair value hedging, specifies the presentation of the effects of hedging instruments, and eliminates the separate measurement and presentation of hedge ineffectiveness. The Company will adopt ASU 2017-12 in its first quarter of 2020 utilizing the modified retrospective transition method and is currently evaluating the impact of adoption on its consolidated financial statements. Restricted Cash In November 2016, the FASB issued ASU No. 2016-18, Statement of Cash Flows (Topic 230): Restricted Cash (“ASU 2016-18”), which enhances and clarifies the guidance on the classification and presentation of restricted cash in the statement of cash flows. The Company will adopt ASU 2016-18 in its first quarter of 2019 utilizing the retrospective transition method. Currently, the Company’s restricted cash balance is not significant. Apple Inc. | Q1 2018 Form 10-Q | 27 Income Taxes In October 2016, the FASB issued ASU No. 2016-16, Income Taxes (Topic 740): Intra-Entity Transfers of Assets Other Than Inventory (“ASU 2016-16”), which requires the recognition of the income tax consequences of an intra-entity transfer of an asset, other than inventory, when the transfer occurs. The Company will adopt ASU 2016-16 in its first quarter of 2019 utilizing the modified retrospective transition method. Currently, the Company estimates recording up to $4 billion of net deferred tax assets on its Condensed Consolidated Balance Sheets upon adoption. However, the ultimate impact of adopting ASU 2016-16 will depend on the balance of intellectual property transferred between its subsidiaries as of the adoption date, as well as the deferred tax impact of the minimum tax on certain future foreign earnings. The Company will recognize incremental deferred income tax expense thereafter as these net deferred tax assets are utilized. Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. The Company will adopt ASU 2016-02 in its first quarter of 2020 utilizing the modified retrospective transition method. While the Company is currently evaluating the timing and impact of adopting ASU 2016-02, currently the Company anticipates recording lease assets and liabilities in excess of $9.6 billion on its Condensed Consolidated Balance Sheets, with no material impact to its Condensed Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company’s lease portfolio as of the adoption date. Financial Instruments In January 2016, the FASB issued ASU No. 2016-01, Financial Instruments – Overall (Subtopic 825-10): Recognition and Measurement of Financial Assets and Financial Liabilities (“ASU 2016-01”), which updates certain aspects of recognition, measurement, presentation and disclosure of financial instruments. The Company will adopt ASU 2016-01 in its first quarter of 2019 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, the adoption of ASU 2016-01 is not expected to have a material impact on its consolidated financial statements. In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses of certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Revenue Recognition In May 2014, the FASB issued ASU No. 2014-09, Revenue from Contracts with Customers (Topic 606) (“ASU 2014-09”), which amends the existing accounting standards for revenue recognition. ASU 2014-09 is based on principles that govern the recognition of revenue at an amount an entity expects to be entitled when products are transferred to customers. Subsequently, the FASB has issued the following standards related to ASU 2014-09: ASU No. 2016-08, Revenue from Contracts with Customers (Topic 606): Principal versus Agent Considerations (“ASU 2016-08”); ASU No. 2016-10, Revenue from Contracts with Customers (Topic 606): Identifying Performance Obligations and Licensing (“ASU 2016-10”); ASU No. 2016-12, Revenue from Contracts with Customers (Topic 606): Narrow-Scope Improvements and Practical Expedients (“ASU 2016-12”); and ASU No. 2016-20, Technical Corrections and Improvements to Topic 606, Revenue from Contracts with Customers (“ASU 2016-20”). The Company must adopt ASU 2016-08, ASU 2016-10, ASU 2016-12 and ASU 2016-20 with ASU 2014-09 (collectively, the “new revenue standards”). The new revenue standards may be applied retrospectively to each prior period presented or retrospectively with the cumulative effect recognized as of the date of adoption. The Company will adopt the new revenue standards in its first quarter of 2019 utilizing the full retrospective transition method. The new revenue standards are not expected to have a material impact on the amount and timing of revenue recognized in the Company’s consolidated financial statements. Apple Inc. | Q1 2018 Form 10-Q | 28 Liquidity and Capital Resources The following tables present selected financial information and statistics as of December 30, 2017 and September 30, 2017 and for the first three months of 2018 and 2017 (in millions): December 30, 2017 September 30, 2017 Cash, cash equivalents and marketable securities $ 285,097 $ 268,895 Property, plant and equipment, net $ 33,679 $ 33,783 Commercial paper $ 11,980 $ 11,977 Total term debt $ 110,420 $ 103,703 Working capital $ 28,022 $ 27,831 Three Months Ended December 30, 2017 December 31, 2016 Cash generated by operating activities (1) $ 28,293 $ 27,234 Cash used in investing activities $ (13,590 ) $ (19,122 ) Cash used in financing activities (1) $ (7,501 ) $ (12,225 ) (1) Refer to Note 1, “Summary of Significant Accounting Polices” in the Notes to Condensed Consolidated Financial Statements in Part I, Item 1 of this Form 10-Q for more information on the prior period reclassification related to the Company’s adoption of ASU 2016-09. The Company believes its existing balances of cash, cash equivalents and marketable securities will be sufficient to satisfy its working capital needs, capital asset purchases, outstanding commitments and other liquidity requirements associated with its existing operations over the next 12 months. The Company currently anticipates the cash used for future dividends, the share repurchase program and debt repayments will come from its current cash and cash generated from ongoing operating activities. In connection with the State Aid Decision, Ireland is still computing the recovery amount. The Company expects the amount to be in line with the European Commission’s announced recovery amount of €13 billion, plus interest of €1 billion. Once the recovery amount is finalized by Ireland, the Company anticipates funding it by placing amounts into escrow in 2018, pending conclusion of all appeals. The Company’s marketable securities investment portfolio is primarily invested in highly rated securities, and its investment policy generally limits the amount of credit exposure to any one issuer. The policy generally requires investments to be investment grade, with the primary objective of minimizing the potential risk of principal loss. During the three months ended December 30, 2017, cash generated by operating activities of $28.3 billion was a result of $20.1 billion of net income and an increase in the net change in operating assets and liabilities of $37.9 billion, partially offset by non-cash adjustments to net income of $29.7 billion. Cash used in investing activities of $13.6 billion during the three months ended December 30, 2017 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $10.4 billion and cash used to acquire property, plant and equipment of $2.8 billion. Cash used in financing activities of $7.5 billion during the three months ended December 30, 2017 consisted primarily of cash used to repurchase common stock of $10.1 billion and cash used to pay dividends and dividend equivalents of $3.3 billion, partially offset by proceeds from the issuance of term debt, net of $7.0 billion. During the three months ended December 31, 2016, cash generated by operating activities of $27.2 billion was a result of $17.9 billion of net income, non-cash adjustments to net income of $5.4 billion and an increase in the net change in operating assets and liabilities of $3.9 billion. Cash used in investing activities of $19.1 billion during the three months ended December 31, 2016 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $15.6 billion and cash used to acquire property, plant and equipment of $3.3 billion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 7. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Annual Report on Form 10-K (“Form 10-K”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of this Form 10-K under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the consolidated financial statements and notes thereto included in Part II, Item 8 of this Form 10-K. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices and personal computers, and sells a variety of related software, services, accessories, networking solutions and third-party digital content and applications. The Company’s products and services include iPhone, iPad, Mac, Apple Watch, Apple TV, a portfolio of consumer and professional software applications, iOS, macOS, watchOS and tvOS operating systems, iCloud, Apple Pay and a variety of accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store, App Store, Mac App Store, TV App Store, iBooks Store and Apple Music (collectively “Digital Content and Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and value-added resellers. In addition, the Company sells a variety of third-party Apple-compatible products, including application software and various accessories through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Fiscal Period The Company’s fiscal year is the 52 or 53-week period that ends on the last Saturday of September. The Company’s fiscal year 2017 included 53 weeks and ended on September 30, 2017. A 14th week was included in the first quarter of 2017, as is done every five or six years, to realign the Company’s fiscal quarters with calendar quarters. The Company’s fiscal years 2016 and 2015 ended on September 24, 2016 and September 26, 2015, respectively, and spanned 52 weeks each. Fiscal 2017 Highlights Net sales increased 6% or $13.6 billion during 2017 compared to 2016, primarily driven by growth in Services, iPhone and Mac. The year-over-year increase in net sales reflected growth in each of the geographic operating segments, with the exception of Greater China. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on net sales during 2017 compared to 2016. In May 2017, the Company announced an increase to its capital return program by raising the expected total size of the program from $250 billion to $300 billion through March 2019. This included increasing its share repurchase authorization from $175 billion to $210 billion and raising its quarterly dividend from $0.57 to $0.63 per share beginning in May 2017. During 2017, the Company spent $33.0 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $12.8 billion. Additionally, the Company issued $24.0 billion of U.S. dollar-denominated term debt, €2.5 billion of euro-denominated term debt and C$2.5 billion of Canadian dollar-denominated term debt during 2017. Fiscal 2016 Highlights Net sales declined 8% or $18.1 billion during 2016 compared to 2015, primarily driven by a year-over-year decrease in iPhone net sales and the effect of weakness in most foreign currencies relative to the U.S. dollar, partially offset by an increase in Services. In April 2016, the Company announced an increase to its capital return program by raising the expected total size of the program from $200 billion to $250 billion through March 2018. This included increasing its share repurchase authorization from $140 billion to $175 billion and raising its quarterly dividend from $0.52 to $0.57 per share beginning in May 2016. During 2016, the Company spent $29.0 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $12.2 billion. Additionally, the Company issued $23.9 billion of U.S. dollar-denominated term debt and A$1.4 billion of Australian dollar-denominated term debt during 2016. Apple Inc. | 2017 Form 10-K | 22 Sales Data The following table shows net sales by operating segment and net sales and unit sales by product for 2017, 2016 and 2015 (dollars in millions and units in thousands): 2017 Change 2016 Change 2015 Net Sales by Operating Segment: Americas $ 96,600 12 % $ 86,613 (8 )% $ 93,864 Europe 54,938 10 % 49,952 (1 )% 50,337 Greater China 44,764 (8 )% 48,492 (17 )% 58,715 Japan 17,733 5 % 16,928 8 % 15,706 Rest of Asia Pacific 15,199 11 % 13,654 (10 )% 15,093 Total net sales $ 229,234 6 % $ 215,639 (8 )% $ 233,715 Net Sales by Product: iPhone (1) $ 141,319 3 % $ 136,700 (12 )% $ 155,041 iPad (1) 19,222 (7 )% 20,628 (11 )% 23,227 Mac (1) 25,850 13 % 22,831 (10 )% 25,471 Services (2) 29,980 23 % 24,348 22 % 19,909 Other Products (1)(3) 12,863 16 % 11,132 11 % 10,067 Total net sales $ 229,234 6 % $ 215,639 (8 )% $ 233,715 Unit Sales by Product: iPhone 216,756 2 % 211,884 (8 )% 231,218 iPad 43,753 (4 )% 45,590 (17 )% 54,856 Mac 19,251 4 % 18,484 (10 )% 20,587 (1) Includes deferrals and amortization of related software upgrade rights and non-software services. (2) Includes revenue from Digital Content and Services, AppleCare, Apple Pay, licensing and other services. Services net sales in the fourth quarter of 2017 included a favorable one-time adjustment of $640 million due to a change in estimate based on the availability of additional supporting information. (3) Includes sales of Apple TV, Apple Watch, Beats products, iPod touch and Apple-branded and third-party accessories. Apple Inc. | 2017 Form 10-K | 23 Product Performance iPhone The following table presents iPhone net sales and unit sales information for 2017, 2016 and 2015 (dollars in millions and units in thousands): 2017 Change 2016 Change 2015 Net sales $ 141,319 3 % $ 136,700 (12 )% $ 155,041 Percentage of total net sales 62 % 63 % 66 % Unit sales 216,756 2 % 211,884 (8 )% 231,218 iPhone net sales increased during 2017 compared to 2016 due to higher iPhone unit sales and a different mix of iPhones with higher average selling prices. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on iPhone net sales during 2017 compared to 2016. iPhone net sales decreased during 2016 compared to 2015. The Company believes the sales decline was due primarily to a lower rate of iPhone upgrades during 2016 compared to 2015 and challenging macroeconomic conditions in a number of major markets in 2016. Average selling prices for iPhone were lower year-over-year during 2016 due primarily to a different mix of iPhones, including the iPhone SE introduced in 2016, and the effect of weakness in most foreign currencies relative to the U.S. dollar. iPad The following table presents iPad net sales and unit sales information for 2017, 2016 and 2015 (dollars in millions and units in thousands): 2017 Change 2016 Change 2015 Net sales $ 19,222 (7 )% $ 20,628 (11 )% $ 23,227 Percentage of total net sales 8 % 10 % 10 % Unit sales 43,753 (4 )% 45,590 (17 )% 54,856 iPad net sales decreased during 2017 compared to 2016 due to lower iPad unit sales and a different mix of iPads with lower average selling prices. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on iPad net sales during 2017 compared to 2016. iPad net sales decreased during 2016 compared to 2015 primarily due to lower unit sales and the effect of weakness in most foreign currencies relative to the U.S. dollar, partially offset by higher average selling price due to a shift in mix to higher-priced iPads. Mac The following table presents Mac net sales and unit sales information for 2017, 2016 and 2015 (dollars in millions and units in thousands): 2017 Change 2016 Change 2015 Net sales $ 25,850 13 % $ 22,831 (10 )% $ 25,471 Percentage of total net sales 11 % 11 % 11 % Unit sales 19,251 4 % 18,484 (10 )% 20,587 Mac net sales increased during 2017 compared to 2016 due primarily to a different mix of Macs with higher average selling prices and higher Mac unit sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Mac net sales during 2017 compared to 2016. Mac net sales decreased during 2016 compared to 2015 primarily due to lower year-over-year Mac unit sales, which declined at rates similar to the overall market. The effect of weakness in most foreign currencies relative to the U.S. dollar also negatively impacted Mac net sales. Apple Inc. | 2017 Form 10-K | 24 Services The following table presents Services net sales information for 2017, 2016 and 2015 (dollars in millions): 2017 Change 2016 Change 2015 Net sales $ 29,980 23 % $ 24,348 22 % $ 19,909 Percentage of total net sales 13 % 11 % 9 % The year-over-year growth in Services net sales in 2017 was due primarily to increases in App Store and licensing sales. Services net sales in the fourth quarter of 2017 included a favorable one-time adjustment of $640 million due to a change in estimate based on the availability of additional supporting information. The year-over-year increase in Services net sales in 2016 was due primarily to growth from the App Store, licensing and AppleCare sales, partially offset by the effect of weakness in most foreign currencies relative to the U.S. dollar. During the first quarter of 2016, the Company received $548 million from Samsung Electronics Co., Ltd. related to its patent infringement lawsuit, which was recorded as licensing net sales within Services. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. Americas includes both North and South America. Europe includes European countries, as well as India, the Middle East and Africa. Greater China includes China, Hong Kong and Taiwan. Rest of Asia Pacific includes Australia and those Asian countries not included in the Company’s other reportable segments. Although the reportable segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable segments can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” Americas The following table presents Americas net sales information for 2017, 2016 and 2015 (dollars in millions): 2017 Change 2016 Change 2015 Net sales $ 96,600 12 % $ 86,613 (8 )% $ 93,864 Percentage of total net sales 42 % 40 % 40 % Americas net sales increased during 2017 compared to 2016 due primarily to higher net sales of iPhone, Services and Mac. Americas net sales decreased during 2016 compared to 2015 due primarily to lower net sales of iPhone. Europe The following table presents Europe net sales information for 2017, 2016 and 2015 (dollars in millions): 2017 Change 2016 Change 2015 Net sales $ 54,938 10 % $ 49,952 (1 )% $ 50,337 Percentage of total net sales 24 % 23 % 22 % Europe net sales increased during 2017 compared to 2016 due primarily to higher net sales of iPhone and Services. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Europe net sales during 2017 compared to 2016. Europe net sales decreased during 2016 compared to 2015 driven primarily by the effect of weakness in foreign currencies relative to the U.S. dollar and a decrease in net sales of Mac, largely offset by an increase in iPhone unit sales and Services. Apple Inc. | 2017 Form 10-K | 25 Greater China The following table presents Greater China net sales information for 2017, 2016 and 2015 (dollars in millions): 2017 Change 2016 Change 2015 Net sales $ 44,764 (8 )% $ 48,492 (17 )% $ 58,715 Percentage of total net sales 20 % 22 % 25 % Greater China net sales decreased during 2017 compared to 2016 due primarily to lower net sales of iPhone, partially offset by higher net sales of Services. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Greater China net sales during 2017 compared to 2016. Greater China net sales decreased during 2016 compared to 2015 due primarily to lower net sales of iPhone and the effect of weakness in foreign currencies relative to the U.S. dollar. Japan The following table presents Japan net sales information for 2017, 2016 and 2015 (dollars in millions): 2017 Change 2016 Change 2015 Net sales $ 17,733 5 % $ 16,928 8 % $ 15,706 Percentage of total net sales 8 % 8 % 7 % The year-over-year increase in Japan net sales in 2017 and 2016 was due primarily to higher net sales of Services and the strength in the Japanese yen relative to the U.S. dollar. Rest of Asia Pacific The following table presents Rest of Asia Pacific net sales information for 2017, 2016 and 2015 (dollars in millions): 2017 Change 2016 Change 2015 Net sales $ 15,199 11 % $ 13,654 (10 )% $ 15,093 Percentage of total net sales 7 % 6 % 6 % Rest of Asia Pacific net sales increased during 2017 compared to 2016 due primarily to higher net sales of iPhone, Services and Mac. The strength in foreign currencies relative to the U.S. dollar had a favorable impact on Rest of Asia Pacific net sales during 2017 compared to 2016. Rest of Asia Pacific net sales decreased during 2016 compared to 2015 due primarily to lower net sales of iPhone and the effect of weakness in foreign currencies relative to the U.S. dollar. Gross Margin Gross margin for 2017, 2016 and 2015 was as follows (dollars in millions): 2017 2016 2015 Net sales $ 229,234 $ 215,639 $ 233,715 Cost of sales 141,048 131,376 140,089 Gross margin $ 88,186 $ 84,263 $ 93,626 Gross margin percentage 38.5 % 39.1 % 40.1 % Gross margin percentage decreased in 2017 compared to 2016 due primarily to higher product costs, partially offset by a favorable shift in mix to services. Year-over-year gross margin increased due primarily to a shift in mix to services and an overall increase in product volumes. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on gross margin percentage and gross margin during 2017 compared to 2016. Gross margin percentage decreased in 2016 compared to 2015 due primarily to the effect of weakness in most foreign currencies relative to the U.S. dollar and, to a lesser extent, unfavorable leverage on fixed costs from lower net sales, partially offset by a favorable shift in mix to services. Apple Inc. | 2017 Form 10-K | 26 The Company anticipates gross margin percentage during the first quarter of 2018 to be between 38.0% and 38.5%. The foregoing statement regarding the Company’s expected gross margin percentage in the first quarter of 2018 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part I, Item 1A of this Form 10-K under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will remain under downward pressure due to a variety of factors, including continued industry-wide global product pricing pressures, increased competition, compressed product life cycles, product transitions, potential increases in the cost of components, and potential strengthening of the U.S. dollar, as well as potential increases in the costs of outside manufacturing services and a potential shift in the Company’s sales mix towards products with lower gross margins. In response to competitive pressures, the Company expects it will continue to take product pricing actions, which would adversely affect gross margins. Gross margins could also be affected by the Company’s ability to manage product quality and warranty costs effectively and to stimulate demand for certain of its products. Due to the Company’s significant international operations, its financial condition and operating results, including gross margins, could be significantly affected by fluctuations in exchange rates. Operating Expenses Operating expenses for 2017, 2016 and 2015 were as follows (dollars in millions): 2017 Change 2016 Change 2015 Research and development $ 11,581 15 % $ 10,045 25 % $ 8,067 Percentage of total net sales 5 % 5 % 3 % Selling, general and administrative $ 15,261 8 % $ 14,194 (1 )% $ 14,329 Percentage of total net sales 7 % 7 % 6 % Total operating expenses $ 26,842 11 % $ 24,239 8 % $ 22,396 Percentage of total net sales 12 % 11 % 10 % Research and Development The year-over-year growth in R&amp;D expense in 2017 and 2016 was driven primarily by increases in headcount-related expenses and material costs to support expanded R&amp;D activities. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The year-over-year growth in selling, general and administrative expense in 2017 compared to 2016 was driven primarily by an increase in headcount-related expenses, variable selling expenses and infrastructure-related costs. The decrease in selling, general and administrative expense in 2016 compared to 2015 was due primarily to lower discretionary expenditures and advertising costs, partially offset by an increase in headcount-related expenses. Other Income/(Expense), Net Other income/(expense), net for 2017, 2016 and 2015 was as follows (dollars in millions): 2017 Change 2016 Change 2015 Interest and dividend income $ 5,201 $ 3,999 $ 2,921 Interest expense (2,323 ) (1,456 ) (733 ) Other expense, net (133 ) (1,195 ) (903 ) Total other income/(expense), net $ 2,745 104 % $ 1,348 5 % $ 1,285 The year-over-year increase in other income/(expense), net during 2017 was due primarily to higher interest income and the favorable impact of foreign exchange-related items, partially offset by higher interest expense on debt. The year-over-year increase in other income/(expense), net during 2016 was due primarily to higher interest income, partially offset by higher interest expense on debt and the unfavorable impact of foreign exchange-related items. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 1.99%, 1.73% and 1.49% in 2017, 2016 and 2015, respectively. Apple Inc. | 2017 Form 10-K | 27 Provision for Income Taxes Provision for income taxes and effective tax rates for 2017, 2016 and 2015 were as follows (dollars in millions): 2017 2016 2015 Provision for income taxes $ 15,738 $ 15,685 $ 19,121 Effective tax rate 24.6 % 25.6 % 26.4 % The Company’s effective tax rates for 2017, 2016 and 2015 differ from the statutory federal income tax rate of 35% due primarily to certain undistributed foreign earnings, a substantial portion of which was generated by subsidiaries organized in Ireland, for which no U.S. taxes are provided when such earnings are intended to be indefinitely reinvested outside the U.S. The lower effective tax rate in 2017 compared to 2016 was due to a different geographic mix of earnings and higher U.S. R&amp;D tax credits. The lower effective tax rate in 2016 compared to 2015 was due primarily to greater R&amp;D tax credits. As of September 30, 2017, the Company had deferred tax assets arising from deductible temporary differences, tax losses and tax credits of $3.9 billion and deferred tax liabilities of $31.5 billion. Management believes it is more likely than not that forecasted income, including income that may be generated as a result of certain tax planning strategies, together with future reversals of existing taxable temporary differences, will be sufficient to fully recover the deferred tax assets. The Company will continue to evaluate the realizability of deferred tax assets quarterly by assessing the need for and the amount of a valuation allowance. The IRS concluded its review of the years 2010 through 2012 during the third quarter of 2017. All years prior to 2013 are closed, and the IRS is currently examining the years 2013 through 2015. The Company is also subject to audits by state, local and foreign tax authorities. In major states and major foreign jurisdictions, the years subsequent to 2003 generally remain open and could be subject to examination by the taxing authorities. Management believes that adequate provisions have been made for any adjustments that may result from tax examinations. However, the outcome of tax audits cannot be predicted with certainty. If any issues addressed in the Company’s tax audits are resolved in a manner not consistent with management’s expectations, the Company could be required to adjust its provision for income taxes in the period such resolution occurs. On August 30, 2016, the European Commission announced its decision that Ireland granted state aid to the Company by providing tax opinions in 1991 and 2007 concerning the tax allocation of profits of the Irish branches of two subsidiaries of the Company (the “State Aid Decision”). The State Aid Decision orders Ireland to calculate and recover additional taxes from the Company for the period June 2003 through December 2014. Irish legislative changes, effective as of January 2015, eliminated the application of the tax opinions from that date forward. The Company believes the State Aid Decision to be without merit and appealed to the General Court of the Court of Justice of the European Union. Ireland has also appealed the State Aid Decision. Although Ireland is still computing the recovery amount, the Company expects the amount to be in line with the European Commission’s announced recovery amount of €13 billion, plus interest of €1 billion. Once the recovery amount is finalized by Ireland, the Company anticipates funding it, including interest, out of foreign cash. These amounts are expected to be placed into escrow in 2018, where they will remain pending conclusion of all appeals. The Company believes that any incremental Irish corporate income taxes potentially due related to the State Aid Decision would be creditable against U.S. taxes. Recent Accounting Pronouncements Hedging In August 2017, the Financial Accounting Standards Board (“FASB”) issued Accounting Standards Update (“ASU”) No. 2017-12, Derivatives and Hedging (Topic 815): Targeted Improvements to Accounting for Hedging Activities (“ASU 2017-12”). ASU 2017-12 expands component and fair value hedging, specifies the presentation of the effects of hedging instruments, and eliminates the separate measurement and presentation of hedge ineffectiveness. The Company will adopt ASU 2017-12 in its first quarter of 2020 utilizing the modified retrospective transition method and is currently evaluating the impact of adoption on its consolidated financial statements. Restricted Cash In November 2016, the FASB issued ASU No. 2016-18, Statement of Cash Flows (Topic 230): Restricted Cash (“ASU 2016-18”), which enhances and clarifies the guidance on the classification and presentation of restricted cash in the statement of cash flows. The Company will adopt ASU 2016-18 in its first quarter of 2019 utilizing the retrospective transition method. Currently, the Company’s restricted cash balance is not significant. Apple Inc. | 2017 Form 10-K | 28 Income Taxes In October 2016, the FASB issued ASU No. 2016-16, Income Taxes (Topic 740): Intra-Entity Transfers of Assets Other Than Inventory (“ASU 2016-16”), which requires the recognition of the income tax consequences of an intra-entity transfer of an asset, other than inventory, when the transfer occurs. The Company will adopt ASU 2016-16 in its first quarter of 2019 utilizing the modified retrospective transition method. Currently, the Company anticipates recording up to $9 billion of net deferred tax assets on its Consolidated Balance Sheets upon adoption. However, the ultimate impact of adopting ASU 2016-16 will depend on the balance of intellectual property transferred between its subsidiaries as of the adoption date. The Company will recognize incremental deferred income tax expense thereafter as these deferred tax assets are utilized. Stock Compensation In March 2016, the FASB issued ASU No. 2016-09, Compensation – Stock Compensation (Topic 718): Improvements to Employee Share-Based Payment Accounting (“ASU 2016-09”), which modifies certain aspects of the accounting for share-based payment transactions, including income taxes, classification of awards, and classification in the statement of cash flows. The Company will adopt ASU 2016-09 in its first quarter of 2018. Currently, excess tax benefits or deficiencies from the Company’s equity awards are recorded as additional paid-in capital in its Consolidated Balance Sheets. Upon adoption, the Company will record any excess tax benefits or deficiencies from its equity awards in its Consolidated Statements of Operations in the reporting periods in which vesting occurs. As a result, subsequent to adoption the Company’s income tax expense and associated effective tax rate will be impacted by fluctuations in stock price between the grant dates and vesting dates of equity awards. Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. The Company will adopt ASU 2016-02 in its first quarter of 2020 utilizing the modified retrospective transition method. While the Company is currently evaluating the timing and impact of adopting ASU 2016-02, currently the Company anticipates recording lease assets and liabilities in excess of $9.5 billion on its Consolidated Balance Sheets, with no material impact to its Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company’s lease portfolio as of the adoption date. Financial Instruments In January 2016, the FASB issued ASU No. 2016-01, Financial Instruments – Overall (Subtopic 825-10): Recognition and Measurement of Financial Assets and Financial Liabilities (“ASU 2016-01”), which updates certain aspects of recognition, measurement, presentation and disclosure of financial instruments. The Company will adopt ASU 2016-01 in its first quarter of 2019 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, the adoption of ASU 2016-01 is not expected to have a material impact on its consolidated financial statements. In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses of certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective transition method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Revenue Recognition In May 2014, the FASB issued ASU No. 2014-09, Revenue from Contracts with Customers (Topic 606) (“ASU 2014-09”), which amends the existing accounting standards for revenue recognition. ASU 2014-09 is based on principles that govern the recognition of revenue at an amount an entity expects to be entitled when products are transferred to customers. Subsequently, the FASB has issued the following standards related to ASU 2014-09: ASU No. 2016-08, Revenue from Contracts with Customers (Topic 606): Principal versus Agent Considerations (“ASU 2016-08”); ASU No. 2016-10, Revenue from Contracts with Customers (Topic 606): Identifying Performance Obligations and Licensing (“ASU 2016-10”); ASU No. 2016-12, Revenue from Contracts with Customers (Topic 606): Narrow-Scope Improvements and Practical Expedients (“ASU 2016-12”); and ASU No. 2016-20, Technical Corrections and Improvements to Topic 606, Revenue from Contracts with Customers (“ASU 2016-20”). The Company must adopt ASU 2016-08, ASU 2016-10, ASU 2016-12 and ASU 2016-20 with ASU 2014-09 (collectively, the “new revenue standards”). The new revenue standards may be applied retrospectively to each prior period presented or retrospectively with the cumulative effect recognized as of the date of adoption. The Company will adopt the new revenue standards in its first quarter of 2019 utilizing the full retrospective transition method. The new revenue standards are not expected to have a material impact on the amount and timing of revenue recognized in the Company’s consolidated financial statements. Apple Inc. | 2017 Form 10-K | 29 Liquidity and Capital Resources The following table presents selected financial information and statistics as of and for the years ended September 30, 2017, September 24, 2016 and September 26, 2015 (in millions): 2017 2016 2015 Cash, cash equivalents and marketable securities $ 268,895 $ 237,585 $ 205,666 Property, plant and equipment, net $ 33,783 $ 27,010 $ 22,471 Commercial paper $ 11,977 $ 8,105 $ 8,499 Total term debt $ 103,703 $ 78,927 $ 55,829 Working capital $ 27,831 $ 27,863 $ 8,768 Cash generated by operating activities $ 63,598 $ 65,824 $ 81,266 Cash used in investing activities $ (46,446 ) $ (45,977 ) $ (56,274 ) Cash used in financing activities $ (17,347 ) $ (20,483 ) $ (17,716 ) The Company believes its existing balances of cash, cash equivalents and marketable securities will be sufficient to satisfy its working capital needs, capital asset purchases, outstanding commitments and other liquidity requirements associated with its existing operations over the next 12 months. The Company currently anticipates the cash used for future dividends, the share repurchase program and debt repayments will come from its current domestic cash, cash generated from ongoing U.S. operating activities and from borrowings. As of September 30, 2017 and September 24, 2016, the Company’s cash, cash equivalents and marketable securities held by foreign subsidiaries were $252.3 billion and $216.0 billion, respectively, and are generally based in U.S. dollar-denominated holdings. Amounts held by foreign subsidiaries are generally subject to U.S. income taxation on repatriation to the U.S. In connection with the State Aid Decision, Ireland is still computing the recovery amount. The Company expects the amount to be in line with the European Commission’s announced recovery amount of €13 billion, plus interest of €1 billion. Once the recovery amount is finalized by Ireland, the Company anticipates funding it, including interest, out of foreign cash. These amounts are expected to </t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10‑Q contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the Company’s Annual Report on Form 10-K for the year ended September 24, 2016 (the “2016 Form 10-K”) filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and notes thereto included elsewhere in this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company’s Annual Report on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the SEC. The Company is subject to the informational requirements of the Exchange Act and files or furnishes reports, proxy statements, and other information with the SEC. Such reports and other information filed by the Company with the SEC are available free of charge on the Company’s website at investor.apple.com/sec.cfm when such reports are available on the SEC’s website. The public may read and copy any materials filed by the Company with the SEC at the SEC’s Public Reference Room at 100 F Street, NE, Room 1580, Washington, DC 20549. The public may obtain information on the operation of the Public Reference Room by calling the SEC at 1-800-SEC-0330. The SEC maintains an internet site that contains reports, proxy and information statements and other information regarding issuers that file electronically with the SEC at www.sec.gov. The contents of websites are not incorporated into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices and personal computers, and sells a variety of related software, services, accessories, networking solutions and third-party digital content and applications. The Company’s products and services include iPhone®, iPad®, Mac®, Apple Watch®, Apple TV®, a portfolio of consumer and professional software applications, iOS, macOS®, watchOS® and tvOS™ operating systems, iCloud®, Apple Pay® and a variety of accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store®, App Store®, Mac App Store, TV App Store, iBooks Store® and Apple Music® (collectively “Digital Content and Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and value-added resellers. In addition, the Company sells a variety of third-party Apple-compatible products, including application software and various accessories through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Business Strategy The Company is committed to bringing the best user experience to its customers through its innovative hardware, software and services. The Company’s business strategy leverages its unique ability to design and develop its own operating systems, hardware, application software and services to provide its customers products and solutions with innovative design, superior ease-of-use and seamless integration. As part of its strategy, the Company continues to expand its platform for the discovery and delivery of digital content and applications through its Digital Content and Services, which allows customers to discover and download digital content, iOS, Mac, Apple Watch and Apple TV applications, and books through either a Mac or Windows personal computer or through iPhone, iPad and iPod touch® devices (“iOS devices”), Apple TV and Apple Watch. The Company also supports a community for the development of third-party software and hardware products and digital content that complement the Company’s offerings. The Company believes a high-quality buying experience with knowledgeable salespersons who can convey the value of the Company’s products and services greatly enhances its ability to attract and retain customers. Therefore, the Company’s strategy also includes building and expanding its own retail and online stores and its third-party distribution network to effectively reach more customers and provide them with a high-quality sales and post-sales support experience. The Company believes ongoing investment in research and development (“R&amp;D”), marketing and advertising is critical to the development and sale of innovative products, services and technologies. Apple Inc. | Q3 2017 Form 10-Q | 21 Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product introductions can significantly impact net sales, product costs and operating expenses. Product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new product inventory following a product introduction, and often, channel inventory of a particular product declines as the next related major product launch approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. However, neither historical seasonal patterns nor historical patterns of product introductions should be considered reliable indicators of the Company’s future pattern of product introductions, future net sales or financial performance. Fiscal Period The Company’s fiscal year is the 52 or 53-week period that ends on the last Saturday of September. The Company’s fiscal year 2017 will include 53 weeks and will end on September 30, 2017. A 14th week was included in the first quarter of 2017, as is done every five or six years, to realign the Company’s fiscal quarters with calendar quarters. Third Quarter Fiscal 2017 Highlights Net sales increased 7% or $3.1 billion during the third quarter of 2017 compared to the same quarter in 2016, primarily driven by growth in Services, iPhone and Other Products. The year-over-year increase in net sales reflected growth in each of the geographic operating segments, with the exception of Greater China. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on net sales during the third quarter of 2017 compared to the same quarter in 2016. During the third quarter of 2017, the Company began shipping a new 10.5-inch iPad Pro® and an updated 12.9-inch iPad Pro, as well as updated versions of iMac®, MacBook®, MacBook Air® and MacBook® Pro computers. The Company also previewed its new iMac Pro™ and HomePod™ wireless speaker, both of which are expected to be available in December 2017. Additionally, the Company announced updates to its operating systems iOS 11, macOS High Sierra and watchOS 4, all of which are expected to be available in the fall of 2017. The Company utilized $7.5 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $3.4 billion during the third quarter of 2017. Additionally, the Company issued $8.0 billion of U.S. dollar-denominated and €2.5 billion of euro-denominated long-term debt. Apple Inc. | Q3 2017 Form 10-Q | 22 Sales Data The following table shows net sales by operating segment and net sales and unit sales by product for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 (dollars in millions and units in thousands): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 Change July 1, 2017 June 25, 2016 Change Net Sales by Operating Segment: Americas $ 20,376 $ 17,963 13 % $ 73,501 $ 66,384 11 % Europe 10,675 9,643 11 % 41,929 39,110 7 % Greater China 8,004 8,848 (10 )% 34,963 39,707 (12 )% Japan 3,624 3,529 3 % 13,875 12,604 10 % Rest of Asia Pacific 2,729 2,375 15 % 12,387 10,982 13 % Total net sales $ 45,408 $ 42,358 7 % $ 176,655 $ 168,787 5 % Net Sales by Product: iPhone (1) $ 24,846 $ 24,048 3 % $ 112,473 $ 108,540 4 % iPad (1) 4,969 4,876 2 % 14,391 16,373 (12 )% Mac (1) 5,592 5,239 7 % 18,680 17,092 9 % Services (2) 7,266 5,976 22 % 21,479 18,023 19 % Other Products (1)(3) 2,735 2,219 23 % 9,632 8,759 10 % Total net sales $ 45,408 $ 42,358 7 % $ 176,655 $ 168,787 5 % Unit Sales by Product: iPhone 41,026 40,399 2 % 170,079 166,371 2 % iPad 11,424 9,950 15 % 33,427 36,323 (8 )% Mac 4,292 4,252 1 % 13,865 13,598 2 % (1)Includes deferrals and amortization of related software upgrade rights and non-software services. (2)Includes revenue from Digital Content and Services, AppleCare®, Apple Pay, licensing and other services. (3)Includes sales of Apple TV, Apple Watch, Beats® products, iPod and Apple-branded and third-party accessories. Apple Inc. | Q3 2017 Form 10-Q | 23 Product Performance iPhone The following table presents iPhone net sales and unit sales information for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 (dollars in millions and units in thousands): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 Change July 1, 2017 June 25, 2016 Change Net sales $ 24,846 $ 24,048 3 % $ 112,473 $ 108,540 4 % Percentage of total net sales 55 % 57 % 64 % 64 % Unit sales 41,026 40,399 2 % 170,079 166,371 2 % iPhone net sales increased during the third quarter and first nine months of 2017 compared to the same periods in 2016 due to higher iPhone unit sales and a different mix of iPhones with higher average selling prices. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on iPhone net sales during the third quarter and first nine months of 2017 compared to the same periods in 2016. iPad The following table presents iPad net sales and unit sales information for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 (dollars in millions and units in thousands): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 Change July 1, 2017 June 25, 2016 Change Net sales $ 4,969 $ 4,876 2 % $ 14,391 $ 16,373 (12 )% Percentage of total net sales 11 % 12 % 8 % 10 % Unit sales 11,424 9,950 15 % 33,427 36,323 (8 )% iPad net sales increased during the third quarter of 2017 compared to the same period in 2016 due primarily to higher iPad unit sales, partially offset by lower iPad average selling prices. The year-over-year decrease in iPad net sales during the first nine months of 2017 was due primarily to lower iPad unit sales and a different mix of iPads with lower average selling prices. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on iPad net sales during the third quarter and first nine months of 2017 compared to the same periods in 2016. Mac The following table presents Mac net sales and unit sales information for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 (dollars in millions and units in thousands): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 Change July 1, 2017 June 25, 2016 Change Net sales $ 5,592 $ 5,239 7 % $ 18,680 $ 17,092 9 % Percentage of total net sales 12 % 12 % 11 % 10 % Unit sales 4,292 4,252 1 % 13,865 13,598 2 % Mac net sales increased during the third quarter and first nine months of 2017 compared to the same periods in 2016 due primarily to a different mix of Macs with higher average selling prices, including the new MacBook Pro introduced in the first quarter of 2017, and to a lesser extent higher Mac unit sales. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Mac net sales during the third quarter and first nine months of 2017 compared to the same periods in 2016. Apple Inc. | Q3 2017 Form 10-Q | 24 Services The following table presents Services net sales information for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 (dollars in millions): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 Change July 1, 2017 June 25, 2016 Change Net sales $ 7,266 $ 5,976 22 % $ 21,479 $ 18,023 19 % Percentage of total net sales 16 % 14 % 12 % 11 % The increase in Services net sales in the third quarter and first nine months of 2017 compared to the same periods in 2016 was due primarily to growth from the App Store and licensing sales. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable operating segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, as well as India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and those Asian countries not included in the Company’s other reportable operating segments. Although the reportable operating segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable operating segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” Americas The following table presents Americas net sales information for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 (dollars in millions): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 Change July 1, 2017 June 25, 2016 Change Net sales $ 20,376 $ 17,963 13 % $ 73,501 $ 66,384 11 % Percentage of total net sales 45 % 42 % 42 % 39 % Americas net sales increased during the third quarter of 2017 compared to the same period in 2016 due primarily to higher net sales of iPhone, Services and Other Products. The year-over-year increase in Americas net sales during the first nine months of 2017 was due primarily to higher net sales of iPhone and Services. Europe The following table presents Europe net sales information for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 (dollars in millions): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 Change July 1, 2017 June 25, 2016 Change Net sales $ 10,675 $ 9,643 11 % $ 41,929 $ 39,110 7 % Percentage of total net sales 24 % 23 % 24 % 23 % Europe net sales increased during the third quarter and first nine months of 2017 compared to the same periods in 2016 due primarily to higher net sales of iPhone and Services. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Europe net sales during the third quarter and first nine months of 2017 compared to the same periods in 2016. Apple Inc. | Q3 2017 Form 10-Q | 25 Greater China The following table presents Greater China net sales information for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 (dollars in millions): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 Change July 1, 2017 June 25, 2016 Change Net sales $ 8,004 $ 8,848 (10 )% $ 34,963 $ 39,707 (12 )% Percentage of total net sales 18 % 21 % 20 % 24 % Greater China net sales decreased during the third quarter and first nine months of 2017 compared to the same periods in 2016 due primarily to lower net sales of iPhone, partially offset by growth in net sales of Services. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on Greater China net sales during the third quarter and first nine months of 2017 compared to the same periods in 2016. Japan The following table presents Japan net sales information for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 (dollars in millions): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 Change July 1, 2017 June 25, 2016 Change Net sales $ 3,624 $ 3,529 3 % $ 13,875 $ 12,604 10 % Percentage of total net sales 8 % 8 % 8 % 7 % Japan net sales increased during the third quarter of 2017 compared to the same period in 2016 due primarily to higher net sales of Services and iPad, partially offset by lower net sales of iPhone. The year-over-year increase in Japan net sales during the first nine months of 2017 was due primarily to the growth in net sales of Services and iPhone. The strength in the Japanese yen relative to the U.S. dollar had a favorable impact on Japan net sales during the first nine months of 2017 compared to the same period in 2016. Rest of Asia Pacific The following table presents Rest of Asia Pacific net sales information for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 (dollars in millions): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 Change July 1, 2017 June 25, 2016 Change Net sales $ 2,729 $ 2,375 15 % $ 12,387 $ 10,982 13 % Percentage of total net sales 6 % 6 % 7 % 7 % Rest of Asia Pacific net sales increased during the third quarter and first nine months of 2017 compared to the same periods in 2016 due primarily to higher net sales of iPhone and Services. The strength in foreign currencies relative to the U.S. dollar had a favorable impact on Rest of Asia Pacific net sales during the third quarter and first nine months of 2017 compared to the same periods in 2016. Apple Inc. | Q3 2017 Form 10-Q | 26 Gross Margin Gross margin for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 was as follows (dollars in millions): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 July 1, 2017 June 25, 2016 Net sales $ 45,408 $ 42,358 $ 176,655 $ 168,787 Cost of sales 27,920 26,252 108,400 102,337 Gross margin $ 17,488 $ 16,106 $ 68,255 $ 66,450 Gross margin percentage 38.5 % 38.0 % 38.6 % 39.4 % Gross margin percentage increased during the third quarter of 2017 compared to the same quarter of 2016 driven primarily by a favorable shift in mix to Services, partially offset by higher product cost structures. The year-over-year decrease in gross margin percentage during the first nine months of 2017 was due primarily to higher product cost structures, partially offset by a favorable mix of products and services. The weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on gross margin percentage during the third quarter and first nine months of 2017 compared to the same periods in 2016. The Company anticipates gross margin percentage during the fourth quarter of 2017 to be between 37.5% and 38.0%. The foregoing statement regarding the Company’s expected gross margin percentage in the fourth quarter of 2017 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will remain under downward pressure due to a variety of factors, including continued industry-wide global product pricing pressures, increased competition, compressed product life cycles, product transitions, potential increases in the cost of components, and potential strengthening of the U.S. dollar, as well as potential increases in the costs of outside manufacturing services and a potential shift in the Company’s sales mix towards products with lower gross margins. In response to competitive pressures, the Company expects it will continue to take product pricing actions, which would adversely affect gross margins. Gross margins could also be affected by the Company’s ability to manage product quality and warranty costs effectively and to stimulate demand for certain of its products. Due to the Company’s significant international operations, its financial condition and operating results, including gross margins, could be significantly affected by fluctuations in exchange rates. Operating Expenses Operating expenses for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 were as follows (dollars in millions): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 July 1, 2017 June 25, 2016 Research and development $ 2,937 $ 2,560 $ 8,584 $ 7,475 Percentage of total net sales 6 % 6 % 5 % 4 % Selling, general and administrative $ 3,783 $ 3,441 $ 11,447 $ 10,712 Percentage of total net sales 8 % 8 % 6 % 6 % Total operating expenses $ 6,720 $ 6,001 $ 20,031 $ 18,187 Percentage of total net sales 15 % 14 % 11 % 11 % Research and Development The growth in R&amp;D expense during the third quarter and first nine months of 2017 compared to the same periods in 2016 was driven primarily by an increase in headcount-related expenses to support expanded R&amp;D activities. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products and services that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the third quarter and first nine months of 2017 compared to the same periods in 2016 was driven primarily by an increase in headcount-related expenses and higher variable selling expenses. Apple Inc. | Q3 2017 Form 10-Q | 27 Other Income/(Expense), Net Other income/(expense), net for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 was as follows (dollars in millions): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 Change July 1, 2017 June 25, 2016 Change Interest and dividend income $ 1,327 $ 1,036 $ 3,833 $ 2,963 Interest expense (602 ) (409 ) (1,657 ) (1,006 ) Other expense, net (185 ) (263 ) (228 ) (1,036 ) Total other income/(expense), net $ 540 $ 364 48 % $ 1,948 $ 921 112 % The increase in other income/(expense), net during the third quarter and first nine months of 2017 compared to the same periods in 2016 was due primarily to higher interest income and the favorable impact of foreign exchange-related items, partially offset by higher interest expense on debt. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 2.03% and 1.77% in the third quarter of 2017 and 2016, respectively, and 1.96% and 1.72% in the first nine months of 2017 and 2016, respectively. Provision for Income Taxes Provision for income taxes and effective tax rates for the three- and nine-month periods ended July 1, 2017 and June 25, 2016 were as follows (dollars in millions): Three Months Ended Nine Months Ended July 1, 2017 June 25, 2016 July 1, 2017 June 25, 2016 Provision for income taxes $ 2,591 $ 2,673 $ 12,535 $ 12,511 Effective tax rate 22.9 % 25.5 % 25.0 % 25.4 % The Company’s effective tax rates during the third quarter and first nine months of 2017 and 2016 differ from the statutory federal income tax rate of 35% due primarily to certain undistributed foreign earnings, a substantial portion of which was generated by subsidiaries organized in Ireland, for which no U.S. taxes are provided when such earnings are intended to be indefinitely reinvested outside the U.S. The lower effective tax rates during the third quarter and first nine months of 2017 compared to the same periods in 2016 were due to higher U.S. R&amp;D credits, in part as a result of the resolution of the U.S. Internal Revenue Service (“IRS”) audit of years 2010 through 2012. The IRS concluded its review of the years 2010 through 2012 during the third quarter of 2017. All years prior to 2013 are closed, and the IRS is currently examining the years 2013 through 2015. The Company is subject to audits by federal, state, local and foreign tax authorities. Management believes that adequate provisions have been made for any adjustments that may result from tax examinations. However, the outcome of tax audits cannot be predicted with certainty. If any issues addressed in the Company’s tax audits are resolved in a manner not consistent with management’s expectations, the Company could be required to adjust its provision for income taxes in the period such resolution occurs. On August 30, 2016, the European Commission announced its decision that Ireland granted state aid to the Company by providing tax opinions in 1991 and 2007 concerning the tax allocation of profits of the Irish branches of two subsidiaries of the Company (the “State Aid Decision”). The State Aid Decision orders Ireland to calculate and recover additional taxes from the Company for the period June 2003 through December 2014. Irish legislative changes, effective as of January 2015, eliminated the application of the tax opinions from that date forward. The Company believes the State Aid Decision to be without merit and appealed to the General Court of the Court of Justice of the European Union. Ireland has also appealed the State Aid Decision. While the European Commission announced a recovery amount of up to €13 billion, plus interest, the actual amount of additional taxes subject to recovery is to be calculated by Ireland in accordance with the European Commission’s guidance. Once the recovery amount is computed by Ireland, the Company anticipates funding it, including interest, out of foreign cash into escrow, where it will remain pending conclusion of all appeals. The Company believes that any incremental Irish corporate income taxes potentially due related to the State Aid Decision would be creditable against U.S. taxes. Apple Inc. | Q3 2017 Form 10-Q | 28 Recent Accounting Pronouncements Restricted Cash In November 2016, the Financial Accounting Standards Board (“FASB”) issued Accounting Standards Update (“ASU”) No. 2016-18, Statement of Cash Flows (Topic 230): Restricted Cash (“ASU 2016-18”), which enhances and clarifies the guidance on the classification and presentation of restricted cash in the statement of cash flows. The Company will adopt ASU 2016-18 in its first quarter of 2019 utilizing the retrospective adoption method. Currently, the Company’s restricted cash balance is not significant. Income Taxes In October 2016, the FASB issued ASU No. 2016-16, Income Taxes (Topic 740): Intra-Entity Transfers of Assets Other Than Inventory (“ASU 2016-16”), which requires the recognition of the income tax consequences of an intra-entity transfer of an asset, other than inventory, when the transfer occurs. The Company will adopt ASU 2016-16 in its first quarter of 2019 utilizing the modified retrospective adoption method. Currently, the Company anticipates recording up to $9 billion of net deferred tax assets on its Consolidated Balance Sheets. However, the ultimate impact of adopting ASU 2016-16 will depend on the balance of intellectual property transferred between its subsidiaries as of the adoption date. The Company will recognize incremental deferred income tax expense thereafter as these deferred tax assets are utilized. Stock Compensation In March 2016, the FASB issued ASU No. 2016-09, Compensation – Stock Compensation (Topic 718): Improvements to Employee Share-Based Payment Accounting (“ASU 2016-09”), which modifies certain aspects of the accounting for share-based payment transactions, including income taxes, classification of awards, and classification in the statement of cash flows. The Company will adopt ASU 2016-09 in its first quarter of 2018. Currently, excess tax benefits or deficiencies from the Company’s equity awards are recorded as additional paid-in capital in its Consolidated Balance Sheets. Upon adoption, the Company will record any excess tax benefits or deficiencies from its equity awards in its Consolidated Statements of Operations in the reporting periods in which vesting occurs. As a result, subsequent to adoption the Company’s income tax expense and associated effective tax rate will be impacted by fluctuations in stock price between the grant dates and vesting dates of equity awards. Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. ASU 2016-02 will be effective for the Company beginning in its first quarter of 2020, and early adoption is permitted. The Company will use a modified retrospective adoption approach. While the Company is currently evaluating the timing and impact of adopting ASU 2016-02, currently the Company anticipates recording lease assets and liabilities in excess of $8.5 billion on its Consolidated Balance Sheets, with no material impact to its Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company’s lease portfolio as of the adoption date. Financial Instruments In January 2016, the FASB issued ASU No. 2016-01, Financial Instruments – Overall (Subtopic 825-10): Recognition and Measurement of Financial Assets and Financial Liabilities (“ASU 2016-01”), which updates certain aspects of recognition, measurement, presentation and disclosure of financial instruments. The Company will adopt ASU 2016-01 in its first quarter of 2019 utilizing the modified retrospective adoption method. Based on the composition of the Company’s investment portfolio, the adoption of ASU 2016-01 is not expected to have a material impact on its consolidated financial statements. In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses of certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective adoption method. Based on the composition of the Company’s investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Revenue Recognition In May 2014, the FASB issued ASU No. 2014-09, Revenue from Contracts with Customers (Topic 606) (“ASU 2014-09”), which amends the existing accounting standards for revenue recognition. ASU 2014-09 is based on principles that govern the recognition of revenue at an amount an entity expects to be entitled when products are transferred to customers. Apple Inc. | Q3 2017 Form 10-Q | 29 Subsequently, the FASB has issued the following standards related to ASU 2014-09: ASU No. 2016-08, Revenue from Contracts with Customers (Topic 606): Principal versus Agent Considerations (“ASU 2016-08”); ASU No. 2016-10, Revenue from Contracts with Customers (Topic 606): Identifying Performance Obligations and Licensing (“ASU 2016-10”); ASU No. 2016-12, Revenue from Contracts with Customer</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10‑Q contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the Company’s Annual Report on Form 10-K for the year ended September 24, 2016 (the “2016 Form 10-K”) filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and notes thereto included elsewhere in this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company’s Annual Report on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the SEC. The Company is subject to the informational requirements of the Exchange Act and files or furnishes reports, proxy statements, and other information with the SEC. Such reports and other information filed by the Company with the SEC are available free of charge on the Company’s website at investor.apple.com/sec.cfm when such reports are available on the SEC’s website. The public may read and copy any materials filed by the Company with the SEC at the SEC’s Public Reference Room at 100 F Street, NE, Room 1580, Washington, DC 20549. The public may obtain information on the operation of the Public Reference Room by calling the SEC at 1-800-SEC-0330. The SEC maintains an internet site that contains reports, proxy and information statements and other information regarding issuers that file electronically with the SEC at www.sec.gov. The contents of websites are not incorporated into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices and personal computers, and sells a variety of related software, services, accessories, networking solutions and third-party digital content and applications. The Company’s products and services include iPhone®, iPad®, Mac®, Apple Watch®, Apple TV®, a portfolio of consumer and professional software applications, iOS, macOS®, watchOS® and tvOS™ operating systems, iCloud®, Apple Pay® and a variety of accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store®, App Store®, Mac App Store, TV App Store, iBooks Store™ and Apple Music® (collectively “Digital Content and Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and value-added resellers. In addition, the Company sells a variety of third-party Apple-compatible products, including application software and various accessories through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Business Strategy The Company is committed to bringing the best user experience to its customers through its innovative hardware, software and services. The Company’s business strategy leverages its unique ability to design and develop its own operating systems, hardware, application software and services to provide its customers products and solutions with innovative design, superior ease-of-use and seamless integration. As part of its strategy, the Company continues to expand its platform for the discovery and delivery of digital content and applications through its Digital Content and Services, which allows customers to discover and download digital content, iOS, Mac, Apple Watch and Apple TV applications, and books through either a Mac or Windows personal computer or through iPhone, iPad and iPod touch® devices (“iOS devices”), Apple TV and Apple Watch. The Company also supports a community for the development of third-party software and hardware products and digital content that complement the Company’s offerings. The Company believes a high-quality buying experience with knowledgeable salespersons who can convey the value of the Company’s products and services greatly enhances its ability to attract and retain customers. Therefore, the Company’s strategy also includes building and expanding its own retail and online stores and its third-party distribution network to effectively reach more customers and provide them with a high-quality sales and post-sales support experience. The Company believes ongoing investment in research and development (“R&amp;D”), marketing and advertising is critical to the development and sale of innovative products and technologies. 23 Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product introductions can significantly impact net sales, product costs and operating expenses. Product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new product inventory following a product introduction, and often, channel inventory of a particular product declines as the next related major product launch approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. However, neither historical seasonal patterns nor historical patterns of product introductions should be considered reliable indicators of the Company’s future pattern of product introductions, future net sales or financial performance. Fiscal Period The Company’s fiscal year is the 52 or 53-week period that ends on the last Saturday of September. The Company’s fiscal year 2017 will include 53 weeks and will end on September 30, 2017. A 14th week was included in the first quarter of 2017, as is done every five or six years, to realign the Company’s fiscal quarters with calendar quarters. Second Quarter Fiscal 2017 Highlights Net sales increased 5% or $2.3 billion during the second quarter of 2017 compared to the same quarter in 2016, primarily driven by strong growth in Services, Mac and Other Products, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar. Net sales reflected year-over-year growth in each of the geographic operating segments, with the exception of Greater China. During the second quarter of 2017, the Company introduced a new 9.7-inch iPad, which became available at the end of the quarter. The Company utilized $7.0 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $3.0 billion during the second quarter of 2017. Additionally, the Company issued $11.0 billion of U.S. dollar-denominated long-term debt. Sales Data The following table shows net sales by operating segment and net sales and unit sales by product for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions and units in thousands): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net Sales by Operating Segment: Americas $ 21,157 $ 19,096 11 % $ 53,125 $ 48,421 10 % Europe 12,733 11,535 10 % 31,254 29,467 6 % Greater China 10,726 12,486 (14 )% 26,959 30,859 (13 )% Japan 4,485 4,281 5 % 10,251 9,075 13 % Rest of Asia Pacific 3,795 3,159 20 % 9,658 8,607 12 % Total net sales $ 52,896 $ 50,557 5 % $ 131,247 $ 126,429 4 % Net Sales by Product: iPhone (1) $ 33,249 $ 32,857 1 % $ 87,627 $ 84,492 4 % iPad (1) 3,889 4,413 (12 )% 9,422 11,497 (18 )% Mac (1) 5,844 5,107 14 % 13,088 11,853 10 % Services (2) 7,041 5,991 18 % 14,213 12,047 18 % Other Products (1)(3) 2,873 2,189 31 % 6,897 6,540 5 % Total net sales $ 52,896 $ 50,557 5 % $ 131,247 $ 126,429 4 % Unit Sales by Product: iPhone 50,763 51,193 (1 )% 129,053 125,972 2 % iPad 8,922 10,251 (13 )% 22,003 26,373 (17 )% Mac 4,199 4,034 4 % 9,573 9,346 2 % (1)Includes deferrals and amortization of related software upgrade rights and non-software services. (2)Includes revenue from Digital Content and Services, AppleCare®, Apple Pay, licensing and other services. (3)Includes sales of Apple TV, Apple Watch, Beats® products, iPod and Apple-branded and third-party accessories. 24 Product Performance iPhone The following table presents iPhone net sales and unit sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions and units in thousands): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 33,249 $ 32,857 1 % $ 87,627 $ 84,492 4 % Percentage of total net sales 63 % 65 % 67 % 67 % Unit sales 50,763 51,193 (1 )% 129,053 125,972 2 % iPhone net sales increased during the second quarter of 2017 compared to the same period in 2016 due to higher iPhone average selling prices (“ASPs”), largely offset by the effect of weakness in foreign currencies relative to the U.S. dollar. The year-over-year increase in iPhone net sales during the first six months of 2017 was due primarily to higher iPhone unit sales and to a lesser extent higher iPhone ASPs, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar. iPad The following table presents iPad net sales and unit sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions and units in thousands): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 3,889 $ 4,413 (12 )% $ 9,422 $ 11,497 (18 )% Percentage of total net sales 7 % 9 % 7 % 9 % Unit sales 8,922 10,251 (13 )% 22,003 26,373 (17 )% iPad net sales decreased in the second quarter and first six months of 2017 compared to the same periods in 2016 due primarily to lower iPad unit sales in each of the geographic operating segments and to a lesser extent the effect of weakness in foreign currencies relative to the U.S. dollar. Mac The following table presents Mac net sales and unit sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions and units in thousands): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 5,844 $ 5,107 14 % $ 13,088 $ 11,853 10 % Percentage of total net sales 11 % 10 % 10 % 9 % Unit sales 4,199 4,034 4 % 9,573 9,346 2 % Mac net sales increased during the second quarter and first six months of 2017 compared to the same periods in 2016 due primarily to a different mix of Macs, including the new MacBook Pro introduced in the first quarter of 2017, and to a lesser extent higher Mac unit sales. The year-over-year increase in Mac net sales was partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar. 25 Services The following table presents Services net sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 7,041 $ 5,991 18 % $ 14,213 $ 12,047 18 % Percentage of total net sales 13 % 12 % 11 % 10 % The year-over-year increase in Services net sales in the second quarter and first six months of 2017 compared to the same periods in 2016 was due primarily to growth from the App Store and licensing sales. The year-over-year increase in Services net sales during the first six months of 2017 was partially offset by the non-recurrence of the $548 million received from Samsung Electronics Co., Ltd. in the first quarter of 2016 related to patent infringement matters. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable operating segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, as well as India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and those Asian countries not included in the Company’s other reportable operating segments. Although the reportable operating segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable operating segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements, in Note 11, “Segment Information and Geographic Data.” Americas The following table presents Americas net sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 21,157 $ 19,096 11 % $ 53,125 $ 48,421 10 % Percentage of total net sales 40 % 38 % 40 % 38 % Americas net sales increased during the second quarter of 2017 compared to the same period in 2016 due primarily to higher net sales of iPhone and Other Products. The year-over-year increase in Americas net sales during the first six months of 2017 was due primarily to higher net sales of iPhone and Mac, partially offset by lower net sales of iPad. Europe The following table presents Europe net sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 12,733 $ 11,535 10 % $ 31,254 $ 29,467 6 % Percentage of total net sales 24 % 23 % 24 % 23 % Europe net sales increased during the second quarter of 2017 compared to the same period in 2016 due primarily to higher net sales of iPhone and Mac, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar. The year-over-year increase in Europe net sales during the first six months of 2017 was due primarily to higher net sales of iPhone and Services, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar and to a lesser extent lower net sales of iPad. 26 Greater China The following table presents Greater China net sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 10,726 $ 12,486 (14 )% $ 26,959 $ 30,859 (13 )% Percentage of total net sales 20 % 25 % 21 % 24 % Greater China net sales decreased during the second quarter and first six months of 2017 compared to the same periods in 2016 due primarily to lower net sales of iPhone and the effect of weakness in foreign currencies relative to the U.S. dollar, partially offset by growth in net sales of Services. Japan The following table presents Japan net sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 4,485 $ 4,281 5 % $ 10,251 $ 9,075 13 % Percentage of total net sales 8 % 8 % 8 % 7 % Japan net sales increased during the second quarter of 2017 compared to the same period in 2016 due primarily to higher net sales of Services and the effect of strength in the Japanese yen relative to the U.S. dollar. The year-over-year increase in Japan net sales during the first six months of 2017 was due primarily to the effect of strength in the Japanese yen relative to the U.S. dollar and growth in net sales of iPhone. Rest of Asia Pacific The following table presents Rest of Asia Pacific net sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 3,795 $ 3,159 20 % $ 9,658 $ 8,607 12 % Percentage of total net sales 7 % 6 % 7 % 7 % Rest of Asia Pacific net sales increased during the second quarter of 2017 compared to the same period in 2016 due primarily to higher net sales of iPhone and Mac. The year-over-year increase in Rest of Asia Pacific net sales during the first six months of 2017 was due primarily to higher net sales of iPhone and the effect of strength in foreign currencies relative to the U.S. dollar. Gross Margin Gross margin for the three- and six-month periods ended April 1, 2017 and March 26, 2016 was as follows (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 April 1, 2017 March 26, 2016 Net sales $ 52,896 $ 50,557 $ 131,247 $ 126,429 Cost of sales 32,305 30,636 80,480 76,085 Gross margin $ 20,591 $ 19,921 $ 50,767 $ 50,344 Gross margin percentage 38.9 % 39.4 % 38.7 % 39.8 % Gross margin decreased during the second quarter and first six months of 2017 compared to the same periods in 2016 due primarily to higher product cost structures and the effect of weakness in foreign currencies relative to the U.S. dollar, partially offset by a favorable mix of products and services. 27 The Company anticipates gross margin during the third quarter of 2017 to be between 37.5% and 38.5%. The foregoing statement regarding the Company’s expected gross margin percentage in the third quarter of 2017 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will remain under downward pressure due to a variety of factors, including continued industry-wide global product pricing pressures, increased competition, compressed product life cycles, product transitions, potential increases in the cost of components, and potential strengthening of the U.S. dollar, as well as potential increases in the costs of outside manufacturing services and a potential shift in the Company’s sales mix towards products with lower gross margins. In response to competitive pressures, the Company expects it will continue to take product pricing actions, which would adversely affect gross margins. Gross margins could also be affected by the Company’s ability to manage product quality and warranty costs effectively and to stimulate demand for certain of its products. Due to the Company’s significant international operations, its financial condition and operating results, including gross margins, could be significantly affected by fluctuations in exchange rates. Operating Expenses Operating expenses for the three- and six-month periods ended April 1, 2017 and March 26, 2016 were as follows (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 April 1, 2017 March 26, 2016 Research and development $ 2,776 $ 2,511 $ 5,647 $ 4,915 Percentage of total net sales 5 % 5 % 4 % 4 % Selling, general and administrative $ 3,718 $ 3,423 $ 7,664 $ 7,271 Percentage of total net sales 7 % 7 % 6 % 6 % Total operating expenses $ 6,494 $ 5,934 $ 13,311 $ 12,186 Percentage of total net sales 12 % 12 % 10 % 10 % Research and Development The growth in R&amp;D expense during the second quarter and first six months of 2017 compared to the same periods in 2016 was driven primarily by an increase in headcount and related expenses to support expanded R&amp;D activities. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the second quarter of 2017 compared to the same quarter in 2016 was driven primarily by an increase in headcount and related expenses and higher spending on marketing and advertising. The year-over-year growth in selling, general and administrative expense during the first six months of 2017 was driven primarily by an increase in headcount and related expenses and higher variable selling costs. Other Income/(Expense), Net Other income/(expense), net for the three- and six-month periods ended April 1, 2017 and March 26, 2016 was as follows (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Interest and dividend income $ 1,282 $ 986 $ 2,506 $ 1,927 Interest expense (530 ) (321 ) (1,055 ) (597 ) Other expense, net (165 ) (510 ) (43 ) (773 ) Total other income/(expense), net $ 587 $ 155 279 % $ 1,408 $ 557 153 % The increase in other income/(expense), net during the second quarter and first six months of 2017 compared to the same periods in 2016 was due primarily to higher interest income and the favorable impact of foreign exchange-related items, partially offset by higher interest expense on debt. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 1.99% and 1.74% in the second quarter of 2017 and 2016, respectively, and 1.93% and 1.70% in the first six months of 2017 and 2016, respectively. Provision for Income Taxes Provision for income taxes and effective tax rates for the three- and six-month periods ended April 1, 2017 and March 26, 2016 were as follows (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 April 1, 2017 March 26, 2016 Provision for income taxes $ 3,655 $ 3,626 $ 9,944 $ 9,838 Effective tax rate 24.9 % 25.6 % 25.6 % 25.4 % The Company’s effective tax rates during the second quarter of 2017 and 2016 differ from the statutory federal income tax rate of 35% due primarily to certain undistributed foreign earnings, a substantial portion of which was generated by subsidiaries organized in Ireland, for which no U.S. taxes are provided when such earnings are intended to be indefinitely reinvested outside the U.S. The lower effective tax rate during the second quarter of 2017 compared to the same quarter in 2016 was due primarily to a different geographic mix of earnings. The slightly higher effective tax rate in the first six months of 2017 compared to the same period in 2016 was due primarily to the retroactive reinstatement of the U.S. federal R&amp;D tax credit during the first quarter of 2016. The Company is subject to audits by federal, state, local and foreign tax authorities. Management believes that adequate provisions have been made for any adjustments that may result from tax examinations. However, the outcome of tax audits cannot be predicted with certainty. If any issues addressed in the Company’s tax audits are resolved in a manner not consistent with management’s expectations, the Company could be required to adjust its provision for income taxes in the period such resolution occurs. On August 30, 2016, the European Commission announced its decision that Ireland granted state aid to the Company by providing tax opinions in 1991 and 2007 concerning the tax allocation of profits of the Irish branches of two subsidiaries of the Company (the “State Aid Decision”). The State Aid Decision orders Ireland to calculate and recover additional taxes from the Company for the period June 2003 through December 2014. Irish legislative changes, effective as of January 2015, eliminated the application of the tax opinions from that date forward. The Company believes the State Aid Decision to be without merit and appealed to the General Court of the Court of Justice of the European Union. Ireland has also appealed the State Aid Decision. While the European Commission announced a recovery amount of up to €13 billion, plus interest, the actual amount of additional taxes subject to recovery is to be calculated by Ireland in accordance with the European Commission's guidance. Once the recovery amount is computed by Ireland, the Company anticipates funding it, including interest, out of foreign cash into escrow, where it will remain pending conclusion of all appeals. The Company believes that any incremental Irish corporate income taxes potentially due related to the State Aid Decision would be creditable against U.S. taxes. Recent Accounting Pronouncements Restricted Cash In November 2016, the Financial Accounting Standards Board (“FASB”) issued Accounting Standards Update (“ASU”) No. 2016-18, Statement of Cash Flows (Topic 230): Restricted Cash (“ASU 2016-18”), which enhances and clarifies the guidance on the classification and presentation of restricted cash in the statement of cash flows. The Company will adopt ASU 2016-18 in its first quarter of 2019 utilizing the retrospective adoption method. Currently, the Company's restricted cash balance is not significant. Income Taxes In October 2016, the FASB issued ASU No. 2016-16, Income Taxes (Topic 740): Intra-Entity Transfers of Assets Other Than Inventory (“ASU 2016-16”), which requires the recognition of the income tax consequences of an intra-entity transfer of an asset, other than inventory, when the transfer occurs. The Company will adopt ASU 2016-16 in its first quarter of 2019 utilizing the modified retrospective adoption method. Currently, the Company anticipates recording up to $9 billion of net deferred tax assets on its Consolidated Balance Sheets. However, the ultimate impact of adopting ASU 2016-16 will depend on the balance of intellectual property transferred between its subsidiaries as of the adoption date. The Company will recognize incremental deferred income tax expense thereafter as these deferred tax assets are utilized. Stock Compensation In March 2016, the FASB issued ASU No. 2016-09, Compensation – Stock Compensation (Topic 718): Improvements to Employee Share-Based Payment Accounting (“ASU 2016-09”), which modifies certain aspects of the accounting for share-based payment transactions, including income taxes, classification of awards, and classification in the statement of cash flows. The Company will adopt ASU 2016-09 in its first quarter of 2018. Currently, excess tax benefits or deficiencies from the Company's equity awards are recorded as additional paid-in capital in its Consolidated Balance Sheets. Upon adoption, the Company will record any excess tax benefits or deficiencies from its equity awards in its Consolidated Statements of Operations in the reporting periods in which vesting occurs. As a result, subsequent to adoption the Company's income tax expense and associated effective tax rate will be impacted by fluctuations in stock price between the grant dates and vesting dates of equity awards. 28 Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. ASU 2016-02 will be effective for the Company beginning in its first quarter of 2020, and early adoption is permitted. The Company will use a modified retrospective adoption approach. While the Company is currently evaluating the timing and impact of adopting ASU 2016-02, currently the Company anticipates recording lease assets and liabilities in excess of $8.2 billion on its Consolidated Balance Sheets, with no material impact to its Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company's lease portfolio as of the adoption date. Financial Instruments In January 2016, the FASB issued ASU No. 2016-01, Financial Instruments – Overall (Subtopic 825-10): Recognition and Measurement of Financial Assets and Financial Liabilities (“ASU 2016-01”), which updates certain aspects of recognition, measurement, presentation and disclosure of financial instruments. The Company will adopt ASU 2016-01 in its first quarter of 2019 utilizing the modified retrospective adoption method. Based on the composition of the Company's investment portfolio, the adoption of ASU 2016-01 is not expected to have a material impact on its consolidated financial statements. In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses of certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective adoption method. Based on the composition of the Company's investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Revenue Recognition In May 2014, the FASB issued ASU No. 2014-09, Revenue from Contracts with Customers (Topic 606) (“ASU 2014-09”), which amends the existing accounting standards for revenue recognition. ASU 2014-09 is based on principles that govern the recognition of revenue at an amount an entity expects to be entitled when products are transferred to customers. Subsequently, the FASB has issued the following standards related to ASU 2014-09: ASU No. 2016-08, Revenue from Contracts with Customers (Topic 606): Principal versus Agent Considerations (“ASU 2016-08”); ASU No. 2016-10, Revenue from Contracts with Customers (Topic 606): Identifying Performance Obligations and Licensing (“ASU 2016-10”); ASU No. 2016-12, Revenue from Contracts with Customers (Topic 606): Narrow-Scope Improvements and Practical Expedients (“ASU 2016-12”); and ASU No. 2016-20, Technical Corrections and Improvements to Topic 606, Revenue from Contracts with Customers (“ASU 2016-20”). The Company must adopt ASU 2016-08, ASU 2016-10, ASU 2016-12 and ASU 2016-20 with ASU 2014-09 (collectively, the “new revenue standards”). The new revenue standards may be applied retrospectively to each prior period presented or retrospectively with the cumulative effect recognized as of the date of adoption. The Company plans to adopt the new revenue standards in its first quarter of 2019 utilizing the full retrospective adoption method. The new revenue standards are not expected to have a material impact on the amount and timing of revenue recognized in the Company's consolidated financial statements. Liquidity and Capital Resources The following tables present selected financial information and statistics as of April 1, 2017 and September 24, 2016 and for the first six months of 2017 and 2016 (in millions): April 1, 2017 September 24, 2016 Cash, cash equivalents and market</t>
+  </si>
+  <si>
+    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10‑Q contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the Company’s Annual Report on Form 10-K for the year ended September 24, 2016 (the “2016 Form 10-K”) filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and notes thereto included elsewhere in this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company’s Annual Report on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the SEC. The Company is subject to the informational requirements of the Exchange Act and files or furnishes reports, proxy statements, and other information with the SEC. Such reports and other information filed by the Company with the SEC are available free of charge on the Company’s website at investor.apple.com/sec.cfm when such reports are available on the SEC’s website. The public may read and copy any materials filed by the Company with the SEC at the SEC’s Public Reference Room at 100 F Street, NE, Room 1580, Washington, DC 20549. The public may obtain information on the operation of the Public Reference Room by calling the SEC at 1-800-SEC-0330. The SEC maintains an internet site that contains reports, proxy and information statements and other information regarding issuers that file electronically with the SEC at www.sec.gov. The contents of websites are not incorporated into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices, personal computers and portable digital music players, and sells a variety of related software, services, accessories, networking solutions and third-party digital content and applications. The Company’s products and services include iPhone®, iPad®, Mac®, iPod®, Apple Watch®, Apple TV®, a portfolio of consumer and professional software applications, iOS, macOS™, watchOS® and tvOS™ operating systems, iCloud®, Apple Pay® and a variety of accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store®, App Store®, Mac App Store, TV App Store, iBooks Store™ and Apple Music® (collectively “Digital Content and Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and value-added resellers. In addition, the Company sells a variety of third-party Apple-compatible products, including application software and various accessories through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Business Strategy The Company is committed to bringing the best user experience to its customers through its innovative hardware, software and services. The Company’s business strategy leverages its unique ability to design and develop its own operating systems, hardware, application software and services to provide its customers products and solutions with innovative design, superior ease-of-use and seamless integration. As part of its strategy, the Company continues to expand its platform for the discovery and delivery of digital content and applications through its Digital Content and Services, which allows customers to discover and download digital content, iOS, Mac, Apple Watch and Apple TV applications, and books through either a Mac or Windows personal computer or through iPhone, iPad and iPod touch® devices (“iOS devices”), Apple TV and Apple Watch. The Company also supports a community for the development of third-party software and hardware products and digital content that complement the Company’s offerings. The Company believes a high-quality buying experience with knowledgeable salespersons who can convey the value of the Company’s products and services greatly enhances its ability to attract and retain customers. Therefore, the Company’s strategy also includes building and expanding its own retail and online stores and its third-party distribution network to effectively reach more customers and provide them with a high-quality sales and post-sales support experience. The Company believes ongoing investment in research and development (“R&amp;D”), marketing and advertising is critical to the development and sale of innovative products and technologies. 22 Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product introductions can significantly impact net sales, product costs and operating expenses. Product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new product inventory following a product introduction, and often, channel inventory of a particular product declines as the next related major product launch approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. However, neither historical seasonal patterns nor historical patterns of product introductions should be considered reliable indicators of the Company’s future pattern of product introductions, future net sales or financial performance. Fiscal Period The Company’s fiscal year is the 52 or 53-week period that ends on the last Saturday of September. The Company’s fiscal year 2017 will include 53 weeks and will end on September 30, 2017. A 14th week has been included in the first quarter of 2017, as is done every five or six years, to realign the Company’s fiscal quarters with calendar quarters. First Quarter Fiscal 2017 Highlights Net sales grew 3% or $2.5 billion during the first quarter of 2017 compared to the first quarter of 2016, primarily driven by strong growth in iPhone and Services, partially offset by lower iPad sales. The positive impact of having an additional week in the first quarter of 2017 was primarily offset by lower year-over-year channel inventory growth, an earlier launch of iPhone 7 and 7 Plus as compared to the prior year and the effect of weakness in foreign currencies relative to the U.S. dollar. During the first quarter of 2017, the Company introduced a new MacBook Pro® with Touch Bar™, an interface that replaces the traditional row of function keys, and released AirPods™, which are new wireless headphones. Sales Data The following table shows net sales by operating segment and net sales and unit sales by product for the three months ended December 31, 2016 and December 26, 2015 (dollars in millions and units in thousands): Three Months Ended December 31, 2016 December 26, 2015 Change Net Sales by Operating Segment: Americas $ 31,968 $ 29,325 9 % Europe 18,521 17,932 3 % Greater China 16,233 18,373 (12 )% Japan 5,766 4,794 20 % Rest of Asia Pacific 5,863 5,448 8 % Total net sales $ 78,351 $ 75,872 3 % Net Sales by Product: iPhone (1) $ 54,378 $ 51,635 5 % iPad (1) 5,533 7,084 (22 )% Mac (1) 7,244 6,746 7 % Services (2) 7,172 6,056 18 % Other Products (1)(3) 4,024 4,351 (8 )% Total net sales $ 78,351 $ 75,872 3 % Unit Sales by Product: iPhone 78,290 74,779 5 % iPad 13,081 16,122 (19 )% Mac 5,374 5,312 1 % (1) Includes deferrals and amortization of related software upgrade rights and non-software services. (2) Includes revenue from Digital Content and Services, AppleCare®, Apple Pay, licensing and other services. (3) Includes sales of Apple TV, Apple Watch, Beats® products, iPod and Apple-branded and third-party accessories. 23 Product Performance iPhone The following table presents iPhone net sales and unit sales information for the first quarter of 2017 and 2016 (dollars in millions and units in thousands): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 54,378 $ 51,635 5 % Percentage of total net sales 69 % 68 % Unit sales 78,290 74,779 5 % iPhone net sales increased during the first quarter of 2017 compared to the same quarter in 2016, driven by strong growth in each of the geographic operating segments, with the exception of Greater China. iPad The following table presents iPad net sales and unit sales information for the first quarter of 2017 and 2016 (dollars in millions and units in thousands): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 5,533 $ 7,084 (22 )% Percentage of total net sales 7 % 9 % Unit sales 13,081 16,122 (19 )% iPad net sales decreased in the first quarter of 2017 compared to the same quarter in 2016 due to lower iPad unit sales and lower average selling prices for iPad, both due in part to the introduction of the 12.9-inch iPad Pro in the first quarter of 2016. Mac The following table presents Mac net sales and unit sales information for the first quarter of 2017 and 2016 (dollars in millions and units in thousands): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 7,244 $ 6,746 7 % Percentage of total net sales 9 % 9 % Unit sales 5,374 5,312 1 % Mac net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to a different mix of Macs, including the new MacBook Pro introduced in the first quarter of 2017. Services The following table presents Services net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 7,172 $ 6,056 18 % Percentage of total net sales 9 % 8 % The year-over-year increase in Services net sales in the first quarter of 2017 compared to the same quarter in 2016 was due primarily to growth from the App Store and AppleCare sales, partially offset by the $548 million received from Samsung Electronics Co., Ltd. in the first quarter of 2016 related to patent infringement matters. 24 Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable operating segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, as well as India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and those Asian countries not included in the Company’s other reportable operating segments. Although the reportable operating segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable operating segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements, in Note 11, “Segment Information and Geographic Data.” Americas The following table presents Americas net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 31,968 $ 29,325 9 % Percentage of total net sales 41 % 39 % Americas net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher net sales of iPhone, partially offset by lower net sales of iPad. Europe The following table presents Europe net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 18,521 $ 17,932 3 % Percentage of total net sales 24 % 24 % Europe net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher net sales of iPhone, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar and a decrease in net sales of iPad. Greater China The following table presents Greater China net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 16,233 $ 18,373 (12 )% Percentage of total net sales 21 % 24 % Greater China net sales decreased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to lower net sales of iPhone and the effect of weakness in foreign currencies relative to the U.S. dollar. 25 Japan The following table presents Japan net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 5,766 $ 4,794 20 % Percentage of total net sales 7 % 6 % Japan net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher net sales of iPhone and Services, and the effect of strength in the Japanese yen relative to the U.S. dollar. Rest of Asia Pacific The following table presents Rest of Asia Pacific net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 5,863 $ 5,448 8 % Percentage of total net sales 7 % 7 % Rest of Asia Pacific net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher net sales of iPhone and the effect of strength in foreign currencies relative to the U.S. dollar. Gross Margin Gross margin for the first quarter of 2017 and 2016 was as follows (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Net sales $ 78,351 $ 75,872 Cost of sales 48,175 45,449 Gross margin $ 30,176 $ 30,423 Gross margin percentage 38.5 % 40.1 % Gross margin decreased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher product cost structures and the effect of weakness in foreign currencies relative to the U.S. dollar, partially offset by a favorable mix of products and services. The Company anticipates gross margin during the second quarter of 2017 to be between 38% and 39%. The foregoing statement regarding the Company’s expected gross margin percentage in the second quarter of 2017 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will remain under downward pressure due to a variety of factors, including continued industry-wide global product pricing pressures, increased competition, compressed product life cycles, product transitions, potential increases in the cost of components, and potential strengthening of the U.S. dollar, as well as potential increases in the costs of outside manufacturing services and a potential shift in the Company’s sales mix towards products with lower gross margins. In response to competitive pressures, the Company expects it will continue to take product pricing actions, which would adversely affect gross margins. Gross margins could also be affected by the Company’s ability to manage product quality and warranty costs effectively and to stimulate demand for certain of its products. Due to the Company’s significant international operations, its financial condition and operating results, including gross margins, could be significantly affected by fluctuations in exchange rates. 26 Operating Expenses Operating expenses for the first quarter of 2017 and 2016 were as follows (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Research and development $ 2,871 $ 2,404 Percentage of total net sales 4 % 3 % Selling, general and administrative $ 3,946 $ 3,848 Percentage of total net sales 5 % 5 % Total operating expenses $ 6,817 $ 6,252 Percentage of total net sales 9 % 8 % Research and Development The growth in R&amp;D expense during the first quarter of 2017 compared to the same quarter in 2016 was driven primarily by an increase in headcount and related expenses, and material costs to support expanded R&amp;D activities. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the first quarter of 2017 compared to the same quarter in 2016 was driven primarily by an increase in headcount and related expenses and higher variable selling costs, partially offset by lower advertising costs. Other Income/(Expense), Net Other income/(expense), net for the first quarter of 2017 and 2016 was as follows (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Interest and dividend income $ 1,224 $ 941 Interest expense (525 ) (276 ) Other income/(expense), net 122 (263 ) Total other income/(expense), net $ 821 $ 402 104 % The increase in other income/(expense), net during the first quarter of 2017 compared to the same quarter in 2016 was due primarily to higher interest income and foreign exchange gains, partially offset by higher interest expense on debt. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 1.87% and 1.65% in the first quarter of 2017 and 2016, respectively. Provision for Income Taxes Provision for income taxes and effective tax rates for the first quarter of 2017 and 2016 were as follows (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Provision for income taxes $ 6,289 $ 6,212 Effective tax rate 26.0 % 25.3 % The Company’s effective tax rates during the first quarter of 2017 and 2016 differ from the statutory federal income tax rate of 35% due primarily to certain undistributed foreign earnings, a substantial portion of which was generated by subsidiaries organized in Ireland, for which no U.S. taxes are provided when such earnings are intended to be indefinitely reinvested outside the U.S. The higher year-over-year effective tax rate during the first quarter of 2017 was due primarily to the retroactive reinstatement of the U.S. federal R&amp;D tax credit during the first quarter of 2016. 27 The Company is subject to audits by federal, state, local and foreign tax authorities. Management believes that adequate provisions have been made for any adjustments that may result from tax examinations. However, the outcome of tax audits cannot be predicted with certainty. If any issues addressed in the Company’s tax audits are resolved in a manner not consistent with management’s expectations, the Company could be required to adjust its provision for income taxes in the period such resolution occurs. On August 30, 2016, the European Commission announced its decision that Ireland granted state aid to the Company by providing tax opinions in 1991 and 2007 concerning the tax allocation of profits of the Irish branches of two subsidiaries of the Company (the “State Aid Decision”). The State Aid Decision orders Ireland to calculate and recover additional taxes from the Company for the period June 2003 through December 2014. Irish legislative changes, effective as of January 2015, eliminated the application of the tax opinions from that date forward. The Company believes the State Aid Decision to be without merit and appealed to the General Court of the Court of Justice of the European Union. Ireland has also appealed the State Aid Decision. While the European Commission announced a recovery amount of up to €13 billion, plus interest, the actual amount of additional taxes subject to recovery is to be calculated by Ireland in accordance with the European Commission's guidance. Once the recovery amount is computed by Ireland, the Company anticipates funding it, including interest, out of foreign cash into escrow, where it will remain pending conclusion of all appeals. The Company believes that any incremental Irish corporate income taxes potentially due related to the State Aid Decision would be creditable against U.S. taxes. Recent Accounting Pronouncements Restricted Cash In November 2016, the Financial Accounting Standards Board (“FASB”) issued Accounting Standards Update (“ASU”) No. 2016-18, Statement of Cash Flows (Topic 230): Restricted Cash (“ASU 2016-18”), which enhances and clarifies the guidance on the classification and presentation of restricted cash in the statement of cash flows. The Company will adopt ASU 2016-18 in its first quarter of 2019 utilizing the retrospective adoption method. Currently, the Company's restricted cash balance is not significant. Income Taxes In October 2016, the FASB issued ASU No. 2016-16, Income Taxes (Topic 740): Intra-Entity Transfers of Assets Other Than Inventory (“ASU 2016-16”), which requires the recognition of the income tax consequences of an intra-entity transfer of an asset, other than inventory, when the transfer occurs. The Company will adopt ASU 2016-16 in its first quarter of 2019 utilizing the modified retrospective adoption method. Currently, the Company anticipates recording up to $9 billion of net deferred tax assets on its Consolidated Balance Sheets. However, the ultimate impact of adopting ASU 2016-16 will depend on the balance of intellectual property transferred between its subsidiaries as of the adoption date. The Company will recognize incremental deferred income tax expense thereafter as these deferred tax assets are utilized. Stock Compensation In March 2016, the FASB issued ASU No. 2016-09, Compensation – Stock Compensation (Topic 718): Improvements to Employee Share-Based Payment Accounting (“ASU 2016-09”), which modifies certain aspects of the accounting for share-based payment transactions, including income taxes, classification of awards, and classification in the statement of cash flows. The Company will adopt ASU 2016-09 in its first quarter of 2018. Currently, excess tax benefits or deficiencies from the Company's equity awards are recorded as additional paid-in capital in its Consolidated Balance Sheets. Upon adoption, the Company will record any excess tax benefits or deficiencies from its equity awards in its Consolidated Statements of Operations in the reporting periods in which vesting occurs. As a result, subsequent to adoption the Company's income tax expense and associated effective tax rate will be impacted by fluctuations in stock price between the grant dates and vesting dates of equity awards. Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. ASU 2016-02 will be effective for the Company beginning in its first quarter of 2020, and early adoption is permitted. The Company will use a modified retrospective adoption approach. While the Company is currently evaluating the timing and impact of adopting ASU 2016-02, currently the Company anticipates recording lease assets and liabilities in excess of $7.5 billion on its Consolidated Balance Sheets, with no material impact to its Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company's lease portfolio as of the adoption date. Financial Instruments In January 2016, the FASB issued ASU No. 2016-01, Financial Instruments – Overall (Subtopic 825-10): Recognition and Measurement of Financial Assets and Financial Liabilities (“ASU 2016-01”), which updates certain aspects of recognition, measurement, presentation and disclosure of financial instruments. The Company will adopt ASU 2016-01 in its first quarter of 2019 utilizing the modified retrospective adoption method. Based on the composition of the Company's investment portfolio, the adoption of ASU 2016-01 is not expected to have a material impact on its consolidated financial statements. 28 In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses of certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective adoption method. Based on the composition of the Company's investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Revenue Recognition In May 2014, the FASB issued ASU No. 2014-09, Revenue from Contracts with Customers (Topic 606) (“ASU 2014-09”), which amends the existing accounting standards for revenue recognition. ASU 2014-09 is based on principles that govern the recognition of revenue at an amount an entity expects to be entitled when products are transferred to customers. Subsequently, the FASB has issued the following standards related to ASU 2014-09: ASU No. 2016-08, Revenue from Contracts with Customers (Topic 606): Principal versus Agent Considerations (“ASU 2016-08”); ASU No. 2016-10, Revenue from Contracts with Customers (Topic 606): Identifying Performance Obligations and Licensing (“ASU 2016-10”); ASU No. 2016-12, Revenue from Contracts with Customers (Topic 606): Narrow-Scope Improvements and Practical Expedients (“ASU 2016-12”); and ASU No. 2016-20, Technical Corrections and Improvements to Topic 606, Revenue from Contracts with Customers (“ASU 2016-20”). The Company must adopt ASU 2016-08, ASU 2016-10, ASU 2016-12 and ASU 2016-20 with ASU 2014-09 (collectively, the “new revenue standards”). The new revenue standards may be applied retrospectively to each prior period presented or retrospectively with the cumulative effect recognized as of the date of adoption. The Company currently expects to adopt the new revenue standards in its first quarter of 2018 utilizing the full retrospective adoption method. The new revenue standards are not expected to have a material impact on the amount and timing of revenue recognized in the Company's consolidated financial statements. Liquidity and Capital Resources The following tables present selected financial information and statistics as of December 31, 2016 and September 24, 2016 and for the first three months of 2017 and 2016 (in millions): December 31, 2016 September 24, 2016 Cash, cash equivalents and marketable securities $ 246,090 $ 237,585 Property, plant and equipment, net $ 26,510 $ 27,010 Commercial paper $ 10,493 $ 8,105 Total term debt $ 77,056 $ 78,927 Working capital $ 19,202 $ 27,863 Three Months Ended December 31, 2016 December 26, 2015 Cash generated by operating activities $ 27,056 $ 27,463 Cash used in investing activities $ (19,122 ) $ (20,450 ) Cash used in financing activities $ (12,047 ) $ (11,444 ) The Company believes its existing balances of cash, cash equivalents and marketable securities will be sufficient to satisfy its working capital needs, capital asset purchases, outstanding commitments and other liquidity requirements associated with its existing operations over the next 12 months. The Company currently anticipates the cash used for future dividends, the share repurchase program and debt repayments will come from its current domestic cash, cash generated from on-going U.S. operating activities and from borrowings. As of December 31, 2016 and September 24, 2016, the Company’s cash, cash equivalents and marketable securities held by foreign subsidiaries were $230.2 billion and $216.0 billion, respectively, and are generally based in U.S. dollar-denominated holdings. Amounts held by foreign subsidiaries are generally subject to U.S. income taxation on repatriation to the U.S. In connection with the State Aid Decision, the European Commission announced a recovery amount of up to €13 billion, plus interest. The actual amount of additional taxes subject to recovery is to be calculated by Ireland in accordance with the European Commission's guidance. Once the recovery amount is computed by Ireland, the Company anticipates funding it, including interest, out of foreign cash into escrow, where it will remain pending conclusion of all appeals. The Company’s marketable securities investment portfolio is invested primarily in highly-rated securities, and its investment policy generally limits the amount of credit exposure to any one issuer. The policy requires investments generally to be investment grade with the objective of minimizing the potential risk of principal loss. 29 During the three months ended December 31, 2016, cash generated from operating activities of $27.1 billion was a result of $17.9 billion of net income, non-cash adjustments to net income of $5.4 billion and an increase in the net change in operating assets and liabilities of $3.7 billion. Cash used in investing activities of $19.1 billion during the three months ended December 31, 2016 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $15.6 billion and cash used to acquire property, plant and equipment of $3.3 billion. Cash used in financing activities of $12.0 billion during the three months ended December 31, 2016 consisted primarily of cash used to repurchase common stock of $10.9 billion and cash used to pay dividends and dividend equivalents of $3.1 billion, partially offset by a net increase in commercial paper of $2.4 billion. During the three months ended December 26, 2015, cash generated from operating activities of $27.5 billion was a result of $18.4 billion of net income, non-cash adjustments to net income of $5.7 billion and an increase in the net change in operating assets and liabilities of $3.4 billion. Cash used in investing activities of $20.5 billion during the three months ended December 26, 2015 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $16.1 billion and cash used to acquire property, plant and equipment of $3.6 billion. Cash used in financing activities of $11.4 billion during the three months ended December 26, 2015 consisted primarily of cash used to repurchase common stock of $6.9 billion, and cash used to pay dividends and dividend equivalents of $3.0 billion. Capital Assets The Company’s capital expenditures were $2.1 billion during the first quarter of 2017. The Company anticipates utilizing approximately $16.0 billion for capital expenditures during 2017, which includ</t>
+  </si>
+  <si>
+    <t>Item 7. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Annual Report on Form 10-K (“Form 10-K”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of this Form 10-K under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the consolidated financial statements and notes thereto included in Part II, Item 8 of this Form 10-K. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices, personal computers and portable digital music players, and sells a variety of related software, services, accessories, networking solutions and third-party digital content and applications. The Company’s products and services include iPhone®, iPad®, Mac®, iPod®, Apple Watch®, Apple TV®, a portfolio of consumer and professional software applications, iOS, macOS™, watchOS® and tvOS™ operating systems, iCloud®, Apple Pay® and a variety of accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store®, App Store®, Mac App Store, TV App Store, iBooks Store™ and Apple Music® (collectively “Internet Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and value-added resellers. In addition, the Company sells a variety of third-party Apple compatible products, including application software and various accessories through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Fiscal 2016 Highlights Net sales declined 8% or $18.1 billion during 2016 compared to 2015, primarily driven by a year-over-year decrease in iPhone net sales and the effect of weakness in most foreign currencies relative to the U.S. dollar, partially offset by an increase in Services. In April 2016, the Company announced a significant increase to its capital return program by raising the expected total size of the program from $200 billion to $250 billion through March 2018. This included increasing its share repurchase authorization from $140 billion to $175 billion and raising its quarterly dividend from $0.52 to $0.57 per share beginning in May 2016. During 2016, the Company spent $29.0 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $12.2 billion. Additionally, the Company issued $23.9 billion of U.S. dollar-denominated term debt and A$1.4 billion of Australian dollar-denominated term debt during 2016. Fiscal 2015 Highlights Net sales rose 28% or $50.9 billion during 2015 compared to 2014, driven by a year-over-year increase in iPhone net sales. iPhone net sales and unit sales in 2015 increased in all of the Company’s reportable operating segments. The Company also experienced year-over-year net sales increases in Mac, Services and Other Products. Apple Watch, which launched during the third quarter of 2015, accounted for more than 100% of the year-over-year growth in net sales of Other Products. Net sales growth during 2015 was partially offset by the effect of weakness in most foreign currencies relative to the U.S. dollar and lower iPad net sales. Total net sales increased in each of the Company’s reportable operating segments, with particularly strong growth in Greater China where year-over-year net sales increased 84%. In April 2015, the Company announced a significant increase to its capital return program by raising the expected total size of the program to $200 billion through March 2017. This included increasing its share repurchase authorization to $140 billion and raising its quarterly dividend to $0.52 per share beginning in May 2015. During 2015, the Company spent $36.0 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $11.6 billion. Additionally, the Company issued $14.5 billion of U.S. dollar-denominated, €4.8 billion of euro-denominated, SFr1.3 billion of Swiss franc-denominated, £1.3 billion of British pound-denominated, A$2.3 billion of Australian dollar-denominated and ¥250.0 billion of Japanese yen-denominated term debt during 2015. Apple Inc. | 2016 Form 10-K | 22 Sales Data The following table shows net sales by operating segment and net sales and unit sales by product during 2016, 2015 and 2014 (dollars in millions and units in thousands): 2016 Change 2015 Change 2014 Net Sales by Operating Segment: Americas $ 86,613 (8 )% $ 93,864 17 % $ 80,095 Europe 49,952 (1 )% 50,337 14 % 44,285 Greater China 48,492 (17 )% 58,715 84 % 31,853 Japan 16,928 8 % 15,706 3 % 15,314 Rest of Asia Pacific 13,654 (10 )% 15,093 34 % 11,248 Total net sales $ 215,639 (8 )% $ 233,715 28 % $ 182,795 Net Sales by Product: iPhone (1) $ 136,700 (12 )% $ 155,041 52 % $ 101,991 iPad (1) 20,628 (11 )% 23,227 (23 )% 30,283 Mac (1) 22,831 (10 )% 25,471 6 % 24,079 Services (2) 24,348 22 % 19,909 10 % 18,063 Other Products (1)(3) 11,132 11 % 10,067 20 % 8,379 Total net sales $ 215,639 (8 )% $ 233,715 28 % $ 182,795 Unit Sales by Product: iPhone 211,884 (8 )% 231,218 37 % 169,219 iPad 45,590 (17 )% 54,856 (19 )% 67,977 Mac 18,484 (10 )% 20,587 9 % 18,906 (1) Includes deferrals and amortization of related software upgrade rights and non-software services. (2) Includes revenue from Internet Services, AppleCare®, Apple Pay, licensing and other services. (3) Includes sales of Apple TV, Apple Watch, Beats® products, iPod and Apple-branded and third-party accessories. Apple Inc. | 2016 Form 10-K | 23 Product Performance iPhone The following table presents iPhone net sales and unit sales information for 2016, 2015 and 2014 (dollars in millions and units in thousands): 2016 Change 2015 Change 2014 Net sales $ 136,700 (12 )% $ 155,041 52 % $ 101,991 Percentage of total net sales 63 % 66 % 56 % Unit sales 211,884 (8 )% 231,218 37 % 169,219 iPhone net sales and unit sales decreased during 2016 compared to 2015. The Company believes the sales decline is due primarily to a lower rate of iPhone upgrades during 2016 compared to 2015 and challenging macroeconomic conditions in a number of major markets in 2016. Average selling prices (“ASPs”) for iPhone were lower year-over-year during 2016 due primarily to a different mix of iPhones, including the iPhone SE introduced in 2016, and the effect of weakness in most foreign currencies relative to the U.S. dollar. The year-over-year growth in iPhone net sales and unit sales during 2015 primarily resulted from strong demand for iPhone 6 and 6 Plus during 2015. Overall ASPs for iPhone increased during 2015 compared to 2014, due primarily to the introduction of iPhone 6 and 6 Plus in September 2014, partially offset by the effect of weakness in most foreign currencies relative to the U.S. dollar. iPad The following table presents iPad net sales and unit sales information for 2016, 2015 and 2014 (dollars in millions and units in thousands): 2016 Change 2015 Change 2014 Net sales $ 20,628 (11 )% $ 23,227 (23 )% $ 30,283 Percentage of total net sales 10 % 10 % 17 % Unit sales 45,590 (17 )% 54,856 (19 )% 67,977 iPad net sales decreased during 2016 compared to 2015 primarily due to lower unit sales and the effect of weakness in most foreign currencies relative to the U.S. dollar, partially offset by higher ASPs due to a shift in mix to higher-priced iPads. The Company believes the decline in iPad sales is due in part to a longer repurchase cycle for iPads and some level of cannibalization from the Company's other products. Net sales and unit sales for iPad declined during 2015 compared to 2014. The Company believes the decline in iPad sales is due in part to a longer repurchase cycle for iPads and some level of cannibalization from the Company's other products. iPad ASPs declined during 2015 compared to 2014, primarily as a result of the effect of weakness in most foreign currencies relative to the U.S. dollar and a shift in mix to lower-priced iPads. Mac The following table presents Mac net sales and unit sales information for 2016, 2015 and 2014 (dollars in millions and units in thousands): 2016 Change 2015 Change 2014 Net sales $ 22,831 (10 )% $ 25,471 6 % $ 24,079 Percentage of total net sales 11 % 11 % 13 % Unit sales 18,484 (10 )% 20,587 9 % 18,906 Mac net sales and unit sales decreased during 2016 compared to 2015. The year-over-year decline in Mac unit sales during 2016 was at rates similar to the overall market. The effect of weakness in most foreign currencies relative to the U.S. dollar also negatively impacted Mac net sales. The year-over-year growth in Mac net sales and unit sales during 2015 was driven by strong demand for Mac portables. Mac ASPs declined during 2015 compared to 2014 largely due to the effect of weakness in most foreign currencies relative to the U.S. dollar. Apple Inc. | 2016 Form 10-K | 24 Services The following table presents net sales information of Services for 2016, 2015 and 2014 (dollars in millions): 2016 Change 2015 Change 2014 Net sales $ 24,348 22 % $ 19,909 10 % $ 18,063 Percentage of total net sales 11 % 9 % 10 % The year-over-year increase in net sales of Services in 2016 was due primarily to growth from the App Store, licensing and AppleCare sales, partially offset by the effect of weakness in most foreign currencies relative to the U.S. dollar. During the first quarter of 2016, the Company received $548 million from Samsung Electronics Co., Ltd. related to its patent infringement lawsuit, which was recorded as licensing net sales within Services. The increase in net sales of Services during 2015 compared to 2014 was primarily due to growth from the App Store and licensing. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable operating segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, as well as India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and those Asian countries not included in the Company’s other reportable operating segments. Although the reportable operating segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable operating segments can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” Americas The following table presents Americas net sales information for 2016, 2015 and 2014 (dollars in millions): 2016 Change 2015 Change 2014 Net sales $ 86,613 (8 )% $ 93,864 17 % $ 80,095 Percentage of total net sales 40 % 40 % 44 % Americas net sales decreased during 2016 compared to 2015 due primarily to lower net sales and unit sales of iPhone. The year-over-year growth in Americas net sales during 2015 was driven primarily by growth in net sales and unit sales of iPhone, partially offset by a decline in net sales and unit sales of iPad. Europe The following table presents Europe net sales information for 2016, 2015 and 2014 (dollars in millions): 2016 Change 2015 Change 2014 Net sales $ 49,952 (1 )% $ 50,337 14 % $ 44,285 Percentage of total net sales 23 % 22 % 24 % Europe net sales decreased during 2016 compared to 2015 driven primarily by the effect of weakness in foreign currencies relative to the U.S. dollar and a decrease in unit sales of Mac, largely offset by an increase in iPhone unit sales and Services. The year-over-year increase in Europe net sales during 2015 was driven primarily by growth in net sales and unit sales of iPhone, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar and a decline in net sales and unit sales of iPad. Apple Inc. | 2016 Form 10-K | 25 Greater China The following table presents Greater China net sales information for 2016, 2015 and 2014 (dollars in millions): 2016 Change 2015 Change 2014 Net sales $ 48,492 (17 )% $ 58,715 84 % $ 31,853 Percentage of total net sales 22 % 25 % 17 % Greater China net sales decreased during 2016 compared to 2015 due primarily to lower net sales and unit sales of iPhone and the effect of weakness in foreign currencies relative to the U.S. dollar. Greater China experienced strong year-over-year increases in net sales during 2015 driven primarily by iPhone sales. Japan The following table presents Japan net sales information for 2016, 2015 and 2014 (dollars in millions): 2016 Change 2015 Change 2014 Net sales $ 16,928 8 % $ 15,706 3 % $ 15,314 Percentage of total net sales 8 % 7 % 8 % Japan net sales increased during 2016 compared to 2015 due primarily to higher net sales of Services and the strength in the Japanese yen relative to the U.S. dollar. The year-over-year increase in Japan net sales during 2015 was driven primarily by growth in Services largely associated with strong App Store sales, partially offset by the effect of weakness in the Japanese yen relative to the U.S. dollar. Rest of Asia Pacific The following table presents Rest of Asia Pacific net sales information for 2016, 2015 and 2014 (dollars in millions): 2016 Change 2015 Change 2014 Net sales $ 13,654 (10 )% $ 15,093 34 % $ 11,248 Percentage of total net sales 6 % 6 % 6 % Rest of Asia Pacific net sales decreased during 2016 compared to 2015 due primarily to lower net sales and unit sales of iPhone and the effect of weakness in foreign currencies relative to the U.S. dollar. The year-over-year increase in Rest of Asia Pacific net sales during 2015 primarily reflects strong growth in net sales and unit sales of iPhone, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar and a decline in net sales and unit sales of iPad. Gross Margin Gross margin for 2016, 2015 and 2014 is as follows (dollars in millions): 2016 2015 2014 Net sales $ 215,639 $ 233,715 $ 182,795 Cost of sales 131,376 140,089 112,258 Gross margin $ 84,263 $ 93,626 $ 70,537 Gross margin percentage 39.1 % 40.1 % 38.6 % Gross margin decreased in 2016 compared to 2015 due primarily to the effect of weakness in most foreign currencies relative to the U.S. dollar and, to a lesser extent, unfavorable leverage on fixed costs from lower net sales, partially offset by a favorable shift in mix to Services. The year-over-year increase in the gross margin percentage in 2015 was driven primarily by a favorable shift in mix to products with higher margins and, to a lesser extent, by improved leverage on fixed costs from higher net sales. These positive factors were partially offset primarily by higher product cost structures and, to a lesser extent, by the effect of weakness in most foreign currencies relative to the U.S. dollar. Apple Inc. | 2016 Form 10-K | 26 The Company anticipates gross margin during the first quarter of 2017 to be between 38% and 38.5%. The foregoing statement regarding the Company’s expected gross margin percentage in the first quarter of 2017 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part I, Item 1A of this Form 10-K under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will remain under downward pressure due to a variety of factors, including continued industry wide global product pricing pressures, increased competition, compressed product life cycles, product transitions, potential increases in the cost of components, and potential strengthening of the U.S. dollar, as well as potential increases in the costs of outside manufacturing services and a potential shift in the Company’s sales mix towards products with lower gross margins. In response to competitive pressures, the Company expects it will continue to take product pricing actions, which would adversely affect gross margins. Gross margins could also be affected by the Company’s ability to manage product quality and warranty costs effectively and to stimulate demand for certain of its products. Due to the Company’s significant international operations, its financial condition and operating results, including gross margins, could be significantly affected by fluctuations in exchange rates. Operating Expenses Operating expenses for 2016, 2015 and 2014 are as follows (dollars in millions): 2016 Change 2015 Change 2014 Research and development $ 10,045 25 % $ 8,067 34 % $ 6,041 Percentage of total net sales 5 % 3 % 3 % Selling, general and administrative $ 14,194 (1 )% $ 14,329 19 % $ 11,993 Percentage of total net sales 7 % 6 % 7 % Total operating expenses $ 24,239 8 % $ 22,396 24 % $ 18,034 Percentage of total net sales 11 % 10 % 10 % Research and Development The year-over-year growth in R&amp;D expense in 2016 and 2015 was driven primarily by an increase in headcount and related expenses, and material costs to support expanded R&amp;D activities. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products that are central to the Company’s core business strategy. Selling, General and Administrative The decrease in selling, general and administrative expense in 2016 compared to 2015 was due primarily to lower discretionary expenditures and advertising costs, partially offset by an increase in headcount and related expenses. The year-over-year growth in selling, general and administrative expense in 2015 was primarily due to increased headcount and related expenses, and higher spending on marketing and advertising. Other Income/(Expense), Net Other income/(expense), net for 2016, 2015 and 2014 are as follows (dollars in millions): 2016 Change 2015 Change 2014 Interest and dividend income $ 3,999 $ 2,921 $ 1,795 Interest expense (1,456 ) (733 ) (384 ) Other expense, net (1,195 ) (903 ) (431 ) Total other income/(expense), net $ 1,348 5 % $ 1,285 31 % $ 980 The year-over-year increase in other income/(expense), net during 2016 and 2015 was due primarily to higher interest income, partially offset by higher interest expense on debt and higher expenses associated with foreign exchange activity. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 1.73%, 1.49% and 1.11% in 2016, 2015 and 2014, respectively. Apple Inc. | 2016 Form 10-K | 27 Provision for Income Taxes Provision for income taxes and effective tax rates for 2016, 2015 and 2014 are as follows (dollars in millions): 2016 2015 2014 Provision for income taxes 15,685 $ 19,121 $ 13,973 Effective tax rate 25.6 % 26.4 % 26.1 % The Company’s effective tax rates for 2016, 2015 and 2014 differ from the statutory federal income tax rate of 35% due primarily to certain undistributed foreign earnings, a substantial portion of which was generated by subsidiaries organized in Ireland, for which no U.S. taxes are provided when such earnings are intended to be indefinitely reinvested outside the U.S. The lower effective tax rate in 2016 compared to 2015 was due primarily to greater R&amp;D tax credits. The higher effective tax rate during 2015 compared to 2014 was due primarily to higher foreign taxes. As of September 24, 2016, the Company had deferred tax assets arising from deductible temporary differences, tax losses and tax credits of $4.1 billion and deferred tax liabilities of $26.0 billion. Management believes it is more likely than not that forecasted income, including income that may be generated as a result of certain tax planning strategies, together with future reversals of existing taxable temporary differences, will be sufficient to fully recover the deferred tax assets. The Company will continue to evaluate the realizability of deferred tax assets quarterly by assessing the need for and the amount of a valuation allowance. During the fourth quarter of 2016, the Company reached a partial settlement with the IRS on its examination of the years 2010 through 2012. In connection with this settlement, the Company recognized a tax benefit in the fourth quarter of 2016 that was not significant to its consolidated financial statements. All years prior to 2013 are closed, except for the years 2010 through 2012 relating to R&amp;D tax credits. In addition, the Company is subject to audits by state, local and foreign tax authorities. In major states and major foreign jurisdictions, the years subsequent to 2003 generally remain open and could be subject to examination by the taxing authorities. Management believes that adequate provisions have been made for any adjustments that may result from tax examinations. However, the outcome of tax audits cannot be predicted with certainty. If any issues addressed in the Company’s tax audits are resolved in a manner not consistent with management’s expectations, the Company could be required to adjust its provision for income taxes in the period such resolution occurs. On August 30, 2016, the European Commission announced its decision that Ireland granted state aid to the Company by providing tax opinions in 1991 and 2007 concerning the tax allocation of profits of the Irish branches of two subsidiaries of the Company (the "State Aid Decision"). The State Aid Decision orders Ireland to calculate and recover additional taxes from the Company for the period June 2003 through September 2014. Irish legislative changes, effective as of the beginning of 2015, eliminated the application of the tax opinions from that date forward. The Company believes the State Aid Decision to be without merit and intends to appeal to the General Court of the Court of Justice of the European Union. Ireland has also announced its intention to appeal the State Aid Decision. While the European Commission announced a recovery amount of up to €13 billion, plus interest, the actual amount of additional taxes subject to recovery is to be calculated by Ireland in accordance with the European Commission's guidance. Once the recovery amount is computed by Ireland, the Company anticipates funding it, including interest, out of foreign cash into escrow, pending conclusion of all appeals. The Company believes that any incremental Irish corporate income taxes potentially due would be creditable against U.S. taxes. Recent Accounting Pronouncements Income Taxes In October 2016, the Financial Accounting Standards Board (“FASB”) issued Accounting Standards Update (“ASU”) 2016-16, Income Taxes (Topic 740): Intra-Entity Transfer of Assets Other than Inventory ("ASU 2016-16"), which requires the recognition of the income tax consequences of an intra-entity transfer of an asset, other than inventory, when the transfer occurs. ASU 2016-06 will be effective for the Company in its first quarter of 2019. The Company is currently evaluating the impact of adopting ASU 2016-16 on its consolidated financial statements. Stock Compensation In March 2016, the FASB issued ASU No. 2016-09, Compensation – Stock Compensation (Topic 718): Improvements to Employee Share-Based Payment Accounting (“ASU 2016-09”), which simplified certain aspects of the accounting for share-based payment transactions, including income taxes, classification of awards and classification on the statement of cash flows. ASU 2016-09 will be effective for the Company beginning in its first quarter of 2018. The Company is currently evaluating the impact of adopting ASU 2016-09 on its consolidated financial statements. Apple Inc. | 2016 Form 10-K | 28 Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modified lease accounting for both lessees and lessors to increase transparency and comparability by recognizing lease assets and lease liabilities by lessees for those leases classified as operating leases under previous accounting standards and disclosing key information about leasing arrangements. ASU 2016-02 will be effective for the Company beginning in its first quarter of 2020, and early adoption is permitted. The Company is currently evaluating the timing of its adoption and the impact of adopting ASU 2016-02 on its consolidated financial statements. Financial Instruments In January 2016, the FASB issued ASU No. 2016-01, Financial Instruments – Overall (Subtopic 825-10): Recognition and Measurement of Financial Assets and Financial Liabilities (“ASU 2016-01”), which updates certain aspects of recognition, measurement, presentation and disclosure of financial instruments. ASU 2016-01 will be effective for the Company beginning in its first quarter of 2019. The Company does not believe the adoption of ASU 2016-01 will have a material impact on its consolidated financial statements. In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses of certain financial instruments. ASU 2016-13 will be effective for the Company beginning in its first quarter of 2021 and early adoption is permitted. The Company does not believe the adoption of ASU 2016-13 will have a material impact on its consolidated financial statements. Revenue Recognition In May 2014, the FASB issued ASU No. 2014-09, Revenue from Contracts with Customers (Topic 606) (“ASU 2014-09”), which amends the existing accounting standards for revenue recognition. ASU 2014-09 is based on principles that govern the recognition of revenue at an amount an entity expects to be entitled when products are transferred to customers. ASU 2014-09 will be effective for the Company beginning in its first quarter of 2019, and early adoption is permitted. Subsequently, the FASB has issued the following standards related to ASU 2014-09: ASU No. 2016-08, Revenue from Contracts with Customers (Topic 606): Principal versus Agent Considerations (“ASU 2016-08”); ASU No. 2016-10, Revenue from Contracts with Customers (Topic 606): Identifying Performance Obligations and Licensing (“ASU 2016-10”); and ASU No. 2016-12, Revenue from Contracts with Customers (Topic 606): Narrow-Scope Improvements and Practical Expedients (“ASU 2016-12”). The Company must adopt ASU 2016-08, ASU 2016-10 and ASU 2016-12 with ASU 2014-09 (collectively, the “new revenue standards”). The new revenue standards may be applied retrospectively to each prior period presented or retrospectively with the cumulative effect recognized as of the date of adoption. The Company currently expects to adopt the new revenue standards in its first quarter of 2018 utilizing the full retrospective transition method. The Company does not expect adoption of the new revenue standards to have a material impact on its consolidated financial statements. Liquidity and Capital Resources The following table presents selected financial information and statistics as of and for the years ended September 24, 2016, September 26, 2015 and September 27, 2014 (in millions): 2016 2015 2014 Cash, cash equivalents and marketable securities $ 237,585 $ 205,666 $ 155,239 Property, plant and equipment, net $ 27,010 $ 22,471 $ 20,624 Commercial paper $ 8,105 $ 8,499 $ 6,308 Total term debt $ 78,927 $ 55,829 $ 28,987 Working capital $ 27,863 $ 8,768 $ 5,083 Cash generated by operating activities $ 65,824 $ 81,266 $ 59,713 Cash used in investing activities $ (45,977 ) $ (56,274 ) $ (22,579 ) Cash used in financing activities $ (20,483 ) $ (17,716 ) $ (37,549 ) The Company believes its existing balances of cash, cash equivalents and marketable securities will be sufficient to satisfy its working capital needs, capital asset purchases, outstanding commitments and other liquidity requirements associated with its existing operations over the next 12 months. The Company currently anticipates the cash used for future dividends, the share repurchase program and debt repayments will come from its current domestic cash, cash generated from on-going U.S. operating activities and from borrowings. Apple Inc. | 2016 Form 10-K | 29 As of September 24, 2016 and September 26, 2015, the Company’s cash, cash equivalents and marketable securities held by foreign subsidiaries were $216.0 billion and $186.9 billion, respectively, and are generally based in U.S. dollar-denominated holdings. Amounts held by foreign subsidiaries are generally subject to U.S. income taxation on repatriation to the U.S. In connection with the State Aid Decision, the European Commission announced a recovery amount of up to €13 billion, plus interest. The actual amount of additional taxes subject to recovery is to be calculated by Ireland in accordance with the European Commission's guidance. Once the recovery amount is computed by Ireland, the Company anticipates funding it, including interest, out of foreign cash into escrow, pending conclusion of all appeals. The Company’s marketable securities investment portfolio is invested primarily in highly-rated securities and its investment policy generally limits the amount of credit exposure to any one issuer. The policy requires investments generally to be investment grade with the objective of minimizing the potential risk of principal loss. During 2016, cash generated from operating activities of $65.8 billion was a result of $45.7 billion of net income, non-cash adjustments to net income of $19.7 billion and an increase in the net change in operating assets and liabilities of $484 million. Cash used in investing activities of $46.0 billion during 2016 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $30.6 billion and cash used to acquire property, plant and equipment of $12.7 billion. Cash used in financing activities of $20.5 billion during 2016 consisted primarily of cash used to repurchase common stock of $29.7 billion, cash used to pay dividends and dividend equivalents of $12.2 billion and cash used to repay term debt of $2.5 billion, partially offset by net proceeds from the issuance of term debt of $25.0 billion. During 2015, cash generated from operating activities of $81.3 billion was a result of $53.4 billion of net income, non-cash adjustments to net income of $16.2 billion and an increase in the net change in operating assets and liabilities of $11.6 billion. Cash used in investing activities of $56.3 billion during 2015 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $44.4 billion and cash used to acquire property, plant and equipment of $11.2 billion. Cash used in financing activities of $17.7 billion during 2015 consisted primarily of cash used to repurchase common stock of $35.3 billion and cash used to pay dividends and dividend equivalents of $11.6 billion, partially offset by net proceeds from the issuance of term deb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +204,15 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -145,9 +262,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -163,6 +279,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="O22" activeCellId="1" sqref="H19 O22"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="145" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,1437 +603,1527 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
         <v>45870</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>45836</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
         <v>45779</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>45745</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
         <v>45688</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>45654</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>45597</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>45563</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
         <v>45506</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>45472</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
         <v>45415</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>45381</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1"/>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
         <v>45324</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>45290</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>45233</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>45199</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
         <v>45142</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>45108</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
         <v>45051</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>45017</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
         <v>44960</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>44926</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1"/>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>44862</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>44828</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1"/>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3">
         <v>44771</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>44737</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
         <v>44680</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>44646</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1"/>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
         <v>44589</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>44555</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1"/>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>44498</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>44464</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1"/>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3">
         <v>44405</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>44373</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1"/>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3">
         <v>44315</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>44282</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1"/>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3">
         <v>44224</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>44191</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1"/>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>44134</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>44100</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>3</v>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3">
         <v>44043</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>44009</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>3</v>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="4">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3">
         <v>43952</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>43918</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>3</v>
+      <c r="D24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="4">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
         <v>43859</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>43827</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>3</v>
+      <c r="D25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>43769</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>43736</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="4">
+      <c r="D26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
         <v>43677</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>43645</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="4">
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
         <v>43586</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>43554</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="4">
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
         <v>43495</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>43463</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>43409</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>43372</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="4">
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3">
         <v>43313</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>43281</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="4">
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3">
         <v>43222</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>43190</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="4">
+      <c r="D32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3">
         <v>43133</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>43099</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>43042</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>43008</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4">
+      <c r="D34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3">
         <v>42949</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>42917</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="4">
+      <c r="D35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3">
         <v>42858</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>42826</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="4">
+      <c r="D36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3">
         <v>42767</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>42735</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="D37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>42669</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>42637</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="4">
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3">
         <v>42578</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>42546</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="4">
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
         <v>42487</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>42455</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="4">
+      <c r="D40" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3">
         <v>42396</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>42364</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="D41" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>42305</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>42273</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="4">
+      <c r="D42" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3">
         <v>42207</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>42182</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="4">
+      <c r="D43" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3">
         <v>42122</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>42091</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="4">
+      <c r="D44" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3">
         <v>42032</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>42000</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+      <c r="D45" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>41939</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>41909</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="4">
+      <c r="D46" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
         <v>41843</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>41818</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="4">
+      <c r="D47" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3">
         <v>41753</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>41727</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="4">
+      <c r="D48" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3">
         <v>41667</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>41636</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+      <c r="D49" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>41577</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>41545</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="4">
+      <c r="D50" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3">
         <v>41479</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>41454</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="4">
+      <c r="D51" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="3">
         <v>41388</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>41363</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="4">
+      <c r="D52" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="3">
         <v>41298</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>41272</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+      <c r="D53" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>41213</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>41181</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="4">
+      <c r="D54" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3">
         <v>41115</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>41090</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="4">
+      <c r="D55" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="3">
         <v>41024</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>40999</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="4">
+      <c r="D56" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="3">
         <v>40933</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>40908</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="D57" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>40842</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>40810</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="4">
+      <c r="D58" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="3">
         <v>40744</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>40719</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="4">
+      <c r="D59" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="3">
         <v>40654</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>40628</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="4">
+      <c r="D60" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="3">
         <v>40562</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>40537</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+      <c r="D61" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>40478</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>40446</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="4">
+      <c r="D62" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="3">
         <v>40380</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>40355</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="4">
+      <c r="D63" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="3">
         <v>40289</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>40264</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+      <c r="D64" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>40203</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>40082</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="4">
+      <c r="D65" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="3">
         <v>40203</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>40173</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+      <c r="D66" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>40113</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>40082</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="4">
+      <c r="D67" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="3">
         <v>40016</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>39991</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+      <c r="D68" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>39930</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>39900</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="4">
+      <c r="D69" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="3">
         <v>39926</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>39900</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="4">
+      <c r="D70" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="3">
         <v>39836</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>39809</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+      <c r="D71" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>39757</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>39718</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="4">
+      <c r="D72" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="3">
         <v>39652</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>39627</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="4">
+      <c r="D73" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="3">
         <v>39569</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>39536</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="4">
+      <c r="D74" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="3">
         <v>39479</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>39445</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+      <c r="D75" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>39401</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>39354</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="4">
+      <c r="D76" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="3">
         <v>39302</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>39263</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="4">
+      <c r="D77" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="3">
         <v>39212</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>39172</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="4">
+      <c r="D78" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3">
         <v>39115</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>39081</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" s="4">
+      <c r="D79" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="3">
         <v>39080</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>38899</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>39080</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>38990</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="4">
+    <row r="82" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="3">
         <v>38842</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>38808</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" s="4">
+    <row r="83" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="3">
         <v>38751</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>38717</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>38687</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>38619</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" s="4">
+    <row r="85" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="3">
         <v>38567</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>38528</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="4">
+    <row r="86" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="3">
         <v>38476</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>38437</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="4">
+    <row r="87" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="3">
         <v>38384</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>38346</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>38324</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>38255</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="4">
+    <row r="89" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="3">
         <v>38204</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>38164</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="4">
+    <row r="90" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="3">
         <v>38113</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>38073</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="4">
+    <row r="91" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="3">
         <v>38027</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>37982</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>37974</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="3">
         <v>37891</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" s="4">
+    <row r="93" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="3">
         <v>37845</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>37800</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="4">
+    <row r="94" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="3">
         <v>37754</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>37709</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="4">
+    <row r="95" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="3">
         <v>37662</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>37618</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>37609</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="3">
         <v>37527</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="4">
+    <row r="97" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="3">
         <v>37477</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="3">
         <v>37436</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="4">
+    <row r="98" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="3">
         <v>37390</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <v>37345</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" s="4">
+    <row r="99" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="3">
         <v>37298</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="3">
         <v>37254</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" s="4">
+    <row r="100" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="3">
         <v>37116</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="3">
         <v>37072</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="4">
+    <row r="101" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="3">
         <v>37025</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="3">
         <v>36981</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="4">
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="3">
         <v>36934</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <v>36890</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="4" t="s">
         <v>10</v>
       </c>
     </row>

--- a/aapl_sec_filings.xlsx
+++ b/aapl_sec_filings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komendra sahu\Dropbox\PC\Desktop\DVA-sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60534ED0-73B3-4FDE-81DE-7BA8254106E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1551B1EA-131F-4FE9-AC90-43E0D1492DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,10 +160,10 @@
     <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10‑Q contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the Company’s Annual Report on Form 10-K for the year ended September 24, 2016 (the “2016 Form 10-K”) filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and notes thereto included elsewhere in this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company’s Annual Report on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the SEC. The Company is subject to the informational requirements of the Exchange Act and files or furnishes reports, proxy statements, and other information with the SEC. Such reports and other information filed by the Company with the SEC are available free of charge on the Company’s website at investor.apple.com/sec.cfm when such reports are available on the SEC’s website. The public may read and copy any materials filed by the Company with the SEC at the SEC’s Public Reference Room at 100 F Street, NE, Room 1580, Washington, DC 20549. The public may obtain information on the operation of the Public Reference Room by calling the SEC at 1-800-SEC-0330. The SEC maintains an internet site that contains reports, proxy and information statements and other information regarding issuers that file electronically with the SEC at www.sec.gov. The contents of websites are not incorporated into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices and personal computers, and sells a variety of related software, services, accessories, networking solutions and third-party digital content and applications. The Company’s products and services include iPhone®, iPad®, Mac®, Apple Watch®, Apple TV®, a portfolio of consumer and professional software applications, iOS, macOS®, watchOS® and tvOS™ operating systems, iCloud®, Apple Pay® and a variety of accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store®, App Store®, Mac App Store, TV App Store, iBooks Store™ and Apple Music® (collectively “Digital Content and Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and value-added resellers. In addition, the Company sells a variety of third-party Apple-compatible products, including application software and various accessories through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Business Strategy The Company is committed to bringing the best user experience to its customers through its innovative hardware, software and services. The Company’s business strategy leverages its unique ability to design and develop its own operating systems, hardware, application software and services to provide its customers products and solutions with innovative design, superior ease-of-use and seamless integration. As part of its strategy, the Company continues to expand its platform for the discovery and delivery of digital content and applications through its Digital Content and Services, which allows customers to discover and download digital content, iOS, Mac, Apple Watch and Apple TV applications, and books through either a Mac or Windows personal computer or through iPhone, iPad and iPod touch® devices (“iOS devices”), Apple TV and Apple Watch. The Company also supports a community for the development of third-party software and hardware products and digital content that complement the Company’s offerings. The Company believes a high-quality buying experience with knowledgeable salespersons who can convey the value of the Company’s products and services greatly enhances its ability to attract and retain customers. Therefore, the Company’s strategy also includes building and expanding its own retail and online stores and its third-party distribution network to effectively reach more customers and provide them with a high-quality sales and post-sales support experience. The Company believes ongoing investment in research and development (“R&amp;D”), marketing and advertising is critical to the development and sale of innovative products and technologies. 23 Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product introductions can significantly impact net sales, product costs and operating expenses. Product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new product inventory following a product introduction, and often, channel inventory of a particular product declines as the next related major product launch approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. However, neither historical seasonal patterns nor historical patterns of product introductions should be considered reliable indicators of the Company’s future pattern of product introductions, future net sales or financial performance. Fiscal Period The Company’s fiscal year is the 52 or 53-week period that ends on the last Saturday of September. The Company’s fiscal year 2017 will include 53 weeks and will end on September 30, 2017. A 14th week was included in the first quarter of 2017, as is done every five or six years, to realign the Company’s fiscal quarters with calendar quarters. Second Quarter Fiscal 2017 Highlights Net sales increased 5% or $2.3 billion during the second quarter of 2017 compared to the same quarter in 2016, primarily driven by strong growth in Services, Mac and Other Products, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar. Net sales reflected year-over-year growth in each of the geographic operating segments, with the exception of Greater China. During the second quarter of 2017, the Company introduced a new 9.7-inch iPad, which became available at the end of the quarter. The Company utilized $7.0 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $3.0 billion during the second quarter of 2017. Additionally, the Company issued $11.0 billion of U.S. dollar-denominated long-term debt. Sales Data The following table shows net sales by operating segment and net sales and unit sales by product for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions and units in thousands): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net Sales by Operating Segment: Americas $ 21,157 $ 19,096 11 % $ 53,125 $ 48,421 10 % Europe 12,733 11,535 10 % 31,254 29,467 6 % Greater China 10,726 12,486 (14 )% 26,959 30,859 (13 )% Japan 4,485 4,281 5 % 10,251 9,075 13 % Rest of Asia Pacific 3,795 3,159 20 % 9,658 8,607 12 % Total net sales $ 52,896 $ 50,557 5 % $ 131,247 $ 126,429 4 % Net Sales by Product: iPhone (1) $ 33,249 $ 32,857 1 % $ 87,627 $ 84,492 4 % iPad (1) 3,889 4,413 (12 )% 9,422 11,497 (18 )% Mac (1) 5,844 5,107 14 % 13,088 11,853 10 % Services (2) 7,041 5,991 18 % 14,213 12,047 18 % Other Products (1)(3) 2,873 2,189 31 % 6,897 6,540 5 % Total net sales $ 52,896 $ 50,557 5 % $ 131,247 $ 126,429 4 % Unit Sales by Product: iPhone 50,763 51,193 (1 )% 129,053 125,972 2 % iPad 8,922 10,251 (13 )% 22,003 26,373 (17 )% Mac 4,199 4,034 4 % 9,573 9,346 2 % (1)Includes deferrals and amortization of related software upgrade rights and non-software services. (2)Includes revenue from Digital Content and Services, AppleCare®, Apple Pay, licensing and other services. (3)Includes sales of Apple TV, Apple Watch, Beats® products, iPod and Apple-branded and third-party accessories. 24 Product Performance iPhone The following table presents iPhone net sales and unit sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions and units in thousands): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 33,249 $ 32,857 1 % $ 87,627 $ 84,492 4 % Percentage of total net sales 63 % 65 % 67 % 67 % Unit sales 50,763 51,193 (1 )% 129,053 125,972 2 % iPhone net sales increased during the second quarter of 2017 compared to the same period in 2016 due to higher iPhone average selling prices (“ASPs”), largely offset by the effect of weakness in foreign currencies relative to the U.S. dollar. The year-over-year increase in iPhone net sales during the first six months of 2017 was due primarily to higher iPhone unit sales and to a lesser extent higher iPhone ASPs, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar. iPad The following table presents iPad net sales and unit sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions and units in thousands): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 3,889 $ 4,413 (12 )% $ 9,422 $ 11,497 (18 )% Percentage of total net sales 7 % 9 % 7 % 9 % Unit sales 8,922 10,251 (13 )% 22,003 26,373 (17 )% iPad net sales decreased in the second quarter and first six months of 2017 compared to the same periods in 2016 due primarily to lower iPad unit sales in each of the geographic operating segments and to a lesser extent the effect of weakness in foreign currencies relative to the U.S. dollar. Mac The following table presents Mac net sales and unit sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions and units in thousands): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 5,844 $ 5,107 14 % $ 13,088 $ 11,853 10 % Percentage of total net sales 11 % 10 % 10 % 9 % Unit sales 4,199 4,034 4 % 9,573 9,346 2 % Mac net sales increased during the second quarter and first six months of 2017 compared to the same periods in 2016 due primarily to a different mix of Macs, including the new MacBook Pro introduced in the first quarter of 2017, and to a lesser extent higher Mac unit sales. The year-over-year increase in Mac net sales was partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar. 25 Services The following table presents Services net sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 7,041 $ 5,991 18 % $ 14,213 $ 12,047 18 % Percentage of total net sales 13 % 12 % 11 % 10 % The year-over-year increase in Services net sales in the second quarter and first six months of 2017 compared to the same periods in 2016 was due primarily to growth from the App Store and licensing sales. The year-over-year increase in Services net sales during the first six months of 2017 was partially offset by the non-recurrence of the $548 million received from Samsung Electronics Co., Ltd. in the first quarter of 2016 related to patent infringement matters. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable operating segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, as well as India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and those Asian countries not included in the Company’s other reportable operating segments. Although the reportable operating segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable operating segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements, in Note 11, “Segment Information and Geographic Data.” Americas The following table presents Americas net sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 21,157 $ 19,096 11 % $ 53,125 $ 48,421 10 % Percentage of total net sales 40 % 38 % 40 % 38 % Americas net sales increased during the second quarter of 2017 compared to the same period in 2016 due primarily to higher net sales of iPhone and Other Products. The year-over-year increase in Americas net sales during the first six months of 2017 was due primarily to higher net sales of iPhone and Mac, partially offset by lower net sales of iPad. Europe The following table presents Europe net sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 12,733 $ 11,535 10 % $ 31,254 $ 29,467 6 % Percentage of total net sales 24 % 23 % 24 % 23 % Europe net sales increased during the second quarter of 2017 compared to the same period in 2016 due primarily to higher net sales of iPhone and Mac, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar. The year-over-year increase in Europe net sales during the first six months of 2017 was due primarily to higher net sales of iPhone and Services, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar and to a lesser extent lower net sales of iPad. 26 Greater China The following table presents Greater China net sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 10,726 $ 12,486 (14 )% $ 26,959 $ 30,859 (13 )% Percentage of total net sales 20 % 25 % 21 % 24 % Greater China net sales decreased during the second quarter and first six months of 2017 compared to the same periods in 2016 due primarily to lower net sales of iPhone and the effect of weakness in foreign currencies relative to the U.S. dollar, partially offset by growth in net sales of Services. Japan The following table presents Japan net sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 4,485 $ 4,281 5 % $ 10,251 $ 9,075 13 % Percentage of total net sales 8 % 8 % 8 % 7 % Japan net sales increased during the second quarter of 2017 compared to the same period in 2016 due primarily to higher net sales of Services and the effect of strength in the Japanese yen relative to the U.S. dollar. The year-over-year increase in Japan net sales during the first six months of 2017 was due primarily to the effect of strength in the Japanese yen relative to the U.S. dollar and growth in net sales of iPhone. Rest of Asia Pacific The following table presents Rest of Asia Pacific net sales information for the three- and six-month periods ended April 1, 2017 and March 26, 2016 (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Net sales $ 3,795 $ 3,159 20 % $ 9,658 $ 8,607 12 % Percentage of total net sales 7 % 6 % 7 % 7 % Rest of Asia Pacific net sales increased during the second quarter of 2017 compared to the same period in 2016 due primarily to higher net sales of iPhone and Mac. The year-over-year increase in Rest of Asia Pacific net sales during the first six months of 2017 was due primarily to higher net sales of iPhone and the effect of strength in foreign currencies relative to the U.S. dollar. Gross Margin Gross margin for the three- and six-month periods ended April 1, 2017 and March 26, 2016 was as follows (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 April 1, 2017 March 26, 2016 Net sales $ 52,896 $ 50,557 $ 131,247 $ 126,429 Cost of sales 32,305 30,636 80,480 76,085 Gross margin $ 20,591 $ 19,921 $ 50,767 $ 50,344 Gross margin percentage 38.9 % 39.4 % 38.7 % 39.8 % Gross margin decreased during the second quarter and first six months of 2017 compared to the same periods in 2016 due primarily to higher product cost structures and the effect of weakness in foreign currencies relative to the U.S. dollar, partially offset by a favorable mix of products and services. 27 The Company anticipates gross margin during the third quarter of 2017 to be between 37.5% and 38.5%. The foregoing statement regarding the Company’s expected gross margin percentage in the third quarter of 2017 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will remain under downward pressure due to a variety of factors, including continued industry-wide global product pricing pressures, increased competition, compressed product life cycles, product transitions, potential increases in the cost of components, and potential strengthening of the U.S. dollar, as well as potential increases in the costs of outside manufacturing services and a potential shift in the Company’s sales mix towards products with lower gross margins. In response to competitive pressures, the Company expects it will continue to take product pricing actions, which would adversely affect gross margins. Gross margins could also be affected by the Company’s ability to manage product quality and warranty costs effectively and to stimulate demand for certain of its products. Due to the Company’s significant international operations, its financial condition and operating results, including gross margins, could be significantly affected by fluctuations in exchange rates. Operating Expenses Operating expenses for the three- and six-month periods ended April 1, 2017 and March 26, 2016 were as follows (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 April 1, 2017 March 26, 2016 Research and development $ 2,776 $ 2,511 $ 5,647 $ 4,915 Percentage of total net sales 5 % 5 % 4 % 4 % Selling, general and administrative $ 3,718 $ 3,423 $ 7,664 $ 7,271 Percentage of total net sales 7 % 7 % 6 % 6 % Total operating expenses $ 6,494 $ 5,934 $ 13,311 $ 12,186 Percentage of total net sales 12 % 12 % 10 % 10 % Research and Development The growth in R&amp;D expense during the second quarter and first six months of 2017 compared to the same periods in 2016 was driven primarily by an increase in headcount and related expenses to support expanded R&amp;D activities. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the second quarter of 2017 compared to the same quarter in 2016 was driven primarily by an increase in headcount and related expenses and higher spending on marketing and advertising. The year-over-year growth in selling, general and administrative expense during the first six months of 2017 was driven primarily by an increase in headcount and related expenses and higher variable selling costs. Other Income/(Expense), Net Other income/(expense), net for the three- and six-month periods ended April 1, 2017 and March 26, 2016 was as follows (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 Change April 1, 2017 March 26, 2016 Change Interest and dividend income $ 1,282 $ 986 $ 2,506 $ 1,927 Interest expense (530 ) (321 ) (1,055 ) (597 ) Other expense, net (165 ) (510 ) (43 ) (773 ) Total other income/(expense), net $ 587 $ 155 279 % $ 1,408 $ 557 153 % The increase in other income/(expense), net during the second quarter and first six months of 2017 compared to the same periods in 2016 was due primarily to higher interest income and the favorable impact of foreign exchange-related items, partially offset by higher interest expense on debt. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 1.99% and 1.74% in the second quarter of 2017 and 2016, respectively, and 1.93% and 1.70% in the first six months of 2017 and 2016, respectively. Provision for Income Taxes Provision for income taxes and effective tax rates for the three- and six-month periods ended April 1, 2017 and March 26, 2016 were as follows (dollars in millions): Three Months Ended Six Months Ended April 1, 2017 March 26, 2016 April 1, 2017 March 26, 2016 Provision for income taxes $ 3,655 $ 3,626 $ 9,944 $ 9,838 Effective tax rate 24.9 % 25.6 % 25.6 % 25.4 % The Company’s effective tax rates during the second quarter of 2017 and 2016 differ from the statutory federal income tax rate of 35% due primarily to certain undistributed foreign earnings, a substantial portion of which was generated by subsidiaries organized in Ireland, for which no U.S. taxes are provided when such earnings are intended to be indefinitely reinvested outside the U.S. The lower effective tax rate during the second quarter of 2017 compared to the same quarter in 2016 was due primarily to a different geographic mix of earnings. The slightly higher effective tax rate in the first six months of 2017 compared to the same period in 2016 was due primarily to the retroactive reinstatement of the U.S. federal R&amp;D tax credit during the first quarter of 2016. The Company is subject to audits by federal, state, local and foreign tax authorities. Management believes that adequate provisions have been made for any adjustments that may result from tax examinations. However, the outcome of tax audits cannot be predicted with certainty. If any issues addressed in the Company’s tax audits are resolved in a manner not consistent with management’s expectations, the Company could be required to adjust its provision for income taxes in the period such resolution occurs. On August 30, 2016, the European Commission announced its decision that Ireland granted state aid to the Company by providing tax opinions in 1991 and 2007 concerning the tax allocation of profits of the Irish branches of two subsidiaries of the Company (the “State Aid Decision”). The State Aid Decision orders Ireland to calculate and recover additional taxes from the Company for the period June 2003 through December 2014. Irish legislative changes, effective as of January 2015, eliminated the application of the tax opinions from that date forward. The Company believes the State Aid Decision to be without merit and appealed to the General Court of the Court of Justice of the European Union. Ireland has also appealed the State Aid Decision. While the European Commission announced a recovery amount of up to €13 billion, plus interest, the actual amount of additional taxes subject to recovery is to be calculated by Ireland in accordance with the European Commission's guidance. Once the recovery amount is computed by Ireland, the Company anticipates funding it, including interest, out of foreign cash into escrow, where it will remain pending conclusion of all appeals. The Company believes that any incremental Irish corporate income taxes potentially due related to the State Aid Decision would be creditable against U.S. taxes. Recent Accounting Pronouncements Restricted Cash In November 2016, the Financial Accounting Standards Board (“FASB”) issued Accounting Standards Update (“ASU”) No. 2016-18, Statement of Cash Flows (Topic 230): Restricted Cash (“ASU 2016-18”), which enhances and clarifies the guidance on the classification and presentation of restricted cash in the statement of cash flows. The Company will adopt ASU 2016-18 in its first quarter of 2019 utilizing the retrospective adoption method. Currently, the Company's restricted cash balance is not significant. Income Taxes In October 2016, the FASB issued ASU No. 2016-16, Income Taxes (Topic 740): Intra-Entity Transfers of Assets Other Than Inventory (“ASU 2016-16”), which requires the recognition of the income tax consequences of an intra-entity transfer of an asset, other than inventory, when the transfer occurs. The Company will adopt ASU 2016-16 in its first quarter of 2019 utilizing the modified retrospective adoption method. Currently, the Company anticipates recording up to $9 billion of net deferred tax assets on its Consolidated Balance Sheets. However, the ultimate impact of adopting ASU 2016-16 will depend on the balance of intellectual property transferred between its subsidiaries as of the adoption date. The Company will recognize incremental deferred income tax expense thereafter as these deferred tax assets are utilized. Stock Compensation In March 2016, the FASB issued ASU No. 2016-09, Compensation – Stock Compensation (Topic 718): Improvements to Employee Share-Based Payment Accounting (“ASU 2016-09”), which modifies certain aspects of the accounting for share-based payment transactions, including income taxes, classification of awards, and classification in the statement of cash flows. The Company will adopt ASU 2016-09 in its first quarter of 2018. Currently, excess tax benefits or deficiencies from the Company's equity awards are recorded as additional paid-in capital in its Consolidated Balance Sheets. Upon adoption, the Company will record any excess tax benefits or deficiencies from its equity awards in its Consolidated Statements of Operations in the reporting periods in which vesting occurs. As a result, subsequent to adoption the Company's income tax expense and associated effective tax rate will be impacted by fluctuations in stock price between the grant dates and vesting dates of equity awards. 28 Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. ASU 2016-02 will be effective for the Company beginning in its first quarter of 2020, and early adoption is permitted. The Company will use a modified retrospective adoption approach. While the Company is currently evaluating the timing and impact of adopting ASU 2016-02, currently the Company anticipates recording lease assets and liabilities in excess of $8.2 billion on its Consolidated Balance Sheets, with no material impact to its Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company's lease portfolio as of the adoption date. Financial Instruments In January 2016, the FASB issued ASU No. 2016-01, Financial Instruments – Overall (Subtopic 825-10): Recognition and Measurement of Financial Assets and Financial Liabilities (“ASU 2016-01”), which updates certain aspects of recognition, measurement, presentation and disclosure of financial instruments. The Company will adopt ASU 2016-01 in its first quarter of 2019 utilizing the modified retrospective adoption method. Based on the composition of the Company's investment portfolio, the adoption of ASU 2016-01 is not expected to have a material impact on its consolidated financial statements. In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses of certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective adoption method. Based on the composition of the Company's investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Revenue Recognition In May 2014, the FASB issued ASU No. 2014-09, Revenue from Contracts with Customers (Topic 606) (“ASU 2014-09”), which amends the existing accounting standards for revenue recognition. ASU 2014-09 is based on principles that govern the recognition of revenue at an amount an entity expects to be entitled when products are transferred to customers. Subsequently, the FASB has issued the following standards related to ASU 2014-09: ASU No. 2016-08, Revenue from Contracts with Customers (Topic 606): Principal versus Agent Considerations (“ASU 2016-08”); ASU No. 2016-10, Revenue from Contracts with Customers (Topic 606): Identifying Performance Obligations and Licensing (“ASU 2016-10”); ASU No. 2016-12, Revenue from Contracts with Customers (Topic 606): Narrow-Scope Improvements and Practical Expedients (“ASU 2016-12”); and ASU No. 2016-20, Technical Corrections and Improvements to Topic 606, Revenue from Contracts with Customers (“ASU 2016-20”). The Company must adopt ASU 2016-08, ASU 2016-10, ASU 2016-12 and ASU 2016-20 with ASU 2014-09 (collectively, the “new revenue standards”). The new revenue standards may be applied retrospectively to each prior period presented or retrospectively with the cumulative effect recognized as of the date of adoption. The Company plans to adopt the new revenue standards in its first quarter of 2019 utilizing the full retrospective adoption method. The new revenue standards are not expected to have a material impact on the amount and timing of revenue recognized in the Company's consolidated financial statements. Liquidity and Capital Resources The following tables present selected financial information and statistics as of April 1, 2017 and September 24, 2016 and for the first six months of 2017 and 2016 (in millions): April 1, 2017 September 24, 2016 Cash, cash equivalents and market</t>
   </si>
   <si>
-    <t>'Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10‑Q contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the Company’s Annual Report on Form 10-K for the year ended September 24, 2016 (the “2016 Form 10-K”) filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and notes thereto included elsewhere in this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company’s Annual Report on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the SEC. The Company is subject to the informational requirements of the Exchange Act and files or furnishes reports, proxy statements, and other information with the SEC. Such reports and other information filed by the Company with the SEC are available free of charge on the Company’s website at investor.apple.com/sec.cfm when such reports are available on the SEC’s website. The public may read and copy any materials filed by the Company with the SEC at the SEC’s Public Reference Room at 100 F Street, NE, Room 1580, Washington, DC 20549. The public may obtain information on the operation of the Public Reference Room by calling the SEC at 1-800-SEC-0330. The SEC maintains an internet site that contains reports, proxy and information statements and other information regarding issuers that file electronically with the SEC at www.sec.gov. The contents of websites are not incorporated into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices, personal computers and portable digital music players, and sells a variety of related software, services, accessories, networking solutions and third-party digital content and applications. The Company’s products and services include iPhone®, iPad®, Mac®, iPod®, Apple Watch®, Apple TV®, a portfolio of consumer and professional software applications, iOS, macOS™, watchOS® and tvOS™ operating systems, iCloud®, Apple Pay® and a variety of accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store®, App Store®, Mac App Store, TV App Store, iBooks Store™ and Apple Music® (collectively “Digital Content and Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and value-added resellers. In addition, the Company sells a variety of third-party Apple-compatible products, including application software and various accessories through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Business Strategy The Company is committed to bringing the best user experience to its customers through its innovative hardware, software and services. The Company’s business strategy leverages its unique ability to design and develop its own operating systems, hardware, application software and services to provide its customers products and solutions with innovative design, superior ease-of-use and seamless integration. As part of its strategy, the Company continues to expand its platform for the discovery and delivery of digital content and applications through its Digital Content and Services, which allows customers to discover and download digital content, iOS, Mac, Apple Watch and Apple TV applications, and books through either a Mac or Windows personal computer or through iPhone, iPad and iPod touch® devices (“iOS devices”), Apple TV and Apple Watch. The Company also supports a community for the development of third-party software and hardware products and digital content that complement the Company’s offerings. The Company believes a high-quality buying experience with knowledgeable salespersons who can convey the value of the Company’s products and services greatly enhances its ability to attract and retain customers. Therefore, the Company’s strategy also includes building and expanding its own retail and online stores and its third-party distribution network to effectively reach more customers and provide them with a high-quality sales and post-sales support experience. The Company believes ongoing investment in research and development (“R&amp;D”), marketing and advertising is critical to the development and sale of innovative products and technologies. 22 Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product introductions can significantly impact net sales, product costs and operating expenses. Product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new product inventory following a product introduction, and often, channel inventory of a particular product declines as the next related major product launch approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. However, neither historical seasonal patterns nor historical patterns of product introductions should be considered reliable indicators of the Company’s future pattern of product introductions, future net sales or financial performance. Fiscal Period The Company’s fiscal year is the 52 or 53-week period that ends on the last Saturday of September. The Company’s fiscal year 2017 will include 53 weeks and will end on September 30, 2017. A 14th week has been included in the first quarter of 2017, as is done every five or six years, to realign the Company’s fiscal quarters with calendar quarters. First Quarter Fiscal 2017 Highlights Net sales grew 3% or $2.5 billion during the first quarter of 2017 compared to the first quarter of 2016, primarily driven by strong growth in iPhone and Services, partially offset by lower iPad sales. The positive impact of having an additional week in the first quarter of 2017 was primarily offset by lower year-over-year channel inventory growth, an earlier launch of iPhone 7 and 7 Plus as compared to the prior year and the effect of weakness in foreign currencies relative to the U.S. dollar. During the first quarter of 2017, the Company introduced a new MacBook Pro® with Touch Bar™, an interface that replaces the traditional row of function keys, and released AirPods™, which are new wireless headphones. Sales Data The following table shows net sales by operating segment and net sales and unit sales by product for the three months ended December 31, 2016 and December 26, 2015 (dollars in millions and units in thousands): Three Months Ended December 31, 2016 December 26, 2015 Change Net Sales by Operating Segment: Americas $ 31,968 $ 29,325 9 % Europe 18,521 17,932 3 % Greater China 16,233 18,373 (12 )% Japan 5,766 4,794 20 % Rest of Asia Pacific 5,863 5,448 8 % Total net sales $ 78,351 $ 75,872 3 % Net Sales by Product: iPhone (1) $ 54,378 $ 51,635 5 % iPad (1) 5,533 7,084 (22 )% Mac (1) 7,244 6,746 7 % Services (2) 7,172 6,056 18 % Other Products (1)(3) 4,024 4,351 (8 )% Total net sales $ 78,351 $ 75,872 3 % Unit Sales by Product: iPhone 78,290 74,779 5 % iPad 13,081 16,122 (19 )% Mac 5,374 5,312 1 % (1) Includes deferrals and amortization of related software upgrade rights and non-software services. (2) Includes revenue from Digital Content and Services, AppleCare®, Apple Pay, licensing and other services. (3) Includes sales of Apple TV, Apple Watch, Beats® products, iPod and Apple-branded and third-party accessories. 23 Product Performance iPhone The following table presents iPhone net sales and unit sales information for the first quarter of 2017 and 2016 (dollars in millions and units in thousands): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 54,378 $ 51,635 5 % Percentage of total net sales 69 % 68 % Unit sales 78,290 74,779 5 % iPhone net sales increased during the first quarter of 2017 compared to the same quarter in 2016, driven by strong growth in each of the geographic operating segments, with the exception of Greater China. iPad The following table presents iPad net sales and unit sales information for the first quarter of 2017 and 2016 (dollars in millions and units in thousands): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 5,533 $ 7,084 (22 )% Percentage of total net sales 7 % 9 % Unit sales 13,081 16,122 (19 )% iPad net sales decreased in the first quarter of 2017 compared to the same quarter in 2016 due to lower iPad unit sales and lower average selling prices for iPad, both due in part to the introduction of the 12.9-inch iPad Pro in the first quarter of 2016. Mac The following table presents Mac net sales and unit sales information for the first quarter of 2017 and 2016 (dollars in millions and units in thousands): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 7,244 $ 6,746 7 % Percentage of total net sales 9 % 9 % Unit sales 5,374 5,312 1 % Mac net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to a different mix of Macs, including the new MacBook Pro introduced in the first quarter of 2017. Services The following table presents Services net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 7,172 $ 6,056 18 % Percentage of total net sales 9 % 8 % The year-over-year increase in Services net sales in the first quarter of 2017 compared to the same quarter in 2016 was due primarily to growth from the App Store and AppleCare sales, partially offset by the $548 million received from Samsung Electronics Co., Ltd. in the first quarter of 2016 related to patent infringement matters. 24 Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable operating segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, as well as India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and those Asian countries not included in the Company’s other reportable operating segments. Although the reportable operating segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable operating segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements, in Note 11, “Segment Information and Geographic Data.” Americas The following table presents Americas net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 31,968 $ 29,325 9 % Percentage of total net sales 41 % 39 % Americas net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher net sales of iPhone, partially offset by lower net sales of iPad. Europe The following table presents Europe net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 18,521 $ 17,932 3 % Percentage of total net sales 24 % 24 % Europe net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher net sales of iPhone, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar and a decrease in net sales of iPad. Greater China The following table presents Greater China net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 16,233 $ 18,373 (12 )% Percentage of total net sales 21 % 24 % Greater China net sales decreased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to lower net sales of iPhone and the effect of weakness in foreign currencies relative to the U.S. dollar. 25 Japan The following table presents Japan net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 5,766 $ 4,794 20 % Percentage of total net sales 7 % 6 % Japan net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher net sales of iPhone and Services, and the effect of strength in the Japanese yen relative to the U.S. dollar. Rest of Asia Pacific The following table presents Rest of Asia Pacific net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 5,863 $ 5,448 8 % Percentage of total net sales 7 % 7 % Rest of Asia Pacific net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher net sales of iPhone and the effect of strength in foreign currencies relative to the U.S. dollar. Gross Margin Gross margin for the first quarter of 2017 and 2016 was as follows (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Net sales $ 78,351 $ 75,872 Cost of sales 48,175 45,449 Gross margin $ 30,176 $ 30,423 Gross margin percentage 38.5 % 40.1 % Gross margin decreased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher product cost structures and the effect of weakness in foreign currencies relative to the U.S. dollar, partially offset by a favorable mix of products and services. The Company anticipates gross margin during the second quarter of 2017 to be between 38% and 39%. The foregoing statement regarding the Company’s expected gross margin percentage in the second quarter of 2017 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will remain under downward pressure due to a variety of factors, including continued industry-wide global product pricing pressures, increased competition, compressed product life cycles, product transitions, potential increases in the cost of components, and potential strengthening of the U.S. dollar, as well as potential increases in the costs of outside manufacturing services and a potential shift in the Company’s sales mix towards products with lower gross margins. In response to competitive pressures, the Company expects it will continue to take product pricing actions, which would adversely affect gross margins. Gross margins could also be affected by the Company’s ability to manage product quality and warranty costs effectively and to stimulate demand for certain of its products. Due to the Company’s significant international operations, its financial condition and operating results, including gross margins, could be significantly affected by fluctuations in exchange rates. 26 Operating Expenses Operating expenses for the first quarter of 2017 and 2016 were as follows (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Research and development $ 2,871 $ 2,404 Percentage of total net sales 4 % 3 % Selling, general and administrative $ 3,946 $ 3,848 Percentage of total net sales 5 % 5 % Total operating expenses $ 6,817 $ 6,252 Percentage of total net sales 9 % 8 % Research and Development The growth in R&amp;D expense during the first quarter of 2017 compared to the same quarter in 2016 was driven primarily by an increase in headcount and related expenses, and material costs to support expanded R&amp;D activities. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the first quarter of 2017 compared to the same quarter in 2016 was driven primarily by an increase in headcount and related expenses and higher variable selling costs, partially offset by lower advertising costs. Other Income/(Expense), Net Other income/(expense), net for the first quarter of 2017 and 2016 was as follows (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Interest and dividend income $ 1,224 $ 941 Interest expense (525 ) (276 ) Other income/(expense), net 122 (263 ) Total other income/(expense), net $ 821 $ 402 104 % The increase in other income/(expense), net during the first quarter of 2017 compared to the same quarter in 2016 was due primarily to higher interest income and foreign exchange gains, partially offset by higher interest expense on debt. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 1.87% and 1.65% in the first quarter of 2017 and 2016, respectively. Provision for Income Taxes Provision for income taxes and effective tax rates for the first quarter of 2017 and 2016 were as follows (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Provision for income taxes $ 6,289 $ 6,212 Effective tax rate 26.0 % 25.3 % The Company’s effective tax rates during the first quarter of 2017 and 2016 differ from the statutory federal income tax rate of 35% due primarily to certain undistributed foreign earnings, a substantial portion of which was generated by subsidiaries organized in Ireland, for which no U.S. taxes are provided when such earnings are intended to be indefinitely reinvested outside the U.S. The higher year-over-year effective tax rate during the first quarter of 2017 was due primarily to the retroactive reinstatement of the U.S. federal R&amp;D tax credit during the first quarter of 2016. 27 The Company is subject to audits by federal, state, local and foreign tax authorities. Management believes that adequate provisions have been made for any adjustments that may result from tax examinations. However, the outcome of tax audits cannot be predicted with certainty. If any issues addressed in the Company’s tax audits are resolved in a manner not consistent with management’s expectations, the Company could be required to adjust its provision for income taxes in the period such resolution occurs. On August 30, 2016, the European Commission announced its decision that Ireland granted state aid to the Company by providing tax opinions in 1991 and 2007 concerning the tax allocation of profits of the Irish branches of two subsidiaries of the Company (the “State Aid Decision”). The State Aid Decision orders Ireland to calculate and recover additional taxes from the Company for the period June 2003 through December 2014. Irish legislative changes, effective as of January 2015, eliminated the application of the tax opinions from that date forward. The Company believes the State Aid Decision to be without merit and appealed to the General Court of the Court of Justice of the European Union. Ireland has also appealed the State Aid Decision. While the European Commission announced a recovery amount of up to €13 billion, plus interest, the actual amount of additional taxes subject to recovery is to be calculated by Ireland in accordance with the European Commission's guidance. Once the recovery amount is computed by Ireland, the Company anticipates funding it, including interest, out of foreign cash into escrow, where it will remain pending conclusion of all appeals. The Company believes that any incremental Irish corporate income taxes potentially due related to the State Aid Decision would be creditable against U.S. taxes. Recent Accounting Pronouncements Restricted Cash In November 2016, the Financial Accounting Standards Board (“FASB”) issued Accounting Standards Update (“ASU”) No. 2016-18, Statement of Cash Flows (Topic 230): Restricted Cash (“ASU 2016-18”), which enhances and clarifies the guidance on the classification and presentation of restricted cash in the statement of cash flows. The Company will adopt ASU 2016-18 in its first quarter of 2019 utilizing the retrospective adoption method. Currently, the Company's restricted cash balance is not significant. Income Taxes In October 2016, the FASB issued ASU No. 2016-16, Income Taxes (Topic 740): Intra-Entity Transfers of Assets Other Than Inventory (“ASU 2016-16”), which requires the recognition of the income tax consequences of an intra-entity transfer of an asset, other than inventory, when the transfer occurs. The Company will adopt ASU 2016-16 in its first quarter of 2019 utilizing the modified retrospective adoption method. Currently, the Company anticipates recording up to $9 billion of net deferred tax assets on its Consolidated Balance Sheets. However, the ultimate impact of adopting ASU 2016-16 will depend on the balance of intellectual property transferred between its subsidiaries as of the adoption date. The Company will recognize incremental deferred income tax expense thereafter as these deferred tax assets are utilized. Stock Compensation In March 2016, the FASB issued ASU No. 2016-09, Compensation – Stock Compensation (Topic 718): Improvements to Employee Share-Based Payment Accounting (“ASU 2016-09”), which modifies certain aspects of the accounting for share-based payment transactions, including income taxes, classification of awards, and classification in the statement of cash flows. The Company will adopt ASU 2016-09 in its first quarter of 2018. Currently, excess tax benefits or deficiencies from the Company's equity awards are recorded as additional paid-in capital in its Consolidated Balance Sheets. Upon adoption, the Company will record any excess tax benefits or deficiencies from its equity awards in its Consolidated Statements of Operations in the reporting periods in which vesting occurs. As a result, subsequent to adoption the Company's income tax expense and associated effective tax rate will be impacted by fluctuations in stock price between the grant dates and vesting dates of equity awards. Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. ASU 2016-02 will be effective for the Company beginning in its first quarter of 2020, and early adoption is permitted. The Company will use a modified retrospective adoption approach. While the Company is currently evaluating the timing and impact of adopting ASU 2016-02, currently the Company anticipates recording lease assets and liabilities in excess of $7.5 billion on its Consolidated Balance Sheets, with no material impact to its Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company's lease portfolio as of the adoption date. Financial Instruments In January 2016, the FASB issued ASU No. 2016-01, Financial Instruments – Overall (Subtopic 825-10): Recognition and Measurement of Financial Assets and Financial Liabilities (“ASU 2016-01”), which updates certain aspects of recognition, measurement, presentation and disclosure of financial instruments. The Company will adopt ASU 2016-01 in its first quarter of 2019 utilizing the modified retrospective adoption method. Based on the composition of the Company's investment portfolio, the adoption of ASU 2016-01 is not expected to have a material impact on its consolidated financial statements. 28 In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses of certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective adoption method. Based on the composition of the Company's investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Revenue Recognition In May 2014, the FASB issued ASU No. 2014-09, Revenue from Contracts with Customers (Topic 606) (“ASU 2014-09”), which amends the existing accounting standards for revenue recognition. ASU 2014-09 is based on principles that govern the recognition of revenue at an amount an entity expects to be entitled when products are transferred to customers. Subsequently, the FASB has issued the following standards related to ASU 2014-09: ASU No. 2016-08, Revenue from Contracts with Customers (Topic 606): Principal versus Agent Considerations (“ASU 2016-08”); ASU No. 2016-10, Revenue from Contracts with Customers (Topic 606): Identifying Performance Obligations and Licensing (“ASU 2016-10”); ASU No. 2016-12, Revenue from Contracts with Customers (Topic 606): Narrow-Scope Improvements and Practical Expedients (“ASU 2016-12”); and ASU No. 2016-20, Technical Corrections and Improvements to Topic 606, Revenue from Contracts with Customers (“ASU 2016-20”). The Company must adopt ASU 2016-08, ASU 2016-10, ASU 2016-12 and ASU 2016-20 with ASU 2014-09 (collectively, the “new revenue standards”). The new revenue standards may be applied retrospectively to each prior period presented or retrospectively with the cumulative effect recognized as of the date of adoption. The Company currently expects to adopt the new revenue standards in its first quarter of 2018 utilizing the full retrospective adoption method. The new revenue standards are not expected to have a material impact on the amount and timing of revenue recognized in the Company's consolidated financial statements. Liquidity and Capital Resources The following tables present selected financial information and statistics as of December 31, 2016 and September 24, 2016 and for the first three months of 2017 and 2016 (in millions): December 31, 2016 September 24, 2016 Cash, cash equivalents and marketable securities $ 246,090 $ 237,585 Property, plant and equipment, net $ 26,510 $ 27,010 Commercial paper $ 10,493 $ 8,105 Total term debt $ 77,056 $ 78,927 Working capital $ 19,202 $ 27,863 Three Months Ended December 31, 2016 December 26, 2015 Cash generated by operating activities $ 27,056 $ 27,463 Cash used in investing activities $ (19,122 ) $ (20,450 ) Cash used in financing activities $ (12,047 ) $ (11,444 ) The Company believes its existing balances of cash, cash equivalents and marketable securities will be sufficient to satisfy its working capital needs, capital asset purchases, outstanding commitments and other liquidity requirements associated with its existing operations over the next 12 months. The Company currently anticipates the cash used for future dividends, the share repurchase program and debt repayments will come from its current domestic cash, cash generated from on-going U.S. operating activities and from borrowings. As of December 31, 2016 and September 24, 2016, the Company’s cash, cash equivalents and marketable securities held by foreign subsidiaries were $230.2 billion and $216.0 billion, respectively, and are generally based in U.S. dollar-denominated holdings. Amounts held by foreign subsidiaries are generally subject to U.S. income taxation on repatriation to the U.S. In connection with the State Aid Decision, the European Commission announced a recovery amount of up to €13 billion, plus interest. The actual amount of additional taxes subject to recovery is to be calculated by Ireland in accordance with the European Commission's guidance. Once the recovery amount is computed by Ireland, the Company anticipates funding it, including interest, out of foreign cash into escrow, where it will remain pending conclusion of all appeals. The Company’s marketable securities investment portfolio is invested primarily in highly-rated securities, and its investment policy generally limits the amount of credit exposure to any one issuer. The policy requires investments generally to be investment grade with the objective of minimizing the potential risk of principal loss. 29 During the three months ended December 31, 2016, cash generated from operating activities of $27.1 billion was a result of $17.9 billion of net income, non-cash adjustments to net income of $5.4 billion and an increase in the net change in operating assets and liabilities of $3.7 billion. Cash used in investing activities of $19.1 billion during the three months ended December 31, 2016 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $15.6 billion and cash used to acquire property, plant and equipment of $3.3 billion. Cash used in financing activities of $12.0 billion during the three months ended December 31, 2016 consisted primarily of cash used to repurchase common stock of $10.9 billion and cash used to pay dividends and dividend equivalents of $3.1 billion, partially offset by a net increase in commercial paper of $2.4 billion. During the three months ended December 26, 2015, cash generated from operating activities of $27.5 billion was a result of $18.4 billion of net income, non-cash adjustments to net income of $5.7 billion and an increase in the net change in operating assets and liabilities of $3.4 billion. Cash used in investing activities of $20.5 billion during the three months ended December 26, 2015 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $16.1 billion and cash used to acquire property, plant and equipment of $3.6 billion. Cash used in financing activities of $11.4 billion during the three months ended December 26, 2015 consisted primarily of cash used to repurchase common stock of $6.9 billion, and cash used to pay dividends and dividend equivalents of $3.0 billion. Capital Assets The Company’s capital expenditures were $2.1 billion during the first quarter of 2017. The Company anticipates utilizing approximately $16.0 billion for capital expenditures during 2017, which includ</t>
-  </si>
-  <si>
     <t>Item 7. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Annual Report on Form 10-K (“Form 10-K”) contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part I, Item 1A of this Form 10-K under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the consolidated financial statements and notes thereto included in Part II, Item 8 of this Form 10-K. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices, personal computers and portable digital music players, and sells a variety of related software, services, accessories, networking solutions and third-party digital content and applications. The Company’s products and services include iPhone®, iPad®, Mac®, iPod®, Apple Watch®, Apple TV®, a portfolio of consumer and professional software applications, iOS, macOS™, watchOS® and tvOS™ operating systems, iCloud®, Apple Pay® and a variety of accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store®, App Store®, Mac App Store, TV App Store, iBooks Store™ and Apple Music® (collectively “Internet Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and value-added resellers. In addition, the Company sells a variety of third-party Apple compatible products, including application software and various accessories through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Fiscal 2016 Highlights Net sales declined 8% or $18.1 billion during 2016 compared to 2015, primarily driven by a year-over-year decrease in iPhone net sales and the effect of weakness in most foreign currencies relative to the U.S. dollar, partially offset by an increase in Services. In April 2016, the Company announced a significant increase to its capital return program by raising the expected total size of the program from $200 billion to $250 billion through March 2018. This included increasing its share repurchase authorization from $140 billion to $175 billion and raising its quarterly dividend from $0.52 to $0.57 per share beginning in May 2016. During 2016, the Company spent $29.0 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $12.2 billion. Additionally, the Company issued $23.9 billion of U.S. dollar-denominated term debt and A$1.4 billion of Australian dollar-denominated term debt during 2016. Fiscal 2015 Highlights Net sales rose 28% or $50.9 billion during 2015 compared to 2014, driven by a year-over-year increase in iPhone net sales. iPhone net sales and unit sales in 2015 increased in all of the Company’s reportable operating segments. The Company also experienced year-over-year net sales increases in Mac, Services and Other Products. Apple Watch, which launched during the third quarter of 2015, accounted for more than 100% of the year-over-year growth in net sales of Other Products. Net sales growth during 2015 was partially offset by the effect of weakness in most foreign currencies relative to the U.S. dollar and lower iPad net sales. Total net sales increased in each of the Company’s reportable operating segments, with particularly strong growth in Greater China where year-over-year net sales increased 84%. In April 2015, the Company announced a significant increase to its capital return program by raising the expected total size of the program to $200 billion through March 2017. This included increasing its share repurchase authorization to $140 billion and raising its quarterly dividend to $0.52 per share beginning in May 2015. During 2015, the Company spent $36.0 billion to repurchase shares of its common stock and paid dividends and dividend equivalents of $11.6 billion. Additionally, the Company issued $14.5 billion of U.S. dollar-denominated, €4.8 billion of euro-denominated, SFr1.3 billion of Swiss franc-denominated, £1.3 billion of British pound-denominated, A$2.3 billion of Australian dollar-denominated and ¥250.0 billion of Japanese yen-denominated term debt during 2015. Apple Inc. | 2016 Form 10-K | 22 Sales Data The following table shows net sales by operating segment and net sales and unit sales by product during 2016, 2015 and 2014 (dollars in millions and units in thousands): 2016 Change 2015 Change 2014 Net Sales by Operating Segment: Americas $ 86,613 (8 )% $ 93,864 17 % $ 80,095 Europe 49,952 (1 )% 50,337 14 % 44,285 Greater China 48,492 (17 )% 58,715 84 % 31,853 Japan 16,928 8 % 15,706 3 % 15,314 Rest of Asia Pacific 13,654 (10 )% 15,093 34 % 11,248 Total net sales $ 215,639 (8 )% $ 233,715 28 % $ 182,795 Net Sales by Product: iPhone (1) $ 136,700 (12 )% $ 155,041 52 % $ 101,991 iPad (1) 20,628 (11 )% 23,227 (23 )% 30,283 Mac (1) 22,831 (10 )% 25,471 6 % 24,079 Services (2) 24,348 22 % 19,909 10 % 18,063 Other Products (1)(3) 11,132 11 % 10,067 20 % 8,379 Total net sales $ 215,639 (8 )% $ 233,715 28 % $ 182,795 Unit Sales by Product: iPhone 211,884 (8 )% 231,218 37 % 169,219 iPad 45,590 (17 )% 54,856 (19 )% 67,977 Mac 18,484 (10 )% 20,587 9 % 18,906 (1) Includes deferrals and amortization of related software upgrade rights and non-software services. (2) Includes revenue from Internet Services, AppleCare®, Apple Pay, licensing and other services. (3) Includes sales of Apple TV, Apple Watch, Beats® products, iPod and Apple-branded and third-party accessories. Apple Inc. | 2016 Form 10-K | 23 Product Performance iPhone The following table presents iPhone net sales and unit sales information for 2016, 2015 and 2014 (dollars in millions and units in thousands): 2016 Change 2015 Change 2014 Net sales $ 136,700 (12 )% $ 155,041 52 % $ 101,991 Percentage of total net sales 63 % 66 % 56 % Unit sales 211,884 (8 )% 231,218 37 % 169,219 iPhone net sales and unit sales decreased during 2016 compared to 2015. The Company believes the sales decline is due primarily to a lower rate of iPhone upgrades during 2016 compared to 2015 and challenging macroeconomic conditions in a number of major markets in 2016. Average selling prices (“ASPs”) for iPhone were lower year-over-year during 2016 due primarily to a different mix of iPhones, including the iPhone SE introduced in 2016, and the effect of weakness in most foreign currencies relative to the U.S. dollar. The year-over-year growth in iPhone net sales and unit sales during 2015 primarily resulted from strong demand for iPhone 6 and 6 Plus during 2015. Overall ASPs for iPhone increased during 2015 compared to 2014, due primarily to the introduction of iPhone 6 and 6 Plus in September 2014, partially offset by the effect of weakness in most foreign currencies relative to the U.S. dollar. iPad The following table presents iPad net sales and unit sales information for 2016, 2015 and 2014 (dollars in millions and units in thousands): 2016 Change 2015 Change 2014 Net sales $ 20,628 (11 )% $ 23,227 (23 )% $ 30,283 Percentage of total net sales 10 % 10 % 17 % Unit sales 45,590 (17 )% 54,856 (19 )% 67,977 iPad net sales decreased during 2016 compared to 2015 primarily due to lower unit sales and the effect of weakness in most foreign currencies relative to the U.S. dollar, partially offset by higher ASPs due to a shift in mix to higher-priced iPads. The Company believes the decline in iPad sales is due in part to a longer repurchase cycle for iPads and some level of cannibalization from the Company's other products. Net sales and unit sales for iPad declined during 2015 compared to 2014. The Company believes the decline in iPad sales is due in part to a longer repurchase cycle for iPads and some level of cannibalization from the Company's other products. iPad ASPs declined during 2015 compared to 2014, primarily as a result of the effect of weakness in most foreign currencies relative to the U.S. dollar and a shift in mix to lower-priced iPads. Mac The following table presents Mac net sales and unit sales information for 2016, 2015 and 2014 (dollars in millions and units in thousands): 2016 Change 2015 Change 2014 Net sales $ 22,831 (10 )% $ 25,471 6 % $ 24,079 Percentage of total net sales 11 % 11 % 13 % Unit sales 18,484 (10 )% 20,587 9 % 18,906 Mac net sales and unit sales decreased during 2016 compared to 2015. The year-over-year decline in Mac unit sales during 2016 was at rates similar to the overall market. The effect of weakness in most foreign currencies relative to the U.S. dollar also negatively impacted Mac net sales. The year-over-year growth in Mac net sales and unit sales during 2015 was driven by strong demand for Mac portables. Mac ASPs declined during 2015 compared to 2014 largely due to the effect of weakness in most foreign currencies relative to the U.S. dollar. Apple Inc. | 2016 Form 10-K | 24 Services The following table presents net sales information of Services for 2016, 2015 and 2014 (dollars in millions): 2016 Change 2015 Change 2014 Net sales $ 24,348 22 % $ 19,909 10 % $ 18,063 Percentage of total net sales 11 % 9 % 10 % The year-over-year increase in net sales of Services in 2016 was due primarily to growth from the App Store, licensing and AppleCare sales, partially offset by the effect of weakness in most foreign currencies relative to the U.S. dollar. During the first quarter of 2016, the Company received $548 million from Samsung Electronics Co., Ltd. related to its patent infringement lawsuit, which was recorded as licensing net sales within Services. The increase in net sales of Services during 2015 compared to 2014 was primarily due to growth from the App Store and licensing. Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable operating segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, as well as India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and those Asian countries not included in the Company’s other reportable operating segments. Although the reportable operating segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable operating segments can be found in Part II, Item 8 of this Form 10-K in the Notes to Consolidated Financial Statements in Note 11, “Segment Information and Geographic Data.” Americas The following table presents Americas net sales information for 2016, 2015 and 2014 (dollars in millions): 2016 Change 2015 Change 2014 Net sales $ 86,613 (8 )% $ 93,864 17 % $ 80,095 Percentage of total net sales 40 % 40 % 44 % Americas net sales decreased during 2016 compared to 2015 due primarily to lower net sales and unit sales of iPhone. The year-over-year growth in Americas net sales during 2015 was driven primarily by growth in net sales and unit sales of iPhone, partially offset by a decline in net sales and unit sales of iPad. Europe The following table presents Europe net sales information for 2016, 2015 and 2014 (dollars in millions): 2016 Change 2015 Change 2014 Net sales $ 49,952 (1 )% $ 50,337 14 % $ 44,285 Percentage of total net sales 23 % 22 % 24 % Europe net sales decreased during 2016 compared to 2015 driven primarily by the effect of weakness in foreign currencies relative to the U.S. dollar and a decrease in unit sales of Mac, largely offset by an increase in iPhone unit sales and Services. The year-over-year increase in Europe net sales during 2015 was driven primarily by growth in net sales and unit sales of iPhone, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar and a decline in net sales and unit sales of iPad. Apple Inc. | 2016 Form 10-K | 25 Greater China The following table presents Greater China net sales information for 2016, 2015 and 2014 (dollars in millions): 2016 Change 2015 Change 2014 Net sales $ 48,492 (17 )% $ 58,715 84 % $ 31,853 Percentage of total net sales 22 % 25 % 17 % Greater China net sales decreased during 2016 compared to 2015 due primarily to lower net sales and unit sales of iPhone and the effect of weakness in foreign currencies relative to the U.S. dollar. Greater China experienced strong year-over-year increases in net sales during 2015 driven primarily by iPhone sales. Japan The following table presents Japan net sales information for 2016, 2015 and 2014 (dollars in millions): 2016 Change 2015 Change 2014 Net sales $ 16,928 8 % $ 15,706 3 % $ 15,314 Percentage of total net sales 8 % 7 % 8 % Japan net sales increased during 2016 compared to 2015 due primarily to higher net sales of Services and the strength in the Japanese yen relative to the U.S. dollar. The year-over-year increase in Japan net sales during 2015 was driven primarily by growth in Services largely associated with strong App Store sales, partially offset by the effect of weakness in the Japanese yen relative to the U.S. dollar. Rest of Asia Pacific The following table presents Rest of Asia Pacific net sales information for 2016, 2015 and 2014 (dollars in millions): 2016 Change 2015 Change 2014 Net sales $ 13,654 (10 )% $ 15,093 34 % $ 11,248 Percentage of total net sales 6 % 6 % 6 % Rest of Asia Pacific net sales decreased during 2016 compared to 2015 due primarily to lower net sales and unit sales of iPhone and the effect of weakness in foreign currencies relative to the U.S. dollar. The year-over-year increase in Rest of Asia Pacific net sales during 2015 primarily reflects strong growth in net sales and unit sales of iPhone, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar and a decline in net sales and unit sales of iPad. Gross Margin Gross margin for 2016, 2015 and 2014 is as follows (dollars in millions): 2016 2015 2014 Net sales $ 215,639 $ 233,715 $ 182,795 Cost of sales 131,376 140,089 112,258 Gross margin $ 84,263 $ 93,626 $ 70,537 Gross margin percentage 39.1 % 40.1 % 38.6 % Gross margin decreased in 2016 compared to 2015 due primarily to the effect of weakness in most foreign currencies relative to the U.S. dollar and, to a lesser extent, unfavorable leverage on fixed costs from lower net sales, partially offset by a favorable shift in mix to Services. The year-over-year increase in the gross margin percentage in 2015 was driven primarily by a favorable shift in mix to products with higher margins and, to a lesser extent, by improved leverage on fixed costs from higher net sales. These positive factors were partially offset primarily by higher product cost structures and, to a lesser extent, by the effect of weakness in most foreign currencies relative to the U.S. dollar. Apple Inc. | 2016 Form 10-K | 26 The Company anticipates gross margin during the first quarter of 2017 to be between 38% and 38.5%. The foregoing statement regarding the Company’s expected gross margin percentage in the first quarter of 2017 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part I, Item 1A of this Form 10-K under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will remain under downward pressure due to a variety of factors, including continued industry wide global product pricing pressures, increased competition, compressed product life cycles, product transitions, potential increases in the cost of components, and potential strengthening of the U.S. dollar, as well as potential increases in the costs of outside manufacturing services and a potential shift in the Company’s sales mix towards products with lower gross margins. In response to competitive pressures, the Company expects it will continue to take product pricing actions, which would adversely affect gross margins. Gross margins could also be affected by the Company’s ability to manage product quality and warranty costs effectively and to stimulate demand for certain of its products. Due to the Company’s significant international operations, its financial condition and operating results, including gross margins, could be significantly affected by fluctuations in exchange rates. Operating Expenses Operating expenses for 2016, 2015 and 2014 are as follows (dollars in millions): 2016 Change 2015 Change 2014 Research and development $ 10,045 25 % $ 8,067 34 % $ 6,041 Percentage of total net sales 5 % 3 % 3 % Selling, general and administrative $ 14,194 (1 )% $ 14,329 19 % $ 11,993 Percentage of total net sales 7 % 6 % 7 % Total operating expenses $ 24,239 8 % $ 22,396 24 % $ 18,034 Percentage of total net sales 11 % 10 % 10 % Research and Development The year-over-year growth in R&amp;D expense in 2016 and 2015 was driven primarily by an increase in headcount and related expenses, and material costs to support expanded R&amp;D activities. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products that are central to the Company’s core business strategy. Selling, General and Administrative The decrease in selling, general and administrative expense in 2016 compared to 2015 was due primarily to lower discretionary expenditures and advertising costs, partially offset by an increase in headcount and related expenses. The year-over-year growth in selling, general and administrative expense in 2015 was primarily due to increased headcount and related expenses, and higher spending on marketing and advertising. Other Income/(Expense), Net Other income/(expense), net for 2016, 2015 and 2014 are as follows (dollars in millions): 2016 Change 2015 Change 2014 Interest and dividend income $ 3,999 $ 2,921 $ 1,795 Interest expense (1,456 ) (733 ) (384 ) Other expense, net (1,195 ) (903 ) (431 ) Total other income/(expense), net $ 1,348 5 % $ 1,285 31 % $ 980 The year-over-year increase in other income/(expense), net during 2016 and 2015 was due primarily to higher interest income, partially offset by higher interest expense on debt and higher expenses associated with foreign exchange activity. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 1.73%, 1.49% and 1.11% in 2016, 2015 and 2014, respectively. Apple Inc. | 2016 Form 10-K | 27 Provision for Income Taxes Provision for income taxes and effective tax rates for 2016, 2015 and 2014 are as follows (dollars in millions): 2016 2015 2014 Provision for income taxes 15,685 $ 19,121 $ 13,973 Effective tax rate 25.6 % 26.4 % 26.1 % The Company’s effective tax rates for 2016, 2015 and 2014 differ from the statutory federal income tax rate of 35% due primarily to certain undistributed foreign earnings, a substantial portion of which was generated by subsidiaries organized in Ireland, for which no U.S. taxes are provided when such earnings are intended to be indefinitely reinvested outside the U.S. The lower effective tax rate in 2016 compared to 2015 was due primarily to greater R&amp;D tax credits. The higher effective tax rate during 2015 compared to 2014 was due primarily to higher foreign taxes. As of September 24, 2016, the Company had deferred tax assets arising from deductible temporary differences, tax losses and tax credits of $4.1 billion and deferred tax liabilities of $26.0 billion. Management believes it is more likely than not that forecasted income, including income that may be generated as a result of certain tax planning strategies, together with future reversals of existing taxable temporary differences, will be sufficient to fully recover the deferred tax assets. The Company will continue to evaluate the realizability of deferred tax assets quarterly by assessing the need for and the amount of a valuation allowance. During the fourth quarter of 2016, the Company reached a partial settlement with the IRS on its examination of the years 2010 through 2012. In connection with this settlement, the Company recognized a tax benefit in the fourth quarter of 2016 that was not significant to its consolidated financial statements. All years prior to 2013 are closed, except for the years 2010 through 2012 relating to R&amp;D tax credits. In addition, the Company is subject to audits by state, local and foreign tax authorities. In major states and major foreign jurisdictions, the years subsequent to 2003 generally remain open and could be subject to examination by the taxing authorities. Management believes that adequate provisions have been made for any adjustments that may result from tax examinations. However, the outcome of tax audits cannot be predicted with certainty. If any issues addressed in the Company’s tax audits are resolved in a manner not consistent with management’s expectations, the Company could be required to adjust its provision for income taxes in the period such resolution occurs. On August 30, 2016, the European Commission announced its decision that Ireland granted state aid to the Company by providing tax opinions in 1991 and 2007 concerning the tax allocation of profits of the Irish branches of two subsidiaries of the Company (the "State Aid Decision"). The State Aid Decision orders Ireland to calculate and recover additional taxes from the Company for the period June 2003 through September 2014. Irish legislative changes, effective as of the beginning of 2015, eliminated the application of the tax opinions from that date forward. The Company believes the State Aid Decision to be without merit and intends to appeal to the General Court of the Court of Justice of the European Union. Ireland has also announced its intention to appeal the State Aid Decision. While the European Commission announced a recovery amount of up to €13 billion, plus interest, the actual amount of additional taxes subject to recovery is to be calculated by Ireland in accordance with the European Commission's guidance. Once the recovery amount is computed by Ireland, the Company anticipates funding it, including interest, out of foreign cash into escrow, pending conclusion of all appeals. The Company believes that any incremental Irish corporate income taxes potentially due would be creditable against U.S. taxes. Recent Accounting Pronouncements Income Taxes In October 2016, the Financial Accounting Standards Board (“FASB”) issued Accounting Standards Update (“ASU”) 2016-16, Income Taxes (Topic 740): Intra-Entity Transfer of Assets Other than Inventory ("ASU 2016-16"), which requires the recognition of the income tax consequences of an intra-entity transfer of an asset, other than inventory, when the transfer occurs. ASU 2016-06 will be effective for the Company in its first quarter of 2019. The Company is currently evaluating the impact of adopting ASU 2016-16 on its consolidated financial statements. Stock Compensation In March 2016, the FASB issued ASU No. 2016-09, Compensation – Stock Compensation (Topic 718): Improvements to Employee Share-Based Payment Accounting (“ASU 2016-09”), which simplified certain aspects of the accounting for share-based payment transactions, including income taxes, classification of awards and classification on the statement of cash flows. ASU 2016-09 will be effective for the Company beginning in its first quarter of 2018. The Company is currently evaluating the impact of adopting ASU 2016-09 on its consolidated financial statements. Apple Inc. | 2016 Form 10-K | 28 Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modified lease accounting for both lessees and lessors to increase transparency and comparability by recognizing lease assets and lease liabilities by lessees for those leases classified as operating leases under previous accounting standards and disclosing key information about leasing arrangements. ASU 2016-02 will be effective for the Company beginning in its first quarter of 2020, and early adoption is permitted. The Company is currently evaluating the timing of its adoption and the impact of adopting ASU 2016-02 on its consolidated financial statements. Financial Instruments In January 2016, the FASB issued ASU No. 2016-01, Financial Instruments – Overall (Subtopic 825-10): Recognition and Measurement of Financial Assets and Financial Liabilities (“ASU 2016-01”), which updates certain aspects of recognition, measurement, presentation and disclosure of financial instruments. ASU 2016-01 will be effective for the Company beginning in its first quarter of 2019. The Company does not believe the adoption of ASU 2016-01 will have a material impact on its consolidated financial statements. In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses of certain financial instruments. ASU 2016-13 will be effective for the Company beginning in its first quarter of 2021 and early adoption is permitted. The Company does not believe the adoption of ASU 2016-13 will have a material impact on its consolidated financial statements. Revenue Recognition In May 2014, the FASB issued ASU No. 2014-09, Revenue from Contracts with Customers (Topic 606) (“ASU 2014-09”), which amends the existing accounting standards for revenue recognition. ASU 2014-09 is based on principles that govern the recognition of revenue at an amount an entity expects to be entitled when products are transferred to customers. ASU 2014-09 will be effective for the Company beginning in its first quarter of 2019, and early adoption is permitted. Subsequently, the FASB has issued the following standards related to ASU 2014-09: ASU No. 2016-08, Revenue from Contracts with Customers (Topic 606): Principal versus Agent Considerations (“ASU 2016-08”); ASU No. 2016-10, Revenue from Contracts with Customers (Topic 606): Identifying Performance Obligations and Licensing (“ASU 2016-10”); and ASU No. 2016-12, Revenue from Contracts with Customers (Topic 606): Narrow-Scope Improvements and Practical Expedients (“ASU 2016-12”). The Company must adopt ASU 2016-08, ASU 2016-10 and ASU 2016-12 with ASU 2014-09 (collectively, the “new revenue standards”). The new revenue standards may be applied retrospectively to each prior period presented or retrospectively with the cumulative effect recognized as of the date of adoption. The Company currently expects to adopt the new revenue standards in its first quarter of 2018 utilizing the full retrospective transition method. The Company does not expect adoption of the new revenue standards to have a material impact on its consolidated financial statements. Liquidity and Capital Resources The following table presents selected financial information and statistics as of and for the years ended September 24, 2016, September 26, 2015 and September 27, 2014 (in millions): 2016 2015 2014 Cash, cash equivalents and marketable securities $ 237,585 $ 205,666 $ 155,239 Property, plant and equipment, net $ 27,010 $ 22,471 $ 20,624 Commercial paper $ 8,105 $ 8,499 $ 6,308 Total term debt $ 78,927 $ 55,829 $ 28,987 Working capital $ 27,863 $ 8,768 $ 5,083 Cash generated by operating activities $ 65,824 $ 81,266 $ 59,713 Cash used in investing activities $ (45,977 ) $ (56,274 ) $ (22,579 ) Cash used in financing activities $ (20,483 ) $ (17,716 ) $ (37,549 ) The Company believes its existing balances of cash, cash equivalents and marketable securities will be sufficient to satisfy its working capital needs, capital asset purchases, outstanding commitments and other liquidity requirements associated with its existing operations over the next 12 months. The Company currently anticipates the cash used for future dividends, the share repurchase program and debt repayments will come from its current domestic cash, cash generated from on-going U.S. operating activities and from borrowings. Apple Inc. | 2016 Form 10-K | 29 As of September 24, 2016 and September 26, 2015, the Company’s cash, cash equivalents and marketable securities held by foreign subsidiaries were $216.0 billion and $186.9 billion, respectively, and are generally based in U.S. dollar-denominated holdings. Amounts held by foreign subsidiaries are generally subject to U.S. income taxation on repatriation to the U.S. In connection with the State Aid Decision, the European Commission announced a recovery amount of up to €13 billion, plus interest. The actual amount of additional taxes subject to recovery is to be calculated by Ireland in accordance with the European Commission's guidance. Once the recovery amount is computed by Ireland, the Company anticipates funding it, including interest, out of foreign cash into escrow, pending conclusion of all appeals. The Company’s marketable securities investment portfolio is invested primarily in highly-rated securities and its investment policy generally limits the amount of credit exposure to any one issuer. The policy requires investments generally to be investment grade with the objective of minimizing the potential risk of principal loss. During 2016, cash generated from operating activities of $65.8 billion was a result of $45.7 billion of net income, non-cash adjustments to net income of $19.7 billion and an increase in the net change in operating assets and liabilities of $484 million. Cash used in investing activities of $46.0 billion during 2016 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $30.6 billion and cash used to acquire property, plant and equipment of $12.7 billion. Cash used in financing activities of $20.5 billion during 2016 consisted primarily of cash used to repurchase common stock of $29.7 billion, cash used to pay dividends and dividend equivalents of $12.2 billion and cash used to repay term debt of $2.5 billion, partially offset by net proceeds from the issuance of term debt of $25.0 billion. During 2015, cash generated from operating activities of $81.3 billion was a result of $53.4 billion of net income, non-cash adjustments to net income of $16.2 billion and an increase in the net change in operating assets and liabilities of $11.6 billion. Cash used in investing activities of $56.3 billion during 2015 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $44.4 billion and cash used to acquire property, plant and equipment of $11.2 billion. Cash used in financing activities of $17.7 billion during 2015 consisted primarily of cash used to repurchase common stock of $35.3 billion and cash used to pay dividends and dividend equivalents of $11.6 billion, partially offset by net proceeds from the issuance of term deb</t>
+  </si>
+  <si>
+    <t>Item 2. Management’s Discussion and Analysis of Financial Condition and Results of Operations This section and other parts of this Quarterly Report on Form 10‑Q contain forward-looking statements, within the meaning of the Private Securities Litigation Reform Act of 1995, that involve risks and uncertainties. Forward-looking statements provide current expectations of future events based on certain assumptions and include any statement that does not directly relate to any historical or current fact. Forward-looking statements can also be identified by words such as “future,” “anticipates,” “believes,” “estimates,” “expects,” “intends,” “plans,” “predicts,” “will,” “would,” “could,” “can,” “may,” and similar terms. Forward-looking statements are not guarantees of future performance and the Company’s actual results may differ significantly from the results discussed in the forward-looking statements. Factors that might cause such differences include, but are not limited to, those discussed in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors,” which are incorporated herein by reference. The following discussion should be read in conjunction with the Company’s Annual Report on Form 10-K for the year ended September 24, 2016 (the “2016 Form 10-K”) filed with the U.S. Securities and Exchange Commission (the “SEC”) and the condensed consolidated financial statements and notes thereto included elsewhere in this Form 10-Q. All information presented herein is based on the Company’s fiscal calendar. Unless otherwise stated, references to particular years, quarters, months or periods refer to the Company’s fiscal years ended in September and the associated quarters, months and periods of those fiscal years. Each of the terms the “Company” and “Apple” as used herein refers collectively to Apple Inc. and its wholly-owned subsidiaries, unless otherwise stated. The Company assumes no obligation to revise or update any forward-looking statements for any reason, except as required by law. Available Information The Company’s Annual Report on Form 10-K, Quarterly Reports on Form 10-Q, Current Reports on Form 8-K, and amendments to reports filed pursuant to Sections 13(a) and 15(d) of the Securities Exchange Act of 1934, as amended (the “Exchange Act”), are filed with the SEC. The Company is subject to the informational requirements of the Exchange Act and files or furnishes reports, proxy statements, and other information with the SEC. Such reports and other information filed by the Company with the SEC are available free of charge on the Company’s website at investor.apple.com/sec.cfm when such reports are available on the SEC’s website. The public may read and copy any materials filed by the Company with the SEC at the SEC’s Public Reference Room at 100 F Street, NE, Room 1580, Washington, DC 20549. The public may obtain information on the operation of the Public Reference Room by calling the SEC at 1-800-SEC-0330. The SEC maintains an internet site that contains reports, proxy and information statements and other information regarding issuers that file electronically with the SEC at www.sec.gov. The contents of websites are not incorporated into this filing. Further, the Company’s references to website URLs are intended to be inactive textual references only. Overview and Highlights The Company designs, manufactures and markets mobile communication and media devices, personal computers and portable digital music players, and sells a variety of related software, services, accessories, networking solutions and third-party digital content and applications. The Company’s products and services include iPhone®, iPad®, Mac®, iPod®, Apple Watch®, Apple TV®, a portfolio of consumer and professional software applications, iOS, macOS™, watchOS® and tvOS™ operating systems, iCloud®, Apple Pay® and a variety of accessory, service and support offerings. The Company sells and delivers digital content and applications through the iTunes Store®, App Store®, Mac App Store, TV App Store, iBooks Store™ and Apple Music® (collectively “Digital Content and Services”). The Company sells its products worldwide through its retail stores, online stores and direct sales force, as well as through third-party cellular network carriers, wholesalers, retailers and value-added resellers. In addition, the Company sells a variety of third-party Apple-compatible products, including application software and various accessories through its retail and online stores. The Company sells to consumers, small and mid-sized businesses and education, enterprise and government customers. Business Strategy The Company is committed to bringing the best user experience to its customers through its innovative hardware, software and services. The Company’s business strategy leverages its unique ability to design and develop its own operating systems, hardware, application software and services to provide its customers products and solutions with innovative design, superior ease-of-use and seamless integration. As part of its strategy, the Company continues to expand its platform for the discovery and delivery of digital content and applications through its Digital Content and Services, which allows customers to discover and download digital content, iOS, Mac, Apple Watch and Apple TV applications, and books through either a Mac or Windows personal computer or through iPhone, iPad and iPod touch® devices (“iOS devices”), Apple TV and Apple Watch. The Company also supports a community for the development of third-party software and hardware products and digital content that complement the Company’s offerings. The Company believes a high-quality buying experience with knowledgeable salespersons who can convey the value of the Company’s products and services greatly enhances its ability to attract and retain customers. Therefore, the Company’s strategy also includes building and expanding its own retail and online stores and its third-party distribution network to effectively reach more customers and provide them with a high-quality sales and post-sales support experience. The Company believes ongoing investment in research and development (“R&amp;D”), marketing and advertising is critical to the development and sale of innovative products and technologies. 22 Business Seasonality and Product Introductions The Company has historically experienced higher net sales in its first quarter compared to other quarters in its fiscal year due in part to seasonal holiday demand. Additionally, new product introductions can significantly impact net sales, product costs and operating expenses. Product introductions can also impact the Company’s net sales to its indirect distribution channels as these channels are filled with new product inventory following a product introduction, and often, channel inventory of a particular product declines as the next related major product launch approaches. Net sales can also be affected when consumers and distributors anticipate a product introduction. However, neither historical seasonal patterns nor historical patterns of product introductions should be considered reliable indicators of the Company’s future pattern of product introductions, future net sales or financial performance. Fiscal Period The Company’s fiscal year is the 52 or 53-week period that ends on the last Saturday of September. The Company’s fiscal year 2017 will include 53 weeks and will end on September 30, 2017. A 14th week has been included in the first quarter of 2017, as is done every five or six years, to realign the Company’s fiscal quarters with calendar quarters. First Quarter Fiscal 2017 Highlights Net sales grew 3% or $2.5 billion during the first quarter of 2017 compared to the first quarter of 2016, primarily driven by strong growth in iPhone and Services, partially offset by lower iPad sales. The positive impact of having an additional week in the first quarter of 2017 was primarily offset by lower year-over-year channel inventory growth, an earlier launch of iPhone 7 and 7 Plus as compared to the prior year and the effect of weakness in foreign currencies relative to the U.S. dollar. During the first quarter of 2017, the Company introduced a new MacBook Pro® with Touch Bar™, an interface that replaces the traditional row of function keys, and released AirPods™, which are new wireless headphones. Sales Data The following table shows net sales by operating segment and net sales and unit sales by product for the three months ended December 31, 2016 and December 26, 2015 (dollars in millions and units in thousands): Three Months Ended December 31, 2016 December 26, 2015 Change Net Sales by Operating Segment: Americas $ 31,968 $ 29,325 9 % Europe 18,521 17,932 3 % Greater China 16,233 18,373 (12 )% Japan 5,766 4,794 20 % Rest of Asia Pacific 5,863 5,448 8 % Total net sales $ 78,351 $ 75,872 3 % Net Sales by Product: iPhone (1) $ 54,378 $ 51,635 5 % iPad (1) 5,533 7,084 (22 )% Mac (1) 7,244 6,746 7 % Services (2) 7,172 6,056 18 % Other Products (1)(3) 4,024 4,351 (8 )% Total net sales $ 78,351 $ 75,872 3 % Unit Sales by Product: iPhone 78,290 74,779 5 % iPad 13,081 16,122 (19 )% Mac 5,374 5,312 1 % (1) Includes deferrals and amortization of related software upgrade rights and non-software services. (2) Includes revenue from Digital Content and Services, AppleCare®, Apple Pay, licensing and other services. (3) Includes sales of Apple TV, Apple Watch, Beats® products, iPod and Apple-branded and third-party accessories. 23 Product Performance iPhone The following table presents iPhone net sales and unit sales information for the first quarter of 2017 and 2016 (dollars in millions and units in thousands): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 54,378 $ 51,635 5 % Percentage of total net sales 69 % 68 % Unit sales 78,290 74,779 5 % iPhone net sales increased during the first quarter of 2017 compared to the same quarter in 2016, driven by strong growth in each of the geographic operating segments, with the exception of Greater China. iPad The following table presents iPad net sales and unit sales information for the first quarter of 2017 and 2016 (dollars in millions and units in thousands): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 5,533 $ 7,084 (22 )% Percentage of total net sales 7 % 9 % Unit sales 13,081 16,122 (19 )% iPad net sales decreased in the first quarter of 2017 compared to the same quarter in 2016 due to lower iPad unit sales and lower average selling prices for iPad, both due in part to the introduction of the 12.9-inch iPad Pro in the first quarter of 2016. Mac The following table presents Mac net sales and unit sales information for the first quarter of 2017 and 2016 (dollars in millions and units in thousands): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 7,244 $ 6,746 7 % Percentage of total net sales 9 % 9 % Unit sales 5,374 5,312 1 % Mac net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to a different mix of Macs, including the new MacBook Pro introduced in the first quarter of 2017. Services The following table presents Services net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 7,172 $ 6,056 18 % Percentage of total net sales 9 % 8 % The year-over-year increase in Services net sales in the first quarter of 2017 compared to the same quarter in 2016 was due primarily to growth from the App Store and AppleCare sales, partially offset by the $548 million received from Samsung Electronics Co., Ltd. in the first quarter of 2016 related to patent infringement matters. 24 Segment Operating Performance The Company manages its business primarily on a geographic basis. The Company’s reportable operating segments consist of the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, as well as India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and those Asian countries not included in the Company’s other reportable operating segments. Although the reportable operating segments provide similar hardware and software products and similar services, each one is managed separately to better align with the location of the Company’s customers and distribution partners and the unique market dynamics of each geographic region. Further information regarding the Company’s reportable operating segments can be found in Part I, Item 1 of this Form 10-Q in the Notes to Condensed Consolidated Financial Statements, in Note 11, “Segment Information and Geographic Data.” Americas The following table presents Americas net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 31,968 $ 29,325 9 % Percentage of total net sales 41 % 39 % Americas net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher net sales of iPhone, partially offset by lower net sales of iPad. Europe The following table presents Europe net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 18,521 $ 17,932 3 % Percentage of total net sales 24 % 24 % Europe net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher net sales of iPhone, partially offset by the effect of weakness in foreign currencies relative to the U.S. dollar and a decrease in net sales of iPad. Greater China The following table presents Greater China net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 16,233 $ 18,373 (12 )% Percentage of total net sales 21 % 24 % Greater China net sales decreased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to lower net sales of iPhone and the effect of weakness in foreign currencies relative to the U.S. dollar. 25 Japan The following table presents Japan net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 5,766 $ 4,794 20 % Percentage of total net sales 7 % 6 % Japan net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher net sales of iPhone and Services, and the effect of strength in the Japanese yen relative to the U.S. dollar. Rest of Asia Pacific The following table presents Rest of Asia Pacific net sales information for the first quarter of 2017 and 2016 (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Net sales $ 5,863 $ 5,448 8 % Percentage of total net sales 7 % 7 % Rest of Asia Pacific net sales increased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher net sales of iPhone and the effect of strength in foreign currencies relative to the U.S. dollar. Gross Margin Gross margin for the first quarter of 2017 and 2016 was as follows (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Net sales $ 78,351 $ 75,872 Cost of sales 48,175 45,449 Gross margin $ 30,176 $ 30,423 Gross margin percentage 38.5 % 40.1 % Gross margin decreased during the first quarter of 2017 compared to the same quarter in 2016 due primarily to higher product cost structures and the effect of weakness in foreign currencies relative to the U.S. dollar, partially offset by a favorable mix of products and services. The Company anticipates gross margin during the second quarter of 2017 to be between 38% and 39%. The foregoing statement regarding the Company’s expected gross margin percentage in the second quarter of 2017 is forward-looking and could differ from actual results. The Company’s future gross margins can be impacted by multiple factors including, but not limited to, those set forth in Part II, Item 1A of this Form 10-Q under the heading “Risk Factors” and those described in this paragraph. In general, the Company believes gross margins will remain under downward pressure due to a variety of factors, including continued industry-wide global product pricing pressures, increased competition, compressed product life cycles, product transitions, potential increases in the cost of components, and potential strengthening of the U.S. dollar, as well as potential increases in the costs of outside manufacturing services and a potential shift in the Company’s sales mix towards products with lower gross margins. In response to competitive pressures, the Company expects it will continue to take product pricing actions, which would adversely affect gross margins. Gross margins could also be affected by the Company’s ability to manage product quality and warranty costs effectively and to stimulate demand for certain of its products. Due to the Company’s significant international operations, its financial condition and operating results, including gross margins, could be significantly affected by fluctuations in exchange rates. 26 Operating Expenses Operating expenses for the first quarter of 2017 and 2016 were as follows (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Research and development $ 2,871 $ 2,404 Percentage of total net sales 4 % 3 % Selling, general and administrative $ 3,946 $ 3,848 Percentage of total net sales 5 % 5 % Total operating expenses $ 6,817 $ 6,252 Percentage of total net sales 9 % 8 % Research and Development The growth in R&amp;D expense during the first quarter of 2017 compared to the same quarter in 2016 was driven primarily by an increase in headcount and related expenses, and material costs to support expanded R&amp;D activities. The Company continues to believe that focused investments in R&amp;D are critical to its future growth and competitive position in the marketplace, and to the development of new and updated products that are central to the Company’s core business strategy. Selling, General and Administrative The growth in selling, general and administrative expense during the first quarter of 2017 compared to the same quarter in 2016 was driven primarily by an increase in headcount and related expenses and higher variable selling costs, partially offset by lower advertising costs. Other Income/(Expense), Net Other income/(expense), net for the first quarter of 2017 and 2016 was as follows (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Change Interest and dividend income $ 1,224 $ 941 Interest expense (525 ) (276 ) Other income/(expense), net 122 (263 ) Total other income/(expense), net $ 821 $ 402 104 % The increase in other income/(expense), net during the first quarter of 2017 compared to the same quarter in 2016 was due primarily to higher interest income and foreign exchange gains, partially offset by higher interest expense on debt. The weighted-average interest rate earned by the Company on its cash, cash equivalents and marketable securities was 1.87% and 1.65% in the first quarter of 2017 and 2016, respectively. Provision for Income Taxes Provision for income taxes and effective tax rates for the first quarter of 2017 and 2016 were as follows (dollars in millions): Three Months Ended December 31, 2016 December 26, 2015 Provision for income taxes $ 6,289 $ 6,212 Effective tax rate 26.0 % 25.3 % The Company’s effective tax rates during the first quarter of 2017 and 2016 differ from the statutory federal income tax rate of 35% due primarily to certain undistributed foreign earnings, a substantial portion of which was generated by subsidiaries organized in Ireland, for which no U.S. taxes are provided when such earnings are intended to be indefinitely reinvested outside the U.S. The higher year-over-year effective tax rate during the first quarter of 2017 was due primarily to the retroactive reinstatement of the U.S. federal R&amp;D tax credit during the first quarter of 2016. 27 The Company is subject to audits by federal, state, local and foreign tax authorities. Management believes that adequate provisions have been made for any adjustments that may result from tax examinations. However, the outcome of tax audits cannot be predicted with certainty. If any issues addressed in the Company’s tax audits are resolved in a manner not consistent with management’s expectations, the Company could be required to adjust its provision for income taxes in the period such resolution occurs. On August 30, 2016, the European Commission announced its decision that Ireland granted state aid to the Company by providing tax opinions in 1991 and 2007 concerning the tax allocation of profits of the Irish branches of two subsidiaries of the Company (the “State Aid Decision”). The State Aid Decision orders Ireland to calculate and recover additional taxes from the Company for the period June 2003 through December 2014. Irish legislative changes, effective as of January 2015, eliminated the application of the tax opinions from that date forward. The Company believes the State Aid Decision to be without merit and appealed to the General Court of the Court of Justice of the European Union. Ireland has also appealed the State Aid Decision. While the European Commission announced a recovery amount of up to €13 billion, plus interest, the actual amount of additional taxes subject to recovery is to be calculated by Ireland in accordance with the European Commission's guidance. Once the recovery amount is computed by Ireland, the Company anticipates funding it, including interest, out of foreign cash into escrow, where it will remain pending conclusion of all appeals. The Company believes that any incremental Irish corporate income taxes potentially due related to the State Aid Decision would be creditable against U.S. taxes. Recent Accounting Pronouncements Restricted Cash In November 2016, the Financial Accounting Standards Board (“FASB”) issued Accounting Standards Update (“ASU”) No. 2016-18, Statement of Cash Flows (Topic 230): Restricted Cash (“ASU 2016-18”), which enhances and clarifies the guidance on the classification and presentation of restricted cash in the statement of cash flows. The Company will adopt ASU 2016-18 in its first quarter of 2019 utilizing the retrospective adoption method. Currently, the Company's restricted cash balance is not significant. Income Taxes In October 2016, the FASB issued ASU No. 2016-16, Income Taxes (Topic 740): Intra-Entity Transfers of Assets Other Than Inventory (“ASU 2016-16”), which requires the recognition of the income tax consequences of an intra-entity transfer of an asset, other than inventory, when the transfer occurs. The Company will adopt ASU 2016-16 in its first quarter of 2019 utilizing the modified retrospective adoption method. Currently, the Company anticipates recording up to $9 billion of net deferred tax assets on its Consolidated Balance Sheets. However, the ultimate impact of adopting ASU 2016-16 will depend on the balance of intellectual property transferred between its subsidiaries as of the adoption date. The Company will recognize incremental deferred income tax expense thereafter as these deferred tax assets are utilized. Stock Compensation In March 2016, the FASB issued ASU No. 2016-09, Compensation – Stock Compensation (Topic 718): Improvements to Employee Share-Based Payment Accounting (“ASU 2016-09”), which modifies certain aspects of the accounting for share-based payment transactions, including income taxes, classification of awards, and classification in the statement of cash flows. The Company will adopt ASU 2016-09 in its first quarter of 2018. Currently, excess tax benefits or deficiencies from the Company's equity awards are recorded as additional paid-in capital in its Consolidated Balance Sheets. Upon adoption, the Company will record any excess tax benefits or deficiencies from its equity awards in its Consolidated Statements of Operations in the reporting periods in which vesting occurs. As a result, subsequent to adoption the Company's income tax expense and associated effective tax rate will be impacted by fluctuations in stock price between the grant dates and vesting dates of equity awards. Leases In February 2016, the FASB issued ASU No. 2016-02, Leases (Topic 842) (“ASU 2016-02”), which modifies lease accounting for lessees to increase transparency and comparability by recording lease assets and liabilities for operating leases and disclosing key information about leasing arrangements. ASU 2016-02 will be effective for the Company beginning in its first quarter of 2020, and early adoption is permitted. The Company will use a modified retrospective adoption approach. While the Company is currently evaluating the timing and impact of adopting ASU 2016-02, currently the Company anticipates recording lease assets and liabilities in excess of $7.5 billion on its Consolidated Balance Sheets, with no material impact to its Consolidated Statements of Operations. However, the ultimate impact of adopting ASU 2016-02 will depend on the Company's lease portfolio as of the adoption date. Financial Instruments In January 2016, the FASB issued ASU No. 2016-01, Financial Instruments – Overall (Subtopic 825-10): Recognition and Measurement of Financial Assets and Financial Liabilities (“ASU 2016-01”), which updates certain aspects of recognition, measurement, presentation and disclosure of financial instruments. The Company will adopt ASU 2016-01 in its first quarter of 2019 utilizing the modified retrospective adoption method. Based on the composition of the Company's investment portfolio, the adoption of ASU 2016-01 is not expected to have a material impact on its consolidated financial statements. 28 In June 2016, the FASB issued ASU No. 2016-13, Financial Instruments – Credit Losses (Topic 326): Measurement of Credit Losses on Financial Instruments (“ASU 2016-13”), which modifies the measurement of expected credit losses of certain financial instruments. The Company will adopt ASU 2016-13 in its first quarter of 2021 utilizing the modified retrospective adoption method. Based on the composition of the Company's investment portfolio, current market conditions, and historical credit loss activity, the adoption of ASU 2016-13 is not expected to have a material impact on its consolidated financial statements. Revenue Recognition In May 2014, the FASB issued ASU No. 2014-09, Revenue from Contracts with Customers (Topic 606) (“ASU 2014-09”), which amends the existing accounting standards for revenue recognition. ASU 2014-09 is based on principles that govern the recognition of revenue at an amount an entity expects to be entitled when products are transferred to customers. Subsequently, the FASB has issued the following standards related to ASU 2014-09: ASU No. 2016-08, Revenue from Contracts with Customers (Topic 606): Principal versus Agent Considerations (“ASU 2016-08”); ASU No. 2016-10, Revenue from Contracts with Customers (Topic 606): Identifying Performance Obligations and Licensing (“ASU 2016-10”); ASU No. 2016-12, Revenue from Contracts with Customers (Topic 606): Narrow-Scope Improvements and Practical Expedients (“ASU 2016-12”); and ASU No. 2016-20, Technical Corrections and Improvements to Topic 606, Revenue from Contracts with Customers (“ASU 2016-20”). The Company must adopt ASU 2016-08, ASU 2016-10, ASU 2016-12 and ASU 2016-20 with ASU 2014-09 (collectively, the “new revenue standards”). The new revenue standards may be applied retrospectively to each prior period presented or retrospectively with the cumulative effect recognized as of the date of adoption. The Company currently expects to adopt the new revenue standards in its first quarter of 2018 utilizing the full retrospective adoption method. The new revenue standards are not expected to have a material impact on the amount and timing of revenue recognized in the Company's consolidated financial statements. Liquidity and Capital Resources The following tables present selected financial information and statistics as of December 31, 2016 and September 24, 2016 and for the first three months of 2017 and 2016 (in millions): December 31, 2016 September 24, 2016 Cash, cash equivalents and marketable securities $ 246,090 $ 237,585 Property, plant and equipment, net $ 26,510 $ 27,010 Commercial paper $ 10,493 $ 8,105 Total term debt $ 77,056 $ 78,927 Working capital $ 19,202 $ 27,863 Three Months Ended December 31, 2016 December 26, 2015 Cash generated by operating activities $ 27,056 $ 27,463 Cash used in investing activities $ (19,122 ) $ (20,450 ) Cash used in financing activities $ (12,047 ) $ (11,444 ) The Company believes its existing balances of cash, cash equivalents and marketable securities will be sufficient to satisfy its working capital needs, capital asset purchases, outstanding commitments and other liquidity requirements associated with its existing operations over the next 12 months. The Company currently anticipates the cash used for future dividends, the share repurchase program and debt repayments will come from its current domestic cash, cash generated from on-going U.S. operating activities and from borrowings. As of December 31, 2016 and September 24, 2016, the Company’s cash, cash equivalents and marketable securities held by foreign subsidiaries were $230.2 billion and $216.0 billion, respectively, and are generally based in U.S. dollar-denominated holdings. Amounts held by foreign subsidiaries are generally subject to U.S. income taxation on repatriation to the U.S. In connection with the State Aid Decision, the European Commission announced a recovery amount of up to €13 billion, plus interest. The actual amount of additional taxes subject to recovery is to be calculated by Ireland in accordance with the European Commission's guidance. Once the recovery amount is computed by Ireland, the Company anticipates funding it, including interest, out of foreign cash into escrow, where it will remain pending conclusion of all appeals. The Company’s marketable securities investment portfolio is invested primarily in highly-rated securities, and its investment policy generally limits the amount of credit exposure to any one issuer. The policy requires investments generally to be investment grade with the objective of minimizing the potential risk of principal loss. 29 During the three months ended December 31, 2016, cash generated from operating activities of $27.1 billion was a result of $17.9 billion of net income, non-cash adjustments to net income of $5.4 billion and an increase in the net change in operating assets and liabilities of $3.7 billion. Cash used in investing activities of $19.1 billion during the three months ended December 31, 2016 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $15.6 billion and cash used to acquire property, plant and equipment of $3.3 billion. Cash used in financing activities of $12.0 billion during the three months ended December 31, 2016 consisted primarily of cash used to repurchase common stock of $10.9 billion and cash used to pay dividends and dividend equivalents of $3.1 billion, partially offset by a net increase in commercial paper of $2.4 billion. During the three months ended December 26, 2015, cash generated from operating activities of $27.5 billion was a result of $18.4 billion of net income, non-cash adjustments to net income of $5.7 billion and an increase in the net change in operating assets and liabilities of $3.4 billion. Cash used in investing activities of $20.5 billion during the three months ended December 26, 2015 consisted primarily of cash used for purchases of marketable securities, net of sales and maturities, of $16.1 billion and cash used to acquire property, plant and equipment of $3.6 billion. Cash used in financing activities of $11.4 billion during the three months ended December 26, 2015 consisted primarily of cash used to repurchase common stock of $6.9 billion, and cash used to pay dividends and dividend equivalents of $3.0 billion. Capital Assets The Company’s capital expenditures were $2.1 billion during the first quarter of 2017. The Company anticipates utilizing approximately $16.0 billion for capital expenditures during 2017, which includ</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -280,7 +280,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -586,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="145" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,11 +597,11 @@
     <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="39.21875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,11 +614,11 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -632,11 +631,11 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -649,11 +648,11 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -666,11 +665,11 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -683,11 +682,11 @@
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -700,11 +699,11 @@
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -717,11 +716,11 @@
       <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -734,11 +733,11 @@
       <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -751,11 +750,11 @@
       <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -768,11 +767,11 @@
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -785,11 +784,11 @@
       <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -802,11 +801,11 @@
       <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -819,11 +818,11 @@
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -836,11 +835,11 @@
       <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -853,11 +852,11 @@
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -870,11 +869,11 @@
       <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -887,11 +886,11 @@
       <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -904,11 +903,11 @@
       <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -921,11 +920,11 @@
       <c r="D20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -938,11 +937,11 @@
       <c r="D21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -955,11 +954,11 @@
       <c r="D22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -972,11 +971,11 @@
       <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -989,11 +988,11 @@
       <c r="D24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1006,11 +1005,11 @@
       <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1023,11 +1022,11 @@
       <c r="D26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -1040,11 +1039,11 @@
       <c r="D27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -1057,11 +1056,11 @@
       <c r="D28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -1074,11 +1073,11 @@
       <c r="D29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1091,11 +1090,11 @@
       <c r="D30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1108,11 +1107,11 @@
       <c r="D31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="E31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1125,11 +1124,11 @@
       <c r="D32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="E32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -1142,11 +1141,11 @@
       <c r="D33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1159,11 +1158,11 @@
       <c r="D34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -1176,11 +1175,11 @@
       <c r="D35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="E35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -1193,11 +1192,11 @@
       <c r="D36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="E36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
@@ -1210,11 +1209,11 @@
       <c r="D37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -1227,11 +1226,11 @@
       <c r="D38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1259,7 +1258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -1301,7 +1300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +1314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>5</v>
       </c>
@@ -2165,70 +2164,70 @@
     <hyperlink ref="A36" r:id="rId34" display="https://www.sec.gov/Archives/edgar/data/320193/000162828017004790/a10-qq22017412017.htm" xr:uid="{70D76030-BEBF-40A8-B37B-02BA6BB2C1E5}"/>
     <hyperlink ref="A37" r:id="rId35" display="https://www.sec.gov/Archives/edgar/data/320193/000162828017000717/a10-qq1201712312016.htm" xr:uid="{B42F97CB-BFDE-4FD8-B759-0E6208032F49}"/>
     <hyperlink ref="A38" r:id="rId36" display="https://www.sec.gov/Archives/edgar/data/320193/000162828016020309/a201610-k9242016.htm" xr:uid="{E6CDA430-F28D-47BC-A136-0062E0347A04}"/>
-    <hyperlink ref="A39" r:id="rId37" display="https://www.sec.gov/Archives/edgar/data/320193/000162828016017809/a10-qq320166252016.htm" xr:uid="{19C3AFE5-E992-47D3-A912-77CB0280771D}"/>
-    <hyperlink ref="A40" r:id="rId38" display="https://www.sec.gov/Archives/edgar/data/320193/000119312516559625/d165350d10q.htm" xr:uid="{8E06345F-7EC6-4FCE-85A1-AF0B2A484BD9}"/>
-    <hyperlink ref="A41" r:id="rId39" display="https://www.sec.gov/Archives/edgar/data/320193/000119312516439878/d66145d10q.htm" xr:uid="{FB59C1C7-665E-415D-B246-A0397D770D0B}"/>
-    <hyperlink ref="A42" r:id="rId40" display="https://www.sec.gov/Archives/edgar/data/320193/000119312515356351/d17062d10k.htm" xr:uid="{7B44996B-E348-4F2C-B93C-1637A4A2C652}"/>
-    <hyperlink ref="A43" r:id="rId41" display="https://www.sec.gov/Archives/edgar/data/320193/000119312515259935/d927922d10q.htm" xr:uid="{1AC14539-F89D-48DA-B8EE-A32C2143679D}"/>
-    <hyperlink ref="A44" r:id="rId42" display="https://www.sec.gov/Archives/edgar/data/320193/000119312515153166/d892246d10q.htm" xr:uid="{557599B7-06EC-4BF9-82E8-D17CA783F2F9}"/>
-    <hyperlink ref="A45" r:id="rId43" display="https://www.sec.gov/Archives/edgar/data/320193/000119312515023697/d835533d10q.htm" xr:uid="{94E89346-9EC0-4F11-8F63-90A06ED29B26}"/>
-    <hyperlink ref="A46" r:id="rId44" display="https://www.sec.gov/Archives/edgar/data/320193/000119312514383437/d783162d10k.htm" xr:uid="{A84A5422-CF68-4BD4-A462-0B92FCF648A3}"/>
-    <hyperlink ref="A47" r:id="rId45" display="https://www.sec.gov/Archives/edgar/data/320193/000119312514277160/d740164d10q.htm" xr:uid="{0E4F94EB-E14E-4711-9EB0-AD13EB41C68F}"/>
-    <hyperlink ref="A48" r:id="rId46" display="https://www.sec.gov/Archives/edgar/data/320193/000119312514157311/d694710d10q.htm" xr:uid="{DB29E58E-3CD2-4999-A784-E6C185EAAE89}"/>
-    <hyperlink ref="A49" r:id="rId47" display="https://www.sec.gov/Archives/edgar/data/320193/000119312514024487/d644622d10q.htm" xr:uid="{10ED25D8-2DA9-457C-84B1-BF4F42E5BA2D}"/>
-    <hyperlink ref="A50" r:id="rId48" display="https://www.sec.gov/Archives/edgar/data/320193/000119312513416534/d590790d10k.htm" xr:uid="{62FBFC34-495D-4397-BDFA-CEA6B34C9C88}"/>
-    <hyperlink ref="A51" r:id="rId49" display="https://www.sec.gov/Archives/edgar/data/320193/000119312513300670/d552802d10q.htm" xr:uid="{9F33B2AC-7312-416D-AD5E-22B57D8F58A0}"/>
-    <hyperlink ref="A52" r:id="rId50" display="https://www.sec.gov/Archives/edgar/data/320193/000119312513168288/d501596d10q.htm" xr:uid="{62634B09-F466-4EA4-B355-823F4FEBEA21}"/>
-    <hyperlink ref="A53" r:id="rId51" display="https://www.sec.gov/Archives/edgar/data/320193/000119312513022339/d453687d10q.htm" xr:uid="{6AB47C98-F941-431F-A5AA-B10D0D0A703D}"/>
-    <hyperlink ref="A54" r:id="rId52" display="https://www.sec.gov/Archives/edgar/data/320193/000119312512444068/d411355d10k.htm" xr:uid="{4C230D25-A6AC-4618-A09B-87C5766561D6}"/>
-    <hyperlink ref="A55" r:id="rId53" display="https://www.sec.gov/Archives/edgar/data/320193/000119312512314552/d365704d10q.htm" xr:uid="{F44A9A21-BA18-4E50-BB88-DF3ECEFD6BDC}"/>
-    <hyperlink ref="A56" r:id="rId54" display="https://www.sec.gov/Archives/edgar/data/320193/000119312512182321/d297069d10q.htm" xr:uid="{7E2FFBB3-529E-4F09-A83F-B8E789C8EBBE}"/>
-    <hyperlink ref="A57" r:id="rId55" display="https://www.sec.gov/Archives/edgar/data/320193/000119312512023398/d267587d10q.htm" xr:uid="{56680A39-E2DC-4805-A7EF-D35DD6517616}"/>
-    <hyperlink ref="A58" r:id="rId56" display="https://www.sec.gov/Archives/edgar/data/320193/000119312511282113/d220209d10k.htm" xr:uid="{A189B2DC-1A42-4931-BB06-4C03A6DBBA4A}"/>
-    <hyperlink ref="A59" r:id="rId57" display="https://www.sec.gov/Archives/edgar/data/320193/000119312511192493/d10q.htm" xr:uid="{80D279A3-8D24-4D0D-969C-0326BB7482E0}"/>
-    <hyperlink ref="A60" r:id="rId58" display="https://www.sec.gov/Archives/edgar/data/320193/000119312511104388/d10q.htm" xr:uid="{08CA848E-1E1B-4447-8F9E-1DE5737BE377}"/>
-    <hyperlink ref="A61" r:id="rId59" display="https://www.sec.gov/Archives/edgar/data/320193/000119312511010144/d10q.htm" xr:uid="{B689EC45-343A-488C-A22C-A70B828BAF12}"/>
-    <hyperlink ref="A62" r:id="rId60" display="https://www.sec.gov/Archives/edgar/data/320193/000119312510238044/d10k.htm" xr:uid="{521F5AC0-A31D-4149-8C23-E6A41F417051}"/>
-    <hyperlink ref="A63" r:id="rId61" display="https://www.sec.gov/Archives/edgar/data/320193/000119312510162840/d10q.htm" xr:uid="{88D9686F-8AF8-4515-8497-5B10E82D8347}"/>
-    <hyperlink ref="A64" r:id="rId62" display="https://www.sec.gov/Archives/edgar/data/320193/000119312510088957/d10q.htm" xr:uid="{AFF423B9-D21B-459D-B9DF-99515ACA0ABC}"/>
-    <hyperlink ref="A65" r:id="rId63" display="https://www.sec.gov/Archives/edgar/data/320193/000119312510012091/d10ka.htm" xr:uid="{D1475E1A-C2C2-47A3-A01E-552182124B48}"/>
-    <hyperlink ref="A66" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/320193/000119312510012085/d10q.htm" xr:uid="{B1FA1769-8F54-4376-BFE4-BC981633972C}"/>
-    <hyperlink ref="A67" r:id="rId65" display="https://www.sec.gov/Archives/edgar/data/320193/000119312509214859/d10k.htm" xr:uid="{C457B310-689A-4BF8-8029-F9C10DAD8F5C}"/>
-    <hyperlink ref="A68" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/320193/000119312509153165/d10q.htm" xr:uid="{0E82B51A-EC6D-4FAD-A06F-57A69A366C4E}"/>
-    <hyperlink ref="A69" r:id="rId67" display="https://www.sec.gov/Archives/edgar/data/320193/000119312509087629/d10qa.htm" xr:uid="{D9AA4127-1445-4B39-811E-7B83F2B1A4FD}"/>
-    <hyperlink ref="A70" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/320193/000119312509085781/d10q.htm" xr:uid="{7FD0C19F-B60D-4E16-A267-0C50C407E706}"/>
-    <hyperlink ref="A71" r:id="rId69" display="https://www.sec.gov/Archives/edgar/data/320193/000119312509009937/d10q.htm" xr:uid="{D08C3A24-61E6-43EC-9A11-870D58FD3BFC}"/>
-    <hyperlink ref="A72" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/320193/000119312508224958/d10k.htm" xr:uid="{F9AFC983-5CAC-44D2-A47C-2342E0E4E610}"/>
-    <hyperlink ref="A73" r:id="rId71" display="https://www.sec.gov/Archives/edgar/data/320193/000119312508156421/d10q.htm" xr:uid="{E72AF849-6312-4717-ABC3-9ACB43307109}"/>
-    <hyperlink ref="A74" r:id="rId72" display="https://www.sec.gov/Archives/edgar/data/320193/000119312508097759/d10q.htm" xr:uid="{7D31D3E4-846F-4E1A-9063-42D2971E692A}"/>
-    <hyperlink ref="A75" r:id="rId73" display="https://www.sec.gov/Archives/edgar/data/320193/000119312508017426/d10q.htm" xr:uid="{BA61EDF5-A8EA-4EA7-B90D-C24755ADC184}"/>
-    <hyperlink ref="A76" r:id="rId74" display="https://www.sec.gov/Archives/edgar/data/320193/000104746907009340/a2181030z10-k.htm" xr:uid="{31B7151C-41D5-43D0-A5C6-BAFBD497BCC6}"/>
-    <hyperlink ref="A77" r:id="rId75" display="https://www.sec.gov/Archives/edgar/data/320193/000110465907059873/a07-19295_110q.htm" xr:uid="{AE1356D0-F781-421C-92DC-428BDEAA3B2D}"/>
-    <hyperlink ref="A78" r:id="rId76" display="https://www.sec.gov/Archives/edgar/data/320193/000110465907037745/a07-13266_110q.htm" xr:uid="{777EBC3D-816A-44C3-82C1-09C7476C659B}"/>
-    <hyperlink ref="A79" r:id="rId77" display="https://www.sec.gov/Archives/edgar/data/320193/000110465907006648/a07-2749_110q.htm" xr:uid="{605BB910-660D-4571-8BB2-1C0D9444E2E8}"/>
-    <hyperlink ref="A80" r:id="rId78" display="https://www.sec.gov/Archives/edgar/data/320193/000110465906084286/a06-23473_110q.htm" xr:uid="{A7B281D5-B5FB-47B1-9FB4-929A5509192A}"/>
-    <hyperlink ref="A81" r:id="rId79" display="https://www.sec.gov/Archives/edgar/data/320193/000110465906084288/a06-25759_210k.htm" xr:uid="{AD8A3F34-B325-4114-BF2A-9D83DD734CE8}"/>
-    <hyperlink ref="A82" r:id="rId80" display="https://www.sec.gov/Archives/edgar/data/320193/000110465906031303/a06-10806_110q.htm" xr:uid="{67E2B5C0-8982-4AB3-B30E-713B4893BABF}"/>
-    <hyperlink ref="A83" r:id="rId81" display="https://www.sec.gov/Archives/edgar/data/320193/000110465906005910/a06-3798_110q.htm" xr:uid="{A7097FF5-8EF9-44FB-932B-69802865F5DE}"/>
-    <hyperlink ref="A84" r:id="rId82" display="https://www.sec.gov/Archives/edgar/data/320193/000110465905058421/a05-20674_110k.htm" xr:uid="{C345894D-76C3-4D14-BE09-42E81CBFC53A}"/>
-    <hyperlink ref="A85" r:id="rId83" display="https://www.sec.gov/Archives/edgar/data/320193/000110465905035792/a05-12535_110q.htm" xr:uid="{9640E133-6E76-4878-9D53-FE437A31B517}"/>
-    <hyperlink ref="A86" r:id="rId84" display="https://www.sec.gov/Archives/edgar/data/320193/000110465905020421/a05-7551_110q.htm" xr:uid="{D0279F8B-4878-43D5-8A07-1A4A58F64F37}"/>
-    <hyperlink ref="A87" r:id="rId85" display="https://www.sec.gov/Archives/edgar/data/320193/000110465905003520/a05-2329_110q.htm" xr:uid="{7FB915EA-ECAC-4175-BE23-7E9D381E5205}"/>
-    <hyperlink ref="A88" r:id="rId86" display="https://www.sec.gov/Archives/edgar/data/320193/000104746904035975/a2147337z10-k.htm" xr:uid="{48A772F5-0925-4E03-863F-9F7DAFD9E7AC}"/>
-    <hyperlink ref="A89" r:id="rId87" display="https://www.sec.gov/Archives/edgar/data/320193/000110465904022384/a04-8198_110q.htm" xr:uid="{0064BA0E-7179-41EC-B943-58207CEA07CB}"/>
-    <hyperlink ref="A90" r:id="rId88" display="https://www.sec.gov/Archives/edgar/data/320193/000110465904013021/a04-5089_110q.htm" xr:uid="{25953D7C-7636-4B4C-BBD5-E6B2F84FAF69}"/>
-    <hyperlink ref="A91" r:id="rId89" display="https://www.sec.gov/Archives/edgar/data/320193/000110465904003080/a04-1622_110q.htm" xr:uid="{23844AD0-D9EE-4A37-89E1-1D5AC6A8E50B}"/>
-    <hyperlink ref="A92" r:id="rId90" display="https://www.sec.gov/Archives/edgar/data/320193/000104746903041604/a2124888z10-k.htm" xr:uid="{E8A0BE00-EA35-4A5F-AEDB-DF9DD5114619}"/>
-    <hyperlink ref="A93" r:id="rId91" display="https://www.sec.gov/Archives/edgar/data/320193/000110465903017766/a03-2128_110q.htm" xr:uid="{E0B50BF2-69C4-41DB-9D0D-B0301460A009}"/>
-    <hyperlink ref="A94" r:id="rId92" display="https://www.sec.gov/Archives/edgar/data/320193/000110465903009489/j0567_10q.htm" xr:uid="{D5418381-8620-4887-A956-73CF14050133}"/>
-    <hyperlink ref="A95" r:id="rId93" display="https://www.sec.gov/Archives/edgar/data/320193/000104746903004566/a2102387z10-q.htm" xr:uid="{A96E9AFB-1235-4617-AC04-37D7CDFFB0A6}"/>
-    <hyperlink ref="A96" r:id="rId94" display="https://www.sec.gov/Archives/edgar/data/320193/000104746902007674/a2096490z10-k.htm" xr:uid="{0E36728F-FA39-4536-989E-92ABBCB1532E}"/>
-    <hyperlink ref="A97" r:id="rId95" display="https://www.sec.gov/Archives/edgar/data/320193/000091205702030796/a2086025z10-q.htm" xr:uid="{F66DC20F-1639-4724-A73B-6DB1ED3BCE5C}"/>
-    <hyperlink ref="A98" r:id="rId96" display="https://www.sec.gov/Archives/edgar/data/320193/000091205702020280/a2079853z10-q.htm" xr:uid="{5E9FCDC1-C0DC-445E-97A5-3A3EC20FB299}"/>
-    <hyperlink ref="A99" r:id="rId97" display="https://www.sec.gov/Archives/edgar/data/320193/000091205702004945/a2069685z10-q.htm" xr:uid="{635398A9-EBC7-4B46-A1CD-DDA8A1DED82B}"/>
-    <hyperlink ref="A100" r:id="rId98" display="https://www.sec.gov/Archives/edgar/data/320193/000091205701528148/a2056203z10-q.htm" xr:uid="{2050E779-ABD9-405C-929F-8F2C61163563}"/>
-    <hyperlink ref="A101" r:id="rId99" display="https://www.sec.gov/Archives/edgar/data/320193/000091205701515409/a2048698z10-q.htm" xr:uid="{97B9412D-91F3-4867-BD5B-9B50390BFBE4}"/>
-    <hyperlink ref="A102" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/320193/000091205701004642/a2038036z10-q.txt" xr:uid="{8CBDA9B7-0943-41BA-B4B2-2887B52907C1}"/>
+    <hyperlink ref="A102" r:id="rId37" display="https://www.sec.gov/Archives/edgar/data/320193/000091205701004642/a2038036z10-q.txt" xr:uid="{8CBDA9B7-0943-41BA-B4B2-2887B52907C1}"/>
+    <hyperlink ref="A101" r:id="rId38" display="https://www.sec.gov/Archives/edgar/data/320193/000091205701515409/a2048698z10-q.htm" xr:uid="{97B9412D-91F3-4867-BD5B-9B50390BFBE4}"/>
+    <hyperlink ref="A100" r:id="rId39" display="https://www.sec.gov/Archives/edgar/data/320193/000091205701528148/a2056203z10-q.htm" xr:uid="{2050E779-ABD9-405C-929F-8F2C61163563}"/>
+    <hyperlink ref="A99" r:id="rId40" display="https://www.sec.gov/Archives/edgar/data/320193/000091205702004945/a2069685z10-q.htm" xr:uid="{635398A9-EBC7-4B46-A1CD-DDA8A1DED82B}"/>
+    <hyperlink ref="A98" r:id="rId41" display="https://www.sec.gov/Archives/edgar/data/320193/000091205702020280/a2079853z10-q.htm" xr:uid="{5E9FCDC1-C0DC-445E-97A5-3A3EC20FB299}"/>
+    <hyperlink ref="A97" r:id="rId42" display="https://www.sec.gov/Archives/edgar/data/320193/000091205702030796/a2086025z10-q.htm" xr:uid="{F66DC20F-1639-4724-A73B-6DB1ED3BCE5C}"/>
+    <hyperlink ref="A96" r:id="rId43" display="https://www.sec.gov/Archives/edgar/data/320193/000104746902007674/a2096490z10-k.htm" xr:uid="{0E36728F-FA39-4536-989E-92ABBCB1532E}"/>
+    <hyperlink ref="A95" r:id="rId44" display="https://www.sec.gov/Archives/edgar/data/320193/000104746903004566/a2102387z10-q.htm" xr:uid="{A96E9AFB-1235-4617-AC04-37D7CDFFB0A6}"/>
+    <hyperlink ref="A94" r:id="rId45" display="https://www.sec.gov/Archives/edgar/data/320193/000110465903009489/j0567_10q.htm" xr:uid="{D5418381-8620-4887-A956-73CF14050133}"/>
+    <hyperlink ref="A93" r:id="rId46" display="https://www.sec.gov/Archives/edgar/data/320193/000110465903017766/a03-2128_110q.htm" xr:uid="{E0B50BF2-69C4-41DB-9D0D-B0301460A009}"/>
+    <hyperlink ref="A92" r:id="rId47" display="https://www.sec.gov/Archives/edgar/data/320193/000104746903041604/a2124888z10-k.htm" xr:uid="{E8A0BE00-EA35-4A5F-AEDB-DF9DD5114619}"/>
+    <hyperlink ref="A91" r:id="rId48" display="https://www.sec.gov/Archives/edgar/data/320193/000110465904003080/a04-1622_110q.htm" xr:uid="{23844AD0-D9EE-4A37-89E1-1D5AC6A8E50B}"/>
+    <hyperlink ref="A90" r:id="rId49" display="https://www.sec.gov/Archives/edgar/data/320193/000110465904013021/a04-5089_110q.htm" xr:uid="{25953D7C-7636-4B4C-BBD5-E6B2F84FAF69}"/>
+    <hyperlink ref="A89" r:id="rId50" display="https://www.sec.gov/Archives/edgar/data/320193/000110465904022384/a04-8198_110q.htm" xr:uid="{0064BA0E-7179-41EC-B943-58207CEA07CB}"/>
+    <hyperlink ref="A88" r:id="rId51" display="https://www.sec.gov/Archives/edgar/data/320193/000104746904035975/a2147337z10-k.htm" xr:uid="{48A772F5-0925-4E03-863F-9F7DAFD9E7AC}"/>
+    <hyperlink ref="A87" r:id="rId52" display="https://www.sec.gov/Archives/edgar/data/320193/000110465905003520/a05-2329_110q.htm" xr:uid="{7FB915EA-ECAC-4175-BE23-7E9D381E5205}"/>
+    <hyperlink ref="A86" r:id="rId53" display="https://www.sec.gov/Archives/edgar/data/320193/000110465905020421/a05-7551_110q.htm" xr:uid="{D0279F8B-4878-43D5-8A07-1A4A58F64F37}"/>
+    <hyperlink ref="A85" r:id="rId54" display="https://www.sec.gov/Archives/edgar/data/320193/000110465905035792/a05-12535_110q.htm" xr:uid="{9640E133-6E76-4878-9D53-FE437A31B517}"/>
+    <hyperlink ref="A84" r:id="rId55" display="https://www.sec.gov/Archives/edgar/data/320193/000110465905058421/a05-20674_110k.htm" xr:uid="{C345894D-76C3-4D14-BE09-42E81CBFC53A}"/>
+    <hyperlink ref="A83" r:id="rId56" display="https://www.sec.gov/Archives/edgar/data/320193/000110465906005910/a06-3798_110q.htm" xr:uid="{A7097FF5-8EF9-44FB-932B-69802865F5DE}"/>
+    <hyperlink ref="A82" r:id="rId57" display="https://www.sec.gov/Archives/edgar/data/320193/000110465906031303/a06-10806_110q.htm" xr:uid="{67E2B5C0-8982-4AB3-B30E-713B4893BABF}"/>
+    <hyperlink ref="A81" r:id="rId58" display="https://www.sec.gov/Archives/edgar/data/320193/000110465906084288/a06-25759_210k.htm" xr:uid="{AD8A3F34-B325-4114-BF2A-9D83DD734CE8}"/>
+    <hyperlink ref="A80" r:id="rId59" display="https://www.sec.gov/Archives/edgar/data/320193/000110465906084286/a06-23473_110q.htm" xr:uid="{A7B281D5-B5FB-47B1-9FB4-929A5509192A}"/>
+    <hyperlink ref="A79" r:id="rId60" display="https://www.sec.gov/Archives/edgar/data/320193/000110465907006648/a07-2749_110q.htm" xr:uid="{605BB910-660D-4571-8BB2-1C0D9444E2E8}"/>
+    <hyperlink ref="A78" r:id="rId61" display="https://www.sec.gov/Archives/edgar/data/320193/000110465907037745/a07-13266_110q.htm" xr:uid="{777EBC3D-816A-44C3-82C1-09C7476C659B}"/>
+    <hyperlink ref="A77" r:id="rId62" display="https://www.sec.gov/Archives/edgar/data/320193/000110465907059873/a07-19295_110q.htm" xr:uid="{AE1356D0-F781-421C-92DC-428BDEAA3B2D}"/>
+    <hyperlink ref="A76" r:id="rId63" display="https://www.sec.gov/Archives/edgar/data/320193/000104746907009340/a2181030z10-k.htm" xr:uid="{31B7151C-41D5-43D0-A5C6-BAFBD497BCC6}"/>
+    <hyperlink ref="A75" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/320193/000119312508017426/d10q.htm" xr:uid="{BA61EDF5-A8EA-4EA7-B90D-C24755ADC184}"/>
+    <hyperlink ref="A74" r:id="rId65" display="https://www.sec.gov/Archives/edgar/data/320193/000119312508097759/d10q.htm" xr:uid="{7D31D3E4-846F-4E1A-9063-42D2971E692A}"/>
+    <hyperlink ref="A73" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/320193/000119312508156421/d10q.htm" xr:uid="{E72AF849-6312-4717-ABC3-9ACB43307109}"/>
+    <hyperlink ref="A72" r:id="rId67" display="https://www.sec.gov/Archives/edgar/data/320193/000119312508224958/d10k.htm" xr:uid="{F9AFC983-5CAC-44D2-A47C-2342E0E4E610}"/>
+    <hyperlink ref="A71" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/320193/000119312509009937/d10q.htm" xr:uid="{D08C3A24-61E6-43EC-9A11-870D58FD3BFC}"/>
+    <hyperlink ref="A70" r:id="rId69" display="https://www.sec.gov/Archives/edgar/data/320193/000119312509085781/d10q.htm" xr:uid="{7FD0C19F-B60D-4E16-A267-0C50C407E706}"/>
+    <hyperlink ref="A69" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/320193/000119312509087629/d10qa.htm" xr:uid="{D9AA4127-1445-4B39-811E-7B83F2B1A4FD}"/>
+    <hyperlink ref="A68" r:id="rId71" display="https://www.sec.gov/Archives/edgar/data/320193/000119312509153165/d10q.htm" xr:uid="{0E82B51A-EC6D-4FAD-A06F-57A69A366C4E}"/>
+    <hyperlink ref="A67" r:id="rId72" display="https://www.sec.gov/Archives/edgar/data/320193/000119312509214859/d10k.htm" xr:uid="{C457B310-689A-4BF8-8029-F9C10DAD8F5C}"/>
+    <hyperlink ref="A66" r:id="rId73" display="https://www.sec.gov/Archives/edgar/data/320193/000119312510012085/d10q.htm" xr:uid="{B1FA1769-8F54-4376-BFE4-BC981633972C}"/>
+    <hyperlink ref="A65" r:id="rId74" display="https://www.sec.gov/Archives/edgar/data/320193/000119312510012091/d10ka.htm" xr:uid="{D1475E1A-C2C2-47A3-A01E-552182124B48}"/>
+    <hyperlink ref="A64" r:id="rId75" display="https://www.sec.gov/Archives/edgar/data/320193/000119312510088957/d10q.htm" xr:uid="{AFF423B9-D21B-459D-B9DF-99515ACA0ABC}"/>
+    <hyperlink ref="A63" r:id="rId76" display="https://www.sec.gov/Archives/edgar/data/320193/000119312510162840/d10q.htm" xr:uid="{88D9686F-8AF8-4515-8497-5B10E82D8347}"/>
+    <hyperlink ref="A62" r:id="rId77" display="https://www.sec.gov/Archives/edgar/data/320193/000119312510238044/d10k.htm" xr:uid="{521F5AC0-A31D-4149-8C23-E6A41F417051}"/>
+    <hyperlink ref="A61" r:id="rId78" display="https://www.sec.gov/Archives/edgar/data/320193/000119312511010144/d10q.htm" xr:uid="{B689EC45-343A-488C-A22C-A70B828BAF12}"/>
+    <hyperlink ref="A60" r:id="rId79" display="https://www.sec.gov/Archives/edgar/data/320193/000119312511104388/d10q.htm" xr:uid="{08CA848E-1E1B-4447-8F9E-1DE5737BE377}"/>
+    <hyperlink ref="A59" r:id="rId80" display="https://www.sec.gov/Archives/edgar/data/320193/000119312511192493/d10q.htm" xr:uid="{80D279A3-8D24-4D0D-969C-0326BB7482E0}"/>
+    <hyperlink ref="A58" r:id="rId81" display="https://www.sec.gov/Archives/edgar/data/320193/000119312511282113/d220209d10k.htm" xr:uid="{A189B2DC-1A42-4931-BB06-4C03A6DBBA4A}"/>
+    <hyperlink ref="A57" r:id="rId82" display="https://www.sec.gov/Archives/edgar/data/320193/000119312512023398/d267587d10q.htm" xr:uid="{56680A39-E2DC-4805-A7EF-D35DD6517616}"/>
+    <hyperlink ref="A56" r:id="rId83" display="https://www.sec.gov/Archives/edgar/data/320193/000119312512182321/d297069d10q.htm" xr:uid="{7E2FFBB3-529E-4F09-A83F-B8E789C8EBBE}"/>
+    <hyperlink ref="A55" r:id="rId84" display="https://www.sec.gov/Archives/edgar/data/320193/000119312512314552/d365704d10q.htm" xr:uid="{F44A9A21-BA18-4E50-BB88-DF3ECEFD6BDC}"/>
+    <hyperlink ref="A54" r:id="rId85" display="https://www.sec.gov/Archives/edgar/data/320193/000119312512444068/d411355d10k.htm" xr:uid="{4C230D25-A6AC-4618-A09B-87C5766561D6}"/>
+    <hyperlink ref="A53" r:id="rId86" display="https://www.sec.gov/Archives/edgar/data/320193/000119312513022339/d453687d10q.htm" xr:uid="{6AB47C98-F941-431F-A5AA-B10D0D0A703D}"/>
+    <hyperlink ref="A52" r:id="rId87" display="https://www.sec.gov/Archives/edgar/data/320193/000119312513168288/d501596d10q.htm" xr:uid="{62634B09-F466-4EA4-B355-823F4FEBEA21}"/>
+    <hyperlink ref="A51" r:id="rId88" display="https://www.sec.gov/Archives/edgar/data/320193/000119312513300670/d552802d10q.htm" xr:uid="{9F33B2AC-7312-416D-AD5E-22B57D8F58A0}"/>
+    <hyperlink ref="A50" r:id="rId89" display="https://www.sec.gov/Archives/edgar/data/320193/000119312513416534/d590790d10k.htm" xr:uid="{62FBFC34-495D-4397-BDFA-CEA6B34C9C88}"/>
+    <hyperlink ref="A49" r:id="rId90" display="https://www.sec.gov/Archives/edgar/data/320193/000119312514024487/d644622d10q.htm" xr:uid="{10ED25D8-2DA9-457C-84B1-BF4F42E5BA2D}"/>
+    <hyperlink ref="A48" r:id="rId91" display="https://www.sec.gov/Archives/edgar/data/320193/000119312514157311/d694710d10q.htm" xr:uid="{DB29E58E-3CD2-4999-A784-E6C185EAAE89}"/>
+    <hyperlink ref="A47" r:id="rId92" display="https://www.sec.gov/Archives/edgar/data/320193/000119312514277160/d740164d10q.htm" xr:uid="{0E4F94EB-E14E-4711-9EB0-AD13EB41C68F}"/>
+    <hyperlink ref="A46" r:id="rId93" display="https://www.sec.gov/Archives/edgar/data/320193/000119312514383437/d783162d10k.htm" xr:uid="{A84A5422-CF68-4BD4-A462-0B92FCF648A3}"/>
+    <hyperlink ref="A45" r:id="rId94" display="https://www.sec.gov/Archives/edgar/data/320193/000119312515023697/d835533d10q.htm" xr:uid="{94E89346-9EC0-4F11-8F63-90A06ED29B26}"/>
+    <hyperlink ref="A44" r:id="rId95" display="https://www.sec.gov/Archives/edgar/data/320193/000119312515153166/d892246d10q.htm" xr:uid="{557599B7-06EC-4BF9-82E8-D17CA783F2F9}"/>
+    <hyperlink ref="A43" r:id="rId96" display="https://www.sec.gov/Archives/edgar/data/320193/000119312515259935/d927922d10q.htm" xr:uid="{1AC14539-F89D-48DA-B8EE-A32C2143679D}"/>
+    <hyperlink ref="A42" r:id="rId97" display="https://www.sec.gov/Archives/edgar/data/320193/000119312515356351/d17062d10k.htm" xr:uid="{7B44996B-E348-4F2C-B93C-1637A4A2C652}"/>
+    <hyperlink ref="A41" r:id="rId98" display="https://www.sec.gov/Archives/edgar/data/320193/000119312516439878/d66145d10q.htm" xr:uid="{FB59C1C7-665E-415D-B246-A0397D770D0B}"/>
+    <hyperlink ref="A40" r:id="rId99" display="https://www.sec.gov/Archives/edgar/data/320193/000119312516559625/d165350d10q.htm" xr:uid="{8E06345F-7EC6-4FCE-85A1-AF0B2A484BD9}"/>
+    <hyperlink ref="A39" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/320193/000162828016017809/a10-qq320166252016.htm" xr:uid="{19C3AFE5-E992-47D3-A912-77CB0280771D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
